--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>1.909</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>4.75</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>4.2</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>5.25</v>
-      </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
         <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
+        <v>5.25</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+      <c r="O99">
+        <v>2.8</v>
+      </c>
+      <c r="P99">
+        <v>3.3</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>1.75</v>
+      </c>
+      <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
+        <v>1.925</v>
+      </c>
+      <c r="W99">
         <v>1.2</v>
       </c>
-      <c r="N99">
-        <v>10</v>
-      </c>
-      <c r="O99">
-        <v>6.5</v>
-      </c>
-      <c r="P99">
-        <v>1.181</v>
-      </c>
-      <c r="Q99">
-        <v>2</v>
-      </c>
-      <c r="R99">
-        <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11215,6 +11215,15 @@
       <c r="G121" t="s">
         <v>36</v>
       </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>42</v>
+      </c>
       <c r="K121">
         <v>1.833</v>
       </c>
@@ -11252,19 +11261,25 @@
         <v>1.75</v>
       </c>
       <c r="W121">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA121">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
+        <v>0.4875</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
         <v>-0</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2</v>
+      </c>
+      <c r="O100">
+        <v>2.8</v>
+      </c>
+      <c r="P100">
+        <v>3.3</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
         <v>1.2</v>
       </c>
-      <c r="N100">
-        <v>10</v>
-      </c>
-      <c r="O100">
-        <v>6.5</v>
-      </c>
-      <c r="P100">
-        <v>1.181</v>
-      </c>
-      <c r="Q100">
-        <v>2</v>
-      </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
         <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>1.75</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+      <c r="O99">
+        <v>2.8</v>
+      </c>
+      <c r="P99">
+        <v>3.3</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>1.75</v>
+      </c>
+      <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
+        <v>1.925</v>
+      </c>
+      <c r="W99">
         <v>1.2</v>
       </c>
-      <c r="N99">
-        <v>10</v>
-      </c>
-      <c r="O99">
-        <v>6.5</v>
-      </c>
-      <c r="P99">
-        <v>1.181</v>
-      </c>
-      <c r="Q99">
-        <v>2</v>
-      </c>
-      <c r="R99">
-        <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11280,6 +11280,228 @@
       </c>
       <c r="AC121">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>6865381</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F122" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" t="s">
+        <v>34</v>
+      </c>
+      <c r="K122">
+        <v>1.666</v>
+      </c>
+      <c r="L122">
+        <v>3.6</v>
+      </c>
+      <c r="M122">
+        <v>4.333</v>
+      </c>
+      <c r="N122">
+        <v>1.5</v>
+      </c>
+      <c r="O122">
+        <v>4</v>
+      </c>
+      <c r="P122">
+        <v>5.25</v>
+      </c>
+      <c r="Q122">
+        <v>-1</v>
+      </c>
+      <c r="R122">
+        <v>1.925</v>
+      </c>
+      <c r="S122">
+        <v>1.875</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
+        <v>1.8</v>
+      </c>
+      <c r="V122">
+        <v>2</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>6865363</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F123" t="s">
+        <v>35</v>
+      </c>
+      <c r="G123" t="s">
+        <v>37</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3.3</v>
+      </c>
+      <c r="M123">
+        <v>3.25</v>
+      </c>
+      <c r="N123">
+        <v>2.3</v>
+      </c>
+      <c r="O123">
+        <v>3.2</v>
+      </c>
+      <c r="P123">
+        <v>2.75</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>1.75</v>
+      </c>
+      <c r="T123">
+        <v>2</v>
+      </c>
+      <c r="U123">
+        <v>1.9</v>
+      </c>
+      <c r="V123">
+        <v>1.9</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>6865382</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>41</v>
+      </c>
+      <c r="G124" t="s">
+        <v>39</v>
+      </c>
+      <c r="K124">
+        <v>5.75</v>
+      </c>
+      <c r="L124">
+        <v>4.5</v>
+      </c>
+      <c r="M124">
+        <v>1.363</v>
+      </c>
+      <c r="N124">
+        <v>5.5</v>
+      </c>
+      <c r="O124">
+        <v>4</v>
+      </c>
+      <c r="P124">
+        <v>1.444</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.775</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
+        <v>1.825</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>1.909</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>1.85</v>
+      </c>
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="S36">
-        <v>1.85</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
+        <v>0.45</v>
+      </c>
+      <c r="AB36">
         <v>0.425</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
+        <v>0.4875</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
         <v>-0</v>
-      </c>
-      <c r="AB76">
-        <v>0.95</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2</v>
+      </c>
+      <c r="O100">
+        <v>2.8</v>
+      </c>
+      <c r="P100">
+        <v>3.3</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
         <v>1.2</v>
       </c>
-      <c r="N100">
-        <v>10</v>
-      </c>
-      <c r="O100">
-        <v>6.5</v>
-      </c>
-      <c r="P100">
-        <v>1.181</v>
-      </c>
-      <c r="Q100">
-        <v>2</v>
-      </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,61 +11299,76 @@
         <v>45353.375</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11361,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11373,61 +11388,76 @@
         <v>45353.375</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11452,6 +11482,15 @@
       <c r="G124" t="s">
         <v>39</v>
       </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>44</v>
+      </c>
       <c r="K124">
         <v>5.75</v>
       </c>
@@ -11462,45 +11501,199 @@
         <v>1.363</v>
       </c>
       <c r="N124">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="Q124">
         <v>1</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>6865362</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F125" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125">
+        <v>3.4</v>
+      </c>
+      <c r="L125">
+        <v>2.9</v>
+      </c>
+      <c r="M125">
+        <v>2.15</v>
+      </c>
+      <c r="N125">
+        <v>2.625</v>
+      </c>
+      <c r="O125">
+        <v>2.8</v>
+      </c>
+      <c r="P125">
+        <v>2.625</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1.9</v>
+      </c>
+      <c r="S125">
+        <v>1.9</v>
+      </c>
+      <c r="T125">
+        <v>1.75</v>
+      </c>
+      <c r="U125">
+        <v>1.8</v>
+      </c>
+      <c r="V125">
+        <v>2</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>6865364</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45354.61458333334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" t="s">
+        <v>32</v>
+      </c>
+      <c r="K126">
+        <v>3.25</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>2.2</v>
+      </c>
+      <c r="N126">
+        <v>3.1</v>
+      </c>
+      <c r="O126">
+        <v>3</v>
+      </c>
+      <c r="P126">
+        <v>2.3</v>
+      </c>
+      <c r="Q126">
+        <v>0.25</v>
+      </c>
+      <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
+        <v>1.85</v>
+      </c>
+      <c r="V126">
+        <v>1.95</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
         <v>0</v>
       </c>
     </row>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC126"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.875</v>
-      </c>
       <c r="W37">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
         <v>0.425</v>
       </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>4.2</v>
+      </c>
+      <c r="P87">
+        <v>5.25</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.825</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>4.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>4.2</v>
       </c>
-      <c r="M88">
-        <v>5.5</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>5.25</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+      <c r="O99">
+        <v>2.8</v>
+      </c>
+      <c r="P99">
+        <v>3.3</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>1.75</v>
+      </c>
+      <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
+        <v>1.925</v>
+      </c>
+      <c r="W99">
         <v>1.2</v>
       </c>
-      <c r="N99">
-        <v>10</v>
-      </c>
-      <c r="O99">
-        <v>6.5</v>
-      </c>
-      <c r="P99">
-        <v>1.181</v>
-      </c>
-      <c r="Q99">
-        <v>2</v>
-      </c>
-      <c r="R99">
-        <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11571,6 +11571,15 @@
       <c r="G125" t="s">
         <v>30</v>
       </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>42</v>
+      </c>
       <c r="K125">
         <v>3.4</v>
       </c>
@@ -11608,19 +11617,25 @@
         <v>2</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11645,6 +11660,15 @@
       <c r="G126" t="s">
         <v>32</v>
       </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>42</v>
+      </c>
       <c r="K126">
         <v>3.25</v>
       </c>
@@ -11655,46 +11679,141 @@
         <v>2.2</v>
       </c>
       <c r="N126">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O126">
+        <v>2.8</v>
+      </c>
+      <c r="P126">
+        <v>2.7</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1.875</v>
+      </c>
+      <c r="S126">
+        <v>1.925</v>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
+        <v>2.05</v>
+      </c>
+      <c r="V126">
+        <v>1.75</v>
+      </c>
+      <c r="W126">
+        <v>1.7</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>0.875</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>1.05</v>
+      </c>
+      <c r="AC126">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>6864643</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45355.57291666666</v>
+      </c>
+      <c r="F127" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127">
         <v>3</v>
       </c>
-      <c r="P126">
-        <v>2.3</v>
-      </c>
-      <c r="Q126">
-        <v>0.25</v>
-      </c>
-      <c r="R126">
-        <v>1.8</v>
-      </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
-      <c r="T126">
-        <v>2</v>
-      </c>
-      <c r="U126">
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>42</v>
+      </c>
+      <c r="K127">
+        <v>1.181</v>
+      </c>
+      <c r="L127">
+        <v>6.5</v>
+      </c>
+      <c r="M127">
+        <v>11</v>
+      </c>
+      <c r="N127">
+        <v>1.222</v>
+      </c>
+      <c r="O127">
+        <v>6</v>
+      </c>
+      <c r="P127">
+        <v>9</v>
+      </c>
+      <c r="Q127">
+        <v>-1.75</v>
+      </c>
+      <c r="R127">
         <v>1.85</v>
       </c>
-      <c r="V126">
+      <c r="S127">
         <v>1.95</v>
       </c>
-      <c r="W126">
-        <v>0</v>
-      </c>
-      <c r="X126">
-        <v>0</v>
-      </c>
-      <c r="Y126">
-        <v>0</v>
-      </c>
-      <c r="Z126">
-        <v>0</v>
-      </c>
-      <c r="AA126">
-        <v>0</v>
+      <c r="T127">
+        <v>3</v>
+      </c>
+      <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
+        <v>1.85</v>
+      </c>
+      <c r="W127">
+        <v>0.222</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>1.95</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
         <v>3.4</v>
       </c>
-      <c r="M29">
-        <v>3.8</v>
-      </c>
-      <c r="N29">
-        <v>1.615</v>
-      </c>
-      <c r="O29">
-        <v>3.5</v>
-      </c>
-      <c r="P29">
-        <v>4.5</v>
-      </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
+        <v>1.615</v>
+      </c>
+      <c r="O30">
+        <v>3.5</v>
+      </c>
+      <c r="P30">
+        <v>4.5</v>
+      </c>
+      <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>3.4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>1.85</v>
+      </c>
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="S36">
-        <v>1.85</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
+        <v>0.45</v>
+      </c>
+      <c r="AB36">
         <v>0.425</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,13 +11299,13 @@
         <v>45353.375</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11314,43 +11314,43 @@
         <v>42</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,7 +11359,7 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,13 +11388,13 @@
         <v>45353.375</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11403,43 +11403,43 @@
         <v>42</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11457,7 +11457,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11814,6 +11814,154 @@
       </c>
       <c r="AC127">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>6865368</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
+        <v>33</v>
+      </c>
+      <c r="K128">
+        <v>3.2</v>
+      </c>
+      <c r="L128">
+        <v>3.1</v>
+      </c>
+      <c r="M128">
+        <v>2.1</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128">
+        <v>3.1</v>
+      </c>
+      <c r="P128">
+        <v>2.2</v>
+      </c>
+      <c r="Q128">
+        <v>0.25</v>
+      </c>
+      <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
+        <v>1.975</v>
+      </c>
+      <c r="T128">
+        <v>2</v>
+      </c>
+      <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
+        <v>1.975</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>6865366</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45360.60416666666</v>
+      </c>
+      <c r="F129" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" t="s">
+        <v>35</v>
+      </c>
+      <c r="K129">
+        <v>1.166</v>
+      </c>
+      <c r="L129">
+        <v>6</v>
+      </c>
+      <c r="M129">
+        <v>11</v>
+      </c>
+      <c r="N129">
+        <v>1.285</v>
+      </c>
+      <c r="O129">
+        <v>5</v>
+      </c>
+      <c r="P129">
+        <v>8</v>
+      </c>
+      <c r="Q129">
+        <v>-1.5</v>
+      </c>
+      <c r="R129">
+        <v>1.85</v>
+      </c>
+      <c r="S129">
+        <v>1.95</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>1.8</v>
+      </c>
+      <c r="V129">
+        <v>2</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
+        <v>1.615</v>
+      </c>
+      <c r="O29">
+        <v>3.5</v>
+      </c>
+      <c r="P29">
+        <v>4.5</v>
+      </c>
+      <c r="Q29">
+        <v>-0.75</v>
+      </c>
+      <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
         <v>1.95</v>
       </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>3.4</v>
-      </c>
-      <c r="Q29">
-        <v>-0.5</v>
-      </c>
-      <c r="R29">
-        <v>2.025</v>
-      </c>
-      <c r="S29">
-        <v>1.775</v>
-      </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>3.6</v>
+      </c>
+      <c r="N30">
+        <v>1.95</v>
+      </c>
+      <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>1.615</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>4.5</v>
-      </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.875</v>
-      </c>
       <c r="W37">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
         <v>0.425</v>
       </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
+        <v>0.4875</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
         <v>-0</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,13 +11299,13 @@
         <v>45353.375</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11314,43 +11314,43 @@
         <v>42</v>
       </c>
       <c r="K122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,7 +11359,7 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,13 +11388,13 @@
         <v>45353.375</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11403,43 +11403,43 @@
         <v>42</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11457,7 +11457,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6865368</v>
+        <v>6865367</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,138 +11830,524 @@
         <v>29</v>
       </c>
       <c r="E128" s="2">
-        <v>45360.5</v>
+        <v>45360.375</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>43</v>
       </c>
       <c r="K128">
+        <v>1.95</v>
+      </c>
+      <c r="L128">
         <v>3.2</v>
       </c>
-      <c r="L128">
-        <v>3.1</v>
-      </c>
       <c r="M128">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>2</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
+        <v>0.875</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
+        <v>6865368</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F129" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>44</v>
+      </c>
+      <c r="K129">
+        <v>3.2</v>
+      </c>
+      <c r="L129">
+        <v>3.1</v>
+      </c>
+      <c r="M129">
+        <v>2.1</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129">
+        <v>3.1</v>
+      </c>
+      <c r="P129">
+        <v>2.2</v>
+      </c>
+      <c r="Q129">
+        <v>0.25</v>
+      </c>
+      <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>1.975</v>
+      </c>
+      <c r="T129">
+        <v>2</v>
+      </c>
+      <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
+        <v>1.975</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>2.1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>0.4125</v>
+      </c>
+      <c r="AA129">
+        <v>-0.5</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
         <v>6865366</v>
       </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" t="s">
-        <v>29</v>
-      </c>
-      <c r="E129" s="2">
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="2">
         <v>45360.60416666666</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F130" t="s">
         <v>32</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G130" t="s">
         <v>35</v>
       </c>
-      <c r="K129">
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>44</v>
+      </c>
+      <c r="K130">
         <v>1.166</v>
       </c>
-      <c r="L129">
+      <c r="L130">
         <v>6</v>
       </c>
-      <c r="M129">
+      <c r="M130">
         <v>11</v>
       </c>
-      <c r="N129">
-        <v>1.285</v>
-      </c>
-      <c r="O129">
-        <v>5</v>
-      </c>
-      <c r="P129">
-        <v>8</v>
-      </c>
-      <c r="Q129">
-        <v>-1.5</v>
-      </c>
-      <c r="R129">
+      <c r="N130">
+        <v>1.363</v>
+      </c>
+      <c r="O130">
+        <v>4.5</v>
+      </c>
+      <c r="P130">
+        <v>6.5</v>
+      </c>
+      <c r="Q130">
+        <v>-1.25</v>
+      </c>
+      <c r="R130">
+        <v>1.875</v>
+      </c>
+      <c r="S130">
+        <v>1.925</v>
+      </c>
+      <c r="T130">
+        <v>2.75</v>
+      </c>
+      <c r="U130">
+        <v>1.925</v>
+      </c>
+      <c r="V130">
+        <v>1.875</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>3.5</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>0.925</v>
+      </c>
+      <c r="AB130">
+        <v>0.925</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>6865365</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>36</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>42</v>
+      </c>
+      <c r="K131">
+        <v>2.5</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>2.75</v>
+      </c>
+      <c r="N131">
+        <v>2.5</v>
+      </c>
+      <c r="O131">
+        <v>2.875</v>
+      </c>
+      <c r="P131">
+        <v>2.875</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>1.775</v>
+      </c>
+      <c r="S131">
+        <v>2.025</v>
+      </c>
+      <c r="T131">
+        <v>1.75</v>
+      </c>
+      <c r="U131">
+        <v>1.75</v>
+      </c>
+      <c r="V131">
+        <v>2.05</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>0.75</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6864644</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45361.625</v>
+      </c>
+      <c r="F132" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132" t="s">
+        <v>38</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>43</v>
+      </c>
+      <c r="K132">
+        <v>1.8</v>
+      </c>
+      <c r="L132">
+        <v>3.3</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+      <c r="N132">
         <v>1.85</v>
       </c>
-      <c r="S129">
+      <c r="O132">
+        <v>3.3</v>
+      </c>
+      <c r="P132">
+        <v>3.75</v>
+      </c>
+      <c r="Q132">
+        <v>-0.5</v>
+      </c>
+      <c r="R132">
+        <v>1.85</v>
+      </c>
+      <c r="S132">
         <v>1.95</v>
       </c>
-      <c r="T129">
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>1.775</v>
+      </c>
+      <c r="V132">
+        <v>2.025</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
         <v>2.75</v>
       </c>
-      <c r="U129">
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>0.95</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>6865369</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45362.58333333334</v>
+      </c>
+      <c r="F133" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" t="s">
+        <v>40</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>44</v>
+      </c>
+      <c r="K133">
+        <v>1.55</v>
+      </c>
+      <c r="L133">
+        <v>3.6</v>
+      </c>
+      <c r="M133">
+        <v>6</v>
+      </c>
+      <c r="N133">
+        <v>1.6</v>
+      </c>
+      <c r="O133">
+        <v>3.5</v>
+      </c>
+      <c r="P133">
+        <v>5.5</v>
+      </c>
+      <c r="Q133">
+        <v>-0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
         <v>1.8</v>
       </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <v>0</v>
-      </c>
-      <c r="Y129">
-        <v>0</v>
-      </c>
-      <c r="Z129">
-        <v>0</v>
-      </c>
-      <c r="AA129">
-        <v>0</v>
+      <c r="V133">
+        <v>2</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.5</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>0.95</v>
+      </c>
+      <c r="AB133">
+        <v>-0.5</v>
+      </c>
+      <c r="AC133">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2</v>
+      </c>
+      <c r="O100">
+        <v>2.8</v>
+      </c>
+      <c r="P100">
+        <v>3.3</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
         <v>1.2</v>
       </c>
-      <c r="N100">
-        <v>10</v>
-      </c>
-      <c r="O100">
-        <v>6.5</v>
-      </c>
-      <c r="P100">
-        <v>1.181</v>
-      </c>
-      <c r="Q100">
-        <v>2</v>
-      </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,13 +11299,13 @@
         <v>45353.375</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11314,43 +11314,43 @@
         <v>42</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,7 +11359,7 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,13 +11388,13 @@
         <v>45353.375</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11403,43 +11403,43 @@
         <v>42</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11457,7 +11457,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12348,6 +12348,495 @@
       </c>
       <c r="AC133">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7952732</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45367.39583333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" t="s">
+        <v>40</v>
+      </c>
+      <c r="H134">
+        <v>3</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>42</v>
+      </c>
+      <c r="K134">
+        <v>1.909</v>
+      </c>
+      <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>3.6</v>
+      </c>
+      <c r="N134">
+        <v>2.05</v>
+      </c>
+      <c r="O134">
+        <v>3.2</v>
+      </c>
+      <c r="P134">
+        <v>3.2</v>
+      </c>
+      <c r="Q134">
+        <v>-0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
+        <v>1.875</v>
+      </c>
+      <c r="W134">
+        <v>1.05</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
+        <v>0.825</v>
+      </c>
+      <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
+        <v>0.925</v>
+      </c>
+      <c r="AC134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7952455</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" t="s">
+        <v>36</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>42</v>
+      </c>
+      <c r="K135">
+        <v>1.363</v>
+      </c>
+      <c r="L135">
+        <v>4.2</v>
+      </c>
+      <c r="M135">
+        <v>7</v>
+      </c>
+      <c r="N135">
+        <v>1.333</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>11</v>
+      </c>
+      <c r="Q135">
+        <v>-1.25</v>
+      </c>
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>1.85</v>
+      </c>
+      <c r="W135">
+        <v>0.333</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
+        <v>-0.5</v>
+      </c>
+      <c r="AC135">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7952730</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45367.69791666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>42</v>
+      </c>
+      <c r="K136">
+        <v>1.4</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>6.5</v>
+      </c>
+      <c r="N136">
+        <v>1.3</v>
+      </c>
+      <c r="O136">
+        <v>4.5</v>
+      </c>
+      <c r="P136">
+        <v>8</v>
+      </c>
+      <c r="Q136">
+        <v>-1.5</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>1.85</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.9</v>
+      </c>
+      <c r="W136">
+        <v>0.3</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.95</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7952731</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s">
+        <v>37</v>
+      </c>
+      <c r="K137">
+        <v>1.666</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>1.65</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
+        <v>5.5</v>
+      </c>
+      <c r="Q137">
+        <v>-0.75</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>1.75</v>
+      </c>
+      <c r="U137">
+        <v>1.775</v>
+      </c>
+      <c r="V137">
+        <v>2.025</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7952734</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45368.58333333334</v>
+      </c>
+      <c r="F138" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="K138">
+        <v>1.181</v>
+      </c>
+      <c r="L138">
+        <v>5.5</v>
+      </c>
+      <c r="M138">
+        <v>11</v>
+      </c>
+      <c r="N138">
+        <v>1.2</v>
+      </c>
+      <c r="O138">
+        <v>5</v>
+      </c>
+      <c r="P138">
+        <v>11</v>
+      </c>
+      <c r="Q138">
+        <v>-1.75</v>
+      </c>
+      <c r="R138">
+        <v>1.925</v>
+      </c>
+      <c r="S138">
+        <v>1.875</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>1.9</v>
+      </c>
+      <c r="V138">
+        <v>1.9</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7952733</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45368.66666666666</v>
+      </c>
+      <c r="F139" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" t="s">
+        <v>35</v>
+      </c>
+      <c r="K139">
+        <v>1.3</v>
+      </c>
+      <c r="L139">
+        <v>4.333</v>
+      </c>
+      <c r="M139">
+        <v>8.5</v>
+      </c>
+      <c r="N139">
+        <v>1.3</v>
+      </c>
+      <c r="O139">
+        <v>4.2</v>
+      </c>
+      <c r="P139">
+        <v>9.5</v>
+      </c>
+      <c r="Q139">
+        <v>-1.25</v>
+      </c>
+      <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
+        <v>1.975</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.775</v>
+      </c>
+      <c r="V139">
+        <v>2.025</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
         <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>1.75</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>1.95</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
         <v>3.4</v>
       </c>
-      <c r="M29">
-        <v>3.8</v>
-      </c>
-      <c r="N29">
-        <v>1.615</v>
-      </c>
-      <c r="O29">
-        <v>3.5</v>
-      </c>
-      <c r="P29">
-        <v>4.5</v>
-      </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
+        <v>1.615</v>
+      </c>
+      <c r="O30">
+        <v>3.5</v>
+      </c>
+      <c r="P30">
+        <v>4.5</v>
+      </c>
+      <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>3.4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
+        <v>0.4875</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
         <v>-0</v>
-      </c>
-      <c r="AB76">
-        <v>0.95</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>4.75</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>4.2</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>5.25</v>
-      </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
         <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
+        <v>5.25</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+      <c r="O99">
+        <v>2.8</v>
+      </c>
+      <c r="P99">
+        <v>3.3</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>1.75</v>
+      </c>
+      <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
+        <v>1.925</v>
+      </c>
+      <c r="W99">
         <v>1.2</v>
       </c>
-      <c r="N99">
-        <v>10</v>
-      </c>
-      <c r="O99">
-        <v>6.5</v>
-      </c>
-      <c r="P99">
-        <v>1.181</v>
-      </c>
-      <c r="Q99">
-        <v>2</v>
-      </c>
-      <c r="R99">
-        <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -12639,6 +12639,15 @@
       <c r="G137" t="s">
         <v>37</v>
       </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>42</v>
+      </c>
       <c r="K137">
         <v>1.666</v>
       </c>
@@ -12676,19 +12685,25 @@
         <v>2.025</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
+        <v>1.025</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12713,6 +12728,15 @@
       <c r="G138" t="s">
         <v>34</v>
       </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>42</v>
+      </c>
       <c r="K138">
         <v>1.181</v>
       </c>
@@ -12723,46 +12747,52 @@
         <v>11</v>
       </c>
       <c r="N138">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="O138">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P138">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q138">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.825</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12787,6 +12817,15 @@
       <c r="G139" t="s">
         <v>35</v>
       </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>42</v>
+      </c>
       <c r="K139">
         <v>1.3</v>
       </c>
@@ -12824,19 +12863,25 @@
         <v>2.025</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-0.5</v>
+      </c>
+      <c r="AC139">
+        <v>0.5125</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>1.909</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
+        <v>1.615</v>
+      </c>
+      <c r="O29">
+        <v>3.5</v>
+      </c>
+      <c r="P29">
+        <v>4.5</v>
+      </c>
+      <c r="Q29">
+        <v>-0.75</v>
+      </c>
+      <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
         <v>1.95</v>
       </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>3.4</v>
-      </c>
-      <c r="Q29">
-        <v>-0.5</v>
-      </c>
-      <c r="R29">
-        <v>2.025</v>
-      </c>
-      <c r="S29">
-        <v>1.775</v>
-      </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>3.6</v>
+      </c>
+      <c r="N30">
+        <v>1.95</v>
+      </c>
+      <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>1.615</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>4.5</v>
-      </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>1.85</v>
+      </c>
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="S36">
-        <v>1.85</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
+        <v>0.45</v>
+      </c>
+      <c r="AB36">
         <v>0.425</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
+        <v>0.4875</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
         <v>-0</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -12882,6 +12882,302 @@
       </c>
       <c r="AC139">
         <v>0.5125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7952735</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45380.66666666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140" t="s">
+        <v>30</v>
+      </c>
+      <c r="K140">
+        <v>2.4</v>
+      </c>
+      <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
+        <v>2.6</v>
+      </c>
+      <c r="N140">
+        <v>2.3</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
+        <v>2.8</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>2.05</v>
+      </c>
+      <c r="S140">
+        <v>1.75</v>
+      </c>
+      <c r="T140">
+        <v>1.75</v>
+      </c>
+      <c r="U140">
+        <v>1.75</v>
+      </c>
+      <c r="V140">
+        <v>2.05</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7952739</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45381.39583333334</v>
+      </c>
+      <c r="F141" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" t="s">
+        <v>37</v>
+      </c>
+      <c r="K141">
+        <v>2.25</v>
+      </c>
+      <c r="L141">
+        <v>3.1</v>
+      </c>
+      <c r="M141">
+        <v>2.875</v>
+      </c>
+      <c r="N141">
+        <v>2.15</v>
+      </c>
+      <c r="O141">
+        <v>3</v>
+      </c>
+      <c r="P141">
+        <v>3.1</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2.05</v>
+      </c>
+      <c r="V141">
+        <v>1.75</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7952456</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F142" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s">
+        <v>39</v>
+      </c>
+      <c r="K142">
+        <v>2.2</v>
+      </c>
+      <c r="L142">
+        <v>3.2</v>
+      </c>
+      <c r="M142">
+        <v>2.875</v>
+      </c>
+      <c r="N142">
+        <v>2.45</v>
+      </c>
+      <c r="O142">
+        <v>3</v>
+      </c>
+      <c r="P142">
+        <v>2.7</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>1.975</v>
+      </c>
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
+        <v>1.775</v>
+      </c>
+      <c r="V142">
+        <v>2.025</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7952737</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45381.69791666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s">
+        <v>33</v>
+      </c>
+      <c r="K143">
+        <v>2.5</v>
+      </c>
+      <c r="L143">
+        <v>3.2</v>
+      </c>
+      <c r="M143">
+        <v>2.5</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143">
+        <v>3.25</v>
+      </c>
+      <c r="P143">
+        <v>2.2</v>
+      </c>
+      <c r="Q143">
+        <v>0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.85</v>
+      </c>
+      <c r="S143">
+        <v>1.95</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>1.85</v>
+      </c>
+      <c r="V143">
+        <v>1.95</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
         <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>1.75</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7952735</v>
+        <v>7952739</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,49 +12898,49 @@
         <v>29</v>
       </c>
       <c r="E140" s="2">
-        <v>45380.66666666666</v>
+        <v>45381.39583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
         <v>-0.25</v>
       </c>
       <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
+        <v>1.85</v>
+      </c>
+      <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
         <v>2.05</v>
       </c>
-      <c r="S140">
+      <c r="V140">
         <v>1.75</v>
-      </c>
-      <c r="T140">
-        <v>1.75</v>
-      </c>
-      <c r="U140">
-        <v>1.75</v>
-      </c>
-      <c r="V140">
-        <v>2.05</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7952739</v>
+        <v>7952456</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12972,49 +12972,49 @@
         <v>29</v>
       </c>
       <c r="E141" s="2">
-        <v>45381.39583333334</v>
+        <v>45381.5</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
         <v>2.875</v>
       </c>
       <c r="N141">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O141">
         <v>3</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V141">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13037,7 +13037,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7952456</v>
+        <v>7952737</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13046,49 +13046,49 @@
         <v>29</v>
       </c>
       <c r="E142" s="2">
-        <v>45381.5</v>
+        <v>45381.69791666666</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
         <v>3.2</v>
       </c>
       <c r="M142">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N142">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P142">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -13103,80 +13103,6 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>7952737</v>
-      </c>
-      <c r="C143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="2">
-        <v>45381.69791666666</v>
-      </c>
-      <c r="F143" t="s">
-        <v>31</v>
-      </c>
-      <c r="G143" t="s">
-        <v>33</v>
-      </c>
-      <c r="K143">
-        <v>2.5</v>
-      </c>
-      <c r="L143">
-        <v>3.2</v>
-      </c>
-      <c r="M143">
-        <v>2.5</v>
-      </c>
-      <c r="N143">
-        <v>3</v>
-      </c>
-      <c r="O143">
-        <v>3.25</v>
-      </c>
-      <c r="P143">
-        <v>2.2</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.85</v>
-      </c>
-      <c r="S143">
-        <v>1.95</v>
-      </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
-      <c r="U143">
-        <v>1.85</v>
-      </c>
-      <c r="V143">
-        <v>1.95</v>
-      </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-      <c r="X143">
-        <v>0</v>
-      </c>
-      <c r="Y143">
-        <v>0</v>
-      </c>
-      <c r="Z143">
-        <v>0</v>
-      </c>
-      <c r="AA143">
         <v>0</v>
       </c>
     </row>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>1.909</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -12882,228 +12882,6 @@
       </c>
       <c r="AC139">
         <v>0.5125</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>7952739</v>
-      </c>
-      <c r="C140" t="s">
-        <v>28</v>
-      </c>
-      <c r="D140" t="s">
-        <v>29</v>
-      </c>
-      <c r="E140" s="2">
-        <v>45381.39583333334</v>
-      </c>
-      <c r="F140" t="s">
-        <v>34</v>
-      </c>
-      <c r="G140" t="s">
-        <v>37</v>
-      </c>
-      <c r="K140">
-        <v>2.25</v>
-      </c>
-      <c r="L140">
-        <v>3.1</v>
-      </c>
-      <c r="M140">
-        <v>2.875</v>
-      </c>
-      <c r="N140">
-        <v>2.15</v>
-      </c>
-      <c r="O140">
-        <v>3</v>
-      </c>
-      <c r="P140">
-        <v>3.1</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.95</v>
-      </c>
-      <c r="S140">
-        <v>1.85</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>2.05</v>
-      </c>
-      <c r="V140">
-        <v>1.75</v>
-      </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
-      </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-      <c r="AA140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:29">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>7952456</v>
-      </c>
-      <c r="C141" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" t="s">
-        <v>29</v>
-      </c>
-      <c r="E141" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F141" t="s">
-        <v>38</v>
-      </c>
-      <c r="G141" t="s">
-        <v>39</v>
-      </c>
-      <c r="K141">
-        <v>2.2</v>
-      </c>
-      <c r="L141">
-        <v>3.2</v>
-      </c>
-      <c r="M141">
-        <v>2.875</v>
-      </c>
-      <c r="N141">
-        <v>2.45</v>
-      </c>
-      <c r="O141">
-        <v>3</v>
-      </c>
-      <c r="P141">
-        <v>2.7</v>
-      </c>
-      <c r="Q141">
-        <v>0</v>
-      </c>
-      <c r="R141">
-        <v>1.825</v>
-      </c>
-      <c r="S141">
-        <v>1.975</v>
-      </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
-      <c r="U141">
-        <v>1.775</v>
-      </c>
-      <c r="V141">
-        <v>2.025</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-      <c r="AA141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>7952737</v>
-      </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45381.69791666666</v>
-      </c>
-      <c r="F142" t="s">
-        <v>31</v>
-      </c>
-      <c r="G142" t="s">
-        <v>33</v>
-      </c>
-      <c r="K142">
-        <v>2.5</v>
-      </c>
-      <c r="L142">
-        <v>3.2</v>
-      </c>
-      <c r="M142">
-        <v>2.5</v>
-      </c>
-      <c r="N142">
-        <v>3</v>
-      </c>
-      <c r="O142">
-        <v>3.25</v>
-      </c>
-      <c r="P142">
-        <v>2.2</v>
-      </c>
-      <c r="Q142">
-        <v>0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.85</v>
-      </c>
-      <c r="S142">
-        <v>1.95</v>
-      </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
-      <c r="U142">
-        <v>1.85</v>
-      </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AA142">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.875</v>
-      </c>
       <c r="W37">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
         <v>0.425</v>
       </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
+        <v>0.4875</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
         <v>-0</v>
-      </c>
-      <c r="AB76">
-        <v>0.95</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>4.2</v>
+      </c>
+      <c r="P87">
+        <v>5.25</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.825</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>4.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>4.2</v>
       </c>
-      <c r="M88">
-        <v>5.5</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>5.25</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,13 +11299,13 @@
         <v>45353.375</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11314,43 +11314,43 @@
         <v>42</v>
       </c>
       <c r="K122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,7 +11359,7 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,13 +11388,13 @@
         <v>45353.375</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11403,43 +11403,43 @@
         <v>42</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11457,7 +11457,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12882,6 +12882,451 @@
       </c>
       <c r="AC139">
         <v>0.5125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7952736</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45380.41666666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>41</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>42</v>
+      </c>
+      <c r="K140">
+        <v>1.727</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="M140">
+        <v>3.5</v>
+      </c>
+      <c r="N140">
+        <v>1.909</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>2.9</v>
+      </c>
+      <c r="Q140">
+        <v>-0.5</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>1.8</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>1.9</v>
+      </c>
+      <c r="W140">
+        <v>0.909</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>1</v>
+      </c>
+      <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7952738</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45380.5</v>
+      </c>
+      <c r="F141" t="s">
+        <v>40</v>
+      </c>
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>5</v>
+      </c>
+      <c r="J141" t="s">
+        <v>43</v>
+      </c>
+      <c r="K141">
+        <v>2.9</v>
+      </c>
+      <c r="L141">
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <v>1.909</v>
+      </c>
+      <c r="N141">
+        <v>2.6</v>
+      </c>
+      <c r="O141">
+        <v>3.5</v>
+      </c>
+      <c r="P141">
+        <v>2.375</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>1.9</v>
+      </c>
+      <c r="V141">
+        <v>1.9</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>1.375</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB141">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7952735</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45380.66666666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K142">
+        <v>2.4</v>
+      </c>
+      <c r="L142">
+        <v>3.2</v>
+      </c>
+      <c r="M142">
+        <v>2.6</v>
+      </c>
+      <c r="N142">
+        <v>2.5</v>
+      </c>
+      <c r="O142">
+        <v>3.2</v>
+      </c>
+      <c r="P142">
+        <v>2.625</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>1.775</v>
+      </c>
+      <c r="S142">
+        <v>2.025</v>
+      </c>
+      <c r="T142">
+        <v>1.75</v>
+      </c>
+      <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
+        <v>1.975</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>1.625</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>1.025</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7952739</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45381.39583333334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143" t="s">
+        <v>43</v>
+      </c>
+      <c r="K143">
+        <v>2.25</v>
+      </c>
+      <c r="L143">
+        <v>3.1</v>
+      </c>
+      <c r="M143">
+        <v>2.875</v>
+      </c>
+      <c r="N143">
+        <v>2.15</v>
+      </c>
+      <c r="O143">
+        <v>2.75</v>
+      </c>
+      <c r="P143">
+        <v>3.4</v>
+      </c>
+      <c r="Q143">
+        <v>-0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.9</v>
+      </c>
+      <c r="S143">
+        <v>1.9</v>
+      </c>
+      <c r="T143">
+        <v>1.75</v>
+      </c>
+      <c r="U143">
+        <v>1.8</v>
+      </c>
+      <c r="V143">
+        <v>2</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>2.4</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB143">
+        <v>0.8</v>
+      </c>
+      <c r="AC143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7952456</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F144" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>43</v>
+      </c>
+      <c r="K144">
+        <v>2.2</v>
+      </c>
+      <c r="L144">
+        <v>3.2</v>
+      </c>
+      <c r="M144">
+        <v>2.875</v>
+      </c>
+      <c r="N144">
+        <v>2.45</v>
+      </c>
+      <c r="O144">
+        <v>2.8</v>
+      </c>
+      <c r="P144">
+        <v>2.875</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1.725</v>
+      </c>
+      <c r="S144">
+        <v>2.075</v>
+      </c>
+      <c r="T144">
+        <v>1.75</v>
+      </c>
+      <c r="U144">
+        <v>1.75</v>
+      </c>
+      <c r="V144">
+        <v>2.05</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>1.875</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>1.075</v>
+      </c>
+      <c r="AB144">
+        <v>0.75</v>
+      </c>
+      <c r="AC144">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
         <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>1.75</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>1.95</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
         <v>3.4</v>
       </c>
-      <c r="M29">
-        <v>3.8</v>
-      </c>
-      <c r="N29">
-        <v>1.615</v>
-      </c>
-      <c r="O29">
-        <v>3.5</v>
-      </c>
-      <c r="P29">
-        <v>4.5</v>
-      </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
+        <v>1.615</v>
+      </c>
+      <c r="O30">
+        <v>3.5</v>
+      </c>
+      <c r="P30">
+        <v>4.5</v>
+      </c>
+      <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>3.4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
+        <v>0.4875</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
         <v>-0</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>4.75</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>4.2</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>5.25</v>
-      </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
         <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
+        <v>5.25</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2</v>
+      </c>
+      <c r="O100">
+        <v>2.8</v>
+      </c>
+      <c r="P100">
+        <v>3.3</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
         <v>1.2</v>
       </c>
-      <c r="N100">
-        <v>10</v>
-      </c>
-      <c r="O100">
-        <v>6.5</v>
-      </c>
-      <c r="P100">
-        <v>1.181</v>
-      </c>
-      <c r="Q100">
-        <v>2</v>
-      </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -13327,6 +13327,95 @@
       </c>
       <c r="AC144">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7952737</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45381.69791666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" t="s">
+        <v>33</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>43</v>
+      </c>
+      <c r="K145">
+        <v>2.5</v>
+      </c>
+      <c r="L145">
+        <v>3.2</v>
+      </c>
+      <c r="M145">
+        <v>2.5</v>
+      </c>
+      <c r="N145">
+        <v>2.7</v>
+      </c>
+      <c r="O145">
+        <v>2.8</v>
+      </c>
+      <c r="P145">
+        <v>2.7</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>1.85</v>
+      </c>
+      <c r="T145">
+        <v>1.75</v>
+      </c>
+      <c r="U145">
+        <v>1.825</v>
+      </c>
+      <c r="V145">
+        <v>1.975</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>1.7</v>
+      </c>
+      <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>4.2</v>
+      </c>
+      <c r="P87">
+        <v>5.25</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.825</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>4.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>4.2</v>
       </c>
-      <c r="M88">
-        <v>5.5</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>5.25</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="113" spans="1:29">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
+        <v>0.4875</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
         <v>-0</v>
-      </c>
-      <c r="AB76">
-        <v>0.95</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>4.75</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>4.2</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>5.25</v>
-      </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
         <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
+        <v>5.25</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>1.909</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
+        <v>1.615</v>
+      </c>
+      <c r="O29">
+        <v>3.5</v>
+      </c>
+      <c r="P29">
+        <v>4.5</v>
+      </c>
+      <c r="Q29">
+        <v>-0.75</v>
+      </c>
+      <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
         <v>1.95</v>
       </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>3.4</v>
-      </c>
-      <c r="Q29">
-        <v>-0.5</v>
-      </c>
-      <c r="R29">
-        <v>2.025</v>
-      </c>
-      <c r="S29">
-        <v>1.775</v>
-      </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>3.6</v>
+      </c>
+      <c r="N30">
+        <v>1.95</v>
+      </c>
+      <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>1.615</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>4.5</v>
-      </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>4.2</v>
+      </c>
+      <c r="P87">
+        <v>5.25</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.825</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>4.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>4.2</v>
       </c>
-      <c r="M88">
-        <v>5.5</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>5.25</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -13416,6 +13416,80 @@
       </c>
       <c r="AC145">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7952743</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45388.65625</v>
+      </c>
+      <c r="F146" t="s">
+        <v>32</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+      <c r="K146">
+        <v>1.222</v>
+      </c>
+      <c r="L146">
+        <v>5.2</v>
+      </c>
+      <c r="M146">
+        <v>9.5</v>
+      </c>
+      <c r="N146">
+        <v>1.181</v>
+      </c>
+      <c r="O146">
+        <v>5.5</v>
+      </c>
+      <c r="P146">
+        <v>12</v>
+      </c>
+      <c r="Q146">
+        <v>-2</v>
+      </c>
+      <c r="R146">
+        <v>2.025</v>
+      </c>
+      <c r="S146">
+        <v>1.775</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
+        <v>1.875</v>
+      </c>
+      <c r="V146">
+        <v>1.925</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
         <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>1.75</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
+        <v>0.4875</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
         <v>-0</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>4.75</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>4.2</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>5.25</v>
-      </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
         <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
+        <v>5.25</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+      <c r="O99">
+        <v>2.8</v>
+      </c>
+      <c r="P99">
+        <v>3.3</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>1.75</v>
+      </c>
+      <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
+        <v>1.925</v>
+      </c>
+      <c r="W99">
         <v>1.2</v>
       </c>
-      <c r="N99">
-        <v>10</v>
-      </c>
-      <c r="O99">
-        <v>6.5</v>
-      </c>
-      <c r="P99">
-        <v>1.181</v>
-      </c>
-      <c r="Q99">
-        <v>2</v>
-      </c>
-      <c r="R99">
-        <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -13423,73 +13423,355 @@
         <v>144</v>
       </c>
       <c r="B146">
+        <v>7952740</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45388.35416666666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>33</v>
+      </c>
+      <c r="G146" t="s">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>44</v>
+      </c>
+      <c r="K146">
+        <v>1.533</v>
+      </c>
+      <c r="L146">
+        <v>3.75</v>
+      </c>
+      <c r="M146">
+        <v>5.2</v>
+      </c>
+      <c r="N146">
+        <v>1.4</v>
+      </c>
+      <c r="O146">
+        <v>4</v>
+      </c>
+      <c r="P146">
+        <v>7.5</v>
+      </c>
+      <c r="Q146">
+        <v>-1.25</v>
+      </c>
+      <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.975</v>
+      </c>
+      <c r="V146">
+        <v>1.825</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>3</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>-1</v>
+      </c>
+      <c r="AA146">
+        <v>0.875</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
         <v>7952743</v>
       </c>
-      <c r="C146" t="s">
-        <v>28</v>
-      </c>
-      <c r="D146" t="s">
-        <v>29</v>
-      </c>
-      <c r="E146" s="2">
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="2">
         <v>45388.65625</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F147" t="s">
         <v>32</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G147" t="s">
         <v>35</v>
       </c>
-      <c r="K146">
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>42</v>
+      </c>
+      <c r="K147">
         <v>1.222</v>
       </c>
-      <c r="L146">
+      <c r="L147">
         <v>5.2</v>
       </c>
-      <c r="M146">
+      <c r="M147">
         <v>9.5</v>
       </c>
-      <c r="N146">
+      <c r="N147">
         <v>1.181</v>
       </c>
-      <c r="O146">
+      <c r="O147">
         <v>5.5</v>
       </c>
-      <c r="P146">
+      <c r="P147">
         <v>12</v>
       </c>
-      <c r="Q146">
+      <c r="Q147">
         <v>-2</v>
       </c>
-      <c r="R146">
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>0.181</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.8</v>
+      </c>
+      <c r="AB147">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7952742</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45389.375</v>
+      </c>
+      <c r="F148" t="s">
+        <v>41</v>
+      </c>
+      <c r="G148" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>3</v>
+      </c>
+      <c r="J148" t="s">
+        <v>43</v>
+      </c>
+      <c r="K148">
+        <v>1.95</v>
+      </c>
+      <c r="L148">
+        <v>3.4</v>
+      </c>
+      <c r="M148">
+        <v>3.3</v>
+      </c>
+      <c r="N148">
+        <v>3.6</v>
+      </c>
+      <c r="O148">
+        <v>3.3</v>
+      </c>
+      <c r="P148">
+        <v>1.85</v>
+      </c>
+      <c r="Q148">
+        <v>0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
+        <v>1.925</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.9</v>
+      </c>
+      <c r="V148">
+        <v>1.9</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.925</v>
+      </c>
+      <c r="AB148">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7952741</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45389.65625</v>
+      </c>
+      <c r="F149" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
+        <v>38</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>44</v>
+      </c>
+      <c r="K149">
+        <v>2.4</v>
+      </c>
+      <c r="L149">
+        <v>3.2</v>
+      </c>
+      <c r="M149">
+        <v>2.6</v>
+      </c>
+      <c r="N149">
+        <v>2.3</v>
+      </c>
+      <c r="O149">
+        <v>3.1</v>
+      </c>
+      <c r="P149">
+        <v>2.8</v>
+      </c>
+      <c r="Q149">
+        <v>-0.25</v>
+      </c>
+      <c r="R149">
         <v>2.025</v>
       </c>
-      <c r="S146">
+      <c r="S149">
         <v>1.775</v>
       </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
-      <c r="U146">
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
         <v>1.875</v>
       </c>
-      <c r="V146">
+      <c r="V149">
         <v>1.925</v>
       </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-      <c r="X146">
-        <v>0</v>
-      </c>
-      <c r="Y146">
-        <v>0</v>
-      </c>
-      <c r="Z146">
-        <v>0</v>
-      </c>
-      <c r="AA146">
-        <v>0</v>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>2.1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>-0.5</v>
+      </c>
+      <c r="AA149">
+        <v>0.3875</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+      <c r="AC149">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>1.909</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>1.85</v>
+      </c>
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="S36">
-        <v>1.85</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
+        <v>0.45</v>
+      </c>
+      <c r="AB36">
         <v>0.425</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -13772,6 +13772,184 @@
       </c>
       <c r="AC149">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7952744</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45390.4375</v>
+      </c>
+      <c r="F150" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>44</v>
+      </c>
+      <c r="K150">
+        <v>1.727</v>
+      </c>
+      <c r="L150">
+        <v>3.25</v>
+      </c>
+      <c r="M150">
+        <v>4.333</v>
+      </c>
+      <c r="N150">
+        <v>1.65</v>
+      </c>
+      <c r="O150">
+        <v>3.5</v>
+      </c>
+      <c r="P150">
+        <v>4.5</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.875</v>
+      </c>
+      <c r="S150">
+        <v>1.925</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.925</v>
+      </c>
+      <c r="V150">
+        <v>1.875</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>2.5</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.925</v>
+      </c>
+      <c r="AB150">
+        <v>0.925</v>
+      </c>
+      <c r="AC150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7952457</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45390.54166666666</v>
+      </c>
+      <c r="F151" t="s">
+        <v>39</v>
+      </c>
+      <c r="G151" t="s">
+        <v>34</v>
+      </c>
+      <c r="H151">
+        <v>4</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>42</v>
+      </c>
+      <c r="K151">
+        <v>1.166</v>
+      </c>
+      <c r="L151">
+        <v>6.5</v>
+      </c>
+      <c r="M151">
+        <v>10</v>
+      </c>
+      <c r="N151">
+        <v>1.166</v>
+      </c>
+      <c r="O151">
+        <v>6</v>
+      </c>
+      <c r="P151">
+        <v>15</v>
+      </c>
+      <c r="Q151">
+        <v>-2</v>
+      </c>
+      <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>1.9</v>
+      </c>
+      <c r="T151">
+        <v>3</v>
+      </c>
+      <c r="U151">
+        <v>1.875</v>
+      </c>
+      <c r="V151">
+        <v>1.925</v>
+      </c>
+      <c r="W151">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>0.875</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
         <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>1.75</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2</v>
+      </c>
+      <c r="O100">
+        <v>2.8</v>
+      </c>
+      <c r="P100">
+        <v>3.3</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
         <v>1.2</v>
       </c>
-      <c r="N100">
-        <v>10</v>
-      </c>
-      <c r="O100">
-        <v>6.5</v>
-      </c>
-      <c r="P100">
-        <v>1.181</v>
-      </c>
-      <c r="Q100">
-        <v>2</v>
-      </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,13 +11299,13 @@
         <v>45353.375</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11314,43 +11314,43 @@
         <v>42</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,7 +11359,7 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,13 +11388,13 @@
         <v>45353.375</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11403,43 +11403,43 @@
         <v>42</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11457,7 +11457,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>1.95</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
         <v>3.4</v>
       </c>
-      <c r="M29">
-        <v>3.8</v>
-      </c>
-      <c r="N29">
-        <v>1.615</v>
-      </c>
-      <c r="O29">
-        <v>3.5</v>
-      </c>
-      <c r="P29">
-        <v>4.5</v>
-      </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
+        <v>1.615</v>
+      </c>
+      <c r="O30">
+        <v>3.5</v>
+      </c>
+      <c r="P30">
+        <v>4.5</v>
+      </c>
+      <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>3.4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.875</v>
-      </c>
       <c r="W37">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
         <v>0.425</v>
       </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
+        <v>0.4875</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
         <v>-0</v>
-      </c>
-      <c r="AB76">
-        <v>0.95</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>4.2</v>
+      </c>
+      <c r="P87">
+        <v>5.25</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.825</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>4.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>4.2</v>
       </c>
-      <c r="M88">
-        <v>5.5</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>5.25</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,13 +11299,13 @@
         <v>45353.375</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11314,43 +11314,43 @@
         <v>42</v>
       </c>
       <c r="K122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,7 +11359,7 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,13 +11388,13 @@
         <v>45353.375</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11403,43 +11403,43 @@
         <v>42</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11457,7 +11457,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
+        <v>1.615</v>
+      </c>
+      <c r="O29">
+        <v>3.5</v>
+      </c>
+      <c r="P29">
+        <v>4.5</v>
+      </c>
+      <c r="Q29">
+        <v>-0.75</v>
+      </c>
+      <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
         <v>1.95</v>
       </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>3.4</v>
-      </c>
-      <c r="Q29">
-        <v>-0.5</v>
-      </c>
-      <c r="R29">
-        <v>2.025</v>
-      </c>
-      <c r="S29">
-        <v>1.775</v>
-      </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>3.6</v>
+      </c>
+      <c r="N30">
+        <v>1.95</v>
+      </c>
+      <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>1.615</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>4.5</v>
-      </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>1.85</v>
+      </c>
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="S36">
-        <v>1.85</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
+        <v>0.45</v>
+      </c>
+      <c r="AB36">
         <v>0.425</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+      <c r="O99">
+        <v>2.8</v>
+      </c>
+      <c r="P99">
+        <v>3.3</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>1.75</v>
+      </c>
+      <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
+        <v>1.925</v>
+      </c>
+      <c r="W99">
         <v>1.2</v>
       </c>
-      <c r="N99">
-        <v>10</v>
-      </c>
-      <c r="O99">
-        <v>6.5</v>
-      </c>
-      <c r="P99">
-        <v>1.181</v>
-      </c>
-      <c r="Q99">
-        <v>2</v>
-      </c>
-      <c r="R99">
-        <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>1.95</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
         <v>3.4</v>
       </c>
-      <c r="M29">
-        <v>3.8</v>
-      </c>
-      <c r="N29">
-        <v>1.615</v>
-      </c>
-      <c r="O29">
-        <v>3.5</v>
-      </c>
-      <c r="P29">
-        <v>4.5</v>
-      </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
+        <v>1.615</v>
+      </c>
+      <c r="O30">
+        <v>3.5</v>
+      </c>
+      <c r="P30">
+        <v>4.5</v>
+      </c>
+      <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>3.4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.875</v>
-      </c>
       <c r="W37">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
         <v>0.425</v>
       </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>4.75</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>4.2</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>5.25</v>
-      </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
         <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
+        <v>5.25</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -13950,6 +13950,184 @@
       </c>
       <c r="AC151">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7952749</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45394.4375</v>
+      </c>
+      <c r="F152" t="s">
+        <v>40</v>
+      </c>
+      <c r="G152" t="s">
+        <v>37</v>
+      </c>
+      <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>42</v>
+      </c>
+      <c r="K152">
+        <v>1.727</v>
+      </c>
+      <c r="L152">
+        <v>3.4</v>
+      </c>
+      <c r="M152">
+        <v>4.333</v>
+      </c>
+      <c r="N152">
+        <v>1.7</v>
+      </c>
+      <c r="O152">
+        <v>3.25</v>
+      </c>
+      <c r="P152">
+        <v>4.5</v>
+      </c>
+      <c r="Q152">
+        <v>-0.75</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>2.25</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
+        <v>1.825</v>
+      </c>
+      <c r="W152">
+        <v>0.7</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA152">
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC152">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7952746</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45394.64583333334</v>
+      </c>
+      <c r="F153" t="s">
+        <v>38</v>
+      </c>
+      <c r="G153" t="s">
+        <v>41</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>42</v>
+      </c>
+      <c r="K153">
+        <v>1.3</v>
+      </c>
+      <c r="L153">
+        <v>5.5</v>
+      </c>
+      <c r="M153">
+        <v>6</v>
+      </c>
+      <c r="N153">
+        <v>1.09</v>
+      </c>
+      <c r="O153">
+        <v>9.5</v>
+      </c>
+      <c r="P153">
+        <v>19</v>
+      </c>
+      <c r="Q153">
+        <v>-2.5</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.25</v>
+      </c>
+      <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
+        <v>1.925</v>
+      </c>
+      <c r="W153">
+        <v>0.09000000000000008</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>1.909</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
+        <v>0.4875</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
         <v>-0</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>4.2</v>
+      </c>
+      <c r="P87">
+        <v>5.25</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.825</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>4.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>4.2</v>
       </c>
-      <c r="M88">
-        <v>5.5</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>5.25</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -14128,6 +14128,184 @@
       </c>
       <c r="AC153">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7952745</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45395.35416666666</v>
+      </c>
+      <c r="F154" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>43</v>
+      </c>
+      <c r="K154">
+        <v>2.1</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>3.25</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154">
+        <v>3.1</v>
+      </c>
+      <c r="P154">
+        <v>3.3</v>
+      </c>
+      <c r="Q154">
+        <v>-0.25</v>
+      </c>
+      <c r="R154">
+        <v>1.8</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>2.25</v>
+      </c>
+      <c r="U154">
+        <v>1.8</v>
+      </c>
+      <c r="V154">
+        <v>2</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>2.3</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
+        <v>0.8</v>
+      </c>
+      <c r="AC154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7952458</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F155" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" t="s">
+        <v>30</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>42</v>
+      </c>
+      <c r="K155">
+        <v>1.615</v>
+      </c>
+      <c r="L155">
+        <v>3.4</v>
+      </c>
+      <c r="M155">
+        <v>5</v>
+      </c>
+      <c r="N155">
+        <v>1.533</v>
+      </c>
+      <c r="O155">
+        <v>3.4</v>
+      </c>
+      <c r="P155">
+        <v>5.75</v>
+      </c>
+      <c r="Q155">
+        <v>-1</v>
+      </c>
+      <c r="R155">
+        <v>2.025</v>
+      </c>
+      <c r="S155">
+        <v>1.775</v>
+      </c>
+      <c r="T155">
+        <v>2</v>
+      </c>
+      <c r="U155">
+        <v>1.775</v>
+      </c>
+      <c r="V155">
+        <v>2.025</v>
+      </c>
+      <c r="W155">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>-0</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
+        <v>-0.5</v>
+      </c>
+      <c r="AA76">
+        <v>0.4875</v>
+      </c>
+      <c r="AB76">
         <v>0</v>
       </c>
-      <c r="AA76">
+      <c r="AC76">
         <v>-0</v>
-      </c>
-      <c r="AB76">
-        <v>0.95</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>44</v>
+      </c>
+      <c r="K87">
+        <v>1.65</v>
+      </c>
+      <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>4.75</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
+        <v>4.2</v>
+      </c>
+      <c r="Q87">
+        <v>-0.5</v>
+      </c>
+      <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>1.975</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87">
+        <v>1.75</v>
+      </c>
+      <c r="V87">
+        <v>2.05</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>2.2</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB87">
         <v>0</v>
       </c>
-      <c r="J87" t="s">
-        <v>42</v>
-      </c>
-      <c r="K87">
-        <v>1.444</v>
-      </c>
-      <c r="L87">
-        <v>4.2</v>
-      </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>5.25</v>
-      </c>
-      <c r="Q87">
-        <v>-1</v>
-      </c>
-      <c r="R87">
-        <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.775</v>
-      </c>
-      <c r="V87">
-        <v>2.025</v>
-      </c>
-      <c r="W87">
-        <v>0.5</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-      <c r="AA87">
+      <c r="AC87">
         <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
+        <v>5.25</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -14306,6 +14306,95 @@
       </c>
       <c r="AC155">
         <v>1.025</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7952748</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45396.33333333334</v>
+      </c>
+      <c r="F156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G156" t="s">
+        <v>33</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>44</v>
+      </c>
+      <c r="K156">
+        <v>2.2</v>
+      </c>
+      <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>2.75</v>
+      </c>
+      <c r="N156">
+        <v>2.05</v>
+      </c>
+      <c r="O156">
+        <v>3.25</v>
+      </c>
+      <c r="P156">
+        <v>3.1</v>
+      </c>
+      <c r="Q156">
+        <v>-0.5</v>
+      </c>
+      <c r="R156">
+        <v>2.1</v>
+      </c>
+      <c r="S156">
+        <v>1.7</v>
+      </c>
+      <c r="T156">
+        <v>2.25</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
+        <v>1.8</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>2.25</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.7</v>
+      </c>
+      <c r="AB156">
+        <v>-0.5</v>
+      </c>
+      <c r="AC156">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
         <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>1.75</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>1.85</v>
+      </c>
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="S36">
-        <v>1.85</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
+        <v>0.45</v>
+      </c>
+      <c r="AB36">
         <v>0.425</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
+        <v>0.4875</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
         <v>-0</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2</v>
+      </c>
+      <c r="O100">
+        <v>2.8</v>
+      </c>
+      <c r="P100">
+        <v>3.3</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
         <v>1.2</v>
       </c>
-      <c r="N100">
-        <v>10</v>
-      </c>
-      <c r="O100">
-        <v>6.5</v>
-      </c>
-      <c r="P100">
-        <v>1.181</v>
-      </c>
-      <c r="Q100">
-        <v>2</v>
-      </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -14395,6 +14395,95 @@
       </c>
       <c r="AC156">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7952747</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F157" t="s">
+        <v>36</v>
+      </c>
+      <c r="G157" t="s">
+        <v>32</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" t="s">
+        <v>44</v>
+      </c>
+      <c r="K157">
+        <v>2.4</v>
+      </c>
+      <c r="L157">
+        <v>3.2</v>
+      </c>
+      <c r="M157">
+        <v>2.6</v>
+      </c>
+      <c r="N157">
+        <v>2.4</v>
+      </c>
+      <c r="O157">
+        <v>3.2</v>
+      </c>
+      <c r="P157">
+        <v>2.625</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
+        <v>1.85</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>2.2</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>-0</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q36">
         <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3708,13 +3708,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,58 +3734,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.875</v>
-      </c>
       <c r="W37">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3797,13 +3797,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
         <v>0.425</v>
       </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
         <v>3.6</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>4.2</v>
+      </c>
+      <c r="P87">
+        <v>5.25</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.825</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>4.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>4.2</v>
       </c>
-      <c r="M88">
-        <v>5.5</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>5.25</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.2</v>
+      </c>
+      <c r="O99">
+        <v>2.8</v>
+      </c>
+      <c r="P99">
+        <v>3.3</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>1.75</v>
+      </c>
+      <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
+        <v>1.925</v>
+      </c>
+      <c r="W99">
         <v>1.2</v>
       </c>
-      <c r="N99">
-        <v>10</v>
-      </c>
-      <c r="O99">
-        <v>6.5</v>
-      </c>
-      <c r="P99">
-        <v>1.181</v>
-      </c>
-      <c r="Q99">
-        <v>2</v>
-      </c>
-      <c r="R99">
-        <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -14484,6 +14484,80 @@
       </c>
       <c r="AC157">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7952750</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45401.625</v>
+      </c>
+      <c r="F158" t="s">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s">
+        <v>34</v>
+      </c>
+      <c r="K158">
+        <v>1.25</v>
+      </c>
+      <c r="L158">
+        <v>5.75</v>
+      </c>
+      <c r="M158">
+        <v>7</v>
+      </c>
+      <c r="N158">
+        <v>1.2</v>
+      </c>
+      <c r="O158">
+        <v>5.25</v>
+      </c>
+      <c r="P158">
+        <v>12</v>
+      </c>
+      <c r="Q158">
+        <v>-1.75</v>
+      </c>
+      <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
+        <v>3</v>
+      </c>
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
+        <v>1.85</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>1.909</v>
+      </c>
+      <c r="O9">
         <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
+        <v>0.4875</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
         <v>-0</v>
-      </c>
-      <c r="AB76">
-        <v>0.95</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>4.75</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>4.2</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>5.25</v>
-      </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
         <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
+        <v>5.25</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,13 +11299,13 @@
         <v>45353.375</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11314,43 +11314,43 @@
         <v>42</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,7 +11359,7 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,13 +11388,13 @@
         <v>45353.375</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11403,43 +11403,43 @@
         <v>42</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11457,7 +11457,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -14484,80 +14484,6 @@
       </c>
       <c r="AC157">
         <v>0.8500000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>7952750</v>
-      </c>
-      <c r="C158" t="s">
-        <v>28</v>
-      </c>
-      <c r="D158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E158" s="2">
-        <v>45401.625</v>
-      </c>
-      <c r="F158" t="s">
-        <v>30</v>
-      </c>
-      <c r="G158" t="s">
-        <v>34</v>
-      </c>
-      <c r="K158">
-        <v>1.25</v>
-      </c>
-      <c r="L158">
-        <v>5.75</v>
-      </c>
-      <c r="M158">
-        <v>7</v>
-      </c>
-      <c r="N158">
-        <v>1.2</v>
-      </c>
-      <c r="O158">
-        <v>5.25</v>
-      </c>
-      <c r="P158">
-        <v>12</v>
-      </c>
-      <c r="Q158">
-        <v>-1.75</v>
-      </c>
-      <c r="R158">
-        <v>1.825</v>
-      </c>
-      <c r="S158">
-        <v>1.975</v>
-      </c>
-      <c r="T158">
-        <v>3</v>
-      </c>
-      <c r="U158">
-        <v>1.95</v>
-      </c>
-      <c r="V158">
-        <v>1.85</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,13 +1242,13 @@
         <v>45150.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>3.4</v>
@@ -1278,10 +1278,10 @@
         <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,13 +1331,13 @@
         <v>45150.5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
+        <v>3.2</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
         <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>1.75</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
       </c>
       <c r="P10">
         <v>3.4</v>
@@ -1367,10 +1367,10 @@
         <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1382,7 +1382,7 @@
         <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3022,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
+        <v>1.615</v>
+      </c>
+      <c r="O29">
+        <v>3.5</v>
+      </c>
+      <c r="P29">
+        <v>4.5</v>
+      </c>
+      <c r="Q29">
+        <v>-0.75</v>
+      </c>
+      <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
         <v>1.95</v>
       </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>3.4</v>
-      </c>
-      <c r="Q29">
-        <v>-0.5</v>
-      </c>
-      <c r="R29">
-        <v>2.025</v>
-      </c>
-      <c r="S29">
-        <v>1.775</v>
-      </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3111,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>3.6</v>
+      </c>
+      <c r="N30">
+        <v>1.95</v>
+      </c>
+      <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
         <v>3.4</v>
       </c>
-      <c r="M30">
-        <v>3.8</v>
-      </c>
-      <c r="N30">
-        <v>1.615</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>4.5</v>
-      </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7205,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
+        <v>0.4875</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
         <v>-0</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
+        <v>4.2</v>
+      </c>
+      <c r="P87">
+        <v>5.25</v>
+      </c>
+      <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>4.2</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.825</v>
-      </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>4.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>4.2</v>
       </c>
-      <c r="M88">
-        <v>5.5</v>
-      </c>
-      <c r="N88">
-        <v>1.5</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>5.25</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,13 +11299,13 @@
         <v>45353.375</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11314,43 +11314,43 @@
         <v>42</v>
       </c>
       <c r="K122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,7 +11359,7 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,13 +11388,13 @@
         <v>45353.375</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11403,43 +11403,43 @@
         <v>42</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11457,7 +11457,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -14484,6 +14484,273 @@
       </c>
       <c r="AC157">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7952751</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45401.45833333334</v>
+      </c>
+      <c r="F158" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" t="s">
+        <v>40</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158" t="s">
+        <v>42</v>
+      </c>
+      <c r="K158">
+        <v>1.666</v>
+      </c>
+      <c r="L158">
+        <v>4</v>
+      </c>
+      <c r="M158">
+        <v>3.75</v>
+      </c>
+      <c r="N158">
+        <v>2.375</v>
+      </c>
+      <c r="O158">
+        <v>3.8</v>
+      </c>
+      <c r="P158">
+        <v>2.375</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>2.75</v>
+      </c>
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
+        <v>1.85</v>
+      </c>
+      <c r="W158">
+        <v>1.375</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7952754</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45401.54166666666</v>
+      </c>
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+      <c r="G159" t="s">
+        <v>36</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159" t="s">
+        <v>42</v>
+      </c>
+      <c r="K159">
+        <v>1.727</v>
+      </c>
+      <c r="L159">
+        <v>3.5</v>
+      </c>
+      <c r="M159">
+        <v>4</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159">
+        <v>4</v>
+      </c>
+      <c r="P159">
+        <v>1.55</v>
+      </c>
+      <c r="Q159">
+        <v>1</v>
+      </c>
+      <c r="R159">
+        <v>1.8</v>
+      </c>
+      <c r="S159">
+        <v>2</v>
+      </c>
+      <c r="T159">
+        <v>2.25</v>
+      </c>
+      <c r="U159">
+        <v>1.8</v>
+      </c>
+      <c r="V159">
+        <v>2</v>
+      </c>
+      <c r="W159">
+        <v>4</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>-1</v>
+      </c>
+      <c r="Z159">
+        <v>0.8</v>
+      </c>
+      <c r="AA159">
+        <v>-1</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7952750</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45401.625</v>
+      </c>
+      <c r="F160" t="s">
+        <v>30</v>
+      </c>
+      <c r="G160" t="s">
+        <v>34</v>
+      </c>
+      <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>42</v>
+      </c>
+      <c r="K160">
+        <v>1.25</v>
+      </c>
+      <c r="L160">
+        <v>5.75</v>
+      </c>
+      <c r="M160">
+        <v>7</v>
+      </c>
+      <c r="N160">
+        <v>1.166</v>
+      </c>
+      <c r="O160">
+        <v>6</v>
+      </c>
+      <c r="P160">
+        <v>13</v>
+      </c>
+      <c r="Q160">
+        <v>-2</v>
+      </c>
+      <c r="R160">
+        <v>1.875</v>
+      </c>
+      <c r="S160">
+        <v>1.925</v>
+      </c>
+      <c r="T160">
+        <v>3.25</v>
+      </c>
+      <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
+        <v>1.85</v>
+      </c>
+      <c r="W160">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>-0</v>
+      </c>
+      <c r="AB160">
+        <v>0.95</v>
+      </c>
+      <c r="AC160">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>Sloga</t>
+  </si>
+  <si>
+    <t>FK Drina Zvornik</t>
+  </si>
+  <si>
+    <t>FK Rudar Prijedor</t>
   </si>
   <si>
     <t>H</t>
@@ -510,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC160"/>
+  <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2">
         <v>1.571</v>
@@ -720,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>2.375</v>
@@ -809,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>1.444</v>
@@ -898,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>2.1</v>
@@ -987,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1076,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>1.333</v>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>1.5</v>
@@ -1254,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.75</v>
@@ -1343,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>2.25</v>
@@ -1521,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1610,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>2.1</v>
@@ -1699,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.6</v>
@@ -1788,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1877,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>1.166</v>
@@ -1966,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>1.8</v>
@@ -2055,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>1.833</v>
@@ -2144,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.25</v>
@@ -2233,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>1.909</v>
@@ -2322,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>1.615</v>
@@ -2411,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K22">
         <v>1.444</v>
@@ -2500,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>1.285</v>
@@ -2589,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2.1</v>
@@ -2678,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.65</v>
@@ -2767,7 +2773,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>1.25</v>
@@ -2856,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.727</v>
@@ -2945,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>3.4</v>
@@ -3010,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,58 +3028,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>1.95</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
         <v>3.4</v>
       </c>
-      <c r="M29">
-        <v>3.8</v>
-      </c>
-      <c r="N29">
-        <v>1.615</v>
-      </c>
-      <c r="O29">
-        <v>3.5</v>
-      </c>
-      <c r="P29">
-        <v>4.5</v>
-      </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3082,16 +3088,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,58 +3117,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
+        <v>1.615</v>
+      </c>
+      <c r="O30">
+        <v>3.5</v>
+      </c>
+      <c r="P30">
+        <v>4.5</v>
+      </c>
+      <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>3.4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.775</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3171,16 +3177,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3212,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.2</v>
@@ -3301,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3390,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>1.363</v>
@@ -3479,7 +3485,7 @@
         <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>2.25</v>
@@ -3568,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>3.6</v>
@@ -3657,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>1.363</v>
@@ -3746,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>1.25</v>
@@ -3835,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3924,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>2.7</v>
@@ -4013,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>2.7</v>
@@ -4102,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>1.909</v>
@@ -4191,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>1.333</v>
@@ -4280,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>1.909</v>
@@ -4369,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>1.45</v>
@@ -4458,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>4.2</v>
@@ -4547,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>2.625</v>
@@ -4636,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4725,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>1.285</v>
@@ -4814,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>3.4</v>
@@ -4903,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -4992,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>1.8</v>
@@ -5081,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>1.666</v>
@@ -5170,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>1.55</v>
@@ -5259,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>2.45</v>
@@ -5348,7 +5354,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>3.6</v>
@@ -5437,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K56">
         <v>1.55</v>
@@ -5526,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>1.6</v>
@@ -5615,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>1.166</v>
@@ -5704,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>1.444</v>
@@ -5793,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>1.8</v>
@@ -5882,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>2.5</v>
@@ -5971,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6060,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>1.444</v>
@@ -6149,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -6238,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6327,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6416,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.8</v>
@@ -6505,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6594,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>1.666</v>
@@ -6683,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K70">
         <v>3.8</v>
@@ -6772,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>3.75</v>
@@ -6861,7 +6867,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>1.7</v>
@@ -6950,7 +6956,7 @@
         <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2.25</v>
@@ -7039,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>1.727</v>
@@ -7128,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.615</v>
@@ -7193,7 +7199,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,76 +7211,76 @@
         <v>45235.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
+        <v>0.4875</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
         <v>-0</v>
-      </c>
-      <c r="AB76">
-        <v>0.95</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7288,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,13 +7300,13 @@
         <v>45235.375</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7309,61 +7315,61 @@
         <v>44</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7395,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.25</v>
@@ -7484,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>1.727</v>
@@ -7573,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>2.75</v>
@@ -7662,7 +7668,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>2.3</v>
@@ -7751,7 +7757,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>1.444</v>
@@ -7840,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K83">
         <v>3.6</v>
@@ -7929,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.222</v>
@@ -8018,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K85">
         <v>1.2</v>
@@ -8107,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>4.5</v>
@@ -8172,7 +8178,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8190,76 @@
         <v>45256.375</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>4.75</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
         <v>4.2</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>5.25</v>
-      </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
         <v>-0</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8267,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8279,76 @@
         <v>45256.375</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
+        <v>1.5</v>
+      </c>
+      <c r="O88">
+        <v>4.2</v>
+      </c>
+      <c r="P88">
+        <v>5.25</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>4.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
-      </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8374,7 +8380,7 @@
         <v>5</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>5.5</v>
@@ -8463,7 +8469,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K90">
         <v>2.4</v>
@@ -8552,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>2.3</v>
@@ -8641,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>2.2</v>
@@ -8730,7 +8736,7 @@
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>9.5</v>
@@ -8819,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>1.571</v>
@@ -8908,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -8997,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K96">
         <v>8.5</v>
@@ -9086,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>2.75</v>
@@ -9175,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>2.625</v>
@@ -9240,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9258,76 @@
         <v>45269.375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="O99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9347,76 @@
         <v>45269.375</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2</v>
+      </c>
+      <c r="O100">
+        <v>2.8</v>
+      </c>
+      <c r="P100">
+        <v>3.3</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
         <v>1.2</v>
       </c>
-      <c r="N100">
-        <v>10</v>
-      </c>
-      <c r="O100">
-        <v>6.5</v>
-      </c>
-      <c r="P100">
-        <v>1.181</v>
-      </c>
-      <c r="Q100">
-        <v>2</v>
-      </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9442,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K101">
         <v>1.3</v>
@@ -9531,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9620,7 +9626,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>5.5</v>
@@ -9709,7 +9715,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9798,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>2.5</v>
@@ -9887,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K106">
         <v>2.3</v>
@@ -9976,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>2.625</v>
@@ -10065,7 +10071,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>1.4</v>
@@ -10154,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>1.727</v>
@@ -10243,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>3.25</v>
@@ -10308,7 +10314,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10326,76 @@
         <v>45339.375</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10415,76 @@
         <v>45339.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10510,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>4.75</v>
@@ -10599,7 +10605,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>1.444</v>
@@ -10688,7 +10694,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10777,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>2.25</v>
@@ -10866,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>4.333</v>
@@ -10955,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K118">
         <v>3.2</v>
@@ -11044,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>2.15</v>
@@ -11133,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>1.166</v>
@@ -11222,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K121">
         <v>1.833</v>
@@ -11311,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -11400,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>1.666</v>
@@ -11489,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K124">
         <v>5.75</v>
@@ -11578,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K125">
         <v>3.4</v>
@@ -11667,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>3.25</v>
@@ -11756,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K127">
         <v>1.181</v>
@@ -11845,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>1.95</v>
@@ -11934,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>3.2</v>
@@ -12023,7 +12029,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>1.166</v>
@@ -12112,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K131">
         <v>2.5</v>
@@ -12201,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>1.8</v>
@@ -12290,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K133">
         <v>1.55</v>
@@ -12379,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K134">
         <v>1.909</v>
@@ -12468,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K135">
         <v>1.363</v>
@@ -12557,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K136">
         <v>1.4</v>
@@ -12646,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K137">
         <v>1.666</v>
@@ -12735,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K138">
         <v>1.181</v>
@@ -12824,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K139">
         <v>1.3</v>
@@ -12913,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K140">
         <v>1.727</v>
@@ -13002,7 +13008,7 @@
         <v>5</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>2.9</v>
@@ -13091,7 +13097,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>2.4</v>
@@ -13180,7 +13186,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K143">
         <v>2.25</v>
@@ -13269,7 +13275,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K144">
         <v>2.2</v>
@@ -13358,7 +13364,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K145">
         <v>2.5</v>
@@ -13447,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K146">
         <v>1.533</v>
@@ -13536,7 +13542,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K147">
         <v>1.222</v>
@@ -13625,7 +13631,7 @@
         <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>1.95</v>
@@ -13714,7 +13720,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2.4</v>
@@ -13803,7 +13809,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K150">
         <v>1.727</v>
@@ -13892,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>1.166</v>
@@ -13981,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>1.727</v>
@@ -14070,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K153">
         <v>1.3</v>
@@ -14159,7 +14165,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154">
         <v>2.1</v>
@@ -14248,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K155">
         <v>1.615</v>
@@ -14337,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K156">
         <v>2.2</v>
@@ -14426,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K157">
         <v>2.4</v>
@@ -14515,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>1.666</v>
@@ -14604,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K159">
         <v>1.727</v>
@@ -14693,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K160">
         <v>1.25</v>
@@ -14751,6 +14757,362 @@
       </c>
       <c r="AC160">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7952752</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45402.35416666666</v>
+      </c>
+      <c r="F161" t="s">
+        <v>37</v>
+      </c>
+      <c r="G161" t="s">
+        <v>35</v>
+      </c>
+      <c r="H161">
+        <v>4</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>44</v>
+      </c>
+      <c r="K161">
+        <v>1.666</v>
+      </c>
+      <c r="L161">
+        <v>3.75</v>
+      </c>
+      <c r="M161">
+        <v>4</v>
+      </c>
+      <c r="N161">
+        <v>1.75</v>
+      </c>
+      <c r="O161">
+        <v>3.5</v>
+      </c>
+      <c r="P161">
+        <v>3.8</v>
+      </c>
+      <c r="Q161">
+        <v>-0.5</v>
+      </c>
+      <c r="R161">
+        <v>1.775</v>
+      </c>
+      <c r="S161">
+        <v>2.025</v>
+      </c>
+      <c r="T161">
+        <v>2.5</v>
+      </c>
+      <c r="U161">
+        <v>1.825</v>
+      </c>
+      <c r="V161">
+        <v>1.975</v>
+      </c>
+      <c r="W161">
+        <v>0.75</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA161">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
+        <v>0.825</v>
+      </c>
+      <c r="AC161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>7952459</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45402.45833333334</v>
+      </c>
+      <c r="F162" t="s">
+        <v>41</v>
+      </c>
+      <c r="G162" t="s">
+        <v>39</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162" t="s">
+        <v>45</v>
+      </c>
+      <c r="K162">
+        <v>3.5</v>
+      </c>
+      <c r="L162">
+        <v>3.5</v>
+      </c>
+      <c r="M162">
+        <v>1.833</v>
+      </c>
+      <c r="N162">
+        <v>7</v>
+      </c>
+      <c r="O162">
+        <v>4.2</v>
+      </c>
+      <c r="P162">
+        <v>1.363</v>
+      </c>
+      <c r="Q162">
+        <v>1.25</v>
+      </c>
+      <c r="R162">
+        <v>1.9</v>
+      </c>
+      <c r="S162">
+        <v>1.9</v>
+      </c>
+      <c r="T162">
+        <v>2.5</v>
+      </c>
+      <c r="U162">
+        <v>1.9</v>
+      </c>
+      <c r="V162">
+        <v>1.9</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>0.363</v>
+      </c>
+      <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB162">
+        <v>-1</v>
+      </c>
+      <c r="AC162">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7866183</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45402.47916666666</v>
+      </c>
+      <c r="F163" t="s">
+        <v>42</v>
+      </c>
+      <c r="G163" t="s">
+        <v>43</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>44</v>
+      </c>
+      <c r="K163">
+        <v>2.75</v>
+      </c>
+      <c r="L163">
+        <v>3.3</v>
+      </c>
+      <c r="M163">
+        <v>2.25</v>
+      </c>
+      <c r="N163">
+        <v>2.25</v>
+      </c>
+      <c r="O163">
+        <v>3.3</v>
+      </c>
+      <c r="P163">
+        <v>2.75</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>2.25</v>
+      </c>
+      <c r="U163">
+        <v>1.875</v>
+      </c>
+      <c r="V163">
+        <v>1.925</v>
+      </c>
+      <c r="W163">
+        <v>1.25</v>
+      </c>
+      <c r="X163">
+        <v>-1</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
+        <v>1.025</v>
+      </c>
+      <c r="AA163">
+        <v>-1</v>
+      </c>
+      <c r="AB163">
+        <v>0.875</v>
+      </c>
+      <c r="AC163">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>7952753</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45402.65625</v>
+      </c>
+      <c r="F164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G164" t="s">
+        <v>38</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>46</v>
+      </c>
+      <c r="K164">
+        <v>2.5</v>
+      </c>
+      <c r="L164">
+        <v>3</v>
+      </c>
+      <c r="M164">
+        <v>2.625</v>
+      </c>
+      <c r="N164">
+        <v>2.375</v>
+      </c>
+      <c r="O164">
+        <v>2.75</v>
+      </c>
+      <c r="P164">
+        <v>3</v>
+      </c>
+      <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>1.75</v>
+      </c>
+      <c r="T164">
+        <v>2.25</v>
+      </c>
+      <c r="U164">
+        <v>1.975</v>
+      </c>
+      <c r="V164">
+        <v>1.825</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>1.75</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>-0.5</v>
+      </c>
+      <c r="AA164">
+        <v>0.375</v>
+      </c>
+      <c r="AB164">
+        <v>-0.5</v>
+      </c>
+      <c r="AC164">
+        <v>0.4125</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -673,10 +673,10 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
         <v>0.925</v>
@@ -759,10 +759,10 @@
         <v>1.625</v>
       </c>
       <c r="Y3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>0.8500000000000001</v>
@@ -931,10 +931,10 @@
         <v>2.4</v>
       </c>
       <c r="Y5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>0.8500000000000001</v>
@@ -1017,10 +1017,10 @@
         <v>1.55</v>
       </c>
       <c r="Y6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
         <v>0.925</v>
@@ -1189,10 +1189,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>0.4625</v>
@@ -1275,10 +1275,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1361,10 +1361,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1447,10 +1447,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>-0.5</v>
@@ -1533,10 +1533,10 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1619,10 +1619,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1705,10 +1705,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1791,10 +1791,10 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>0.9750000000000001</v>
@@ -1877,10 +1877,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -2049,10 +2049,10 @@
         <v>1.45</v>
       </c>
       <c r="Y18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
         <v>0.95</v>
@@ -2135,10 +2135,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0.825</v>
@@ -2221,10 +2221,10 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>1.025</v>
@@ -2307,10 +2307,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>0.95</v>
@@ -2393,10 +2393,10 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>-0.5</v>
@@ -2479,10 +2479,10 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0.9750000000000001</v>
@@ -2565,10 +2565,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2651,10 +2651,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2737,10 +2737,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA26">
         <v>0.8500000000000001</v>
@@ -2823,10 +2823,10 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>1</v>
@@ -2995,10 +2995,10 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3081,10 +3081,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -3253,10 +3253,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>0.7749999999999999</v>
@@ -3339,10 +3339,10 @@
         <v>4.5</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA33">
         <v>0.8</v>
@@ -3425,10 +3425,10 @@
         <v>1.4</v>
       </c>
       <c r="Y34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
         <v>0.75</v>
@@ -3511,10 +3511,10 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3597,10 +3597,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA36">
         <v>-1</v>
@@ -3683,10 +3683,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA37">
         <v>0.425</v>
@@ -3769,10 +3769,10 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
         <v>0.8999999999999999</v>
@@ -3855,10 +3855,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3941,10 +3941,10 @@
         <v>1.15</v>
       </c>
       <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z40">
-        <v>-1</v>
       </c>
       <c r="AA40">
         <v>0.8</v>
@@ -4027,10 +4027,10 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
         <v>0.8</v>
@@ -4113,10 +4113,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.8999999999999999</v>
@@ -4199,10 +4199,10 @@
         <v>2.1</v>
       </c>
       <c r="Y43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
         <v>-0.5</v>
@@ -4285,10 +4285,10 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z44">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA44">
         <v>0.8</v>
@@ -4371,10 +4371,10 @@
         <v>0.444</v>
       </c>
       <c r="Y45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
         <v>1</v>
@@ -4457,10 +4457,10 @@
         <v>1.5</v>
       </c>
       <c r="Y46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
         <v>-0.5</v>
@@ -4646,7 +4646,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4655,76 +4655,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K49">
         <v>3.6</v>
       </c>
       <c r="L49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N49">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O49">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4732,7 +4732,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4741,76 +4741,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="K50">
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4887,10 +4887,10 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
         <v>-0.5</v>
@@ -4973,10 +4973,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.9750000000000001</v>
@@ -5059,10 +5059,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>0.95</v>
@@ -5231,10 +5231,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
       </c>
       <c r="AA55">
         <v>0.8999999999999999</v>
@@ -5317,10 +5317,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z56">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>-0.5</v>
@@ -5403,10 +5403,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>0.825</v>
@@ -5489,10 +5489,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5575,10 +5575,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>0.4875</v>
@@ -5747,10 +5747,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z61">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -5919,10 +5919,10 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6005,10 +6005,10 @@
         <v>0.5</v>
       </c>
       <c r="Y64">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA64">
         <v>0.875</v>
@@ -6263,10 +6263,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>-0.5</v>
@@ -6349,10 +6349,10 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
         <v>0.9750000000000001</v>
@@ -6435,10 +6435,10 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>-1</v>
@@ -6779,10 +6779,10 @@
         <v>1.25</v>
       </c>
       <c r="Y73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA73">
         <v>0.8500000000000001</v>
@@ -6865,10 +6865,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>0.825</v>
@@ -6951,10 +6951,10 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6977,76 +6977,76 @@
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7054,7 +7054,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7063,76 +7063,76 @@
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7295,10 +7295,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>0.925</v>
@@ -7381,10 +7381,10 @@
         <v>1.75</v>
       </c>
       <c r="Y80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7467,10 +7467,10 @@
         <v>2.6</v>
       </c>
       <c r="Y81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
         <v>0.5</v>
@@ -7553,10 +7553,10 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z82">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -7639,10 +7639,10 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z83">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>0.925</v>
@@ -7725,10 +7725,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA84">
         <v>0.825</v>
@@ -7811,10 +7811,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>0.8999999999999999</v>
@@ -7897,10 +7897,10 @@
         <v>0.6499999999999999</v>
       </c>
       <c r="Y86">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -7914,7 +7914,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7923,76 +7923,76 @@
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="K87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M87">
+        <v>1.5</v>
+      </c>
+      <c r="N87">
+        <v>4.2</v>
+      </c>
+      <c r="O87">
+        <v>5.25</v>
+      </c>
+      <c r="P87">
+        <v>-1</v>
+      </c>
+      <c r="Q87">
         <v>1.8</v>
       </c>
-      <c r="N87">
-        <v>3.2</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>-0.5</v>
-      </c>
-      <c r="Q87">
-        <v>1.825</v>
-      </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8000,7 +8000,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8009,61 +8009,61 @@
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="K88">
+        <v>3.4</v>
+      </c>
+      <c r="L88">
+        <v>4.75</v>
+      </c>
+      <c r="M88">
+        <v>1.8</v>
+      </c>
+      <c r="N88">
+        <v>3.2</v>
+      </c>
+      <c r="O88">
         <v>4.2</v>
       </c>
-      <c r="L88">
-        <v>5.5</v>
-      </c>
-      <c r="M88">
-        <v>1.5</v>
-      </c>
-      <c r="N88">
-        <v>4.2</v>
-      </c>
-      <c r="O88">
-        <v>5.25</v>
-      </c>
       <c r="P88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8072,13 +8072,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8155,10 +8155,10 @@
         <v>0.363</v>
       </c>
       <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
       </c>
       <c r="AA89">
         <v>0.825</v>
@@ -8327,10 +8327,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8413,10 +8413,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>0.7749999999999999</v>
@@ -8499,10 +8499,10 @@
         <v>0.333</v>
       </c>
       <c r="Y93">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
         <v>0.8500000000000001</v>
@@ -8585,10 +8585,10 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
         <v>0.7749999999999999</v>
@@ -8757,10 +8757,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>0</v>
@@ -8843,10 +8843,10 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
         <v>-0.5</v>
@@ -8929,10 +8929,10 @@
         <v>1.3</v>
       </c>
       <c r="Y98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -9101,10 +9101,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
@@ -9187,10 +9187,10 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
         <v>0.3875</v>
@@ -9273,10 +9273,10 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9359,10 +9359,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
         <v>-0.5</v>
@@ -9445,10 +9445,10 @@
         <v>1.1</v>
       </c>
       <c r="Y104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
         <v>0</v>
@@ -9531,10 +9531,10 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
         <v>-0.5</v>
@@ -9617,10 +9617,10 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
         <v>-1</v>
@@ -9703,10 +9703,10 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
         <v>0.875</v>
@@ -9875,10 +9875,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -10047,10 +10047,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>-0.5</v>
@@ -10133,10 +10133,10 @@
         <v>1.9</v>
       </c>
       <c r="Y112">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
         <v>0.875</v>
@@ -10305,10 +10305,10 @@
         <v>7.5</v>
       </c>
       <c r="Y114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA114">
         <v>0.825</v>
@@ -10477,10 +10477,10 @@
         <v>2.2</v>
       </c>
       <c r="Y116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA116">
         <v>0.8</v>
@@ -10563,10 +10563,10 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10735,10 +10735,10 @@
         <v>2.3</v>
       </c>
       <c r="Y119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -10821,10 +10821,10 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
         <v>0.9750000000000001</v>
@@ -10907,10 +10907,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>0</v>
@@ -10924,7 +10924,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10933,13 +10933,13 @@
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -10948,43 +10948,43 @@
         <v>42</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M122">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N122">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q122">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -10993,16 +10993,16 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z122">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11010,7 +11010,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11019,13 +11019,13 @@
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11034,43 +11034,43 @@
         <v>42</v>
       </c>
       <c r="J123">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O123">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11079,16 +11079,16 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11251,10 +11251,10 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11337,10 +11337,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
         <v>1.05</v>
@@ -11423,10 +11423,10 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
         <v>0</v>
@@ -11509,10 +11509,10 @@
         <v>3.5</v>
       </c>
       <c r="Y128">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
         <v>-1</v>
@@ -11767,10 +11767,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>0.75</v>
@@ -11853,10 +11853,10 @@
         <v>2.75</v>
       </c>
       <c r="Y132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
         <v>-1</v>
@@ -12025,10 +12025,10 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
         <v>0.925</v>
@@ -12111,10 +12111,10 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
         <v>-0.5</v>
@@ -12197,10 +12197,10 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
         <v>0.8999999999999999</v>
@@ -12283,10 +12283,10 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
         <v>-1</v>
@@ -12369,10 +12369,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>0.825</v>
@@ -12455,10 +12455,10 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-0.5</v>
@@ -12541,10 +12541,10 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>-1</v>
@@ -12627,10 +12627,10 @@
         <v>1.375</v>
       </c>
       <c r="Y141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA141">
         <v>0.8999999999999999</v>
@@ -12713,10 +12713,10 @@
         <v>1.625</v>
       </c>
       <c r="Y142">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA142">
         <v>-1</v>
@@ -12799,10 +12799,10 @@
         <v>2.4</v>
       </c>
       <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z143">
-        <v>-1</v>
       </c>
       <c r="AA143">
         <v>0.8</v>
@@ -12885,10 +12885,10 @@
         <v>1.875</v>
       </c>
       <c r="Y144">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA144">
         <v>0.75</v>
@@ -12971,10 +12971,10 @@
         <v>1.7</v>
       </c>
       <c r="Y145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
         <v>-1</v>
@@ -13229,10 +13229,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>0.8999999999999999</v>
@@ -13487,10 +13487,10 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
         <v>0.875</v>
@@ -13573,10 +13573,10 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
         <v>0.9750000000000001</v>
@@ -13745,10 +13745,10 @@
         <v>2.3</v>
       </c>
       <c r="Y154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA154">
         <v>0.8</v>
@@ -13831,10 +13831,10 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z155">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA155">
         <v>-1</v>
@@ -14089,10 +14089,10 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
         <v>-1</v>
@@ -14175,10 +14175,10 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
         <v>-1</v>
@@ -14261,10 +14261,10 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z160">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA160">
         <v>0.95</v>
@@ -14347,10 +14347,10 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
         <v>0.825</v>
@@ -14433,10 +14433,10 @@
         <v>0.363</v>
       </c>
       <c r="Y162">
+        <v>-1</v>
+      </c>
+      <c r="Z162">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z162">
-        <v>-1</v>
       </c>
       <c r="AA162">
         <v>-1</v>
@@ -14519,10 +14519,10 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z163">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
         <v>0.875</v>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB164"/>
+  <dimension ref="A1:AB170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1215,13 +1215,13 @@
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1230,19 +1230,19 @@
         <v>42</v>
       </c>
       <c r="J9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
+        <v>3.2</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
         <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>1.75</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
       </c>
       <c r="O9">
         <v>3.4</v>
@@ -1251,10 +1251,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -1266,7 +1266,7 @@
         <v>1.95</v>
       </c>
       <c r="V9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1275,7 +1275,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1301,13 +1301,13 @@
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O10">
         <v>3.4</v>
@@ -1337,10 +1337,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>2.5</v>
@@ -1352,7 +1352,7 @@
         <v>1.95</v>
       </c>
       <c r="V10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1361,7 +1361,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -2926,7 +2926,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2935,58 +2935,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
         <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>
       </c>
       <c r="J29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
+        <v>1.615</v>
+      </c>
+      <c r="N29">
+        <v>3.5</v>
+      </c>
+      <c r="O29">
+        <v>4.5</v>
+      </c>
+      <c r="P29">
+        <v>-0.75</v>
+      </c>
+      <c r="Q29">
+        <v>1.85</v>
+      </c>
+      <c r="R29">
         <v>1.95</v>
       </c>
-      <c r="N29">
-        <v>3.2</v>
-      </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>-0.5</v>
-      </c>
-      <c r="Q29">
-        <v>2.025</v>
-      </c>
-      <c r="R29">
-        <v>1.775</v>
-      </c>
       <c r="S29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2995,16 +2995,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3012,7 +3012,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3021,58 +3021,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>42</v>
       </c>
       <c r="J30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K30">
+        <v>3.2</v>
+      </c>
+      <c r="L30">
+        <v>3.6</v>
+      </c>
+      <c r="M30">
+        <v>1.95</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="L30">
-        <v>3.8</v>
-      </c>
-      <c r="M30">
-        <v>1.615</v>
-      </c>
-      <c r="N30">
-        <v>3.5</v>
-      </c>
-      <c r="O30">
-        <v>4.5</v>
-      </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3081,16 +3081,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -4646,7 +4646,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4655,76 +4655,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="K49">
         <v>3.6</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4732,7 +4732,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4741,76 +4741,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K50">
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6977,76 +6977,76 @@
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7054,7 +7054,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7063,76 +7063,76 @@
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7914,7 +7914,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7923,76 +7923,76 @@
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="K87">
+        <v>3.4</v>
+      </c>
+      <c r="L87">
+        <v>4.75</v>
+      </c>
+      <c r="M87">
+        <v>1.8</v>
+      </c>
+      <c r="N87">
+        <v>3.2</v>
+      </c>
+      <c r="O87">
         <v>4.2</v>
       </c>
-      <c r="L87">
-        <v>5.5</v>
-      </c>
-      <c r="M87">
-        <v>1.5</v>
-      </c>
-      <c r="N87">
-        <v>4.2</v>
-      </c>
-      <c r="O87">
-        <v>5.25</v>
-      </c>
       <c r="P87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB87">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8000,7 +8000,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8009,76 +8009,76 @@
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="K88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M88">
+        <v>1.5</v>
+      </c>
+      <c r="N88">
+        <v>4.2</v>
+      </c>
+      <c r="O88">
+        <v>5.25</v>
+      </c>
+      <c r="P88">
+        <v>-1</v>
+      </c>
+      <c r="Q88">
         <v>1.8</v>
       </c>
-      <c r="N88">
-        <v>3.2</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>-0.5</v>
-      </c>
-      <c r="Q88">
-        <v>1.825</v>
-      </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -9978,7 +9978,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -9987,76 +9987,76 @@
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J111">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="K111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
         <v>2.25</v>
       </c>
       <c r="T111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10064,7 +10064,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10073,76 +10073,76 @@
         <v>45339.375</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J112">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="K112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M112">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="P112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
         <v>2.25</v>
       </c>
       <c r="T112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10924,7 +10924,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10933,13 +10933,13 @@
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -10948,43 +10948,43 @@
         <v>42</v>
       </c>
       <c r="J122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -10993,7 +10993,7 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11002,7 +11002,7 @@
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11010,7 +11010,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11019,13 +11019,13 @@
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11034,43 +11034,43 @@
         <v>42</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O123">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="P123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R123">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11079,7 +11079,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11088,7 +11088,7 @@
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -14615,6 +14615,522 @@
       </c>
       <c r="AB164">
         <v>0.4125</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>7952755</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45405.45833333334</v>
+      </c>
+      <c r="E165" t="s">
+        <v>33</v>
+      </c>
+      <c r="F165" t="s">
+        <v>29</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>44</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <v>3.3</v>
+      </c>
+      <c r="L165">
+        <v>3.25</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>3.4</v>
+      </c>
+      <c r="O165">
+        <v>3.2</v>
+      </c>
+      <c r="P165">
+        <v>-0.25</v>
+      </c>
+      <c r="Q165">
+        <v>1.775</v>
+      </c>
+      <c r="R165">
+        <v>2.025</v>
+      </c>
+      <c r="S165">
+        <v>2.5</v>
+      </c>
+      <c r="T165">
+        <v>1.95</v>
+      </c>
+      <c r="U165">
+        <v>1.85</v>
+      </c>
+      <c r="V165">
+        <v>-1</v>
+      </c>
+      <c r="W165">
+        <v>2.4</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>-0.5</v>
+      </c>
+      <c r="Z165">
+        <v>0.5125</v>
+      </c>
+      <c r="AA165">
+        <v>-1</v>
+      </c>
+      <c r="AB165">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7952758</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45405.54166666666</v>
+      </c>
+      <c r="E166" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" t="s">
+        <v>39</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>42</v>
+      </c>
+      <c r="J166">
+        <v>1.333</v>
+      </c>
+      <c r="K166">
+        <v>4.5</v>
+      </c>
+      <c r="L166">
+        <v>7</v>
+      </c>
+      <c r="M166">
+        <v>1.3</v>
+      </c>
+      <c r="N166">
+        <v>4.333</v>
+      </c>
+      <c r="O166">
+        <v>8.5</v>
+      </c>
+      <c r="P166">
+        <v>-1.5</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>1.8</v>
+      </c>
+      <c r="S166">
+        <v>2.5</v>
+      </c>
+      <c r="T166">
+        <v>1.825</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
+        <v>0.3</v>
+      </c>
+      <c r="W166">
+        <v>-1</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.8</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7952757</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45405.64583333334</v>
+      </c>
+      <c r="E167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" t="s">
+        <v>35</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>42</v>
+      </c>
+      <c r="J167">
+        <v>1.8</v>
+      </c>
+      <c r="K167">
+        <v>3.25</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>1.4</v>
+      </c>
+      <c r="N167">
+        <v>4.2</v>
+      </c>
+      <c r="O167">
+        <v>7</v>
+      </c>
+      <c r="P167">
+        <v>-1.25</v>
+      </c>
+      <c r="Q167">
+        <v>1.95</v>
+      </c>
+      <c r="R167">
+        <v>1.85</v>
+      </c>
+      <c r="S167">
+        <v>2.25</v>
+      </c>
+      <c r="T167">
+        <v>1.85</v>
+      </c>
+      <c r="U167">
+        <v>1.95</v>
+      </c>
+      <c r="V167">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
+        <v>-0.5</v>
+      </c>
+      <c r="Z167">
+        <v>0.425</v>
+      </c>
+      <c r="AA167">
+        <v>-1</v>
+      </c>
+      <c r="AB167">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>7952756</v>
+      </c>
+      <c r="C168" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45406.45833333334</v>
+      </c>
+      <c r="E168" t="s">
+        <v>32</v>
+      </c>
+      <c r="F168" t="s">
+        <v>38</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168" t="s">
+        <v>42</v>
+      </c>
+      <c r="J168">
+        <v>3.3</v>
+      </c>
+      <c r="K168">
+        <v>3.4</v>
+      </c>
+      <c r="L168">
+        <v>1.95</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>3.3</v>
+      </c>
+      <c r="O168">
+        <v>2.15</v>
+      </c>
+      <c r="P168">
+        <v>0.25</v>
+      </c>
+      <c r="Q168">
+        <v>1.875</v>
+      </c>
+      <c r="R168">
+        <v>1.925</v>
+      </c>
+      <c r="S168">
+        <v>2.5</v>
+      </c>
+      <c r="T168">
+        <v>1.95</v>
+      </c>
+      <c r="U168">
+        <v>1.85</v>
+      </c>
+      <c r="V168">
+        <v>2</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>0.875</v>
+      </c>
+      <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.95</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7952759</v>
+      </c>
+      <c r="C169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45406.54166666666</v>
+      </c>
+      <c r="E169" t="s">
+        <v>36</v>
+      </c>
+      <c r="F169" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>42</v>
+      </c>
+      <c r="J169">
+        <v>1.363</v>
+      </c>
+      <c r="K169">
+        <v>4</v>
+      </c>
+      <c r="L169">
+        <v>7.5</v>
+      </c>
+      <c r="M169">
+        <v>1.181</v>
+      </c>
+      <c r="N169">
+        <v>5.5</v>
+      </c>
+      <c r="O169">
+        <v>13</v>
+      </c>
+      <c r="P169">
+        <v>-1.75</v>
+      </c>
+      <c r="Q169">
+        <v>1.825</v>
+      </c>
+      <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>2.75</v>
+      </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
+      <c r="U169">
+        <v>1.8</v>
+      </c>
+      <c r="V169">
+        <v>0.181</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>7952460</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45406.64583333334</v>
+      </c>
+      <c r="E170" t="s">
+        <v>37</v>
+      </c>
+      <c r="F170" t="s">
+        <v>30</v>
+      </c>
+      <c r="G170">
+        <v>4</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="I170" t="s">
+        <v>42</v>
+      </c>
+      <c r="J170">
+        <v>1.444</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>6</v>
+      </c>
+      <c r="M170">
+        <v>1.444</v>
+      </c>
+      <c r="N170">
+        <v>3.75</v>
+      </c>
+      <c r="O170">
+        <v>6.5</v>
+      </c>
+      <c r="P170">
+        <v>-1</v>
+      </c>
+      <c r="Q170">
+        <v>1.775</v>
+      </c>
+      <c r="R170">
+        <v>2.025</v>
+      </c>
+      <c r="S170">
+        <v>2.25</v>
+      </c>
+      <c r="T170">
+        <v>1.925</v>
+      </c>
+      <c r="U170">
+        <v>1.875</v>
+      </c>
+      <c r="V170">
+        <v>0.444</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0.925</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7952761</t>
   </si>
   <si>
     <t>Bosnia Herzegovina Premier Liga</t>
@@ -510,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB170"/>
+  <dimension ref="A1:AB165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +610,16 @@
         <v>6865272</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -625,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>1.571</v>
@@ -693,16 +696,16 @@
         <v>6993416</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45137.5</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -711,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -779,16 +782,16 @@
         <v>6865275</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -797,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>1.444</v>
@@ -865,16 +868,16 @@
         <v>6865279</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>2.1</v>
@@ -951,16 +954,16 @@
         <v>6865277</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45143.5</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -969,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1037,16 +1040,16 @@
         <v>6865280</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1055,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>1.333</v>
@@ -1123,16 +1126,16 @@
         <v>7045985</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1141,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.5</v>
@@ -1206,43 +1209,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>3.4</v>
@@ -1251,10 +1254,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -1266,7 +1269,7 @@
         <v>1.95</v>
       </c>
       <c r="V9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1275,7 +1278,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1292,43 +1295,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L10">
+        <v>3.2</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
         <v>3.5</v>
-      </c>
-      <c r="M10">
-        <v>1.75</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
       </c>
       <c r="O10">
         <v>3.4</v>
@@ -1337,10 +1340,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
         <v>2.5</v>
@@ -1352,7 +1355,7 @@
         <v>1.95</v>
       </c>
       <c r="V10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1361,7 +1364,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -1381,16 +1384,16 @@
         <v>7051290</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45150.65625</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1399,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>2.25</v>
@@ -1467,16 +1470,16 @@
         <v>6865283</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>2.2</v>
@@ -1553,16 +1556,16 @@
         <v>6865372</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45157.5</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>2.1</v>
@@ -1639,16 +1642,16 @@
         <v>6865286</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1657,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2.6</v>
@@ -1725,16 +1728,16 @@
         <v>6864626</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45158.60416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1743,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.55</v>
@@ -1811,16 +1814,16 @@
         <v>6865289</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45158.625</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1829,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1897,16 +1900,16 @@
         <v>6865288</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45158.6875</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1983,16 +1986,16 @@
         <v>6865287</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45159.5</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2001,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>1.833</v>
@@ -2069,16 +2072,16 @@
         <v>6864627</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45163.625</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2087,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2155,16 +2158,16 @@
         <v>6865293</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45164.5</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2173,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2241,16 +2244,16 @@
         <v>6865292</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2259,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>1.615</v>
@@ -2327,16 +2330,16 @@
         <v>6865290</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2345,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>1.444</v>
@@ -2413,16 +2416,16 @@
         <v>6865373</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45165.61458333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2431,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>1.285</v>
@@ -2499,16 +2502,16 @@
         <v>6865291</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45166.66666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2517,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2585,16 +2588,16 @@
         <v>7138484</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2603,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>1.65</v>
@@ -2671,16 +2674,16 @@
         <v>7141242</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45170.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2689,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2757,16 +2760,16 @@
         <v>6865294</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2775,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2843,16 +2846,16 @@
         <v>6865297</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2861,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>3.4</v>
@@ -2926,67 +2929,67 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J29">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K29">
+        <v>3.2</v>
+      </c>
+      <c r="L29">
+        <v>3.6</v>
+      </c>
+      <c r="M29">
+        <v>1.95</v>
+      </c>
+      <c r="N29">
+        <v>3.2</v>
+      </c>
+      <c r="O29">
         <v>3.4</v>
       </c>
-      <c r="L29">
-        <v>3.8</v>
-      </c>
-      <c r="M29">
-        <v>1.615</v>
-      </c>
-      <c r="N29">
-        <v>3.5</v>
-      </c>
-      <c r="O29">
-        <v>4.5</v>
-      </c>
       <c r="P29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2995,16 +2998,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3012,67 +3015,67 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
       </c>
       <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
+        <v>1.615</v>
+      </c>
+      <c r="N30">
+        <v>3.5</v>
+      </c>
+      <c r="O30">
+        <v>4.5</v>
+      </c>
+      <c r="P30">
+        <v>-0.75</v>
+      </c>
+      <c r="Q30">
+        <v>1.85</v>
+      </c>
+      <c r="R30">
         <v>1.95</v>
       </c>
-      <c r="N30">
-        <v>3.2</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>-0.5</v>
-      </c>
-      <c r="Q30">
-        <v>2.025</v>
-      </c>
-      <c r="R30">
-        <v>1.775</v>
-      </c>
       <c r="S30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3081,16 +3084,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3101,16 +3104,16 @@
         <v>7100644</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45182.5625</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3119,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>1.2</v>
@@ -3187,16 +3190,16 @@
         <v>6865374</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45184.45833333334</v>
       </c>
       <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
         <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3205,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>2.6</v>
@@ -3273,16 +3276,16 @@
         <v>6865301</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45184.5625</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3291,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>1.363</v>
@@ -3359,16 +3362,16 @@
         <v>6865302</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3377,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>2.25</v>
@@ -3445,16 +3448,16 @@
         <v>6865300</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45185.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3463,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>3.6</v>
@@ -3531,16 +3534,16 @@
         <v>6864629</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3549,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>1.363</v>
@@ -3617,16 +3620,16 @@
         <v>6865299</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3635,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>1.25</v>
@@ -3703,16 +3706,16 @@
         <v>7078203</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45189.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3721,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3789,16 +3792,16 @@
         <v>6865307</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45191.625</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3807,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>2.7</v>
@@ -3875,16 +3878,16 @@
         <v>6864630</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3893,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>2.7</v>
@@ -3961,16 +3964,16 @@
         <v>6865305</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3979,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>1.909</v>
@@ -4047,16 +4050,16 @@
         <v>7217268</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45192.65625</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4065,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>1.333</v>
@@ -4133,17 +4136,17 @@
         <v>6865303</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45193.45833333334</v>
       </c>
       <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
         <v>32</v>
       </c>
-      <c r="F43" t="s">
-        <v>31</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4219,16 +4222,16 @@
         <v>7217461</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45193.61458333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4237,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4305,16 +4308,16 @@
         <v>7117521</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s">
         <v>38</v>
-      </c>
-      <c r="F45" t="s">
-        <v>37</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4323,7 +4326,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4391,16 +4394,16 @@
         <v>7174900</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45196.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4409,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4477,16 +4480,16 @@
         <v>6865312</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45199.5625</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4495,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>1.8</v>
@@ -4563,16 +4566,16 @@
         <v>6865308</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45199.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4581,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>1.285</v>
@@ -4649,16 +4652,16 @@
         <v>6865310</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4667,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>3.4</v>
@@ -4735,16 +4738,16 @@
         <v>6865311</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4753,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>1.833</v>
@@ -4821,16 +4824,16 @@
         <v>6864631</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45200.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4839,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>1.8</v>
@@ -4907,16 +4910,16 @@
         <v>6865309</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45201.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4925,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>1.666</v>
@@ -4993,16 +4996,16 @@
         <v>6865313</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5011,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5079,16 +5082,16 @@
         <v>6865375</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5097,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>2.45</v>
@@ -5165,16 +5168,16 @@
         <v>6864632</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5183,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>3.6</v>
@@ -5251,16 +5254,16 @@
         <v>6865314</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5269,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>1.55</v>
@@ -5337,16 +5340,16 @@
         <v>6865315</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5355,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>1.6</v>
@@ -5423,16 +5426,16 @@
         <v>6865376</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45208.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5441,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>1.166</v>
@@ -5509,16 +5512,16 @@
         <v>7217267</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45217.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5527,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>1.444</v>
@@ -5595,16 +5598,16 @@
         <v>7117579</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45217.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5613,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5681,16 +5684,16 @@
         <v>6865318</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5699,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5767,16 +5770,16 @@
         <v>6865319</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45220.5625</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5785,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>1.8</v>
@@ -5853,16 +5856,16 @@
         <v>6865316</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5871,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.444</v>
@@ -5939,16 +5942,16 @@
         <v>6865317</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5957,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6025,16 +6028,16 @@
         <v>6864633</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45221.61458333334</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6043,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -6111,16 +6114,16 @@
         <v>7355528</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45222.39583333334</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6129,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -6197,16 +6200,16 @@
         <v>6865325</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45226.375</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6215,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>2.8</v>
@@ -6283,16 +6286,16 @@
         <v>6865324</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6301,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6369,16 +6372,16 @@
         <v>6864634</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" t="s">
         <v>36</v>
-      </c>
-      <c r="F69" t="s">
-        <v>35</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6387,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.666</v>
@@ -6455,16 +6458,16 @@
         <v>6865321</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6473,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>3.8</v>
@@ -6541,16 +6544,16 @@
         <v>6865323</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45228.61111111111</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6559,7 +6562,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>3.75</v>
@@ -6627,16 +6630,16 @@
         <v>6865322</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45229.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6645,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J72">
         <v>1.7</v>
@@ -6713,16 +6716,16 @@
         <v>7422880</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
         <v>29</v>
-      </c>
-      <c r="F73" t="s">
-        <v>28</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6731,7 +6734,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>2.25</v>
@@ -6799,16 +6802,16 @@
         <v>6865326</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45234.375</v>
       </c>
       <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
         <v>33</v>
-      </c>
-      <c r="F74" t="s">
-        <v>32</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6817,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>1.727</v>
@@ -6885,16 +6888,16 @@
         <v>6865327</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45234.5</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6903,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>1.615</v>
@@ -6968,85 +6971,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7054,85 +7057,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7143,16 +7146,16 @@
         <v>6864635</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45235.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7161,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>2.25</v>
@@ -7229,16 +7232,16 @@
         <v>6865334</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45241.375</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7247,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J79">
         <v>1.727</v>
@@ -7315,16 +7318,16 @@
         <v>6865333</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45241.69791666666</v>
       </c>
       <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
         <v>31</v>
-      </c>
-      <c r="F80" t="s">
-        <v>30</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7333,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>2.75</v>
@@ -7401,16 +7404,16 @@
         <v>6865330</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45242.375</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7419,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>2.3</v>
@@ -7487,16 +7490,16 @@
         <v>6864636</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45242.46875</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7505,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7573,16 +7576,16 @@
         <v>6865331</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45243.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7591,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7659,16 +7662,16 @@
         <v>7328799</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45252.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7677,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>1.222</v>
@@ -7745,16 +7748,16 @@
         <v>7505498</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>6</v>
@@ -7763,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7831,16 +7834,16 @@
         <v>7505496</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45255.375</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7849,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>4.5</v>
@@ -7914,85 +7917,85 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="K87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M87">
+        <v>1.5</v>
+      </c>
+      <c r="N87">
+        <v>4.2</v>
+      </c>
+      <c r="O87">
+        <v>5.25</v>
+      </c>
+      <c r="P87">
+        <v>-1</v>
+      </c>
+      <c r="Q87">
         <v>1.8</v>
       </c>
-      <c r="N87">
-        <v>3.2</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>-0.5</v>
-      </c>
-      <c r="Q87">
-        <v>1.825</v>
-      </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8000,16 +8003,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
         <v>32</v>
@@ -8018,67 +8021,67 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="K88">
+        <v>3.4</v>
+      </c>
+      <c r="L88">
+        <v>4.75</v>
+      </c>
+      <c r="M88">
+        <v>1.8</v>
+      </c>
+      <c r="N88">
+        <v>3.2</v>
+      </c>
+      <c r="O88">
         <v>4.2</v>
       </c>
-      <c r="L88">
-        <v>5.5</v>
-      </c>
-      <c r="M88">
-        <v>1.5</v>
-      </c>
-      <c r="N88">
-        <v>4.2</v>
-      </c>
-      <c r="O88">
-        <v>5.25</v>
-      </c>
       <c r="P88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8089,16 +8092,16 @@
         <v>7505494</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8107,7 +8110,7 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>5.5</v>
@@ -8175,16 +8178,16 @@
         <v>7505499</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45256.65625</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8193,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8261,16 +8264,16 @@
         <v>6865340</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8279,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>2.3</v>
@@ -8347,16 +8350,16 @@
         <v>6865341</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45262.39583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8365,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>2.2</v>
@@ -8433,16 +8436,16 @@
         <v>7107310</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45262.5</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8451,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>9.5</v>
@@ -8519,16 +8522,16 @@
         <v>6865342</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45263.375</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8537,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>1.571</v>
@@ -8605,16 +8608,16 @@
         <v>6865339</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45263.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8623,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>2.4</v>
@@ -8691,16 +8694,16 @@
         <v>6865379</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45264.375</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8709,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>8.5</v>
@@ -8777,16 +8780,16 @@
         <v>7462473</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45266.375</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8795,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>2.75</v>
@@ -8863,16 +8866,16 @@
         <v>6865345</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8881,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>2.625</v>
@@ -8949,16 +8952,16 @@
         <v>6864639</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45269.375</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8967,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>11</v>
@@ -9035,16 +9038,16 @@
         <v>6865343</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9053,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>1.909</v>
@@ -9121,16 +9124,16 @@
         <v>6865346</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45269.5</v>
       </c>
       <c r="E101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" t="s">
         <v>30</v>
-      </c>
-      <c r="F101" t="s">
-        <v>29</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9139,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>1.3</v>
@@ -9207,16 +9210,16 @@
         <v>6865344</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45270.375</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9225,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9293,16 +9296,16 @@
         <v>6865347</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45270.46875</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9311,7 +9314,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>5.5</v>
@@ -9379,16 +9382,16 @@
         <v>6864640</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9397,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>4</v>
@@ -9465,16 +9468,16 @@
         <v>6865380</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45276.375</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9483,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9551,16 +9554,16 @@
         <v>6865350</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45276.5</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9569,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9637,16 +9640,16 @@
         <v>6865348</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45277.375</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9655,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>2.625</v>
@@ -9723,16 +9726,16 @@
         <v>6865351</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9741,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>1.4</v>
@@ -9809,16 +9812,16 @@
         <v>6865349</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45278.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9827,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.727</v>
@@ -9895,16 +9898,16 @@
         <v>6865353</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9913,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>3.25</v>
@@ -9978,85 +9981,85 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" t="s">
         <v>33</v>
       </c>
-      <c r="F111" t="s">
-        <v>29</v>
-      </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
         <v>43</v>
       </c>
       <c r="J111">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="K111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M111">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="P111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
         <v>2.25</v>
       </c>
       <c r="T111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10064,85 +10067,85 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45339.375</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J112">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="K112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O112">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
         <v>2.25</v>
       </c>
       <c r="T112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB112">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10153,16 +10156,16 @@
         <v>6865355</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45339.5</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10171,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10239,16 +10242,16 @@
         <v>6865356</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45340.375</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10257,7 +10260,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>1.444</v>
@@ -10325,16 +10328,16 @@
         <v>6864641</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10343,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>1.25</v>
@@ -10411,16 +10414,16 @@
         <v>6865361</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10429,7 +10432,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>2.25</v>
@@ -10497,16 +10500,16 @@
         <v>6865358</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45346.375</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10515,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>4.333</v>
@@ -10583,16 +10586,16 @@
         <v>6864642</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45346.5</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10601,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>3.2</v>
@@ -10669,16 +10672,16 @@
         <v>6865357</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45347.375</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10687,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10755,16 +10758,16 @@
         <v>6865360</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>5</v>
@@ -10773,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>1.166</v>
@@ -10841,17 +10844,17 @@
         <v>6865359</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45348.375</v>
       </c>
       <c r="E121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" t="s">
         <v>35</v>
       </c>
-      <c r="F121" t="s">
-        <v>34</v>
-      </c>
       <c r="G121">
         <v>2</v>
       </c>
@@ -10859,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J121">
         <v>1.833</v>
@@ -10924,85 +10927,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" t="s">
         <v>33</v>
       </c>
-      <c r="F122" t="s">
-        <v>35</v>
-      </c>
       <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122">
+        <v>1.666</v>
+      </c>
+      <c r="K122">
+        <v>3.6</v>
+      </c>
+      <c r="L122">
+        <v>4.333</v>
+      </c>
+      <c r="M122">
+        <v>1.5</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122">
+        <v>5.25</v>
+      </c>
+      <c r="P122">
+        <v>-1</v>
+      </c>
+      <c r="Q122">
+        <v>1.925</v>
+      </c>
+      <c r="R122">
+        <v>1.875</v>
+      </c>
+      <c r="S122">
+        <v>2.5</v>
+      </c>
+      <c r="T122">
+        <v>1.8</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>0.5</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>0.925</v>
+      </c>
+      <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
         <v>1</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122" t="s">
-        <v>42</v>
-      </c>
-      <c r="J122">
-        <v>2</v>
-      </c>
-      <c r="K122">
-        <v>3.3</v>
-      </c>
-      <c r="L122">
-        <v>3.25</v>
-      </c>
-      <c r="M122">
-        <v>2.3</v>
-      </c>
-      <c r="N122">
-        <v>3.2</v>
-      </c>
-      <c r="O122">
-        <v>2.75</v>
-      </c>
-      <c r="P122">
-        <v>-0.25</v>
-      </c>
-      <c r="Q122">
-        <v>2.05</v>
-      </c>
-      <c r="R122">
-        <v>1.75</v>
-      </c>
-      <c r="S122">
-        <v>2</v>
-      </c>
-      <c r="T122">
-        <v>1.9</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
-      <c r="V122">
-        <v>1.3</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>1.05</v>
-      </c>
-      <c r="Z122">
-        <v>-1</v>
-      </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11010,67 +11013,67 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J123">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O123">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11079,7 +11082,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11088,7 +11091,7 @@
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11099,16 +11102,16 @@
         <v>6865382</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45353.5</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11117,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J124">
         <v>5.75</v>
@@ -11185,16 +11188,16 @@
         <v>6865362</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11203,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J125">
         <v>3.4</v>
@@ -11271,16 +11274,16 @@
         <v>6865364</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45354.61458333334</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11289,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>3.25</v>
@@ -11357,16 +11360,16 @@
         <v>6864643</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45355.57291666666</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11375,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>1.181</v>
@@ -11443,16 +11446,16 @@
         <v>6865367</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45360.375</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11461,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11529,16 +11532,16 @@
         <v>6865368</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45360.5</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11547,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J129">
         <v>3.2</v>
@@ -11615,16 +11618,16 @@
         <v>6865366</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45360.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11633,7 +11636,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J130">
         <v>1.166</v>
@@ -11701,16 +11704,16 @@
         <v>6865365</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11719,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>2.5</v>
@@ -11787,16 +11790,16 @@
         <v>6864644</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45361.625</v>
       </c>
       <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
         <v>37</v>
-      </c>
-      <c r="F132" t="s">
-        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11805,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>1.8</v>
@@ -11873,16 +11876,16 @@
         <v>6865369</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45362.58333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11891,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J133">
         <v>1.55</v>
@@ -11959,16 +11962,16 @@
         <v>7952732</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E134" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" t="s">
         <v>39</v>
-      </c>
-      <c r="F134" t="s">
-        <v>38</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11977,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>1.909</v>
@@ -12045,16 +12048,16 @@
         <v>7952455</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45367.5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12063,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>1.363</v>
@@ -12131,16 +12134,16 @@
         <v>7952730</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45367.69791666666</v>
       </c>
       <c r="E136" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136" t="s">
         <v>30</v>
-      </c>
-      <c r="F136" t="s">
-        <v>29</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12149,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12217,16 +12220,16 @@
         <v>7952731</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12235,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J137">
         <v>1.666</v>
@@ -12303,16 +12306,16 @@
         <v>7952734</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45368.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12321,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>1.181</v>
@@ -12389,16 +12392,16 @@
         <v>7952733</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12407,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>1.3</v>
@@ -12475,16 +12478,16 @@
         <v>7952736</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45380.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12493,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>1.727</v>
@@ -12561,16 +12564,16 @@
         <v>7952738</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45380.5</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12579,7 +12582,7 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>2.9</v>
@@ -12647,16 +12650,16 @@
         <v>7952735</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12665,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12733,16 +12736,16 @@
         <v>7952739</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12751,7 +12754,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>2.25</v>
@@ -12819,16 +12822,16 @@
         <v>7952456</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45381.5</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12837,7 +12840,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>2.2</v>
@@ -12905,16 +12908,16 @@
         <v>7952737</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45381.69791666666</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12923,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12991,16 +12994,16 @@
         <v>7952740</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13009,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J146">
         <v>1.533</v>
@@ -13077,16 +13080,16 @@
         <v>7952743</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45388.65625</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13095,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>1.222</v>
@@ -13163,16 +13166,16 @@
         <v>7952742</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45389.375</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13181,7 +13184,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J148">
         <v>1.95</v>
@@ -13249,16 +13252,16 @@
         <v>7952741</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45389.65625</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13267,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>2.4</v>
@@ -13335,16 +13338,16 @@
         <v>7952744</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45390.4375</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13353,7 +13356,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J150">
         <v>1.727</v>
@@ -13421,16 +13424,16 @@
         <v>7952457</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45390.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -13439,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J151">
         <v>1.166</v>
@@ -13507,16 +13510,16 @@
         <v>7952749</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45394.4375</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13525,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13593,16 +13596,16 @@
         <v>7952746</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13611,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>1.3</v>
@@ -13679,16 +13682,16 @@
         <v>7952745</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45395.35416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13700,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J154">
         <v>2.1</v>
@@ -13765,16 +13768,16 @@
         <v>7952458</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13783,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>1.615</v>
@@ -13851,16 +13854,16 @@
         <v>7952748</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45396.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13869,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13937,16 +13940,16 @@
         <v>7952747</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45396.625</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13955,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14023,16 +14026,16 @@
         <v>7952751</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14041,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J158">
         <v>1.666</v>
@@ -14109,16 +14112,16 @@
         <v>7952754</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14127,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14195,16 +14198,16 @@
         <v>7952750</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45401.625</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14213,7 +14216,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J160">
         <v>1.25</v>
@@ -14281,16 +14284,16 @@
         <v>7952752</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>4</v>
@@ -14299,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>1.666</v>
@@ -14367,16 +14370,16 @@
         <v>7952459</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14385,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J162">
         <v>3.5</v>
@@ -14453,16 +14456,16 @@
         <v>7866183</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14471,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14539,16 +14542,16 @@
         <v>7952753</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45402.65625</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14557,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J164">
         <v>2.5</v>
@@ -14621,516 +14624,65 @@
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165">
-        <v>7952755</v>
+      <c r="B165" t="s">
+        <v>27</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
-        <v>45405.45833333334</v>
+        <v>45410.33333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J165">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="K165">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L165">
+        <v>1.571</v>
+      </c>
+      <c r="M165">
+        <v>4.75</v>
+      </c>
+      <c r="N165">
         <v>3.25</v>
       </c>
-      <c r="M165">
-        <v>2</v>
-      </c>
-      <c r="N165">
-        <v>3.4</v>
-      </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="P165">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q165">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W165">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-0.5</v>
-      </c>
-      <c r="Z165">
-        <v>0.5125</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
-      <c r="AB165">
-        <v>0.8500000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:28">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>7952758</v>
-      </c>
-      <c r="C166" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" s="2">
-        <v>45405.54166666666</v>
-      </c>
-      <c r="E166" t="s">
-        <v>28</v>
-      </c>
-      <c r="F166" t="s">
-        <v>39</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166" t="s">
-        <v>42</v>
-      </c>
-      <c r="J166">
-        <v>1.333</v>
-      </c>
-      <c r="K166">
-        <v>4.5</v>
-      </c>
-      <c r="L166">
-        <v>7</v>
-      </c>
-      <c r="M166">
-        <v>1.3</v>
-      </c>
-      <c r="N166">
-        <v>4.333</v>
-      </c>
-      <c r="O166">
-        <v>8.5</v>
-      </c>
-      <c r="P166">
-        <v>-1.5</v>
-      </c>
-      <c r="Q166">
-        <v>2</v>
-      </c>
-      <c r="R166">
-        <v>1.8</v>
-      </c>
-      <c r="S166">
-        <v>2.5</v>
-      </c>
-      <c r="T166">
-        <v>1.825</v>
-      </c>
-      <c r="U166">
-        <v>1.975</v>
-      </c>
-      <c r="V166">
-        <v>0.3</v>
-      </c>
-      <c r="W166">
-        <v>-1</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
-      <c r="Y166">
-        <v>-1</v>
-      </c>
-      <c r="Z166">
-        <v>0.8</v>
-      </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
-      <c r="AB166">
-        <v>0.9750000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:28">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>7952757</v>
-      </c>
-      <c r="C167" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="2">
-        <v>45405.64583333334</v>
-      </c>
-      <c r="E167" t="s">
-        <v>34</v>
-      </c>
-      <c r="F167" t="s">
-        <v>35</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167" t="s">
-        <v>42</v>
-      </c>
-      <c r="J167">
-        <v>1.8</v>
-      </c>
-      <c r="K167">
-        <v>3.25</v>
-      </c>
-      <c r="L167">
-        <v>4</v>
-      </c>
-      <c r="M167">
-        <v>1.4</v>
-      </c>
-      <c r="N167">
-        <v>4.2</v>
-      </c>
-      <c r="O167">
-        <v>7</v>
-      </c>
-      <c r="P167">
-        <v>-1.25</v>
-      </c>
-      <c r="Q167">
-        <v>1.95</v>
-      </c>
-      <c r="R167">
-        <v>1.85</v>
-      </c>
-      <c r="S167">
-        <v>2.25</v>
-      </c>
-      <c r="T167">
-        <v>1.85</v>
-      </c>
-      <c r="U167">
-        <v>1.95</v>
-      </c>
-      <c r="V167">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="W167">
-        <v>-1</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>-0.5</v>
-      </c>
-      <c r="Z167">
-        <v>0.425</v>
-      </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
-      <c r="AB167">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="168" spans="1:28">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>7952756</v>
-      </c>
-      <c r="C168" t="s">
-        <v>27</v>
-      </c>
-      <c r="D168" s="2">
-        <v>45406.45833333334</v>
-      </c>
-      <c r="E168" t="s">
-        <v>32</v>
-      </c>
-      <c r="F168" t="s">
-        <v>38</v>
-      </c>
-      <c r="G168">
-        <v>3</v>
-      </c>
-      <c r="H168">
-        <v>2</v>
-      </c>
-      <c r="I168" t="s">
-        <v>42</v>
-      </c>
-      <c r="J168">
-        <v>3.3</v>
-      </c>
-      <c r="K168">
-        <v>3.4</v>
-      </c>
-      <c r="L168">
-        <v>1.95</v>
-      </c>
-      <c r="M168">
-        <v>3</v>
-      </c>
-      <c r="N168">
-        <v>3.3</v>
-      </c>
-      <c r="O168">
-        <v>2.15</v>
-      </c>
-      <c r="P168">
-        <v>0.25</v>
-      </c>
-      <c r="Q168">
-        <v>1.875</v>
-      </c>
-      <c r="R168">
-        <v>1.925</v>
-      </c>
-      <c r="S168">
-        <v>2.5</v>
-      </c>
-      <c r="T168">
-        <v>1.95</v>
-      </c>
-      <c r="U168">
-        <v>1.85</v>
-      </c>
-      <c r="V168">
-        <v>2</v>
-      </c>
-      <c r="W168">
-        <v>-1</v>
-      </c>
-      <c r="X168">
-        <v>-1</v>
-      </c>
-      <c r="Y168">
-        <v>0.875</v>
-      </c>
-      <c r="Z168">
-        <v>-1</v>
-      </c>
-      <c r="AA168">
-        <v>0.95</v>
-      </c>
-      <c r="AB168">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:28">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>7952759</v>
-      </c>
-      <c r="C169" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" s="2">
-        <v>45406.54166666666</v>
-      </c>
-      <c r="E169" t="s">
-        <v>36</v>
-      </c>
-      <c r="F169" t="s">
-        <v>31</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169" t="s">
-        <v>42</v>
-      </c>
-      <c r="J169">
-        <v>1.363</v>
-      </c>
-      <c r="K169">
-        <v>4</v>
-      </c>
-      <c r="L169">
-        <v>7.5</v>
-      </c>
-      <c r="M169">
-        <v>1.181</v>
-      </c>
-      <c r="N169">
-        <v>5.5</v>
-      </c>
-      <c r="O169">
-        <v>13</v>
-      </c>
-      <c r="P169">
-        <v>-1.75</v>
-      </c>
-      <c r="Q169">
-        <v>1.825</v>
-      </c>
-      <c r="R169">
-        <v>1.975</v>
-      </c>
-      <c r="S169">
-        <v>2.75</v>
-      </c>
-      <c r="T169">
-        <v>2</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>0.181</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>7952460</v>
-      </c>
-      <c r="C170" t="s">
-        <v>27</v>
-      </c>
-      <c r="D170" s="2">
-        <v>45406.64583333334</v>
-      </c>
-      <c r="E170" t="s">
-        <v>37</v>
-      </c>
-      <c r="F170" t="s">
-        <v>30</v>
-      </c>
-      <c r="G170">
-        <v>4</v>
-      </c>
-      <c r="H170">
-        <v>3</v>
-      </c>
-      <c r="I170" t="s">
-        <v>42</v>
-      </c>
-      <c r="J170">
-        <v>1.444</v>
-      </c>
-      <c r="K170">
-        <v>4</v>
-      </c>
-      <c r="L170">
-        <v>6</v>
-      </c>
-      <c r="M170">
-        <v>1.444</v>
-      </c>
-      <c r="N170">
-        <v>3.75</v>
-      </c>
-      <c r="O170">
-        <v>6.5</v>
-      </c>
-      <c r="P170">
-        <v>-1</v>
-      </c>
-      <c r="Q170">
-        <v>1.775</v>
-      </c>
-      <c r="R170">
-        <v>2.025</v>
-      </c>
-      <c r="S170">
-        <v>2.25</v>
-      </c>
-      <c r="T170">
-        <v>1.925</v>
-      </c>
-      <c r="U170">
-        <v>1.875</v>
-      </c>
-      <c r="V170">
-        <v>0.444</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>0</v>
-      </c>
-      <c r="Z170">
-        <v>0</v>
-      </c>
-      <c r="AA170">
-        <v>0.925</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7952763</t>
+  </si>
+  <si>
+    <t>7952760</t>
   </si>
   <si>
     <t>7952761</t>
@@ -513,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB165"/>
+  <dimension ref="A1:AB173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +616,16 @@
         <v>6865272</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -628,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>1.571</v>
@@ -696,16 +702,16 @@
         <v>6993416</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45137.5</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -714,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -782,16 +788,16 @@
         <v>6865275</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -800,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>1.444</v>
@@ -868,16 +874,16 @@
         <v>6865279</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -886,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>2.1</v>
@@ -954,16 +960,16 @@
         <v>6865277</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45143.5</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -972,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1040,16 +1046,16 @@
         <v>6865280</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1058,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>1.333</v>
@@ -1126,16 +1132,16 @@
         <v>7045985</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1144,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>1.5</v>
@@ -1209,43 +1215,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
+        <v>3.2</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
         <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>1.75</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
       </c>
       <c r="O9">
         <v>3.4</v>
@@ -1254,10 +1260,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -1269,7 +1275,7 @@
         <v>1.95</v>
       </c>
       <c r="V9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1278,7 +1284,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1295,43 +1301,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O10">
         <v>3.4</v>
@@ -1340,10 +1346,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>2.5</v>
@@ -1355,7 +1361,7 @@
         <v>1.95</v>
       </c>
       <c r="V10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1364,7 +1370,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -1384,16 +1390,16 @@
         <v>7051290</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45150.65625</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1402,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>2.25</v>
@@ -1470,16 +1476,16 @@
         <v>6865283</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1488,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>2.2</v>
@@ -1556,16 +1562,16 @@
         <v>6865372</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45157.5</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1574,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <v>2.1</v>
@@ -1642,16 +1648,16 @@
         <v>6865286</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1660,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J14">
         <v>2.6</v>
@@ -1728,16 +1734,16 @@
         <v>6864626</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45158.60416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1746,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J15">
         <v>1.55</v>
@@ -1814,16 +1820,16 @@
         <v>6865289</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45158.625</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1832,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1900,16 +1906,16 @@
         <v>6865288</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45158.6875</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1918,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1986,16 +1992,16 @@
         <v>6865287</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45159.5</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2004,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J18">
         <v>1.833</v>
@@ -2072,16 +2078,16 @@
         <v>6864627</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45163.625</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2090,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2158,16 +2164,16 @@
         <v>6865293</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45164.5</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2176,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2244,16 +2250,16 @@
         <v>6865292</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2262,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J21">
         <v>1.615</v>
@@ -2330,16 +2336,16 @@
         <v>6865290</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2348,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>1.444</v>
@@ -2416,16 +2422,16 @@
         <v>6865373</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45165.61458333334</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2434,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J23">
         <v>1.285</v>
@@ -2502,16 +2508,16 @@
         <v>6865291</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45166.66666666666</v>
       </c>
       <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
         <v>31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2520,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2588,16 +2594,16 @@
         <v>7138484</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2606,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J25">
         <v>1.65</v>
@@ -2674,16 +2680,16 @@
         <v>7141242</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45170.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2692,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2760,16 +2766,16 @@
         <v>6865294</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2778,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2846,16 +2852,16 @@
         <v>6865297</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2864,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>3.4</v>
@@ -2932,16 +2938,16 @@
         <v>6865296</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2950,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J29">
         <v>1.909</v>
@@ -3018,16 +3024,16 @@
         <v>6865295</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3036,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J30">
         <v>1.8</v>
@@ -3104,16 +3110,16 @@
         <v>7100644</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45182.5625</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3122,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J31">
         <v>1.2</v>
@@ -3190,16 +3196,16 @@
         <v>6865374</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45184.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3208,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>2.6</v>
@@ -3276,16 +3282,16 @@
         <v>6865301</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45184.5625</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3294,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>1.363</v>
@@ -3362,16 +3368,16 @@
         <v>6865302</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3380,7 +3386,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J34">
         <v>2.25</v>
@@ -3448,16 +3454,16 @@
         <v>6865300</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45185.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3466,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>3.6</v>
@@ -3534,16 +3540,16 @@
         <v>6864629</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3552,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>1.363</v>
@@ -3620,16 +3626,16 @@
         <v>6865299</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3638,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J37">
         <v>1.25</v>
@@ -3706,16 +3712,16 @@
         <v>7078203</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45189.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3724,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3792,16 +3798,16 @@
         <v>6865307</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45191.625</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3810,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>2.7</v>
@@ -3878,16 +3884,16 @@
         <v>6864630</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
         <v>39</v>
-      </c>
-      <c r="F40" t="s">
-        <v>37</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3896,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J40">
         <v>2.7</v>
@@ -3964,16 +3970,16 @@
         <v>6865305</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3982,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>1.909</v>
@@ -4050,16 +4056,16 @@
         <v>7217268</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45192.65625</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4068,7 +4074,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>1.333</v>
@@ -4136,16 +4142,16 @@
         <v>6865303</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45193.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4154,7 +4160,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4222,16 +4228,16 @@
         <v>7217461</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45193.61458333334</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4240,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4308,16 +4314,16 @@
         <v>7117521</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4326,7 +4332,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4394,16 +4400,16 @@
         <v>7174900</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45196.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4412,7 +4418,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4480,16 +4486,16 @@
         <v>6865312</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45199.5625</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4498,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>1.8</v>
@@ -4566,16 +4572,16 @@
         <v>6865308</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45199.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4584,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J48">
         <v>1.285</v>
@@ -4652,16 +4658,16 @@
         <v>6865310</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4670,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J49">
         <v>3.4</v>
@@ -4738,16 +4744,16 @@
         <v>6865311</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4756,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>1.833</v>
@@ -4824,16 +4830,16 @@
         <v>6864631</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45200.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4842,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J51">
         <v>1.8</v>
@@ -4910,16 +4916,16 @@
         <v>6865309</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45201.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4928,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J52">
         <v>1.666</v>
@@ -4996,16 +5002,16 @@
         <v>6865313</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5014,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5082,16 +5088,16 @@
         <v>6865375</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5100,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J54">
         <v>2.45</v>
@@ -5168,16 +5174,16 @@
         <v>6864632</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5186,7 +5192,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J55">
         <v>3.6</v>
@@ -5254,17 +5260,17 @@
         <v>6865314</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s">
         <v>36</v>
       </c>
-      <c r="F56" t="s">
-        <v>34</v>
-      </c>
       <c r="G56">
         <v>2</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>1.55</v>
@@ -5340,16 +5346,16 @@
         <v>6865315</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5358,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J57">
         <v>1.6</v>
@@ -5426,16 +5432,16 @@
         <v>6865376</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45208.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5444,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J58">
         <v>1.166</v>
@@ -5512,16 +5518,16 @@
         <v>7217267</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45217.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5530,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J59">
         <v>1.444</v>
@@ -5598,16 +5604,16 @@
         <v>7117579</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45217.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5616,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5684,16 +5690,16 @@
         <v>6865318</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5702,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5770,17 +5776,17 @@
         <v>6865319</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45220.5625</v>
       </c>
       <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
         <v>32</v>
       </c>
-      <c r="F62" t="s">
-        <v>30</v>
-      </c>
       <c r="G62">
         <v>0</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>1.8</v>
@@ -5856,16 +5862,16 @@
         <v>6865316</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
         <v>35</v>
-      </c>
-      <c r="F63" t="s">
-        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5874,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <v>1.444</v>
@@ -5942,16 +5948,16 @@
         <v>6865317</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5960,7 +5966,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6028,16 +6034,16 @@
         <v>6864633</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45221.61458333334</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6046,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -6114,16 +6120,16 @@
         <v>7355528</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45222.39583333334</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6132,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -6200,16 +6206,16 @@
         <v>6865325</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45226.375</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6218,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J67">
         <v>2.8</v>
@@ -6286,16 +6292,16 @@
         <v>6865324</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6304,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6372,16 +6378,16 @@
         <v>6864634</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6390,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J69">
         <v>1.666</v>
@@ -6458,16 +6464,16 @@
         <v>6865321</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6476,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J70">
         <v>3.8</v>
@@ -6544,16 +6550,16 @@
         <v>6865323</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45228.61111111111</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6562,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>3.75</v>
@@ -6630,16 +6636,16 @@
         <v>6865322</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45229.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6648,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J72">
         <v>1.7</v>
@@ -6716,16 +6722,16 @@
         <v>7422880</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6734,7 +6740,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J73">
         <v>2.25</v>
@@ -6802,16 +6808,16 @@
         <v>6865326</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45234.375</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6820,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>1.727</v>
@@ -6888,16 +6894,16 @@
         <v>6865327</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45234.5</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6906,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>1.615</v>
@@ -6971,10 +6977,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45235.375</v>
@@ -6983,73 +6989,73 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7057,22 +7063,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7081,61 +7087,61 @@
         <v>45</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7146,16 +7152,16 @@
         <v>6864635</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45235.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7164,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J78">
         <v>2.25</v>
@@ -7232,16 +7238,16 @@
         <v>6865334</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45241.375</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7250,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>1.727</v>
@@ -7318,16 +7324,16 @@
         <v>6865333</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45241.69791666666</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7336,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J80">
         <v>2.75</v>
@@ -7404,16 +7410,16 @@
         <v>6865330</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45242.375</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7422,7 +7428,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J81">
         <v>2.3</v>
@@ -7490,16 +7496,16 @@
         <v>6864636</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45242.46875</v>
       </c>
       <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" t="s">
         <v>37</v>
-      </c>
-      <c r="F82" t="s">
-        <v>35</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7508,7 +7514,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7576,16 +7582,16 @@
         <v>6865331</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45243.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7594,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7662,16 +7668,16 @@
         <v>7328799</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45252.58333333334</v>
       </c>
       <c r="E84" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" t="s">
         <v>38</v>
-      </c>
-      <c r="F84" t="s">
-        <v>36</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7680,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J84">
         <v>1.222</v>
@@ -7748,16 +7754,16 @@
         <v>7505498</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>6</v>
@@ -7766,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7834,16 +7840,16 @@
         <v>7505496</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45255.375</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7852,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J86">
         <v>4.5</v>
@@ -7920,16 +7926,16 @@
         <v>7505495</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7938,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>1.444</v>
@@ -8006,16 +8012,16 @@
         <v>7505497</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8024,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J88">
         <v>1.65</v>
@@ -8092,16 +8098,16 @@
         <v>7505494</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8110,7 +8116,7 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J89">
         <v>5.5</v>
@@ -8178,16 +8184,16 @@
         <v>7505499</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45256.65625</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8196,7 +8202,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8264,16 +8270,16 @@
         <v>6865340</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8282,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>2.3</v>
@@ -8350,16 +8356,16 @@
         <v>6865341</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45262.39583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8368,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J92">
         <v>2.2</v>
@@ -8436,16 +8442,16 @@
         <v>7107310</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45262.5</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8454,7 +8460,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J93">
         <v>9.5</v>
@@ -8522,16 +8528,16 @@
         <v>6865342</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45263.375</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8540,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J94">
         <v>1.571</v>
@@ -8608,16 +8614,16 @@
         <v>6865339</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45263.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8626,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J95">
         <v>2.4</v>
@@ -8694,16 +8700,16 @@
         <v>6865379</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45264.375</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8712,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J96">
         <v>8.5</v>
@@ -8780,16 +8786,16 @@
         <v>7462473</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45266.375</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8798,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J97">
         <v>2.75</v>
@@ -8866,16 +8872,16 @@
         <v>6865345</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8884,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J98">
         <v>2.625</v>
@@ -8949,85 +8955,85 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45269.375</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="K99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.2</v>
+      </c>
+      <c r="N99">
+        <v>2.8</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
+        <v>-0.25</v>
+      </c>
+      <c r="Q99">
+        <v>1.95</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>1.75</v>
+      </c>
+      <c r="T99">
+        <v>1.875</v>
+      </c>
+      <c r="U99">
+        <v>1.925</v>
+      </c>
+      <c r="V99">
         <v>1.2</v>
       </c>
-      <c r="M99">
-        <v>10</v>
-      </c>
-      <c r="N99">
-        <v>6.5</v>
-      </c>
-      <c r="O99">
-        <v>1.181</v>
-      </c>
-      <c r="P99">
-        <v>2</v>
-      </c>
-      <c r="Q99">
-        <v>1.825</v>
-      </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>3</v>
-      </c>
-      <c r="T99">
-        <v>1.9</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>-1</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9035,85 +9041,85 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="K100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="M100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="N100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="P100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9124,16 +9130,16 @@
         <v>6865346</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45269.5</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9142,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J101">
         <v>1.3</v>
@@ -9210,16 +9216,16 @@
         <v>6865344</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45270.375</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9228,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9296,16 +9302,16 @@
         <v>6865347</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45270.46875</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9314,7 +9320,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J103">
         <v>5.5</v>
@@ -9382,16 +9388,16 @@
         <v>6864640</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9400,7 +9406,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J104">
         <v>4</v>
@@ -9468,16 +9474,16 @@
         <v>6865380</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45276.375</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9486,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9554,16 +9560,16 @@
         <v>6865350</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45276.5</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9572,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9640,16 +9646,16 @@
         <v>6865348</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45277.375</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9658,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J107">
         <v>2.625</v>
@@ -9726,16 +9732,16 @@
         <v>6865351</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9744,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J108">
         <v>1.4</v>
@@ -9812,16 +9818,16 @@
         <v>6865349</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45278.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9830,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>1.727</v>
@@ -9898,16 +9904,16 @@
         <v>6865353</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9916,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J110">
         <v>3.25</v>
@@ -9984,16 +9990,16 @@
         <v>6865352</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10002,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J111">
         <v>1.615</v>
@@ -10070,16 +10076,16 @@
         <v>6865354</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45339.375</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10088,7 +10094,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J112">
         <v>1.8</v>
@@ -10156,16 +10162,16 @@
         <v>6865355</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45339.5</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10174,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10242,16 +10248,16 @@
         <v>6865356</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45340.375</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10260,7 +10266,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J114">
         <v>1.444</v>
@@ -10328,16 +10334,16 @@
         <v>6864641</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10346,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J115">
         <v>1.25</v>
@@ -10414,16 +10420,16 @@
         <v>6865361</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10432,7 +10438,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J116">
         <v>2.25</v>
@@ -10500,16 +10506,16 @@
         <v>6865358</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
         <v>45346.375</v>
       </c>
       <c r="E117" t="s">
+        <v>35</v>
+      </c>
+      <c r="F117" t="s">
         <v>33</v>
-      </c>
-      <c r="F117" t="s">
-        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10518,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <v>4.333</v>
@@ -10586,16 +10592,16 @@
         <v>6864642</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2">
         <v>45346.5</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10604,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>3.2</v>
@@ -10672,16 +10678,16 @@
         <v>6865357</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D119" s="2">
         <v>45347.375</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10690,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10758,16 +10764,16 @@
         <v>6865360</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>5</v>
@@ -10776,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J120">
         <v>1.166</v>
@@ -10844,16 +10850,16 @@
         <v>6865359</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
         <v>45348.375</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10862,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J121">
         <v>1.833</v>
@@ -10927,67 +10933,67 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -10996,7 +11002,7 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11005,7 +11011,7 @@
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11013,85 +11019,85 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D123" s="2">
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>45</v>
+      </c>
+      <c r="J123">
+        <v>1.666</v>
+      </c>
+      <c r="K123">
+        <v>3.6</v>
+      </c>
+      <c r="L123">
+        <v>4.333</v>
+      </c>
+      <c r="M123">
+        <v>1.5</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123">
+        <v>5.25</v>
+      </c>
+      <c r="P123">
+        <v>-1</v>
+      </c>
+      <c r="Q123">
+        <v>1.925</v>
+      </c>
+      <c r="R123">
+        <v>1.875</v>
+      </c>
+      <c r="S123">
+        <v>2.5</v>
+      </c>
+      <c r="T123">
+        <v>1.8</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>0.5</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>0.925</v>
+      </c>
+      <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
         <v>1</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123" t="s">
-        <v>43</v>
-      </c>
-      <c r="J123">
-        <v>2</v>
-      </c>
-      <c r="K123">
-        <v>3.3</v>
-      </c>
-      <c r="L123">
-        <v>3.25</v>
-      </c>
-      <c r="M123">
-        <v>2.3</v>
-      </c>
-      <c r="N123">
-        <v>3.2</v>
-      </c>
-      <c r="O123">
-        <v>2.75</v>
-      </c>
-      <c r="P123">
-        <v>-0.25</v>
-      </c>
-      <c r="Q123">
-        <v>2.05</v>
-      </c>
-      <c r="R123">
-        <v>1.75</v>
-      </c>
-      <c r="S123">
-        <v>2</v>
-      </c>
-      <c r="T123">
-        <v>1.9</v>
-      </c>
-      <c r="U123">
-        <v>1.9</v>
-      </c>
-      <c r="V123">
-        <v>1.3</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
-      <c r="Y123">
-        <v>1.05</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
-      <c r="AB123">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11102,16 +11108,16 @@
         <v>6865382</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D124" s="2">
         <v>45353.5</v>
       </c>
       <c r="E124" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124" t="s">
         <v>40</v>
-      </c>
-      <c r="F124" t="s">
-        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11120,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J124">
         <v>5.75</v>
@@ -11188,16 +11194,16 @@
         <v>6865362</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11206,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J125">
         <v>3.4</v>
@@ -11274,16 +11280,16 @@
         <v>6865364</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
         <v>45354.61458333334</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11292,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>3.25</v>
@@ -11360,16 +11366,16 @@
         <v>6864643</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2">
         <v>45355.57291666666</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11378,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J127">
         <v>1.181</v>
@@ -11446,16 +11452,16 @@
         <v>6865367</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
         <v>45360.375</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11464,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11532,16 +11538,16 @@
         <v>6865368</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2">
         <v>45360.5</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11550,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J129">
         <v>3.2</v>
@@ -11618,16 +11624,16 @@
         <v>6865366</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
         <v>45360.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11636,7 +11642,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>1.166</v>
@@ -11704,16 +11710,16 @@
         <v>6865365</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11722,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J131">
         <v>2.5</v>
@@ -11790,16 +11796,16 @@
         <v>6864644</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2">
         <v>45361.625</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11808,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J132">
         <v>1.8</v>
@@ -11876,16 +11882,16 @@
         <v>6865369</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D133" s="2">
         <v>45362.58333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11894,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>1.55</v>
@@ -11962,16 +11968,16 @@
         <v>7952732</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D134" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11980,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J134">
         <v>1.909</v>
@@ -12048,16 +12054,16 @@
         <v>7952455</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D135" s="2">
         <v>45367.5</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12066,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J135">
         <v>1.363</v>
@@ -12134,16 +12140,16 @@
         <v>7952730</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D136" s="2">
         <v>45367.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12152,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12220,16 +12226,16 @@
         <v>7952731</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D137" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12238,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>1.666</v>
@@ -12306,16 +12312,16 @@
         <v>7952734</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2">
         <v>45368.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12324,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J138">
         <v>1.181</v>
@@ -12392,16 +12398,16 @@
         <v>7952733</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D139" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12410,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>1.3</v>
@@ -12478,16 +12484,16 @@
         <v>7952736</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D140" s="2">
         <v>45380.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12496,7 +12502,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J140">
         <v>1.727</v>
@@ -12564,16 +12570,16 @@
         <v>7952738</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2">
         <v>45380.5</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12582,7 +12588,7 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J141">
         <v>2.9</v>
@@ -12650,16 +12656,16 @@
         <v>7952735</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D142" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12668,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12736,16 +12742,16 @@
         <v>7952739</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D143" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12754,7 +12760,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J143">
         <v>2.25</v>
@@ -12822,16 +12828,16 @@
         <v>7952456</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D144" s="2">
         <v>45381.5</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12840,7 +12846,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J144">
         <v>2.2</v>
@@ -12908,16 +12914,16 @@
         <v>7952737</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2">
         <v>45381.69791666666</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12926,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12994,16 +13000,16 @@
         <v>7952740</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D146" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13012,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J146">
         <v>1.533</v>
@@ -13080,16 +13086,16 @@
         <v>7952743</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D147" s="2">
         <v>45388.65625</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13098,7 +13104,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J147">
         <v>1.222</v>
@@ -13166,16 +13172,16 @@
         <v>7952742</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D148" s="2">
         <v>45389.375</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13184,7 +13190,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J148">
         <v>1.95</v>
@@ -13252,16 +13258,16 @@
         <v>7952741</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D149" s="2">
         <v>45389.65625</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13270,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J149">
         <v>2.4</v>
@@ -13338,16 +13344,16 @@
         <v>7952744</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D150" s="2">
         <v>45390.4375</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13356,7 +13362,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J150">
         <v>1.727</v>
@@ -13424,16 +13430,16 @@
         <v>7952457</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D151" s="2">
         <v>45390.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -13442,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>1.166</v>
@@ -13510,16 +13516,16 @@
         <v>7952749</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D152" s="2">
         <v>45394.4375</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13528,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13596,16 +13602,16 @@
         <v>7952746</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D153" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13614,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J153">
         <v>1.3</v>
@@ -13682,16 +13688,16 @@
         <v>7952745</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D154" s="2">
         <v>45395.35416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13700,7 +13706,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J154">
         <v>2.1</v>
@@ -13768,16 +13774,16 @@
         <v>7952458</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D155" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13786,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J155">
         <v>1.615</v>
@@ -13854,16 +13860,16 @@
         <v>7952748</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D156" s="2">
         <v>45396.33333333334</v>
       </c>
       <c r="E156" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" t="s">
         <v>34</v>
-      </c>
-      <c r="F156" t="s">
-        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13872,7 +13878,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13940,16 +13946,16 @@
         <v>7952747</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D157" s="2">
         <v>45396.625</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13958,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14026,16 +14032,16 @@
         <v>7952751</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D158" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14044,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J158">
         <v>1.666</v>
@@ -14112,16 +14118,16 @@
         <v>7952754</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D159" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14130,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14198,16 +14204,16 @@
         <v>7952750</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D160" s="2">
         <v>45401.625</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14216,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J160">
         <v>1.25</v>
@@ -14284,16 +14290,16 @@
         <v>7952752</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D161" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" t="s">
         <v>36</v>
-      </c>
-      <c r="F161" t="s">
-        <v>34</v>
       </c>
       <c r="G161">
         <v>4</v>
@@ -14302,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J161">
         <v>1.666</v>
@@ -14370,17 +14376,17 @@
         <v>7952459</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D162" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E162" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162" t="s">
         <v>40</v>
       </c>
-      <c r="F162" t="s">
-        <v>38</v>
-      </c>
       <c r="G162">
         <v>0</v>
       </c>
@@ -14388,7 +14394,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J162">
         <v>3.5</v>
@@ -14456,16 +14462,16 @@
         <v>7866183</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D163" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14474,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14542,16 +14548,16 @@
         <v>7952753</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D164" s="2">
         <v>45402.65625</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14560,7 +14566,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J164">
         <v>2.5</v>
@@ -14624,64 +14630,710 @@
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>27</v>
+      <c r="B165">
+        <v>7952755</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D165" s="2">
-        <v>45410.33333333334</v>
+        <v>45405.45833333334</v>
       </c>
       <c r="E165" t="s">
         <v>36</v>
       </c>
       <c r="F165" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>47</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <v>3.3</v>
+      </c>
+      <c r="L165">
+        <v>3.25</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>3.4</v>
+      </c>
+      <c r="O165">
+        <v>3.2</v>
+      </c>
+      <c r="P165">
+        <v>-0.25</v>
+      </c>
+      <c r="Q165">
+        <v>1.775</v>
+      </c>
+      <c r="R165">
+        <v>2.025</v>
+      </c>
+      <c r="S165">
+        <v>2.5</v>
+      </c>
+      <c r="T165">
+        <v>1.95</v>
+      </c>
+      <c r="U165">
+        <v>1.85</v>
+      </c>
+      <c r="V165">
+        <v>-1</v>
+      </c>
+      <c r="W165">
+        <v>2.4</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>-0.5</v>
+      </c>
+      <c r="Z165">
+        <v>0.5125</v>
+      </c>
+      <c r="AA165">
+        <v>-1</v>
+      </c>
+      <c r="AB165">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7952758</v>
+      </c>
+      <c r="C166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45405.54166666666</v>
+      </c>
+      <c r="E166" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166" t="s">
+        <v>42</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>45</v>
+      </c>
+      <c r="J166">
+        <v>1.333</v>
+      </c>
+      <c r="K166">
+        <v>4.5</v>
+      </c>
+      <c r="L166">
+        <v>7</v>
+      </c>
+      <c r="M166">
+        <v>1.3</v>
+      </c>
+      <c r="N166">
+        <v>4.333</v>
+      </c>
+      <c r="O166">
+        <v>8.5</v>
+      </c>
+      <c r="P166">
+        <v>-1.5</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>1.8</v>
+      </c>
+      <c r="S166">
+        <v>2.5</v>
+      </c>
+      <c r="T166">
+        <v>1.825</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
+        <v>0.3</v>
+      </c>
+      <c r="W166">
+        <v>-1</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.8</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7952757</v>
+      </c>
+      <c r="C167" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45405.64583333334</v>
+      </c>
+      <c r="E167" t="s">
         <v>37</v>
       </c>
-      <c r="J165">
+      <c r="F167" t="s">
+        <v>38</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>45</v>
+      </c>
+      <c r="J167">
+        <v>1.8</v>
+      </c>
+      <c r="K167">
+        <v>3.25</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>1.4</v>
+      </c>
+      <c r="N167">
+        <v>4.2</v>
+      </c>
+      <c r="O167">
+        <v>7</v>
+      </c>
+      <c r="P167">
+        <v>-1.25</v>
+      </c>
+      <c r="Q167">
+        <v>1.95</v>
+      </c>
+      <c r="R167">
+        <v>1.85</v>
+      </c>
+      <c r="S167">
+        <v>2.25</v>
+      </c>
+      <c r="T167">
+        <v>1.85</v>
+      </c>
+      <c r="U167">
+        <v>1.95</v>
+      </c>
+      <c r="V167">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
+        <v>-0.5</v>
+      </c>
+      <c r="Z167">
+        <v>0.425</v>
+      </c>
+      <c r="AA167">
+        <v>-1</v>
+      </c>
+      <c r="AB167">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>7952756</v>
+      </c>
+      <c r="C168" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45406.45833333334</v>
+      </c>
+      <c r="E168" t="s">
+        <v>35</v>
+      </c>
+      <c r="F168" t="s">
+        <v>41</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168" t="s">
+        <v>45</v>
+      </c>
+      <c r="J168">
+        <v>3.3</v>
+      </c>
+      <c r="K168">
+        <v>3.4</v>
+      </c>
+      <c r="L168">
+        <v>1.95</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>3.3</v>
+      </c>
+      <c r="O168">
+        <v>2.15</v>
+      </c>
+      <c r="P168">
+        <v>0.25</v>
+      </c>
+      <c r="Q168">
+        <v>1.875</v>
+      </c>
+      <c r="R168">
+        <v>1.925</v>
+      </c>
+      <c r="S168">
+        <v>2.5</v>
+      </c>
+      <c r="T168">
+        <v>1.95</v>
+      </c>
+      <c r="U168">
+        <v>1.85</v>
+      </c>
+      <c r="V168">
+        <v>2</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>0.875</v>
+      </c>
+      <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.95</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7952759</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45406.54166666666</v>
+      </c>
+      <c r="E169" t="s">
+        <v>39</v>
+      </c>
+      <c r="F169" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>45</v>
+      </c>
+      <c r="J169">
+        <v>1.363</v>
+      </c>
+      <c r="K169">
+        <v>4</v>
+      </c>
+      <c r="L169">
+        <v>7.5</v>
+      </c>
+      <c r="M169">
+        <v>1.181</v>
+      </c>
+      <c r="N169">
         <v>5.5</v>
       </c>
-      <c r="K165">
+      <c r="O169">
+        <v>13</v>
+      </c>
+      <c r="P169">
+        <v>-1.75</v>
+      </c>
+      <c r="Q169">
+        <v>1.825</v>
+      </c>
+      <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>2.75</v>
+      </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
+      <c r="U169">
+        <v>1.8</v>
+      </c>
+      <c r="V169">
+        <v>0.181</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>7952460</v>
+      </c>
+      <c r="C170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45406.64583333334</v>
+      </c>
+      <c r="E170" t="s">
+        <v>40</v>
+      </c>
+      <c r="F170" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170">
+        <v>4</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="I170" t="s">
+        <v>45</v>
+      </c>
+      <c r="J170">
+        <v>1.444</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>6</v>
+      </c>
+      <c r="M170">
+        <v>1.444</v>
+      </c>
+      <c r="N170">
+        <v>3.75</v>
+      </c>
+      <c r="O170">
+        <v>6.5</v>
+      </c>
+      <c r="P170">
+        <v>-1</v>
+      </c>
+      <c r="Q170">
+        <v>1.775</v>
+      </c>
+      <c r="R170">
+        <v>2.025</v>
+      </c>
+      <c r="S170">
+        <v>2.25</v>
+      </c>
+      <c r="T170">
+        <v>1.925</v>
+      </c>
+      <c r="U170">
+        <v>1.875</v>
+      </c>
+      <c r="V170">
+        <v>0.444</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0.925</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45409.35416666666</v>
+      </c>
+      <c r="E171" t="s">
+        <v>42</v>
+      </c>
+      <c r="F171" t="s">
+        <v>35</v>
+      </c>
+      <c r="J171">
+        <v>1.5</v>
+      </c>
+      <c r="K171">
+        <v>3.6</v>
+      </c>
+      <c r="L171">
+        <v>5.75</v>
+      </c>
+      <c r="M171">
+        <v>1.909</v>
+      </c>
+      <c r="N171">
         <v>3.4</v>
       </c>
-      <c r="L165">
+      <c r="O171">
+        <v>3.5</v>
+      </c>
+      <c r="P171">
+        <v>-0.5</v>
+      </c>
+      <c r="Q171">
+        <v>1.975</v>
+      </c>
+      <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
+        <v>2.5</v>
+      </c>
+      <c r="T171">
+        <v>1.85</v>
+      </c>
+      <c r="U171">
+        <v>1.95</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" t="s">
+        <v>30</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="E172" t="s">
+        <v>32</v>
+      </c>
+      <c r="F172" t="s">
+        <v>37</v>
+      </c>
+      <c r="J172">
+        <v>1.833</v>
+      </c>
+      <c r="K172">
+        <v>3.4</v>
+      </c>
+      <c r="L172">
+        <v>3.6</v>
+      </c>
+      <c r="M172">
+        <v>2.5</v>
+      </c>
+      <c r="N172">
+        <v>3.4</v>
+      </c>
+      <c r="O172">
+        <v>2.45</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>1.925</v>
+      </c>
+      <c r="R172">
+        <v>1.875</v>
+      </c>
+      <c r="S172">
+        <v>2.25</v>
+      </c>
+      <c r="T172">
+        <v>2.05</v>
+      </c>
+      <c r="U172">
+        <v>1.75</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" t="s">
+        <v>30</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45410.33333333334</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>39</v>
+      </c>
+      <c r="J173">
+        <v>5.5</v>
+      </c>
+      <c r="K173">
+        <v>3.4</v>
+      </c>
+      <c r="L173">
         <v>1.571</v>
       </c>
-      <c r="M165">
-        <v>4.75</v>
-      </c>
-      <c r="N165">
-        <v>3.25</v>
-      </c>
-      <c r="O165">
-        <v>1.666</v>
-      </c>
-      <c r="P165">
+      <c r="M173">
+        <v>5.25</v>
+      </c>
+      <c r="N173">
+        <v>3.3</v>
+      </c>
+      <c r="O173">
+        <v>1.615</v>
+      </c>
+      <c r="P173">
         <v>0.75</v>
       </c>
-      <c r="Q165">
+      <c r="Q173">
+        <v>1.95</v>
+      </c>
+      <c r="R173">
         <v>1.85</v>
       </c>
-      <c r="R165">
-        <v>1.95</v>
-      </c>
-      <c r="S165">
+      <c r="S173">
         <v>2.25</v>
       </c>
-      <c r="T165">
+      <c r="T173">
         <v>1.875</v>
       </c>
-      <c r="U165">
+      <c r="U173">
         <v>1.925</v>
       </c>
-      <c r="V165">
-        <v>0</v>
-      </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="X165">
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
         <v>0</v>
       </c>
     </row>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7952763</t>
   </si>
   <si>
     <t>7952760</t>
@@ -519,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB173"/>
+  <dimension ref="A1:AB172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,16 +613,16 @@
         <v>6865272</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -634,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>1.571</v>
@@ -702,16 +699,16 @@
         <v>6993416</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45137.5</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -720,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -788,16 +785,16 @@
         <v>6865275</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -806,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>1.444</v>
@@ -874,16 +871,16 @@
         <v>6865279</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -892,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>2.1</v>
@@ -960,16 +957,16 @@
         <v>6865277</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45143.5</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -978,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1046,17 +1043,17 @@
         <v>6865280</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>1.333</v>
@@ -1132,16 +1129,16 @@
         <v>7045985</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>1.5</v>
@@ -1218,16 +1215,16 @@
         <v>6865285</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1236,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1304,16 +1301,16 @@
         <v>6865281</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>1.75</v>
@@ -1390,16 +1387,16 @@
         <v>7051290</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45150.65625</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1408,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>2.25</v>
@@ -1476,16 +1473,16 @@
         <v>6865283</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1494,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2.2</v>
@@ -1562,16 +1559,16 @@
         <v>6865372</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45157.5</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1580,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>2.1</v>
@@ -1648,16 +1645,16 @@
         <v>6865286</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1666,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>2.6</v>
@@ -1734,16 +1731,16 @@
         <v>6864626</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45158.60416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1752,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.55</v>
@@ -1820,16 +1817,16 @@
         <v>6865289</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45158.625</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1838,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1906,16 +1903,16 @@
         <v>6865288</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45158.6875</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1924,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1992,16 +1989,16 @@
         <v>6865287</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45159.5</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2010,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>1.833</v>
@@ -2078,16 +2075,16 @@
         <v>6864627</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45163.625</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2096,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2164,16 +2161,16 @@
         <v>6865293</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45164.5</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2182,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2250,16 +2247,16 @@
         <v>6865292</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2268,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>1.615</v>
@@ -2336,16 +2333,16 @@
         <v>6865290</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2354,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>1.444</v>
@@ -2422,16 +2419,16 @@
         <v>6865373</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45165.61458333334</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2440,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>1.285</v>
@@ -2508,16 +2505,16 @@
         <v>6865291</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45166.66666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2526,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2594,16 +2591,16 @@
         <v>7138484</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2612,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>1.65</v>
@@ -2680,16 +2677,16 @@
         <v>7141242</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45170.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2698,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2766,16 +2763,16 @@
         <v>6865294</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2784,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2852,17 +2849,17 @@
         <v>6865297</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
         <v>32</v>
       </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
       <c r="G28">
         <v>2</v>
       </c>
@@ -2870,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28">
         <v>3.4</v>
@@ -2935,67 +2932,67 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
+        <v>1.615</v>
+      </c>
+      <c r="N29">
+        <v>3.5</v>
+      </c>
+      <c r="O29">
+        <v>4.5</v>
+      </c>
+      <c r="P29">
+        <v>-0.75</v>
+      </c>
+      <c r="Q29">
+        <v>1.85</v>
+      </c>
+      <c r="R29">
         <v>1.95</v>
       </c>
-      <c r="N29">
-        <v>3.2</v>
-      </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>-0.5</v>
-      </c>
-      <c r="Q29">
-        <v>2.025</v>
-      </c>
-      <c r="R29">
-        <v>1.775</v>
-      </c>
       <c r="S29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3004,16 +3001,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3021,67 +3018,67 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
         <v>36</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K30">
+        <v>3.2</v>
+      </c>
+      <c r="L30">
+        <v>3.6</v>
+      </c>
+      <c r="M30">
+        <v>1.95</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="L30">
-        <v>3.8</v>
-      </c>
-      <c r="M30">
-        <v>1.615</v>
-      </c>
-      <c r="N30">
-        <v>3.5</v>
-      </c>
-      <c r="O30">
-        <v>4.5</v>
-      </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3090,16 +3087,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3110,16 +3107,16 @@
         <v>7100644</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45182.5625</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3128,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>1.2</v>
@@ -3196,16 +3193,16 @@
         <v>6865374</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45184.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3214,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>2.6</v>
@@ -3282,16 +3279,16 @@
         <v>6865301</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45184.5625</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3300,7 +3297,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>1.363</v>
@@ -3368,16 +3365,16 @@
         <v>6865302</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3386,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34">
         <v>2.25</v>
@@ -3454,16 +3451,16 @@
         <v>6865300</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45185.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3472,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>3.6</v>
@@ -3537,67 +3534,67 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="K36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="N36">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O36">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="P36">
         <v>-1.25</v>
       </c>
       <c r="Q36">
+        <v>1.9</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>2.75</v>
+      </c>
+      <c r="T36">
+        <v>1.85</v>
+      </c>
+      <c r="U36">
         <v>1.95</v>
       </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
-      <c r="S36">
-        <v>2.5</v>
-      </c>
-      <c r="T36">
-        <v>1.925</v>
-      </c>
-      <c r="U36">
-        <v>1.875</v>
-      </c>
       <c r="V36">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3609,13 +3606,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z36">
+        <v>0.45</v>
+      </c>
+      <c r="AA36">
         <v>0.425</v>
       </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3623,10 +3620,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45186.61458333334</v>
@@ -3635,55 +3632,55 @@
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J37">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="K37">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M37">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="N37">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O37">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P37">
         <v>-1.25</v>
       </c>
       <c r="Q37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3695,13 +3692,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z37">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AA37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3712,16 +3709,16 @@
         <v>7078203</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45189.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3730,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3798,16 +3795,16 @@
         <v>6865307</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45191.625</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3816,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>2.7</v>
@@ -3884,16 +3881,16 @@
         <v>6864630</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3902,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>2.7</v>
@@ -3970,16 +3967,16 @@
         <v>6865305</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3988,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>1.909</v>
@@ -4056,16 +4053,16 @@
         <v>7217268</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45192.65625</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4074,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>1.333</v>
@@ -4142,16 +4139,16 @@
         <v>6865303</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45193.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4160,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4228,16 +4225,16 @@
         <v>7217461</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45193.61458333334</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4246,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4314,16 +4311,16 @@
         <v>7117521</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4332,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4400,17 +4397,17 @@
         <v>7174900</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45196.5625</v>
       </c>
       <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
         <v>38</v>
       </c>
-      <c r="F46" t="s">
-        <v>39</v>
-      </c>
       <c r="G46">
         <v>0</v>
       </c>
@@ -4418,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4486,16 +4483,16 @@
         <v>6865312</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45199.5625</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4504,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>1.8</v>
@@ -4572,16 +4569,16 @@
         <v>6865308</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45199.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4590,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>1.285</v>
@@ -4658,16 +4655,16 @@
         <v>6865310</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4676,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>3.4</v>
@@ -4744,16 +4741,16 @@
         <v>6865311</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4762,7 +4759,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>1.833</v>
@@ -4830,16 +4827,16 @@
         <v>6864631</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45200.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4848,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>1.8</v>
@@ -4916,16 +4913,16 @@
         <v>6865309</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45201.54166666666</v>
       </c>
       <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
         <v>37</v>
-      </c>
-      <c r="F52" t="s">
-        <v>38</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4934,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>1.666</v>
@@ -5002,16 +4999,16 @@
         <v>6865313</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5020,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5088,16 +5085,16 @@
         <v>6865375</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5106,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J54">
         <v>2.45</v>
@@ -5174,16 +5171,16 @@
         <v>6864632</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5192,7 +5189,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>3.6</v>
@@ -5260,16 +5257,16 @@
         <v>6865314</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5278,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>1.55</v>
@@ -5346,16 +5343,16 @@
         <v>6865315</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5364,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>1.6</v>
@@ -5432,16 +5429,16 @@
         <v>6865376</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45208.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5450,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>1.166</v>
@@ -5518,16 +5515,16 @@
         <v>7217267</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45217.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5536,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>1.444</v>
@@ -5604,16 +5601,16 @@
         <v>7117579</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45217.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5622,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5690,16 +5687,16 @@
         <v>6865318</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5708,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5776,16 +5773,16 @@
         <v>6865319</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45220.5625</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5794,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J62">
         <v>1.8</v>
@@ -5862,16 +5859,16 @@
         <v>6865316</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5880,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>1.444</v>
@@ -5948,16 +5945,16 @@
         <v>6865317</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5966,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6034,17 +6031,17 @@
         <v>6864633</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45221.61458333334</v>
       </c>
       <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
         <v>39</v>
       </c>
-      <c r="F65" t="s">
-        <v>40</v>
-      </c>
       <c r="G65">
         <v>0</v>
       </c>
@@ -6052,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -6120,16 +6117,16 @@
         <v>7355528</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45222.39583333334</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6138,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -6206,17 +6203,17 @@
         <v>6865325</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45226.375</v>
       </c>
       <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" t="s">
         <v>36</v>
       </c>
-      <c r="F67" t="s">
-        <v>37</v>
-      </c>
       <c r="G67">
         <v>2</v>
       </c>
@@ -6224,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>2.8</v>
@@ -6292,16 +6289,16 @@
         <v>6865324</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6310,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6378,16 +6375,16 @@
         <v>6864634</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6396,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>1.666</v>
@@ -6464,16 +6461,16 @@
         <v>6865321</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6482,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>3.8</v>
@@ -6550,16 +6547,16 @@
         <v>6865323</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45228.61111111111</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6568,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J71">
         <v>3.75</v>
@@ -6636,16 +6633,16 @@
         <v>6865322</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45229.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6654,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>1.7</v>
@@ -6722,16 +6719,16 @@
         <v>7422880</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6740,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>2.25</v>
@@ -6808,16 +6805,16 @@
         <v>6865326</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45234.375</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6826,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>1.727</v>
@@ -6894,16 +6891,16 @@
         <v>6865327</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45234.5</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6912,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>1.615</v>
@@ -6977,85 +6974,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7063,85 +7060,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7152,16 +7149,16 @@
         <v>6864635</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45235.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7170,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>2.25</v>
@@ -7238,16 +7235,16 @@
         <v>6865334</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45241.375</v>
       </c>
       <c r="E79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7256,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>1.727</v>
@@ -7324,16 +7321,16 @@
         <v>6865333</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45241.69791666666</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7342,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>2.75</v>
@@ -7410,16 +7407,16 @@
         <v>6865330</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45242.375</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7428,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <v>2.3</v>
@@ -7496,16 +7493,16 @@
         <v>6864636</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45242.46875</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7514,7 +7511,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7582,16 +7579,16 @@
         <v>6865331</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45243.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7600,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7668,16 +7665,16 @@
         <v>7328799</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45252.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7686,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>1.222</v>
@@ -7754,16 +7751,16 @@
         <v>7505498</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>6</v>
@@ -7772,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7840,16 +7837,16 @@
         <v>7505496</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45255.375</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7858,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>4.5</v>
@@ -7926,16 +7923,16 @@
         <v>7505495</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7944,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <v>1.444</v>
@@ -8012,16 +8009,16 @@
         <v>7505497</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8030,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J88">
         <v>1.65</v>
@@ -8098,16 +8095,16 @@
         <v>7505494</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8116,7 +8113,7 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>5.5</v>
@@ -8184,16 +8181,16 @@
         <v>7505499</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45256.65625</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8202,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8270,16 +8267,16 @@
         <v>6865340</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8288,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>2.3</v>
@@ -8356,16 +8353,16 @@
         <v>6865341</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45262.39583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8374,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>2.2</v>
@@ -8442,16 +8439,16 @@
         <v>7107310</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45262.5</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8460,7 +8457,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>9.5</v>
@@ -8528,16 +8525,16 @@
         <v>6865342</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45263.375</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8546,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>1.571</v>
@@ -8614,16 +8611,16 @@
         <v>6865339</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45263.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8632,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J95">
         <v>2.4</v>
@@ -8700,16 +8697,16 @@
         <v>6865379</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45264.375</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8718,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>8.5</v>
@@ -8786,16 +8783,16 @@
         <v>7462473</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45266.375</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8804,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>2.75</v>
@@ -8872,16 +8869,16 @@
         <v>6865345</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8890,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J98">
         <v>2.625</v>
@@ -8955,85 +8952,85 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45269.375</v>
       </c>
       <c r="E99" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="s">
         <v>45</v>
       </c>
       <c r="J99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="K99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="M99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="N99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="P99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="T99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9041,85 +9038,85 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J100">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="K100">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.2</v>
+      </c>
+      <c r="N100">
+        <v>2.8</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
+        <v>-0.25</v>
+      </c>
+      <c r="Q100">
+        <v>1.95</v>
+      </c>
+      <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>1.75</v>
+      </c>
+      <c r="T100">
+        <v>1.875</v>
+      </c>
+      <c r="U100">
+        <v>1.925</v>
+      </c>
+      <c r="V100">
         <v>1.2</v>
       </c>
-      <c r="M100">
-        <v>10</v>
-      </c>
-      <c r="N100">
-        <v>6.5</v>
-      </c>
-      <c r="O100">
-        <v>1.181</v>
-      </c>
-      <c r="P100">
-        <v>2</v>
-      </c>
-      <c r="Q100">
-        <v>1.825</v>
-      </c>
-      <c r="R100">
-        <v>1.975</v>
-      </c>
-      <c r="S100">
-        <v>3</v>
-      </c>
-      <c r="T100">
-        <v>1.9</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>-1</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9130,16 +9127,16 @@
         <v>6865346</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45269.5</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9148,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>1.3</v>
@@ -9216,16 +9213,16 @@
         <v>6865344</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45270.375</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9234,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9302,16 +9299,16 @@
         <v>6865347</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45270.46875</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9320,7 +9317,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>5.5</v>
@@ -9388,16 +9385,16 @@
         <v>6864640</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9406,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>4</v>
@@ -9474,16 +9471,16 @@
         <v>6865380</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45276.375</v>
       </c>
       <c r="E105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" t="s">
         <v>41</v>
-      </c>
-      <c r="F105" t="s">
-        <v>42</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9492,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9560,16 +9557,16 @@
         <v>6865350</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45276.5</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9578,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9646,16 +9643,16 @@
         <v>6865348</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45277.375</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9664,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>2.625</v>
@@ -9732,16 +9729,16 @@
         <v>6865351</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9750,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>1.4</v>
@@ -9818,16 +9815,16 @@
         <v>6865349</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45278.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9836,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J109">
         <v>1.727</v>
@@ -9904,16 +9901,16 @@
         <v>6865353</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9922,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>3.25</v>
@@ -9987,85 +9984,85 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="s">
         <v>45</v>
       </c>
       <c r="J111">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="K111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O111">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P111">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
         <v>2.25</v>
       </c>
       <c r="T111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10073,85 +10070,85 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45339.375</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J112">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="K112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M112">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="P112">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
         <v>2.25</v>
       </c>
       <c r="T112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10162,16 +10159,16 @@
         <v>6865355</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45339.5</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10180,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10248,16 +10245,16 @@
         <v>6865356</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45340.375</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10266,7 +10263,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>1.444</v>
@@ -10334,16 +10331,16 @@
         <v>6864641</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10352,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J115">
         <v>1.25</v>
@@ -10420,16 +10417,16 @@
         <v>6865361</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10438,7 +10435,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <v>2.25</v>
@@ -10506,16 +10503,16 @@
         <v>6865358</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45346.375</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10524,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>4.333</v>
@@ -10592,16 +10589,16 @@
         <v>6864642</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45346.5</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10610,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J118">
         <v>3.2</v>
@@ -10678,16 +10675,16 @@
         <v>6865357</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45347.375</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10696,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10764,16 +10761,16 @@
         <v>6865360</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>5</v>
@@ -10782,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>1.166</v>
@@ -10850,16 +10847,16 @@
         <v>6865359</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45348.375</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10868,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>1.833</v>
@@ -10933,85 +10930,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>44</v>
+      </c>
+      <c r="J122">
+        <v>1.666</v>
+      </c>
+      <c r="K122">
+        <v>3.6</v>
+      </c>
+      <c r="L122">
+        <v>4.333</v>
+      </c>
+      <c r="M122">
+        <v>1.5</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122">
+        <v>5.25</v>
+      </c>
+      <c r="P122">
+        <v>-1</v>
+      </c>
+      <c r="Q122">
+        <v>1.925</v>
+      </c>
+      <c r="R122">
+        <v>1.875</v>
+      </c>
+      <c r="S122">
+        <v>2.5</v>
+      </c>
+      <c r="T122">
+        <v>1.8</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>0.5</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>0.925</v>
+      </c>
+      <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
         <v>1</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122" t="s">
-        <v>45</v>
-      </c>
-      <c r="J122">
-        <v>2</v>
-      </c>
-      <c r="K122">
-        <v>3.3</v>
-      </c>
-      <c r="L122">
-        <v>3.25</v>
-      </c>
-      <c r="M122">
-        <v>2.3</v>
-      </c>
-      <c r="N122">
-        <v>3.2</v>
-      </c>
-      <c r="O122">
-        <v>2.75</v>
-      </c>
-      <c r="P122">
-        <v>-0.25</v>
-      </c>
-      <c r="Q122">
-        <v>2.05</v>
-      </c>
-      <c r="R122">
-        <v>1.75</v>
-      </c>
-      <c r="S122">
-        <v>2</v>
-      </c>
-      <c r="T122">
-        <v>1.9</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
-      <c r="V122">
-        <v>1.3</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>1.05</v>
-      </c>
-      <c r="Z122">
-        <v>-1</v>
-      </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11019,67 +11016,67 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J123">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O123">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11088,7 +11085,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11097,7 +11094,7 @@
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11108,16 +11105,16 @@
         <v>6865382</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45353.5</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11126,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>5.75</v>
@@ -11194,16 +11191,16 @@
         <v>6865362</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11212,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>3.4</v>
@@ -11280,16 +11277,16 @@
         <v>6865364</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45354.61458333334</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11298,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>3.25</v>
@@ -11366,16 +11363,16 @@
         <v>6864643</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45355.57291666666</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11384,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>1.181</v>
@@ -11452,16 +11449,16 @@
         <v>6865367</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45360.375</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11470,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11538,16 +11535,16 @@
         <v>6865368</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45360.5</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11556,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J129">
         <v>3.2</v>
@@ -11624,16 +11621,16 @@
         <v>6865366</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45360.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11642,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J130">
         <v>1.166</v>
@@ -11710,16 +11707,16 @@
         <v>6865365</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11728,7 +11725,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J131">
         <v>2.5</v>
@@ -11796,16 +11793,16 @@
         <v>6864644</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45361.625</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11814,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J132">
         <v>1.8</v>
@@ -11882,16 +11879,16 @@
         <v>6865369</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45362.58333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11900,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J133">
         <v>1.55</v>
@@ -11968,16 +11965,16 @@
         <v>7952732</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11986,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>1.909</v>
@@ -12054,16 +12051,16 @@
         <v>7952455</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45367.5</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12072,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>1.363</v>
@@ -12140,16 +12137,16 @@
         <v>7952730</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45367.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12158,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12226,16 +12223,16 @@
         <v>7952731</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12244,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>1.666</v>
@@ -12312,16 +12309,16 @@
         <v>7952734</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45368.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12330,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>1.181</v>
@@ -12398,16 +12395,16 @@
         <v>7952733</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12416,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J139">
         <v>1.3</v>
@@ -12484,16 +12481,16 @@
         <v>7952736</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45380.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12502,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>1.727</v>
@@ -12570,16 +12567,16 @@
         <v>7952738</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45380.5</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12588,7 +12585,7 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>2.9</v>
@@ -12656,16 +12653,16 @@
         <v>7952735</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12674,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12742,16 +12739,16 @@
         <v>7952739</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12760,7 +12757,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>2.25</v>
@@ -12828,16 +12825,16 @@
         <v>7952456</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45381.5</v>
       </c>
       <c r="E144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" t="s">
         <v>39</v>
-      </c>
-      <c r="F144" t="s">
-        <v>40</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12846,7 +12843,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J144">
         <v>2.2</v>
@@ -12914,16 +12911,16 @@
         <v>7952737</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45381.69791666666</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12932,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -13000,16 +12997,16 @@
         <v>7952740</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13018,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J146">
         <v>1.533</v>
@@ -13086,16 +13083,16 @@
         <v>7952743</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45388.65625</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13104,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>1.222</v>
@@ -13172,16 +13169,16 @@
         <v>7952742</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45389.375</v>
       </c>
       <c r="E148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13190,7 +13187,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J148">
         <v>1.95</v>
@@ -13258,16 +13255,16 @@
         <v>7952741</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45389.65625</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13276,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J149">
         <v>2.4</v>
@@ -13344,16 +13341,16 @@
         <v>7952744</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45390.4375</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13362,7 +13359,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J150">
         <v>1.727</v>
@@ -13430,16 +13427,16 @@
         <v>7952457</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45390.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -13448,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>1.166</v>
@@ -13516,16 +13513,16 @@
         <v>7952749</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45394.4375</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13534,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13602,16 +13599,16 @@
         <v>7952746</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13620,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <v>1.3</v>
@@ -13688,16 +13685,16 @@
         <v>7952745</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45395.35416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13706,7 +13703,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J154">
         <v>2.1</v>
@@ -13774,16 +13771,16 @@
         <v>7952458</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13792,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J155">
         <v>1.615</v>
@@ -13860,16 +13857,16 @@
         <v>7952748</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45396.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13878,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13946,16 +13943,16 @@
         <v>7952747</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45396.625</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13964,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14032,16 +14029,16 @@
         <v>7952751</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14050,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J158">
         <v>1.666</v>
@@ -14118,16 +14115,16 @@
         <v>7952754</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14136,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14204,16 +14201,16 @@
         <v>7952750</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45401.625</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14222,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J160">
         <v>1.25</v>
@@ -14290,16 +14287,16 @@
         <v>7952752</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>4</v>
@@ -14308,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J161">
         <v>1.666</v>
@@ -14376,16 +14373,16 @@
         <v>7952459</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14394,7 +14391,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J162">
         <v>3.5</v>
@@ -14462,16 +14459,16 @@
         <v>7866183</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E163" t="s">
+        <v>42</v>
+      </c>
+      <c r="F163" t="s">
         <v>43</v>
-      </c>
-      <c r="F163" t="s">
-        <v>44</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14480,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14548,16 +14545,16 @@
         <v>7952753</v>
       </c>
       <c r="C164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45402.65625</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14566,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J164">
         <v>2.5</v>
@@ -14634,16 +14631,16 @@
         <v>7952755</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14652,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J165">
         <v>2</v>
@@ -14720,16 +14717,16 @@
         <v>7952758</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14738,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J166">
         <v>1.333</v>
@@ -14806,16 +14803,16 @@
         <v>7952757</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45405.64583333334</v>
       </c>
       <c r="E167" t="s">
+        <v>36</v>
+      </c>
+      <c r="F167" t="s">
         <v>37</v>
-      </c>
-      <c r="F167" t="s">
-        <v>38</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14824,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J167">
         <v>1.8</v>
@@ -14892,16 +14889,16 @@
         <v>7952756</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14910,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J168">
         <v>3.3</v>
@@ -14978,16 +14975,16 @@
         <v>7952759</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -14996,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J169">
         <v>1.363</v>
@@ -15064,16 +15061,16 @@
         <v>7952460</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45406.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170">
         <v>4</v>
@@ -15082,7 +15079,7 @@
         <v>3</v>
       </c>
       <c r="I170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J170">
         <v>1.444</v>
@@ -15150,52 +15147,52 @@
         <v>27</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
-        <v>45409.35416666666</v>
+        <v>45409.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J171">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="K171">
+        <v>3.4</v>
+      </c>
+      <c r="L171">
         <v>3.6</v>
       </c>
-      <c r="L171">
-        <v>5.75</v>
-      </c>
       <c r="M171">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N171">
         <v>3.4</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T171">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V171">
         <v>0</v>
@@ -15215,53 +15212,53 @@
         <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
-        <v>45409.45833333334</v>
+        <v>45410.33333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J172">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="K172">
         <v>3.4</v>
       </c>
       <c r="L172">
+        <v>1.571</v>
+      </c>
+      <c r="M172">
+        <v>8.5</v>
+      </c>
+      <c r="N172">
         <v>3.6</v>
       </c>
-      <c r="M172">
+      <c r="O172">
+        <v>1.4</v>
+      </c>
+      <c r="P172">
+        <v>1.25</v>
+      </c>
+      <c r="Q172">
+        <v>1.8</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
         <v>2.5</v>
       </c>
-      <c r="N172">
-        <v>3.4</v>
-      </c>
-      <c r="O172">
-        <v>2.45</v>
-      </c>
-      <c r="P172">
-        <v>0</v>
-      </c>
-      <c r="Q172">
+      <c r="T172">
+        <v>1.875</v>
+      </c>
+      <c r="U172">
         <v>1.925</v>
       </c>
-      <c r="R172">
-        <v>1.875</v>
-      </c>
-      <c r="S172">
-        <v>2.25</v>
-      </c>
-      <c r="T172">
-        <v>2.05</v>
-      </c>
-      <c r="U172">
-        <v>1.75</v>
-      </c>
       <c r="V172">
         <v>0</v>
       </c>
@@ -15269,71 +15266,6 @@
         <v>0</v>
       </c>
       <c r="X172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>29</v>
-      </c>
-      <c r="C173" t="s">
-        <v>30</v>
-      </c>
-      <c r="D173" s="2">
-        <v>45410.33333333334</v>
-      </c>
-      <c r="E173" t="s">
-        <v>38</v>
-      </c>
-      <c r="F173" t="s">
-        <v>39</v>
-      </c>
-      <c r="J173">
-        <v>5.5</v>
-      </c>
-      <c r="K173">
-        <v>3.4</v>
-      </c>
-      <c r="L173">
-        <v>1.571</v>
-      </c>
-      <c r="M173">
-        <v>5.25</v>
-      </c>
-      <c r="N173">
-        <v>3.3</v>
-      </c>
-      <c r="O173">
-        <v>1.615</v>
-      </c>
-      <c r="P173">
-        <v>0.75</v>
-      </c>
-      <c r="Q173">
-        <v>1.95</v>
-      </c>
-      <c r="R173">
-        <v>1.85</v>
-      </c>
-      <c r="S173">
-        <v>2.25</v>
-      </c>
-      <c r="T173">
-        <v>1.875</v>
-      </c>
-      <c r="U173">
-        <v>1.925</v>
-      </c>
-      <c r="V173">
-        <v>0</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
         <v>0</v>
       </c>
     </row>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7952760</t>
+    <t>7952461</t>
   </si>
   <si>
-    <t>7952761</t>
+    <t>7952764</t>
   </si>
   <si>
     <t>Bosnia Herzegovina Premier Liga</t>
@@ -3534,7 +3534,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3543,58 +3543,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>44</v>
       </c>
       <c r="J36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="K36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="N36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P36">
         <v>-1.25</v>
       </c>
       <c r="Q36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3606,13 +3606,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AA36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3620,7 +3620,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3629,58 +3629,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
         <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>44</v>
       </c>
       <c r="J37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="K37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="N37">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O37">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="P37">
         <v>-1.25</v>
       </c>
       <c r="Q37">
+        <v>1.9</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>2.75</v>
+      </c>
+      <c r="T37">
+        <v>1.85</v>
+      </c>
+      <c r="U37">
         <v>1.95</v>
       </c>
-      <c r="R37">
-        <v>1.85</v>
-      </c>
-      <c r="S37">
-        <v>2.5</v>
-      </c>
-      <c r="T37">
-        <v>1.925</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
       <c r="V37">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3692,13 +3692,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z37">
+        <v>0.45</v>
+      </c>
+      <c r="AA37">
         <v>0.425</v>
       </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -15150,49 +15150,49 @@
         <v>29</v>
       </c>
       <c r="D171" s="2">
-        <v>45409.45833333334</v>
+        <v>45410.5</v>
       </c>
       <c r="E171" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J171">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="K171">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="M171">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N171">
         <v>3.4</v>
       </c>
       <c r="O171">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="P171">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
         <v>2.25</v>
       </c>
       <c r="T171">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U171">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V171">
         <v>0</v>
@@ -15215,49 +15215,49 @@
         <v>29</v>
       </c>
       <c r="D172" s="2">
-        <v>45410.33333333334</v>
+        <v>45410.65625</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J172">
+        <v>1.533</v>
+      </c>
+      <c r="K172">
+        <v>3.5</v>
+      </c>
+      <c r="L172">
         <v>5.5</v>
       </c>
-      <c r="K172">
-        <v>3.4</v>
-      </c>
-      <c r="L172">
-        <v>1.571</v>
-      </c>
       <c r="M172">
-        <v>8.5</v>
+        <v>1.727</v>
       </c>
       <c r="N172">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O172">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q172">
+        <v>2</v>
+      </c>
+      <c r="R172">
         <v>1.8</v>
       </c>
-      <c r="R172">
-        <v>2</v>
-      </c>
       <c r="S172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T172">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
         <v>0</v>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Velez Mostar</t>
   </si>
   <si>
-    <t>FK Sarajevo</t>
+    <t>GOSK Gabela</t>
   </si>
   <si>
-    <t>GOSK Gabela</t>
+    <t>FK Sarajevo</t>
   </si>
   <si>
     <t>NK Posusje</t>
@@ -115,10 +115,10 @@
     <t>Zvijezda 09</t>
   </si>
   <si>
-    <t>Zeljeznicar</t>
+    <t>NK Igman Konjic</t>
   </si>
   <si>
-    <t>NK Igman Konjic</t>
+    <t>Zeljeznicar</t>
   </si>
   <si>
     <t>Siroki Brijeg</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB173"/>
+  <dimension ref="A1:AB176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,58 +690,58 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6865275</v>
+        <v>6993416</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>45137.64583333334</v>
+        <v>45137.5</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="M3">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N3">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O3">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="P3">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T3">
         <v>1.85</v>
@@ -756,19 +756,19 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>8</v>
+        <v>1.625</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -776,58 +776,58 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6993416</v>
+        <v>6865275</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45137.5</v>
+        <v>45137.64583333334</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="K4">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L4">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N4">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O4">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
         <v>1.8</v>
       </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
       <c r="S4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T4">
         <v>1.85</v>
@@ -842,19 +842,19 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>1.625</v>
+        <v>8</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -960,7 +960,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>45149.66666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -1206,22 +1206,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7051290</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>45150.65625</v>
+        <v>45150.5</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1230,43 +1230,43 @@
         <v>42</v>
       </c>
       <c r="J9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N9">
         <v>3.5</v>
       </c>
       <c r="O9">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1275,16 +1275,16 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1292,22 +1292,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>7051290</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>45150.5</v>
+        <v>45150.65625</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1316,61 +1316,61 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N10">
         <v>3.5</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P10">
+        <v>-0.25</v>
+      </c>
+      <c r="Q10">
+        <v>1.875</v>
+      </c>
+      <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
+        <v>2.25</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>1.8</v>
+      </c>
+      <c r="V10">
+        <v>1.05</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>0.875</v>
+      </c>
+      <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
         <v>-0.5</v>
       </c>
-      <c r="Q10">
-        <v>1.95</v>
-      </c>
-      <c r="R10">
-        <v>1.85</v>
-      </c>
-      <c r="S10">
-        <v>2.5</v>
-      </c>
-      <c r="T10">
-        <v>1.85</v>
-      </c>
-      <c r="U10">
-        <v>1.95</v>
-      </c>
-      <c r="V10">
-        <v>0.909</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>0.95</v>
-      </c>
-      <c r="Z10">
-        <v>-1</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1387,7 +1387,7 @@
         <v>45150.5</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1562,7 +1562,7 @@
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1820,7 +1820,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1992,7 +1992,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2161,7 +2161,7 @@
         <v>45164.5</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
@@ -2247,7 +2247,7 @@
         <v>45164.65625</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
@@ -2336,7 +2336,7 @@
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2505,7 +2505,7 @@
         <v>45166.66666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -2591,10 +2591,10 @@
         <v>45168.5625</v>
       </c>
       <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
         <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2763,10 +2763,10 @@
         <v>45171.65625</v>
       </c>
       <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
         <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2938,7 +2938,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3024,7 +3024,7 @@
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3193,10 +3193,10 @@
         <v>45184.5625</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3356,85 +3356,85 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6865300</v>
+        <v>6865302</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2">
-        <v>45185.65625</v>
+        <v>45185.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J34">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="K34">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="M34">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N34">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O34">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3442,85 +3442,85 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6865302</v>
+        <v>6865300</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="2">
-        <v>45185.45833333334</v>
+        <v>45185.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35">
+        <v>3.6</v>
+      </c>
+      <c r="K35">
+        <v>3.25</v>
+      </c>
+      <c r="L35">
+        <v>1.909</v>
+      </c>
+      <c r="M35">
+        <v>2.55</v>
+      </c>
+      <c r="N35">
+        <v>2.9</v>
+      </c>
+      <c r="O35">
+        <v>2.6</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1.85</v>
+      </c>
+      <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
         <v>2.25</v>
       </c>
-      <c r="K35">
-        <v>3.1</v>
-      </c>
-      <c r="L35">
-        <v>2.9</v>
-      </c>
-      <c r="M35">
-        <v>2.7</v>
-      </c>
-      <c r="N35">
-        <v>3.1</v>
-      </c>
-      <c r="O35">
-        <v>2.4</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>2.05</v>
-      </c>
-      <c r="R35">
-        <v>1.75</v>
-      </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
       <c r="T35">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3712,7 +3712,7 @@
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3798,7 +3798,7 @@
         <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3967,10 +3967,10 @@
         <v>45192.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -4130,58 +4130,58 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6865303</v>
+        <v>7217461</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2">
-        <v>45193.45833333334</v>
+        <v>45193.61458333334</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J43">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="K43">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M43">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O43">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="P43">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T43">
         <v>1.8</v>
@@ -4190,25 +4190,25 @@
         <v>2</v>
       </c>
       <c r="V43">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4216,58 +4216,58 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7217461</v>
+        <v>6865303</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2">
-        <v>45193.61458333334</v>
+        <v>45193.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L44">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M44">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N44">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T44">
         <v>1.8</v>
@@ -4276,25 +4276,25 @@
         <v>2</v>
       </c>
       <c r="V44">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
+        <v>0.825</v>
+      </c>
+      <c r="AA44">
         <v>-0.5</v>
       </c>
-      <c r="Z44">
-        <v>0.45</v>
-      </c>
-      <c r="AA44">
-        <v>0.8</v>
-      </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4302,65 +4302,65 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7117521</v>
+        <v>7174900</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45196.41666666666</v>
+        <v>45196.5625</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
         <v>43</v>
       </c>
       <c r="J45">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="K45">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L45">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="M45">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O45">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
+        <v>1.975</v>
+      </c>
+      <c r="R45">
+        <v>1.825</v>
+      </c>
+      <c r="S45">
+        <v>2.25</v>
+      </c>
+      <c r="T45">
+        <v>1.95</v>
+      </c>
+      <c r="U45">
         <v>1.85</v>
       </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>2.75</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
       <c r="V45">
         <v>-1</v>
       </c>
@@ -4368,19 +4368,19 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>0.444</v>
+        <v>1.5</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4388,64 +4388,64 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7174900</v>
+        <v>7117521</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2">
-        <v>45196.5625</v>
+        <v>45196.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="s">
         <v>43</v>
       </c>
       <c r="J46">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="K46">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="M46">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N46">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
         <v>-1</v>
@@ -4454,19 +4454,19 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>1.5</v>
+        <v>0.444</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4483,7 +4483,7 @@
         <v>45199.65625</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
         <v>32</v>
@@ -4646,49 +4646,49 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6864631</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2">
-        <v>45200.41666666666</v>
+        <v>45200.65625</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
         <v>42</v>
       </c>
       <c r="J49">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="K49">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P49">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q49">
         <v>1.925</v>
@@ -4700,13 +4700,13 @@
         <v>2.25</v>
       </c>
       <c r="T49">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V49">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4721,10 +4721,10 @@
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4732,7 +4732,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4741,76 +4741,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K50">
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4818,85 +4818,85 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6864631</v>
+        <v>6865310</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2">
-        <v>45200.65625</v>
+        <v>45200.41666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="K51">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M51">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="P51">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q51">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U51">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4913,7 +4913,7 @@
         <v>45201.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
         <v>35</v>
@@ -5171,10 +5171,10 @@
         <v>45207.64583333334</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5260,7 +5260,7 @@
         <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5343,7 +5343,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
         <v>36</v>
@@ -5506,58 +5506,58 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7117579</v>
+        <v>7217267</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>45217.58333333334</v>
+        <v>45217.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J59">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="K59">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L59">
+        <v>5.75</v>
+      </c>
+      <c r="M59">
+        <v>1.4</v>
+      </c>
+      <c r="N59">
         <v>4</v>
       </c>
-      <c r="M59">
-        <v>1.8</v>
-      </c>
-      <c r="N59">
-        <v>3.25</v>
-      </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P59">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q59">
+        <v>1.975</v>
+      </c>
+      <c r="R59">
         <v>1.825</v>
       </c>
-      <c r="R59">
-        <v>1.975</v>
-      </c>
       <c r="S59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T59">
         <v>1.975</v>
@@ -5566,25 +5566,25 @@
         <v>1.825</v>
       </c>
       <c r="V59">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W59">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5592,58 +5592,58 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7217267</v>
+        <v>7117579</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2">
-        <v>45217.47916666666</v>
+        <v>45217.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J60">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="K60">
+        <v>3.25</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>1.8</v>
+      </c>
+      <c r="N60">
+        <v>3.25</v>
+      </c>
+      <c r="O60">
         <v>4.2</v>
       </c>
-      <c r="L60">
-        <v>5.75</v>
-      </c>
-      <c r="M60">
-        <v>1.4</v>
-      </c>
-      <c r="N60">
-        <v>4</v>
-      </c>
-      <c r="O60">
-        <v>6.5</v>
-      </c>
       <c r="P60">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q60">
+        <v>1.825</v>
+      </c>
+      <c r="R60">
         <v>1.975</v>
       </c>
-      <c r="R60">
-        <v>1.825</v>
-      </c>
       <c r="S60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
         <v>1.975</v>
@@ -5652,25 +5652,25 @@
         <v>1.825</v>
       </c>
       <c r="V60">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
+        <v>-1</v>
+      </c>
+      <c r="Z60">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z60">
-        <v>-1</v>
-      </c>
       <c r="AA60">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5678,85 +5678,85 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6865318</v>
+        <v>6865319</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2">
-        <v>45220.35416666666</v>
+        <v>45220.5625</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J61">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K61">
         <v>3.4</v>
       </c>
       <c r="L61">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O61">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="P61">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q61">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R61">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T61">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U61">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5764,85 +5764,85 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6865319</v>
+        <v>6865318</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2">
-        <v>45220.5625</v>
+        <v>45220.35416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J62">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="K62">
         <v>3.4</v>
       </c>
       <c r="L62">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="M62">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="N62">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="P62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q62">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V62">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5859,7 +5859,7 @@
         <v>45220.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
         <v>32</v>
@@ -6031,10 +6031,10 @@
         <v>45221.33333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6203,10 +6203,10 @@
         <v>45226.375</v>
       </c>
       <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
         <v>34</v>
-      </c>
-      <c r="F67" t="s">
-        <v>33</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6280,22 +6280,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6864634</v>
+        <v>6865324</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45227.45833333334</v>
+        <v>45227.35416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6304,43 +6304,43 @@
         <v>42</v>
       </c>
       <c r="J68">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K68">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M68">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N68">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O68">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="P68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6349,16 +6349,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6366,22 +6366,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6865324</v>
+        <v>6864634</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45227.35416666666</v>
+        <v>45227.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6390,43 +6390,43 @@
         <v>42</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="K69">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L69">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N69">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O69">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="P69">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6435,16 +6435,16 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6452,85 +6452,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6865323</v>
+        <v>6865321</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45228.61111111111</v>
+        <v>45228.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>44</v>
       </c>
       <c r="J70">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K70">
+        <v>3.25</v>
+      </c>
+      <c r="L70">
+        <v>1.85</v>
+      </c>
+      <c r="M70">
         <v>3.2</v>
       </c>
-      <c r="L70">
-        <v>1.909</v>
-      </c>
-      <c r="M70">
-        <v>4.2</v>
-      </c>
       <c r="N70">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O70">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="P70">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T70">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6538,85 +6538,85 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6865321</v>
+        <v>6865323</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>45228.41666666666</v>
+        <v>45228.61111111111</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
         <v>44</v>
       </c>
       <c r="J71">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K71">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L71">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="M71">
+        <v>4.2</v>
+      </c>
+      <c r="N71">
         <v>3.2</v>
       </c>
-      <c r="N71">
-        <v>3.1</v>
-      </c>
       <c r="O71">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="P71">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V71">
         <v>-1</v>
       </c>
       <c r="W71">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6636,7 +6636,7 @@
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6719,7 +6719,7 @@
         <v>45233.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
         <v>28</v>
@@ -6805,7 +6805,7 @@
         <v>45234.5</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
         <v>39</v>
@@ -6891,7 +6891,7 @@
         <v>45234.375</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
         <v>32</v>
@@ -6968,85 +6968,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6864635</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2">
-        <v>45235.65625</v>
+        <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J76">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>1.166</v>
+      </c>
+      <c r="N76">
+        <v>6.5</v>
+      </c>
+      <c r="O76">
+        <v>13</v>
+      </c>
+      <c r="P76">
+        <v>-2</v>
+      </c>
+      <c r="Q76">
+        <v>1.9</v>
+      </c>
+      <c r="R76">
+        <v>1.9</v>
+      </c>
+      <c r="S76">
         <v>3.25</v>
       </c>
-      <c r="L76">
-        <v>2.75</v>
-      </c>
-      <c r="M76">
-        <v>2.1</v>
-      </c>
-      <c r="N76">
-        <v>3.25</v>
-      </c>
-      <c r="O76">
-        <v>3</v>
-      </c>
-      <c r="P76">
-        <v>-0.25</v>
-      </c>
-      <c r="Q76">
-        <v>1.875</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
-      <c r="S76">
-        <v>2.25</v>
-      </c>
       <c r="T76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W76">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7140,85 +7140,85 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6865377</v>
+        <v>6864635</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2">
-        <v>45235.375</v>
+        <v>45235.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J78">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L78">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="M78">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N78">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="O78">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7226,85 +7226,85 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6865333</v>
+        <v>6865334</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45241.69791666666</v>
+        <v>45241.375</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J79">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L79">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M79">
+        <v>1.65</v>
+      </c>
+      <c r="N79">
+        <v>3.6</v>
+      </c>
+      <c r="O79">
+        <v>4.333</v>
+      </c>
+      <c r="P79">
+        <v>-0.75</v>
+      </c>
+      <c r="Q79">
+        <v>1.9</v>
+      </c>
+      <c r="R79">
+        <v>1.9</v>
+      </c>
+      <c r="S79">
         <v>2.5</v>
       </c>
-      <c r="N79">
-        <v>3.1</v>
-      </c>
-      <c r="O79">
-        <v>2.75</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>1.85</v>
-      </c>
-      <c r="R79">
-        <v>1.95</v>
-      </c>
-      <c r="S79">
-        <v>2.25</v>
-      </c>
       <c r="T79">
+        <v>1.925</v>
+      </c>
+      <c r="U79">
         <v>1.875</v>
       </c>
-      <c r="U79">
-        <v>1.925</v>
-      </c>
       <c r="V79">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7312,85 +7312,85 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6865334</v>
+        <v>6865333</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2">
-        <v>45241.375</v>
+        <v>45241.69791666666</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J80">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="K80">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M80">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N80">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O80">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="P80">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T80">
+        <v>1.875</v>
+      </c>
+      <c r="U80">
         <v>1.925</v>
       </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
       <c r="V80">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>0.925</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7398,58 +7398,58 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6864636</v>
+        <v>6865330</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2">
-        <v>45242.46875</v>
+        <v>45242.375</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J81">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L81">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="M81">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="N81">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q81">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T81">
         <v>2</v>
@@ -7458,25 +7458,25 @@
         <v>1.8</v>
       </c>
       <c r="V81">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7484,58 +7484,58 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6865330</v>
+        <v>6864636</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45242.375</v>
+        <v>45242.46875</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J82">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L82">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="M82">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="N82">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q82">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T82">
         <v>2</v>
@@ -7544,25 +7544,25 @@
         <v>1.8</v>
       </c>
       <c r="V82">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7751,7 +7751,7 @@
         <v>45254.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
@@ -7837,7 +7837,7 @@
         <v>45255.375</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
         <v>36</v>
@@ -7914,49 +7914,49 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505499</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45256.375</v>
+        <v>45256.65625</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
         <v>44</v>
       </c>
       <c r="J87">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="K87">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="M87">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N87">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="P87">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q87">
         <v>1.825</v>
@@ -7968,31 +7968,31 @@
         <v>2</v>
       </c>
       <c r="T87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V87">
         <v>-1</v>
       </c>
       <c r="W87">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8000,82 +8000,82 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505499</v>
+        <v>7505494</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2">
-        <v>45256.65625</v>
+        <v>45256.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J88">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="K88">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L88">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="M88">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O88">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="P88">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q88">
+        <v>1.9</v>
+      </c>
+      <c r="R88">
+        <v>1.9</v>
+      </c>
+      <c r="S88">
+        <v>2.5</v>
+      </c>
+      <c r="T88">
         <v>1.825</v>
       </c>
-      <c r="R88">
+      <c r="U88">
         <v>1.975</v>
       </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
-      <c r="T88">
-        <v>1.775</v>
-      </c>
-      <c r="U88">
-        <v>2.025</v>
-      </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y88">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8086,85 +8086,85 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7505494</v>
+        <v>7505495</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2">
-        <v>45256.45833333334</v>
+        <v>45256.375</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J89">
+        <v>1.444</v>
+      </c>
+      <c r="K89">
+        <v>4.2</v>
+      </c>
+      <c r="L89">
         <v>5.5</v>
       </c>
-      <c r="K89">
-        <v>3.75</v>
-      </c>
-      <c r="L89">
+      <c r="M89">
         <v>1.5</v>
       </c>
-      <c r="M89">
-        <v>6</v>
-      </c>
       <c r="N89">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O89">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="P89">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T89">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V89">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8172,7 +8172,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8181,76 +8181,76 @@
         <v>45256.375</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J90">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="K90">
+        <v>3.4</v>
+      </c>
+      <c r="L90">
+        <v>4.75</v>
+      </c>
+      <c r="M90">
+        <v>1.8</v>
+      </c>
+      <c r="N90">
+        <v>3.2</v>
+      </c>
+      <c r="O90">
         <v>4.2</v>
       </c>
-      <c r="L90">
-        <v>5.5</v>
-      </c>
-      <c r="M90">
-        <v>1.5</v>
-      </c>
-      <c r="N90">
-        <v>4.2</v>
-      </c>
-      <c r="O90">
-        <v>5.25</v>
-      </c>
       <c r="P90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB90">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8270,7 +8270,7 @@
         <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8344,82 +8344,82 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6865341</v>
+        <v>7107310</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2">
-        <v>45262.39583333334</v>
+        <v>45262.5</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J92">
-        <v>2.2</v>
+        <v>9.5</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="M92">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="P92">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q92">
+        <v>1.775</v>
+      </c>
+      <c r="R92">
+        <v>2.025</v>
+      </c>
+      <c r="S92">
+        <v>2.5</v>
+      </c>
+      <c r="T92">
         <v>1.85</v>
       </c>
-      <c r="R92">
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="S92">
-        <v>2.25</v>
-      </c>
-      <c r="T92">
-        <v>1.775</v>
-      </c>
-      <c r="U92">
-        <v>2.025</v>
-      </c>
       <c r="V92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <v>1.025</v>
+      </c>
+      <c r="AA92">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
-      <c r="AA92">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8430,82 +8430,82 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7107310</v>
+        <v>6865341</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2">
-        <v>45262.5</v>
+        <v>45262.39583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J93">
-        <v>9.5</v>
+        <v>2.2</v>
       </c>
       <c r="K93">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="M93">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N93">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q93">
+        <v>1.85</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
+        <v>2.25</v>
+      </c>
+      <c r="T93">
         <v>1.775</v>
       </c>
-      <c r="R93">
+      <c r="U93">
         <v>2.025</v>
       </c>
-      <c r="S93">
-        <v>2.5</v>
-      </c>
-      <c r="T93">
-        <v>1.85</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
       <c r="V93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8528,7 +8528,7 @@
         <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8611,7 +8611,7 @@
         <v>45263.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
         <v>35</v>
@@ -8869,7 +8869,7 @@
         <v>45268.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
         <v>28</v>
@@ -8946,7 +8946,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8955,76 +8955,76 @@
         <v>45269.375</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="K99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="M99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="N99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="P99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="T99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9032,22 +9032,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865346</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2">
-        <v>45269.5</v>
+        <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9056,43 +9056,43 @@
         <v>42</v>
       </c>
       <c r="J100">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="K100">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L100">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="N100">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O100">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q100">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="T100">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9101,16 +9101,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9118,49 +9118,49 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6864639</v>
+        <v>6865346</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2">
-        <v>45269.375</v>
+        <v>45269.5</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J101">
-        <v>11</v>
+        <v>1.3</v>
       </c>
       <c r="K101">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="L101">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="M101">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="N101">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>1.181</v>
+        <v>8</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="Q101">
         <v>1.825</v>
@@ -9169,22 +9169,22 @@
         <v>1.975</v>
       </c>
       <c r="S101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>0.825</v>
@@ -9193,10 +9193,10 @@
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9204,85 +9204,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6865344</v>
+        <v>6865347</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2">
-        <v>45270.375</v>
+        <v>45270.46875</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J102">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="K102">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N102">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O102">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q102">
+        <v>2.025</v>
+      </c>
+      <c r="R102">
         <v>1.775</v>
       </c>
-      <c r="R102">
-        <v>2.025</v>
-      </c>
       <c r="S102">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V102">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>0.7749999999999999</v>
       </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9290,85 +9290,85 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6865347</v>
+        <v>6865344</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2">
-        <v>45270.46875</v>
+        <v>45270.375</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J103">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="M103">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O103">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="P103">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q103">
+        <v>1.775</v>
+      </c>
+      <c r="R103">
         <v>2.025</v>
       </c>
-      <c r="R103">
-        <v>1.775</v>
-      </c>
       <c r="S103">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T103">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9462,22 +9462,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6865380</v>
+        <v>6865350</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2">
-        <v>45276.375</v>
+        <v>45276.5</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9486,43 +9486,43 @@
         <v>42</v>
       </c>
       <c r="J105">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K105">
         <v>3.4</v>
       </c>
       <c r="L105">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M105">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="P105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>0.7</v>
+        <v>2.25</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9531,16 +9531,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9548,22 +9548,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6865350</v>
+        <v>6865380</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2">
-        <v>45276.5</v>
+        <v>45276.375</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9572,43 +9572,43 @@
         <v>42</v>
       </c>
       <c r="J106">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K106">
         <v>3.4</v>
       </c>
       <c r="L106">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M106">
+        <v>1.7</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106">
+        <v>3.6</v>
+      </c>
+      <c r="P106">
+        <v>-0.75</v>
+      </c>
+      <c r="Q106">
+        <v>1.9</v>
+      </c>
+      <c r="R106">
+        <v>1.9</v>
+      </c>
+      <c r="S106">
         <v>3.25</v>
       </c>
-      <c r="N106">
-        <v>3.2</v>
-      </c>
-      <c r="O106">
-        <v>2</v>
-      </c>
-      <c r="P106">
-        <v>0.25</v>
-      </c>
-      <c r="Q106">
-        <v>2.025</v>
-      </c>
-      <c r="R106">
-        <v>1.775</v>
-      </c>
-      <c r="S106">
-        <v>2.5</v>
-      </c>
       <c r="T106">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>2.25</v>
+        <v>0.7</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9617,16 +9617,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9732,7 +9732,7 @@
         <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9818,7 +9818,7 @@
         <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9978,85 +9978,85 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865355</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2">
-        <v>45339.375</v>
+        <v>45339.5</v>
       </c>
       <c r="E111" t="s">
         <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>44</v>
+      </c>
+      <c r="J111">
+        <v>4.75</v>
+      </c>
+      <c r="K111">
+        <v>3.5</v>
+      </c>
+      <c r="L111">
+        <v>1.615</v>
+      </c>
+      <c r="M111">
+        <v>5.5</v>
+      </c>
+      <c r="N111">
+        <v>3.5</v>
+      </c>
+      <c r="O111">
+        <v>1.533</v>
+      </c>
+      <c r="P111">
         <v>1</v>
       </c>
-      <c r="H111">
-        <v>2</v>
-      </c>
-      <c r="I111" t="s">
-        <v>43</v>
-      </c>
-      <c r="J111">
-        <v>1.8</v>
-      </c>
-      <c r="K111">
-        <v>3.25</v>
-      </c>
-      <c r="L111">
-        <v>4</v>
-      </c>
-      <c r="M111">
-        <v>2.25</v>
-      </c>
-      <c r="N111">
-        <v>3.1</v>
-      </c>
-      <c r="O111">
-        <v>2.9</v>
-      </c>
-      <c r="P111">
-        <v>-0.25</v>
-      </c>
       <c r="Q111">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
         <v>-1</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10150,85 +10150,85 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6865355</v>
+        <v>6865354</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2">
-        <v>45339.5</v>
+        <v>45339.375</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J113">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="K113">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L113">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N113">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O113">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q113">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R113">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T113">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10331,7 +10331,7 @@
         <v>45340.375</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F115" t="s">
         <v>35</v>
@@ -10417,7 +10417,7 @@
         <v>45345.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
         <v>39</v>
@@ -10506,7 +10506,7 @@
         <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10764,7 +10764,7 @@
         <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>5</v>
@@ -10850,7 +10850,7 @@
         <v>35</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10924,7 +10924,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10933,13 +10933,13 @@
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -10948,43 +10948,43 @@
         <v>42</v>
       </c>
       <c r="J122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -10993,7 +10993,7 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11002,7 +11002,7 @@
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11010,7 +11010,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11019,13 +11019,13 @@
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11034,43 +11034,43 @@
         <v>42</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O123">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="P123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R123">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11079,7 +11079,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11088,7 +11088,7 @@
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11182,22 +11182,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6865364</v>
+        <v>6865362</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2">
-        <v>45354.61458333334</v>
+        <v>45354.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11206,43 +11206,43 @@
         <v>42</v>
       </c>
       <c r="J125">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L125">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M125">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N125">
         <v>2.8</v>
       </c>
       <c r="O125">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P125">
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="U125">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.7</v>
+        <v>1.625</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11251,16 +11251,16 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11268,22 +11268,22 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6865362</v>
+        <v>6865364</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45354.41666666666</v>
+        <v>45354.61458333334</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11292,43 +11292,43 @@
         <v>42</v>
       </c>
       <c r="J126">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K126">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L126">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M126">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
         <v>2.8</v>
       </c>
       <c r="O126">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P126">
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>2.05</v>
+      </c>
+      <c r="U126">
         <v>1.75</v>
       </c>
-      <c r="T126">
-        <v>1.8</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
       <c r="V126">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11337,16 +11337,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11366,7 +11366,7 @@
         <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11440,85 +11440,85 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6865367</v>
+        <v>6865366</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2">
-        <v>45360.375</v>
+        <v>45360.60416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J128">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="K128">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M128">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="N128">
+        <v>4.5</v>
+      </c>
+      <c r="O128">
+        <v>6.5</v>
+      </c>
+      <c r="P128">
+        <v>-1.25</v>
+      </c>
+      <c r="Q128">
+        <v>1.875</v>
+      </c>
+      <c r="R128">
+        <v>1.925</v>
+      </c>
+      <c r="S128">
+        <v>2.75</v>
+      </c>
+      <c r="T128">
+        <v>1.925</v>
+      </c>
+      <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
+        <v>-1</v>
+      </c>
+      <c r="W128">
         <v>3.5</v>
       </c>
-      <c r="O128">
-        <v>4.5</v>
-      </c>
-      <c r="P128">
-        <v>-0.75</v>
-      </c>
-      <c r="Q128">
-        <v>1.925</v>
-      </c>
-      <c r="R128">
-        <v>1.875</v>
-      </c>
-      <c r="S128">
-        <v>2</v>
-      </c>
-      <c r="T128">
-        <v>1.75</v>
-      </c>
-      <c r="U128">
-        <v>2.05</v>
-      </c>
-      <c r="V128">
-        <v>-1</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
       <c r="X128">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11535,7 +11535,7 @@
         <v>45360.5</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F129" t="s">
         <v>31</v>
@@ -11612,85 +11612,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6865366</v>
+        <v>6865367</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>45360.60416666666</v>
+        <v>45360.375</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J130">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="K130">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="L130">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
         <v>4.5</v>
       </c>
-      <c r="O130">
-        <v>6.5</v>
-      </c>
       <c r="P130">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q130">
+        <v>1.925</v>
+      </c>
+      <c r="R130">
         <v>1.875</v>
       </c>
-      <c r="R130">
-        <v>1.925</v>
-      </c>
       <c r="S130">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V130">
         <v>-1</v>
       </c>
       <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
         <v>3.5</v>
       </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11710,7 +11710,7 @@
         <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11965,10 +11965,10 @@
         <v>45367.69791666666</v>
       </c>
       <c r="E134" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" t="s">
         <v>29</v>
-      </c>
-      <c r="F134" t="s">
-        <v>30</v>
       </c>
       <c r="G134">
         <v>4</v>
@@ -12042,67 +12042,67 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7952455</v>
+        <v>7952732</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2">
-        <v>45367.5</v>
+        <v>45367.39583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="s">
         <v>42</v>
       </c>
       <c r="J135">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="K135">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L135">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="N135">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
         <v>2.25</v>
       </c>
       <c r="T135">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>0.333</v>
+        <v>1.05</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12111,16 +12111,16 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB135">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12128,67 +12128,67 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7952732</v>
+        <v>7952455</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2">
-        <v>45367.39583333334</v>
+        <v>45367.5</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
         <v>42</v>
       </c>
       <c r="J136">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="K136">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L136">
+        <v>7</v>
+      </c>
+      <c r="M136">
+        <v>1.333</v>
+      </c>
+      <c r="N136">
         <v>3.6</v>
       </c>
-      <c r="M136">
-        <v>2.05</v>
-      </c>
-      <c r="N136">
-        <v>3.2</v>
-      </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="P136">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
         <v>2.25</v>
       </c>
       <c r="T136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12197,16 +12197,16 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12214,67 +12214,67 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7952734</v>
+        <v>7952731</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2">
-        <v>45368.58333333334</v>
+        <v>45368.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
         <v>42</v>
       </c>
       <c r="J137">
-        <v>1.181</v>
+        <v>1.666</v>
       </c>
       <c r="K137">
+        <v>3.2</v>
+      </c>
+      <c r="L137">
+        <v>5</v>
+      </c>
+      <c r="M137">
+        <v>1.65</v>
+      </c>
+      <c r="N137">
+        <v>3.2</v>
+      </c>
+      <c r="O137">
         <v>5.5</v>
       </c>
-      <c r="L137">
-        <v>11</v>
-      </c>
-      <c r="M137">
-        <v>1.25</v>
-      </c>
-      <c r="N137">
-        <v>4.5</v>
-      </c>
-      <c r="O137">
-        <v>10</v>
-      </c>
       <c r="P137">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12283,16 +12283,16 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12300,67 +12300,67 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7952733</v>
+        <v>7952734</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2">
-        <v>45368.66666666666</v>
+        <v>45368.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="s">
         <v>42</v>
       </c>
       <c r="J138">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="K138">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="L138">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="M138">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="N138">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O138">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="P138">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q138">
+        <v>1.85</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>2.5</v>
+      </c>
+      <c r="T138">
         <v>1.825</v>
       </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.975</v>
       </c>
-      <c r="S138">
-        <v>2.25</v>
-      </c>
-      <c r="T138">
-        <v>1.775</v>
-      </c>
-      <c r="U138">
-        <v>2.025</v>
-      </c>
       <c r="V138">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12369,16 +12369,16 @@
         <v>-1</v>
       </c>
       <c r="Y138">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
         <v>0.825</v>
       </c>
-      <c r="Z138">
-        <v>-1</v>
-      </c>
-      <c r="AA138">
-        <v>-0.5</v>
-      </c>
       <c r="AB138">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12386,22 +12386,22 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7952731</v>
+        <v>7952733</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="2">
-        <v>45368.41666666666</v>
+        <v>45368.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12410,34 +12410,34 @@
         <v>42</v>
       </c>
       <c r="J139">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="K139">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="M139">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="N139">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O139">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="P139">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T139">
         <v>1.775</v>
@@ -12446,7 +12446,7 @@
         <v>2.025</v>
       </c>
       <c r="V139">
-        <v>0.6499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12455,16 +12455,16 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
         <v>-0.5</v>
       </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
       <c r="AB139">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12481,7 +12481,7 @@
         <v>45380.66666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
         <v>28</v>
@@ -12567,7 +12567,7 @@
         <v>45380.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
         <v>39</v>
@@ -12656,7 +12656,7 @@
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12730,64 +12730,64 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7952737</v>
+        <v>7952739</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
       </c>
       <c r="D143" s="2">
-        <v>45381.69791666666</v>
+        <v>45381.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143" t="s">
         <v>43</v>
       </c>
       <c r="J143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K143">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L143">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="M143">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N143">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
         <v>1.75</v>
       </c>
       <c r="T143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V143">
         <v>-1</v>
@@ -12796,19 +12796,19 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12902,64 +12902,64 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7952739</v>
+        <v>7952737</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2">
-        <v>45381.39583333334</v>
+        <v>45381.69791666666</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I145" t="s">
         <v>43</v>
       </c>
       <c r="J145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L145">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M145">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N145">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P145">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
         <v>1.75</v>
       </c>
       <c r="T145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
         <v>-1</v>
@@ -12968,19 +12968,19 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13083,10 +13083,10 @@
         <v>45388.65625</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13172,7 +13172,7 @@
         <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13344,7 +13344,7 @@
         <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13504,67 +13504,67 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7952746</v>
+        <v>7952749</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
       </c>
       <c r="D152" s="2">
-        <v>45394.64583333334</v>
+        <v>45394.4375</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
         <v>1</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>42</v>
       </c>
       <c r="J152">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="K152">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L152">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M152">
-        <v>1.09</v>
+        <v>1.7</v>
       </c>
       <c r="N152">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="O152">
-        <v>19</v>
+        <v>4.5</v>
       </c>
       <c r="P152">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T152">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>0.09000000000000008</v>
+        <v>0.7</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -13573,16 +13573,16 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13590,67 +13590,67 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7952749</v>
+        <v>7952746</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153" s="2">
-        <v>45394.4375</v>
+        <v>45394.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>42</v>
       </c>
       <c r="J153">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="K153">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L153">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M153">
-        <v>1.7</v>
+        <v>1.09</v>
       </c>
       <c r="N153">
+        <v>9.5</v>
+      </c>
+      <c r="O153">
+        <v>19</v>
+      </c>
+      <c r="P153">
+        <v>-2.5</v>
+      </c>
+      <c r="Q153">
+        <v>1.95</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
         <v>3.25</v>
       </c>
-      <c r="O153">
-        <v>4.5</v>
-      </c>
-      <c r="P153">
-        <v>-0.75</v>
-      </c>
-      <c r="Q153">
-        <v>1.975</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>2.25</v>
-      </c>
       <c r="T153">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>0.7</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13659,16 +13659,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13688,7 +13688,7 @@
         <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13857,10 +13857,10 @@
         <v>45396.625</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13943,7 +13943,7 @@
         <v>45396.33333333334</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
         <v>31</v>
@@ -14020,58 +14020,58 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7952751</v>
+        <v>7952750</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="2">
-        <v>45401.45833333334</v>
+        <v>45401.625</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
         <v>1</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
       </c>
       <c r="I158" t="s">
         <v>42</v>
       </c>
       <c r="J158">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="K158">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="L158">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M158">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="N158">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O158">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="P158">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q158">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T158">
         <v>1.95</v>
@@ -14080,7 +14080,7 @@
         <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.375</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14089,16 +14089,16 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14118,7 +14118,7 @@
         <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14192,58 +14192,58 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7952750</v>
+        <v>7952751</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="2">
-        <v>45401.625</v>
+        <v>45401.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
         <v>42</v>
       </c>
       <c r="J160">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="K160">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L160">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="N160">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="P160">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q160">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R160">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T160">
         <v>1.95</v>
@@ -14252,7 +14252,7 @@
         <v>1.85</v>
       </c>
       <c r="V160">
-        <v>0.1659999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14261,16 +14261,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14278,85 +14278,85 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7952753</v>
+        <v>7952459</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161" s="2">
-        <v>45402.65625</v>
+        <v>45402.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J161">
+        <v>3.5</v>
+      </c>
+      <c r="K161">
+        <v>3.5</v>
+      </c>
+      <c r="L161">
+        <v>1.833</v>
+      </c>
+      <c r="M161">
+        <v>7</v>
+      </c>
+      <c r="N161">
+        <v>4.2</v>
+      </c>
+      <c r="O161">
+        <v>1.363</v>
+      </c>
+      <c r="P161">
+        <v>1.25</v>
+      </c>
+      <c r="Q161">
+        <v>1.9</v>
+      </c>
+      <c r="R161">
+        <v>1.9</v>
+      </c>
+      <c r="S161">
         <v>2.5</v>
       </c>
-      <c r="K161">
-        <v>3</v>
-      </c>
-      <c r="L161">
-        <v>2.625</v>
-      </c>
-      <c r="M161">
-        <v>2.375</v>
-      </c>
-      <c r="N161">
-        <v>2.75</v>
-      </c>
-      <c r="O161">
-        <v>3</v>
-      </c>
-      <c r="P161">
-        <v>-0.25</v>
-      </c>
-      <c r="Q161">
-        <v>2.05</v>
-      </c>
-      <c r="R161">
-        <v>1.75</v>
-      </c>
-      <c r="S161">
-        <v>2.25</v>
-      </c>
       <c r="T161">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
         <v>-1</v>
       </c>
       <c r="W161">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14364,67 +14364,67 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7866183</v>
+        <v>7952752</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="2">
-        <v>45402.47916666666</v>
+        <v>45402.35416666666</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
         <v>42</v>
       </c>
       <c r="J162">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="K162">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L162">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="N162">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O162">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q162">
+        <v>1.775</v>
+      </c>
+      <c r="R162">
         <v>2.025</v>
       </c>
-      <c r="R162">
-        <v>1.775</v>
-      </c>
       <c r="S162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T162">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14433,13 +14433,13 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB162">
         <v>-1</v>
@@ -14450,85 +14450,85 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952459</v>
+        <v>7952753</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
       </c>
       <c r="D163" s="2">
-        <v>45402.45833333334</v>
+        <v>45402.65625</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J163">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K163">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L163">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="M163">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N163">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="O163">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="P163">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q163">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R163">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T163">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
         <v>-1</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X163">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z163">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB163">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14536,67 +14536,67 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7952752</v>
+        <v>7866183</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
       </c>
       <c r="D164" s="2">
-        <v>45402.35416666666</v>
+        <v>45402.47916666666</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="s">
         <v>42</v>
       </c>
       <c r="J164">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="K164">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M164">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="N164">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q164">
+        <v>2.025</v>
+      </c>
+      <c r="R164">
         <v>1.775</v>
       </c>
-      <c r="R164">
-        <v>2.025</v>
-      </c>
       <c r="S164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T164">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -14605,13 +14605,13 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -14622,70 +14622,70 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7952757</v>
+        <v>7952755</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
       </c>
       <c r="D165" s="2">
-        <v>45405.64583333334</v>
+        <v>45405.45833333334</v>
       </c>
       <c r="E165" t="s">
         <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K165">
+        <v>3.3</v>
+      </c>
+      <c r="L165">
         <v>3.25</v>
       </c>
-      <c r="L165">
-        <v>4</v>
-      </c>
       <c r="M165">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="N165">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O165">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P165">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q165">
+        <v>1.775</v>
+      </c>
+      <c r="R165">
+        <v>2.025</v>
+      </c>
+      <c r="S165">
+        <v>2.5</v>
+      </c>
+      <c r="T165">
         <v>1.95</v>
       </c>
-      <c r="R165">
+      <c r="U165">
         <v>1.85</v>
       </c>
-      <c r="S165">
-        <v>2.25</v>
-      </c>
-      <c r="T165">
-        <v>1.85</v>
-      </c>
-      <c r="U165">
-        <v>1.95</v>
-      </c>
       <c r="V165">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -14694,13 +14694,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z165">
-        <v>0.425</v>
+        <v>0.5125</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -14794,70 +14794,70 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7952755</v>
+        <v>7952757</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
       </c>
       <c r="D167" s="2">
-        <v>45405.45833333334</v>
+        <v>45405.64583333334</v>
       </c>
       <c r="E167" t="s">
         <v>34</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J167">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K167">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="N167">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O167">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="P167">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q167">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R167">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T167">
+        <v>1.85</v>
+      </c>
+      <c r="U167">
         <v>1.95</v>
       </c>
-      <c r="U167">
-        <v>1.85</v>
-      </c>
       <c r="V167">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -14866,13 +14866,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z167">
-        <v>0.5125</v>
+        <v>0.425</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14880,67 +14880,67 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7952759</v>
+        <v>7952460</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
       </c>
       <c r="D168" s="2">
-        <v>45406.54166666666</v>
+        <v>45406.64583333334</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168" t="s">
         <v>42</v>
       </c>
       <c r="J168">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="K168">
         <v>4</v>
       </c>
       <c r="L168">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="M168">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="N168">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O168">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="P168">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="Q168">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>0.181</v>
+        <v>0.444</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -14949,16 +14949,16 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z168">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -14966,67 +14966,67 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7952756</v>
+        <v>7952759</v>
       </c>
       <c r="C169" t="s">
         <v>27</v>
       </c>
       <c r="D169" s="2">
-        <v>45406.45833333334</v>
+        <v>45406.54166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="s">
         <v>42</v>
       </c>
       <c r="J169">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="K169">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L169">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="M169">
-        <v>3</v>
+        <v>1.181</v>
       </c>
       <c r="N169">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="O169">
-        <v>2.15</v>
+        <v>13</v>
       </c>
       <c r="P169">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q169">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R169">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>2</v>
+        <v>0.181</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15035,16 +15035,16 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15052,67 +15052,67 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7952460</v>
+        <v>7952756</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
       </c>
       <c r="D170" s="2">
-        <v>45406.64583333334</v>
+        <v>45406.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="s">
         <v>42</v>
       </c>
       <c r="J170">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="K170">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L170">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="M170">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N170">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O170">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="P170">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q170">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R170">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T170">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15121,13 +15121,13 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB170">
         <v>-1</v>
@@ -15138,85 +15138,85 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7952763</v>
+        <v>7952760</v>
       </c>
       <c r="C171" t="s">
         <v>27</v>
       </c>
       <c r="D171" s="2">
-        <v>45409.35416666666</v>
+        <v>45409.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J171">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="K171">
+        <v>3.4</v>
+      </c>
+      <c r="L171">
         <v>3.6</v>
       </c>
-      <c r="L171">
-        <v>5.75</v>
-      </c>
       <c r="M171">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N171">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q171">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S171">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T171">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V171">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15224,85 +15224,85 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7952760</v>
+        <v>7952763</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
       </c>
       <c r="D172" s="2">
-        <v>45409.45833333334</v>
+        <v>45409.35416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J172">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="K172">
+        <v>3.6</v>
+      </c>
+      <c r="L172">
+        <v>5.75</v>
+      </c>
+      <c r="M172">
+        <v>1.909</v>
+      </c>
+      <c r="N172">
         <v>3.4</v>
       </c>
-      <c r="L172">
-        <v>3.6</v>
-      </c>
-      <c r="M172">
-        <v>2.75</v>
-      </c>
-      <c r="N172">
-        <v>2.875</v>
-      </c>
       <c r="O172">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q172">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R172">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T172">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U172">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z172">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15310,55 +15310,55 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7952761</v>
+        <v>7952461</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
       </c>
       <c r="D173" s="2">
-        <v>45410.33333333334</v>
+        <v>45410.5</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
         <v>1</v>
-      </c>
-      <c r="H173">
-        <v>2</v>
       </c>
       <c r="I173" t="s">
         <v>43</v>
       </c>
       <c r="J173">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="K173">
+        <v>3.6</v>
+      </c>
+      <c r="L173">
+        <v>1.8</v>
+      </c>
+      <c r="M173">
+        <v>4.5</v>
+      </c>
+      <c r="N173">
         <v>3.4</v>
       </c>
-      <c r="L173">
-        <v>1.571</v>
-      </c>
-      <c r="M173">
-        <v>6</v>
-      </c>
-      <c r="N173">
-        <v>3.3</v>
-      </c>
       <c r="O173">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="P173">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q173">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R173">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S173">
         <v>2.25</v>
@@ -15376,19 +15376,277 @@
         <v>-1</v>
       </c>
       <c r="X173">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Y173">
+        <v>-0.5</v>
+      </c>
+      <c r="Z173">
+        <v>0.475</v>
+      </c>
+      <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>7952764</v>
+      </c>
+      <c r="C174" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45410.65625</v>
+      </c>
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174" t="s">
+        <v>42</v>
+      </c>
+      <c r="J174">
+        <v>1.533</v>
+      </c>
+      <c r="K174">
+        <v>3.5</v>
+      </c>
+      <c r="L174">
+        <v>5.5</v>
+      </c>
+      <c r="M174">
+        <v>1.727</v>
+      </c>
+      <c r="N174">
+        <v>3.5</v>
+      </c>
+      <c r="O174">
+        <v>4</v>
+      </c>
+      <c r="P174">
+        <v>-0.75</v>
+      </c>
+      <c r="Q174">
+        <v>2</v>
+      </c>
+      <c r="R174">
+        <v>1.8</v>
+      </c>
+      <c r="S174">
+        <v>2.25</v>
+      </c>
+      <c r="T174">
+        <v>1.825</v>
+      </c>
+      <c r="U174">
+        <v>1.975</v>
+      </c>
+      <c r="V174">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>1</v>
+      </c>
+      <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>0.825</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>7952761</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45410.33333333334</v>
+      </c>
+      <c r="E175" t="s">
+        <v>35</v>
+      </c>
+      <c r="F175" t="s">
+        <v>36</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175" t="s">
+        <v>43</v>
+      </c>
+      <c r="J175">
+        <v>5.5</v>
+      </c>
+      <c r="K175">
+        <v>3.4</v>
+      </c>
+      <c r="L175">
+        <v>1.571</v>
+      </c>
+      <c r="M175">
+        <v>6</v>
+      </c>
+      <c r="N175">
+        <v>3.3</v>
+      </c>
+      <c r="O175">
+        <v>1.55</v>
+      </c>
+      <c r="P175">
+        <v>1</v>
+      </c>
+      <c r="Q175">
+        <v>1.75</v>
+      </c>
+      <c r="R175">
+        <v>2.05</v>
+      </c>
+      <c r="S175">
+        <v>2.25</v>
+      </c>
+      <c r="T175">
+        <v>1.975</v>
+      </c>
+      <c r="U175">
+        <v>1.825</v>
+      </c>
+      <c r="V175">
+        <v>-1</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
         <v>0.55</v>
       </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-      <c r="Z173">
-        <v>0</v>
-      </c>
-      <c r="AA173">
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB173">
-        <v>-1</v>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>7952762</v>
+      </c>
+      <c r="C176" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45411.47916666666</v>
+      </c>
+      <c r="E176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" t="s">
+        <v>33</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176" t="s">
+        <v>43</v>
+      </c>
+      <c r="J176">
+        <v>1.615</v>
+      </c>
+      <c r="K176">
+        <v>3.5</v>
+      </c>
+      <c r="L176">
+        <v>4.75</v>
+      </c>
+      <c r="M176">
+        <v>1.533</v>
+      </c>
+      <c r="N176">
+        <v>3.75</v>
+      </c>
+      <c r="O176">
+        <v>5.25</v>
+      </c>
+      <c r="P176">
+        <v>-1</v>
+      </c>
+      <c r="Q176">
+        <v>1.9</v>
+      </c>
+      <c r="R176">
+        <v>1.9</v>
+      </c>
+      <c r="S176">
+        <v>3</v>
+      </c>
+      <c r="T176">
+        <v>1.9</v>
+      </c>
+      <c r="U176">
+        <v>1.9</v>
+      </c>
+      <c r="V176">
+        <v>-1</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>4.25</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -1292,19 +1292,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7051290</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>45150.65625</v>
+        <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1316,43 +1316,43 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="K10">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L10">
+        <v>3.5</v>
+      </c>
+      <c r="M10">
+        <v>1.75</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>3.4</v>
+      </c>
+      <c r="P10">
+        <v>-0.5</v>
+      </c>
+      <c r="Q10">
+        <v>1.8</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
         <v>2.5</v>
       </c>
-      <c r="M10">
-        <v>2.05</v>
-      </c>
-      <c r="N10">
-        <v>3.5</v>
-      </c>
-      <c r="O10">
-        <v>2.875</v>
-      </c>
-      <c r="P10">
-        <v>-0.25</v>
-      </c>
-      <c r="Q10">
-        <v>1.875</v>
-      </c>
-      <c r="R10">
-        <v>1.925</v>
-      </c>
-      <c r="S10">
-        <v>2.25</v>
-      </c>
       <c r="T10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1361,16 +1361,16 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1378,19 +1378,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6865281</v>
+        <v>7051290</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>45150.5</v>
+        <v>45150.65625</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1402,61 +1402,61 @@
         <v>42</v>
       </c>
       <c r="J11">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L11">
+        <v>2.5</v>
+      </c>
+      <c r="M11">
+        <v>2.05</v>
+      </c>
+      <c r="N11">
         <v>3.5</v>
       </c>
-      <c r="M11">
-        <v>1.75</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P11">
+        <v>-0.25</v>
+      </c>
+      <c r="Q11">
+        <v>1.875</v>
+      </c>
+      <c r="R11">
+        <v>1.925</v>
+      </c>
+      <c r="S11">
+        <v>2.25</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1.8</v>
+      </c>
+      <c r="V11">
+        <v>1.05</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>0.875</v>
+      </c>
+      <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>-0.5</v>
       </c>
-      <c r="Q11">
-        <v>1.8</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>2.5</v>
-      </c>
-      <c r="T11">
-        <v>1.85</v>
-      </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>0.75</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>0.8</v>
-      </c>
-      <c r="Z11">
-        <v>-1</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2152,22 +2152,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6865293</v>
+        <v>6865292</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>45164.5</v>
+        <v>45164.65625</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2176,43 +2176,43 @@
         <v>42</v>
       </c>
       <c r="J20">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="K20">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="M20">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N20">
         <v>3.1</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P20">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
         <v>2.25</v>
       </c>
       <c r="T20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2221,13 +2221,13 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2238,22 +2238,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6865292</v>
+        <v>6865293</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>45164.65625</v>
+        <v>45164.5</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2262,43 +2262,43 @@
         <v>42</v>
       </c>
       <c r="J21">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L21">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
         <v>3.1</v>
       </c>
       <c r="O21">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
         <v>2.25</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V21">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2307,13 +2307,13 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2754,82 +2754,82 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6865297</v>
+        <v>6865294</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>45171.65625</v>
+        <v>45171.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J27">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="K27">
+        <v>3.8</v>
+      </c>
+      <c r="L27">
         <v>3.6</v>
       </c>
-      <c r="L27">
-        <v>1.833</v>
-      </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O27">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q27">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W27">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2840,82 +2840,82 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6865294</v>
+        <v>6865297</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>45171.60416666666</v>
+        <v>45171.65625</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J28">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="K28">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="M28">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q28">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
+        <v>2.75</v>
+      </c>
+      <c r="T28">
+        <v>1.95</v>
+      </c>
+      <c r="U28">
+        <v>1.85</v>
+      </c>
+      <c r="V28">
+        <v>-1</v>
+      </c>
+      <c r="W28">
         <v>2.5</v>
       </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>1.8</v>
-      </c>
-      <c r="V28">
-        <v>0.55</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -2926,7 +2926,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2935,58 +2935,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
         <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>
       </c>
       <c r="J29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
+        <v>1.615</v>
+      </c>
+      <c r="N29">
+        <v>3.5</v>
+      </c>
+      <c r="O29">
+        <v>4.5</v>
+      </c>
+      <c r="P29">
+        <v>-0.75</v>
+      </c>
+      <c r="Q29">
+        <v>1.85</v>
+      </c>
+      <c r="R29">
         <v>1.95</v>
       </c>
-      <c r="N29">
-        <v>3.2</v>
-      </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>-0.5</v>
-      </c>
-      <c r="Q29">
-        <v>2.025</v>
-      </c>
-      <c r="R29">
-        <v>1.775</v>
-      </c>
       <c r="S29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2995,16 +2995,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3012,7 +3012,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3021,58 +3021,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>42</v>
       </c>
       <c r="J30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K30">
+        <v>3.2</v>
+      </c>
+      <c r="L30">
+        <v>3.6</v>
+      </c>
+      <c r="M30">
+        <v>1.95</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="L30">
-        <v>3.8</v>
-      </c>
-      <c r="M30">
-        <v>1.615</v>
-      </c>
-      <c r="N30">
-        <v>3.5</v>
-      </c>
-      <c r="O30">
-        <v>4.5</v>
-      </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3081,16 +3081,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3184,82 +3184,82 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6865301</v>
+        <v>6865374</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>45184.5625</v>
+        <v>45184.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J32">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="K32">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L32">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="M32">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="N32">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q32">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
         <v>2.25</v>
       </c>
       <c r="T32">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z32">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3270,82 +3270,82 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6865374</v>
+        <v>6865301</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="2">
-        <v>45184.45833333334</v>
+        <v>45184.5625</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J33">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="K33">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L33">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="M33">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="N33">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q33">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S33">
         <v>2.25</v>
       </c>
       <c r="T33">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U33">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA33">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB33">
         <v>-1</v>
@@ -3356,85 +3356,85 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6865302</v>
+        <v>6865300</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2">
-        <v>45185.45833333334</v>
+        <v>45185.65625</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J34">
+        <v>3.6</v>
+      </c>
+      <c r="K34">
+        <v>3.25</v>
+      </c>
+      <c r="L34">
+        <v>1.909</v>
+      </c>
+      <c r="M34">
+        <v>2.55</v>
+      </c>
+      <c r="N34">
+        <v>2.9</v>
+      </c>
+      <c r="O34">
+        <v>2.6</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1.85</v>
+      </c>
+      <c r="R34">
+        <v>1.95</v>
+      </c>
+      <c r="S34">
         <v>2.25</v>
       </c>
-      <c r="K34">
-        <v>3.1</v>
-      </c>
-      <c r="L34">
-        <v>2.9</v>
-      </c>
-      <c r="M34">
-        <v>2.7</v>
-      </c>
-      <c r="N34">
-        <v>3.1</v>
-      </c>
-      <c r="O34">
-        <v>2.4</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>2.05</v>
-      </c>
-      <c r="R34">
-        <v>1.75</v>
-      </c>
-      <c r="S34">
-        <v>2</v>
-      </c>
       <c r="T34">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3442,85 +3442,85 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6865300</v>
+        <v>6865302</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="2">
-        <v>45185.65625</v>
+        <v>45185.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="K35">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L35">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N35">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O35">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S35">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -4474,58 +4474,58 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6865308</v>
+        <v>6865312</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>45199.65625</v>
+        <v>45199.5625</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J47">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="K47">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="L47">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>1.111</v>
+        <v>1.7</v>
       </c>
       <c r="N47">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="O47">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P47">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="T47">
         <v>1.9</v>
@@ -4534,10 +4534,10 @@
         <v>1.9</v>
       </c>
       <c r="V47">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4546,13 +4546,13 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4560,58 +4560,58 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6865312</v>
+        <v>6865308</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2">
-        <v>45199.5625</v>
+        <v>45199.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J48">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="K48">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M48">
-        <v>1.7</v>
+        <v>1.111</v>
       </c>
       <c r="N48">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="P48">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="Q48">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="T48">
         <v>1.9</v>
@@ -4620,10 +4620,10 @@
         <v>1.9</v>
       </c>
       <c r="V48">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="W48">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4632,13 +4632,13 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4646,49 +4646,49 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6864631</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2">
-        <v>45200.65625</v>
+        <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
         <v>42</v>
       </c>
       <c r="J49">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="K49">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O49">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q49">
         <v>1.925</v>
@@ -4700,13 +4700,13 @@
         <v>2.25</v>
       </c>
       <c r="T49">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U49">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4721,10 +4721,10 @@
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4732,7 +4732,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4741,76 +4741,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="K50">
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4818,85 +4818,85 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6865310</v>
+        <v>6864631</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2">
-        <v>45200.41666666666</v>
+        <v>45200.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J51">
+        <v>1.8</v>
+      </c>
+      <c r="K51">
+        <v>3.8</v>
+      </c>
+      <c r="L51">
         <v>3.4</v>
       </c>
-      <c r="K51">
-        <v>3.6</v>
-      </c>
-      <c r="L51">
-        <v>1.833</v>
-      </c>
       <c r="M51">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="N51">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q51">
+        <v>1.925</v>
+      </c>
+      <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
+        <v>2.25</v>
+      </c>
+      <c r="T51">
+        <v>2.025</v>
+      </c>
+      <c r="U51">
         <v>1.775</v>
       </c>
-      <c r="R51">
-        <v>2.025</v>
-      </c>
-      <c r="S51">
-        <v>2.75</v>
-      </c>
-      <c r="T51">
-        <v>1.85</v>
-      </c>
-      <c r="U51">
-        <v>1.95</v>
-      </c>
       <c r="V51">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5506,58 +5506,58 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7217267</v>
+        <v>7117579</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>45217.47916666666</v>
+        <v>45217.58333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J59">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="K59">
+        <v>3.25</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>1.8</v>
+      </c>
+      <c r="N59">
+        <v>3.25</v>
+      </c>
+      <c r="O59">
         <v>4.2</v>
       </c>
-      <c r="L59">
-        <v>5.75</v>
-      </c>
-      <c r="M59">
-        <v>1.4</v>
-      </c>
-      <c r="N59">
-        <v>4</v>
-      </c>
-      <c r="O59">
-        <v>6.5</v>
-      </c>
       <c r="P59">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q59">
+        <v>1.825</v>
+      </c>
+      <c r="R59">
         <v>1.975</v>
       </c>
-      <c r="R59">
-        <v>1.825</v>
-      </c>
       <c r="S59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
         <v>1.975</v>
@@ -5566,25 +5566,25 @@
         <v>1.825</v>
       </c>
       <c r="V59">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
       <c r="AA59">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5592,58 +5592,58 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7117579</v>
+        <v>7217267</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2">
-        <v>45217.58333333334</v>
+        <v>45217.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J60">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="K60">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L60">
+        <v>5.75</v>
+      </c>
+      <c r="M60">
+        <v>1.4</v>
+      </c>
+      <c r="N60">
         <v>4</v>
       </c>
-      <c r="M60">
-        <v>1.8</v>
-      </c>
-      <c r="N60">
-        <v>3.25</v>
-      </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P60">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q60">
+        <v>1.975</v>
+      </c>
+      <c r="R60">
         <v>1.825</v>
       </c>
-      <c r="R60">
-        <v>1.975</v>
-      </c>
       <c r="S60">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T60">
         <v>1.975</v>
@@ -5652,25 +5652,25 @@
         <v>1.825</v>
       </c>
       <c r="V60">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W60">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB60">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5678,85 +5678,85 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6865319</v>
+        <v>6865316</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2">
-        <v>45220.5625</v>
+        <v>45220.65625</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J61">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="K61">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M61">
         <v>1.5</v>
       </c>
       <c r="N61">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O61">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P61">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q61">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5764,85 +5764,85 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6865318</v>
+        <v>6865319</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2">
-        <v>45220.35416666666</v>
+        <v>45220.5625</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J62">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K62">
         <v>3.4</v>
       </c>
       <c r="L62">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M62">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O62">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="P62">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q62">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R62">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T62">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U62">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5850,19 +5850,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6865316</v>
+        <v>6865318</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2">
-        <v>45220.65625</v>
+        <v>45220.35416666666</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5874,43 +5874,43 @@
         <v>42</v>
       </c>
       <c r="J63">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="K63">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L63">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M63">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="N63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O63">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P63">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q63">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S63">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V63">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -5919,16 +5919,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z63">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5936,49 +5936,49 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6864633</v>
+        <v>6865317</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2">
-        <v>45221.61458333334</v>
+        <v>45221.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L64">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N64">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O64">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>1.825</v>
@@ -5990,19 +5990,19 @@
         <v>2.5</v>
       </c>
       <c r="T64">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
         <v>-1</v>
       </c>
       <c r="W64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -6011,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6022,49 +6022,49 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6865317</v>
+        <v>6864633</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2">
-        <v>45221.33333333334</v>
+        <v>45221.61458333334</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N65">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O65">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <v>1.825</v>
@@ -6076,19 +6076,19 @@
         <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
         <v>-1</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6280,22 +6280,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6865324</v>
+        <v>6864634</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45227.35416666666</v>
+        <v>45227.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6304,43 +6304,43 @@
         <v>42</v>
       </c>
       <c r="J68">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="K68">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L68">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N68">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O68">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="P68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6349,16 +6349,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6366,22 +6366,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6864634</v>
+        <v>6865324</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45227.45833333334</v>
+        <v>45227.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6390,43 +6390,43 @@
         <v>42</v>
       </c>
       <c r="J69">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M69">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N69">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O69">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="P69">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6435,16 +6435,16 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6452,85 +6452,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6865321</v>
+        <v>6865323</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45228.41666666666</v>
+        <v>45228.61111111111</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="s">
         <v>44</v>
       </c>
       <c r="J70">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="M70">
+        <v>4.2</v>
+      </c>
+      <c r="N70">
         <v>3.2</v>
       </c>
-      <c r="N70">
-        <v>3.1</v>
-      </c>
       <c r="O70">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="P70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6538,85 +6538,85 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6865323</v>
+        <v>6865321</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>45228.61111111111</v>
+        <v>45228.41666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
         <v>44</v>
       </c>
       <c r="J71">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K71">
+        <v>3.25</v>
+      </c>
+      <c r="L71">
+        <v>1.85</v>
+      </c>
+      <c r="M71">
         <v>3.2</v>
       </c>
-      <c r="L71">
-        <v>1.909</v>
-      </c>
-      <c r="M71">
-        <v>4.2</v>
-      </c>
       <c r="N71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O71">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="P71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T71">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U71">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
         <v>-1</v>
       </c>
       <c r="W71">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6968,85 +6968,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6864635</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2">
-        <v>45235.375</v>
+        <v>45235.65625</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J76">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L76">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="M76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="O76">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7140,85 +7140,85 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6864635</v>
+        <v>6865377</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2">
-        <v>45235.65625</v>
+        <v>45235.375</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J78">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K78">
+        <v>5</v>
+      </c>
+      <c r="L78">
+        <v>6</v>
+      </c>
+      <c r="M78">
+        <v>1.166</v>
+      </c>
+      <c r="N78">
+        <v>6.5</v>
+      </c>
+      <c r="O78">
+        <v>13</v>
+      </c>
+      <c r="P78">
+        <v>-2</v>
+      </c>
+      <c r="Q78">
+        <v>1.9</v>
+      </c>
+      <c r="R78">
+        <v>1.9</v>
+      </c>
+      <c r="S78">
         <v>3.25</v>
       </c>
-      <c r="L78">
-        <v>2.75</v>
-      </c>
-      <c r="M78">
-        <v>2.1</v>
-      </c>
-      <c r="N78">
-        <v>3.25</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
-      <c r="P78">
-        <v>-0.25</v>
-      </c>
-      <c r="Q78">
-        <v>1.875</v>
-      </c>
-      <c r="R78">
-        <v>1.925</v>
-      </c>
-      <c r="S78">
-        <v>2.25</v>
-      </c>
       <c r="T78">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W78">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z78">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7226,85 +7226,85 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6865334</v>
+        <v>6865333</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45241.375</v>
+        <v>45241.69791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J79">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="K79">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M79">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="P79">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T79">
+        <v>1.875</v>
+      </c>
+      <c r="U79">
         <v>1.925</v>
       </c>
-      <c r="U79">
-        <v>1.875</v>
-      </c>
       <c r="V79">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
         <v>0.925</v>
-      </c>
-      <c r="AB79">
-        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7312,85 +7312,85 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6865333</v>
+        <v>6865334</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2">
-        <v>45241.69791666666</v>
+        <v>45241.375</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J80">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M80">
+        <v>1.65</v>
+      </c>
+      <c r="N80">
+        <v>3.6</v>
+      </c>
+      <c r="O80">
+        <v>4.333</v>
+      </c>
+      <c r="P80">
+        <v>-0.75</v>
+      </c>
+      <c r="Q80">
+        <v>1.9</v>
+      </c>
+      <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80">
         <v>2.5</v>
       </c>
-      <c r="N80">
-        <v>3.1</v>
-      </c>
-      <c r="O80">
-        <v>2.75</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>1.85</v>
-      </c>
-      <c r="R80">
-        <v>1.95</v>
-      </c>
-      <c r="S80">
-        <v>2.25</v>
-      </c>
       <c r="T80">
+        <v>1.925</v>
+      </c>
+      <c r="U80">
         <v>1.875</v>
       </c>
-      <c r="U80">
-        <v>1.925</v>
-      </c>
       <c r="V80">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -8000,85 +8000,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505494</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2">
-        <v>45256.45833333334</v>
+        <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J88">
+        <v>1.444</v>
+      </c>
+      <c r="K88">
+        <v>4.2</v>
+      </c>
+      <c r="L88">
         <v>5.5</v>
       </c>
-      <c r="K88">
-        <v>3.75</v>
-      </c>
-      <c r="L88">
+      <c r="M88">
         <v>1.5</v>
       </c>
-      <c r="M88">
-        <v>6</v>
-      </c>
       <c r="N88">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O88">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="P88">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8086,85 +8086,85 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7505495</v>
+        <v>7505494</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2">
-        <v>45256.375</v>
+        <v>45256.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J89">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="K89">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="M89">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="N89">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O89">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="P89">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Q89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8516,85 +8516,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6865342</v>
+        <v>6865339</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2">
-        <v>45263.375</v>
+        <v>45263.65625</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J94">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="K94">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M94">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N94">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O94">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="V94">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8602,85 +8602,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6865339</v>
+        <v>6865342</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2">
-        <v>45263.65625</v>
+        <v>45263.375</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J95">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L95">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N95">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O95">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q95">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="R95">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T95">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="U95">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W95">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -9032,22 +9032,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6865346</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2">
-        <v>45269.375</v>
+        <v>45269.5</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9056,43 +9056,43 @@
         <v>42</v>
       </c>
       <c r="J100">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="K100">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M100">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="N100">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P100">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9101,16 +9101,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9118,22 +9118,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6865346</v>
+        <v>6865343</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2">
-        <v>45269.5</v>
+        <v>45269.375</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9142,43 +9142,43 @@
         <v>42</v>
       </c>
       <c r="J101">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="K101">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L101">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="N101">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O101">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="T101">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9187,16 +9187,16 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9204,85 +9204,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6865347</v>
+        <v>6865344</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2">
-        <v>45270.46875</v>
+        <v>45270.375</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J102">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="M102">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N102">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O102">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="P102">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q102">
+        <v>1.775</v>
+      </c>
+      <c r="R102">
         <v>2.025</v>
       </c>
-      <c r="R102">
-        <v>1.775</v>
-      </c>
       <c r="S102">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T102">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U102">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9290,85 +9290,85 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6865344</v>
+        <v>6865347</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2">
-        <v>45270.375</v>
+        <v>45270.46875</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J103">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="K103">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N103">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O103">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q103">
+        <v>2.025</v>
+      </c>
+      <c r="R103">
         <v>1.775</v>
       </c>
-      <c r="R103">
-        <v>2.025</v>
-      </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T103">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V103">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>0.7749999999999999</v>
       </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9634,85 +9634,85 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6865348</v>
+        <v>6865351</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2">
-        <v>45277.375</v>
+        <v>45277.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>44</v>
+      </c>
+      <c r="J107">
+        <v>1.4</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+      <c r="L107">
+        <v>6.5</v>
+      </c>
+      <c r="M107">
+        <v>1.2</v>
+      </c>
+      <c r="N107">
+        <v>5</v>
+      </c>
+      <c r="O107">
+        <v>12</v>
+      </c>
+      <c r="P107">
+        <v>-1.75</v>
+      </c>
+      <c r="Q107">
+        <v>1.85</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
         <v>3</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107" t="s">
-        <v>42</v>
-      </c>
-      <c r="J107">
-        <v>2.625</v>
-      </c>
-      <c r="K107">
-        <v>3.5</v>
-      </c>
-      <c r="L107">
-        <v>2.25</v>
-      </c>
-      <c r="M107">
-        <v>2.15</v>
-      </c>
-      <c r="N107">
-        <v>3</v>
-      </c>
-      <c r="O107">
-        <v>3.25</v>
-      </c>
-      <c r="P107">
-        <v>-0.25</v>
-      </c>
-      <c r="Q107">
-        <v>1.9</v>
-      </c>
-      <c r="R107">
-        <v>1.9</v>
-      </c>
-      <c r="S107">
-        <v>2</v>
-      </c>
       <c r="T107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9720,85 +9720,85 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6865351</v>
+        <v>6865348</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2">
-        <v>45277.45833333334</v>
+        <v>45277.375</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J108">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="K108">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L108">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="M108">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="N108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O108">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W108">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9978,85 +9978,85 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865355</v>
+        <v>6865354</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2">
-        <v>45339.5</v>
+        <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J111">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="K111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N111">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O111">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="P111">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q111">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R111">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
         <v>-1</v>
       </c>
       <c r="W111">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y111">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10150,85 +10150,85 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6865354</v>
+        <v>6865355</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2">
-        <v>45339.375</v>
+        <v>45339.5</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>44</v>
+      </c>
+      <c r="J113">
+        <v>4.75</v>
+      </c>
+      <c r="K113">
+        <v>3.5</v>
+      </c>
+      <c r="L113">
+        <v>1.615</v>
+      </c>
+      <c r="M113">
+        <v>5.5</v>
+      </c>
+      <c r="N113">
+        <v>3.5</v>
+      </c>
+      <c r="O113">
+        <v>1.533</v>
+      </c>
+      <c r="P113">
         <v>1</v>
       </c>
-      <c r="H113">
-        <v>2</v>
-      </c>
-      <c r="I113" t="s">
-        <v>43</v>
-      </c>
-      <c r="J113">
-        <v>1.8</v>
-      </c>
-      <c r="K113">
-        <v>3.25</v>
-      </c>
-      <c r="L113">
-        <v>4</v>
-      </c>
-      <c r="M113">
-        <v>2.25</v>
-      </c>
-      <c r="N113">
-        <v>3.1</v>
-      </c>
-      <c r="O113">
-        <v>2.9</v>
-      </c>
-      <c r="P113">
-        <v>-0.25</v>
-      </c>
       <c r="Q113">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T113">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10666,85 +10666,85 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6865357</v>
+        <v>6865360</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2">
-        <v>45347.375</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J119">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="K119">
+        <v>6.5</v>
+      </c>
+      <c r="L119">
+        <v>9.5</v>
+      </c>
+      <c r="M119">
+        <v>1.125</v>
+      </c>
+      <c r="N119">
+        <v>7</v>
+      </c>
+      <c r="O119">
+        <v>15</v>
+      </c>
+      <c r="P119">
+        <v>-2.25</v>
+      </c>
+      <c r="Q119">
+        <v>1.975</v>
+      </c>
+      <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
         <v>3.25</v>
       </c>
-      <c r="L119">
-        <v>2.95</v>
-      </c>
-      <c r="M119">
-        <v>2</v>
-      </c>
-      <c r="N119">
-        <v>3.3</v>
-      </c>
-      <c r="O119">
-        <v>3.3</v>
-      </c>
-      <c r="P119">
-        <v>-0.25</v>
-      </c>
-      <c r="Q119">
-        <v>1.775</v>
-      </c>
-      <c r="R119">
-        <v>2.025</v>
-      </c>
-      <c r="S119">
-        <v>2.25</v>
-      </c>
       <c r="T119">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10752,85 +10752,85 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6865360</v>
+        <v>6865357</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2">
-        <v>45347.45833333334</v>
+        <v>45347.375</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J120">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="K120">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="L120">
-        <v>9.5</v>
+        <v>2.95</v>
       </c>
       <c r="M120">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="O120">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T120">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10924,85 +10924,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865382</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2">
-        <v>45353.375</v>
+        <v>45353.5</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="K122">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="M122">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N122">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O122">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q122">
+        <v>1.8</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>2</v>
+      </c>
+      <c r="T122">
+        <v>1.75</v>
+      </c>
+      <c r="U122">
         <v>2.05</v>
       </c>
-      <c r="R122">
-        <v>1.75</v>
-      </c>
-      <c r="S122">
-        <v>2</v>
-      </c>
-      <c r="T122">
-        <v>1.9</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
       <c r="V122">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11096,85 +11096,85 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6865382</v>
+        <v>6865363</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2">
-        <v>45353.5</v>
+        <v>45353.375</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J124">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="K124">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L124">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N124">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O124">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="P124">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q124">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
         <v>2</v>
       </c>
       <c r="T124">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W124">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11182,22 +11182,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6865362</v>
+        <v>6865364</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2">
-        <v>45354.41666666666</v>
+        <v>45354.61458333334</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11206,43 +11206,43 @@
         <v>42</v>
       </c>
       <c r="J125">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K125">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L125">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M125">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N125">
         <v>2.8</v>
       </c>
       <c r="O125">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P125">
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>2.05</v>
+      </c>
+      <c r="U125">
         <v>1.75</v>
       </c>
-      <c r="T125">
-        <v>1.8</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
       <c r="V125">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11251,16 +11251,16 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11268,22 +11268,22 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6865364</v>
+        <v>6865362</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45354.61458333334</v>
+        <v>45354.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11292,43 +11292,43 @@
         <v>42</v>
       </c>
       <c r="J126">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L126">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M126">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N126">
         <v>2.8</v>
       </c>
       <c r="O126">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P126">
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R126">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T126">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="U126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.7</v>
+        <v>1.625</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11337,16 +11337,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11956,67 +11956,67 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7952730</v>
+        <v>7952732</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="2">
-        <v>45367.69791666666</v>
+        <v>45367.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="s">
         <v>42</v>
       </c>
       <c r="J134">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L134">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="N134">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q134">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T134">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>0.3</v>
+        <v>1.05</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12025,13 +12025,13 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12042,67 +12042,67 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7952732</v>
+        <v>7952455</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2">
-        <v>45367.39583333334</v>
+        <v>45367.5</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="s">
         <v>42</v>
       </c>
       <c r="J135">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="K135">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L135">
+        <v>7</v>
+      </c>
+      <c r="M135">
+        <v>1.333</v>
+      </c>
+      <c r="N135">
         <v>3.6</v>
       </c>
-      <c r="M135">
-        <v>2.05</v>
-      </c>
-      <c r="N135">
-        <v>3.2</v>
-      </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="P135">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
         <v>2.25</v>
       </c>
       <c r="T135">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12111,16 +12111,16 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12128,22 +12128,22 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7952455</v>
+        <v>7952730</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2">
-        <v>45367.5</v>
+        <v>45367.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12152,43 +12152,43 @@
         <v>42</v>
       </c>
       <c r="J136">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="K136">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L136">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M136">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N136">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O136">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P136">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q136">
+        <v>1.95</v>
+      </c>
+      <c r="R136">
+        <v>1.85</v>
+      </c>
+      <c r="S136">
+        <v>2.75</v>
+      </c>
+      <c r="T136">
         <v>1.9</v>
       </c>
-      <c r="R136">
+      <c r="U136">
         <v>1.9</v>
       </c>
-      <c r="S136">
-        <v>2.25</v>
-      </c>
-      <c r="T136">
-        <v>1.95</v>
-      </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
       <c r="V136">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12197,16 +12197,16 @@
         <v>-1</v>
       </c>
       <c r="Y136">
+        <v>0.95</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>-0.5</v>
-      </c>
       <c r="AB136">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12472,85 +12472,85 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7952735</v>
+        <v>7952736</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2">
-        <v>45380.66666666666</v>
+        <v>45380.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>42</v>
+      </c>
+      <c r="J140">
+        <v>1.727</v>
+      </c>
+      <c r="K140">
+        <v>4</v>
+      </c>
+      <c r="L140">
+        <v>3.5</v>
+      </c>
+      <c r="M140">
+        <v>1.909</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140">
+        <v>2.9</v>
+      </c>
+      <c r="P140">
+        <v>-0.5</v>
+      </c>
+      <c r="Q140">
+        <v>2</v>
+      </c>
+      <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2.5</v>
+      </c>
+      <c r="T140">
+        <v>1.9</v>
+      </c>
+      <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>0.909</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
         <v>1</v>
       </c>
-      <c r="I140" t="s">
-        <v>43</v>
-      </c>
-      <c r="J140">
-        <v>2.4</v>
-      </c>
-      <c r="K140">
-        <v>3.2</v>
-      </c>
-      <c r="L140">
-        <v>2.6</v>
-      </c>
-      <c r="M140">
-        <v>2.5</v>
-      </c>
-      <c r="N140">
-        <v>3.2</v>
-      </c>
-      <c r="O140">
-        <v>2.625</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>1.775</v>
-      </c>
-      <c r="R140">
-        <v>2.025</v>
-      </c>
-      <c r="S140">
-        <v>1.75</v>
-      </c>
-      <c r="T140">
-        <v>1.825</v>
-      </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>-1</v>
-      </c>
-      <c r="W140">
-        <v>-1</v>
-      </c>
-      <c r="X140">
-        <v>1.625</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
       <c r="Z140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12558,85 +12558,85 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7952736</v>
+        <v>7952735</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2">
-        <v>45380.41666666666</v>
+        <v>45380.66666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J141">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="K141">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="M141">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N141">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="P141">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q141">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S141">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12988,70 +12988,70 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7952740</v>
+        <v>7952743</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2">
-        <v>45388.35416666666</v>
+        <v>45388.65625</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J146">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="L146">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="M146">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="N146">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="P146">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="Q146">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R146">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T146">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W146">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13060,13 +13060,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13074,71 +13074,71 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7952743</v>
+        <v>7952740</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2">
-        <v>45388.65625</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>44</v>
+      </c>
+      <c r="J147">
+        <v>1.533</v>
+      </c>
+      <c r="K147">
+        <v>3.75</v>
+      </c>
+      <c r="L147">
+        <v>5.2</v>
+      </c>
+      <c r="M147">
+        <v>1.4</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147">
+        <v>7.5</v>
+      </c>
+      <c r="P147">
+        <v>-1.25</v>
+      </c>
+      <c r="Q147">
+        <v>1.925</v>
+      </c>
+      <c r="R147">
+        <v>1.875</v>
+      </c>
+      <c r="S147">
+        <v>2.5</v>
+      </c>
+      <c r="T147">
+        <v>1.975</v>
+      </c>
+      <c r="U147">
+        <v>1.825</v>
+      </c>
+      <c r="V147">
+        <v>-1</v>
+      </c>
+      <c r="W147">
         <v>3</v>
       </c>
-      <c r="H147">
-        <v>2</v>
-      </c>
-      <c r="I147" t="s">
-        <v>42</v>
-      </c>
-      <c r="J147">
-        <v>1.222</v>
-      </c>
-      <c r="K147">
-        <v>5.2</v>
-      </c>
-      <c r="L147">
-        <v>9.5</v>
-      </c>
-      <c r="M147">
-        <v>1.181</v>
-      </c>
-      <c r="N147">
-        <v>5.5</v>
-      </c>
-      <c r="O147">
-        <v>12</v>
-      </c>
-      <c r="P147">
-        <v>-2</v>
-      </c>
-      <c r="Q147">
-        <v>2</v>
-      </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>3</v>
-      </c>
-      <c r="T147">
-        <v>1.85</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
-      <c r="V147">
-        <v>0.181</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
       <c r="X147">
         <v>-1</v>
       </c>
@@ -13146,13 +13146,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13160,85 +13160,85 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7952742</v>
+        <v>7952741</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>45389.375</v>
+        <v>45389.65625</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J148">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="K148">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L148">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="M148">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N148">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O148">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="P148">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q148">
+        <v>2.025</v>
+      </c>
+      <c r="R148">
+        <v>1.775</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
         <v>1.875</v>
       </c>
-      <c r="R148">
+      <c r="U148">
         <v>1.925</v>
       </c>
-      <c r="S148">
-        <v>2.25</v>
-      </c>
-      <c r="T148">
-        <v>1.9</v>
-      </c>
-      <c r="U148">
-        <v>1.9</v>
-      </c>
       <c r="V148">
         <v>-1</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13246,85 +13246,85 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7952741</v>
+        <v>7952742</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2">
-        <v>45389.65625</v>
+        <v>45389.375</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J149">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K149">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L149">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="M149">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N149">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O149">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="P149">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q149">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R149">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
         <v>-1</v>
       </c>
       <c r="W149">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13332,82 +13332,82 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7952744</v>
+        <v>7952457</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2">
-        <v>45390.4375</v>
+        <v>45390.54166666666</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J150">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="K150">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="L150">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="M150">
-        <v>1.65</v>
+        <v>1.166</v>
       </c>
       <c r="N150">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="P150">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="Q150">
+        <v>1.9</v>
+      </c>
+      <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>3</v>
+      </c>
+      <c r="T150">
         <v>1.875</v>
       </c>
-      <c r="R150">
+      <c r="U150">
         <v>1.925</v>
       </c>
-      <c r="S150">
-        <v>2.5</v>
-      </c>
-      <c r="T150">
-        <v>1.925</v>
-      </c>
-      <c r="U150">
-        <v>1.875</v>
-      </c>
       <c r="V150">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W150">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z150">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB150">
         <v>-1</v>
@@ -13418,82 +13418,82 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7952457</v>
+        <v>7952744</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2">
-        <v>45390.54166666666</v>
+        <v>45390.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J151">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="K151">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="L151">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="M151">
-        <v>1.166</v>
+        <v>1.65</v>
       </c>
       <c r="N151">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P151">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q151">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T151">
+        <v>1.925</v>
+      </c>
+      <c r="U151">
         <v>1.875</v>
       </c>
-      <c r="U151">
-        <v>1.925</v>
-      </c>
       <c r="V151">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA151">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
         <v>-1</v>
@@ -13504,67 +13504,67 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7952749</v>
+        <v>7952746</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
       </c>
       <c r="D152" s="2">
-        <v>45394.4375</v>
+        <v>45394.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>42</v>
       </c>
       <c r="J152">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="K152">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L152">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M152">
-        <v>1.7</v>
+        <v>1.09</v>
       </c>
       <c r="N152">
+        <v>9.5</v>
+      </c>
+      <c r="O152">
+        <v>19</v>
+      </c>
+      <c r="P152">
+        <v>-2.5</v>
+      </c>
+      <c r="Q152">
+        <v>1.95</v>
+      </c>
+      <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
         <v>3.25</v>
       </c>
-      <c r="O152">
-        <v>4.5</v>
-      </c>
-      <c r="P152">
-        <v>-0.75</v>
-      </c>
-      <c r="Q152">
-        <v>1.975</v>
-      </c>
-      <c r="R152">
-        <v>1.825</v>
-      </c>
-      <c r="S152">
-        <v>2.25</v>
-      </c>
       <c r="T152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>0.7</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -13573,16 +13573,16 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13590,67 +13590,67 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7952746</v>
+        <v>7952749</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153" s="2">
-        <v>45394.64583333334</v>
+        <v>45394.4375</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
         <v>1</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>42</v>
       </c>
       <c r="J153">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="K153">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L153">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M153">
-        <v>1.09</v>
+        <v>1.7</v>
       </c>
       <c r="N153">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="O153">
-        <v>19</v>
+        <v>4.5</v>
       </c>
       <c r="P153">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T153">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>0.09000000000000008</v>
+        <v>0.7</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13659,16 +13659,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB153">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13848,85 +13848,85 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7952747</v>
+        <v>7952748</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="2">
-        <v>45396.625</v>
+        <v>45396.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="s">
         <v>44</v>
       </c>
       <c r="J156">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K156">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L156">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M156">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="N156">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O156">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P156">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q156">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S156">
         <v>2.25</v>
       </c>
       <c r="T156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
         <v>-1</v>
       </c>
       <c r="W156">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13934,85 +13934,85 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7952748</v>
+        <v>7952747</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2">
-        <v>45396.33333333334</v>
+        <v>45396.625</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
         <v>44</v>
       </c>
       <c r="J157">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K157">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L157">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M157">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N157">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q157">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R157">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S157">
         <v>2.25</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
         <v>-1</v>
       </c>
       <c r="W157">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z157">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14278,85 +14278,85 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7952459</v>
+        <v>7952753</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161" s="2">
-        <v>45402.45833333334</v>
+        <v>45402.65625</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J161">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K161">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L161">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="M161">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N161">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="O161">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="P161">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q161">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T161">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
         <v>-1</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X161">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z161">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14364,67 +14364,67 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952752</v>
+        <v>7866183</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="2">
-        <v>45402.35416666666</v>
+        <v>45402.47916666666</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="s">
         <v>42</v>
       </c>
       <c r="J162">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="K162">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M162">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="N162">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O162">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q162">
+        <v>2.025</v>
+      </c>
+      <c r="R162">
         <v>1.775</v>
       </c>
-      <c r="R162">
-        <v>2.025</v>
-      </c>
       <c r="S162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T162">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14433,13 +14433,13 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB162">
         <v>-1</v>
@@ -14450,85 +14450,85 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952753</v>
+        <v>7952459</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
       </c>
       <c r="D163" s="2">
-        <v>45402.65625</v>
+        <v>45402.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J163">
+        <v>3.5</v>
+      </c>
+      <c r="K163">
+        <v>3.5</v>
+      </c>
+      <c r="L163">
+        <v>1.833</v>
+      </c>
+      <c r="M163">
+        <v>7</v>
+      </c>
+      <c r="N163">
+        <v>4.2</v>
+      </c>
+      <c r="O163">
+        <v>1.363</v>
+      </c>
+      <c r="P163">
+        <v>1.25</v>
+      </c>
+      <c r="Q163">
+        <v>1.9</v>
+      </c>
+      <c r="R163">
+        <v>1.9</v>
+      </c>
+      <c r="S163">
         <v>2.5</v>
       </c>
-      <c r="K163">
-        <v>3</v>
-      </c>
-      <c r="L163">
-        <v>2.625</v>
-      </c>
-      <c r="M163">
-        <v>2.375</v>
-      </c>
-      <c r="N163">
-        <v>2.75</v>
-      </c>
-      <c r="O163">
-        <v>3</v>
-      </c>
-      <c r="P163">
-        <v>-0.25</v>
-      </c>
-      <c r="Q163">
-        <v>2.05</v>
-      </c>
-      <c r="R163">
-        <v>1.75</v>
-      </c>
-      <c r="S163">
-        <v>2.25</v>
-      </c>
       <c r="T163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
         <v>-1</v>
       </c>
       <c r="W163">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14536,67 +14536,67 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7866183</v>
+        <v>7952752</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
       </c>
       <c r="D164" s="2">
-        <v>45402.47916666666</v>
+        <v>45402.35416666666</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="s">
         <v>42</v>
       </c>
       <c r="J164">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="K164">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L164">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="N164">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O164">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q164">
+        <v>1.775</v>
+      </c>
+      <c r="R164">
         <v>2.025</v>
       </c>
-      <c r="R164">
-        <v>1.775</v>
-      </c>
       <c r="S164">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T164">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -14605,13 +14605,13 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -14880,67 +14880,67 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7952460</v>
+        <v>7952756</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
       </c>
       <c r="D168" s="2">
-        <v>45406.64583333334</v>
+        <v>45406.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="s">
         <v>42</v>
       </c>
       <c r="J168">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="K168">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L168">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="M168">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O168">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="P168">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q168">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R168">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T168">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -14949,13 +14949,13 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15052,67 +15052,67 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7952756</v>
+        <v>7952460</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
       </c>
       <c r="D170" s="2">
-        <v>45406.45833333334</v>
+        <v>45406.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G170">
+        <v>4</v>
+      </c>
+      <c r="H170">
         <v>3</v>
-      </c>
-      <c r="H170">
-        <v>2</v>
       </c>
       <c r="I170" t="s">
         <v>42</v>
       </c>
       <c r="J170">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="K170">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L170">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="M170">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N170">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O170">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="P170">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q170">
+        <v>1.775</v>
+      </c>
+      <c r="R170">
+        <v>2.025</v>
+      </c>
+      <c r="S170">
+        <v>2.25</v>
+      </c>
+      <c r="T170">
+        <v>1.925</v>
+      </c>
+      <c r="U170">
         <v>1.875</v>
       </c>
-      <c r="R170">
-        <v>1.925</v>
-      </c>
-      <c r="S170">
-        <v>2.5</v>
-      </c>
-      <c r="T170">
-        <v>1.95</v>
-      </c>
-      <c r="U170">
-        <v>1.85</v>
-      </c>
       <c r="V170">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15121,13 +15121,13 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
         <v>-1</v>
@@ -15310,85 +15310,85 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7952461</v>
+        <v>7952764</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
       </c>
       <c r="D173" s="2">
-        <v>45410.5</v>
+        <v>45410.65625</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J173">
+        <v>1.533</v>
+      </c>
+      <c r="K173">
         <v>3.5</v>
       </c>
-      <c r="K173">
-        <v>3.6</v>
-      </c>
       <c r="L173">
+        <v>5.5</v>
+      </c>
+      <c r="M173">
+        <v>1.727</v>
+      </c>
+      <c r="N173">
+        <v>3.5</v>
+      </c>
+      <c r="O173">
+        <v>4</v>
+      </c>
+      <c r="P173">
+        <v>-0.75</v>
+      </c>
+      <c r="Q173">
+        <v>2</v>
+      </c>
+      <c r="R173">
         <v>1.8</v>
-      </c>
-      <c r="M173">
-        <v>4.5</v>
-      </c>
-      <c r="N173">
-        <v>3.4</v>
-      </c>
-      <c r="O173">
-        <v>1.666</v>
-      </c>
-      <c r="P173">
-        <v>0.75</v>
-      </c>
-      <c r="Q173">
-        <v>1.85</v>
-      </c>
-      <c r="R173">
-        <v>1.95</v>
       </c>
       <c r="S173">
         <v>2.25</v>
       </c>
       <c r="T173">
+        <v>1.825</v>
+      </c>
+      <c r="U173">
         <v>1.975</v>
       </c>
-      <c r="U173">
-        <v>1.825</v>
-      </c>
       <c r="V173">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z173">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15396,82 +15396,82 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7952764</v>
+        <v>7952761</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
       </c>
       <c r="D174" s="2">
-        <v>45410.65625</v>
+        <v>45410.33333333334</v>
       </c>
       <c r="E174" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J174">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L174">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="M174">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N174">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="P174">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q174">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R174">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S174">
         <v>2.25</v>
       </c>
       <c r="T174">
+        <v>1.975</v>
+      </c>
+      <c r="U174">
         <v>1.825</v>
       </c>
-      <c r="U174">
-        <v>1.975</v>
-      </c>
       <c r="V174">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA174">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -15482,55 +15482,55 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7952761</v>
+        <v>7952461</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
       </c>
       <c r="D175" s="2">
-        <v>45410.33333333334</v>
+        <v>45410.5</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
         <v>1</v>
-      </c>
-      <c r="H175">
-        <v>2</v>
       </c>
       <c r="I175" t="s">
         <v>43</v>
       </c>
       <c r="J175">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="K175">
+        <v>3.6</v>
+      </c>
+      <c r="L175">
+        <v>1.8</v>
+      </c>
+      <c r="M175">
+        <v>4.5</v>
+      </c>
+      <c r="N175">
         <v>3.4</v>
       </c>
-      <c r="L175">
-        <v>1.571</v>
-      </c>
-      <c r="M175">
-        <v>6</v>
-      </c>
-      <c r="N175">
-        <v>3.3</v>
-      </c>
       <c r="O175">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="P175">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q175">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R175">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
         <v>2.25</v>
@@ -15548,19 +15548,19 @@
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>0.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y175">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:28">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1215,13 +1215,13 @@
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1230,19 +1230,19 @@
         <v>42</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>3.4</v>
@@ -1251,10 +1251,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -1266,7 +1266,7 @@
         <v>1.95</v>
       </c>
       <c r="V9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1275,7 +1275,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1301,13 +1301,13 @@
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L10">
+        <v>3.2</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
         <v>3.5</v>
-      </c>
-      <c r="M10">
-        <v>1.75</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
       </c>
       <c r="O10">
         <v>3.4</v>
@@ -1337,10 +1337,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
         <v>2.5</v>
@@ -1352,7 +1352,7 @@
         <v>1.95</v>
       </c>
       <c r="V10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1361,7 +1361,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -1550,19 +1550,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6865286</v>
+        <v>6865372</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>45157.65625</v>
+        <v>45157.5</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1574,43 +1574,43 @@
         <v>42</v>
       </c>
       <c r="J13">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L13">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N13">
+        <v>3.4</v>
+      </c>
+      <c r="O13">
         <v>3.1</v>
       </c>
-      <c r="O13">
-        <v>2.45</v>
-      </c>
       <c r="P13">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U13">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.625</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1619,7 +1619,7 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
         <v>-1</v>
@@ -1628,7 +1628,7 @@
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1636,19 +1636,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6865372</v>
+        <v>6865286</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2">
-        <v>45157.5</v>
+        <v>45157.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1660,43 +1660,43 @@
         <v>42</v>
       </c>
       <c r="J14">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="P14">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>1.625</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1705,7 +1705,7 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z14">
         <v>-1</v>
@@ -1714,7 +1714,7 @@
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2152,22 +2152,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6865292</v>
+        <v>6865293</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>45164.65625</v>
+        <v>45164.5</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2176,43 +2176,43 @@
         <v>42</v>
       </c>
       <c r="J20">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L20">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N20">
         <v>3.1</v>
       </c>
       <c r="O20">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
         <v>2.25</v>
       </c>
       <c r="T20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2221,13 +2221,13 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2238,22 +2238,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6865293</v>
+        <v>6865292</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>45164.5</v>
+        <v>45164.65625</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2262,43 +2262,43 @@
         <v>42</v>
       </c>
       <c r="J21">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="K21">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="M21">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
         <v>3.1</v>
       </c>
       <c r="O21">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P21">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
         <v>2.25</v>
       </c>
       <c r="T21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2307,13 +2307,13 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -3356,85 +3356,85 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6865300</v>
+        <v>6865302</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2">
-        <v>45185.65625</v>
+        <v>45185.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J34">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="K34">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="M34">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N34">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O34">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3442,85 +3442,85 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6865302</v>
+        <v>6865300</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="2">
-        <v>45185.45833333334</v>
+        <v>45185.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35">
+        <v>3.6</v>
+      </c>
+      <c r="K35">
+        <v>3.25</v>
+      </c>
+      <c r="L35">
+        <v>1.909</v>
+      </c>
+      <c r="M35">
+        <v>2.55</v>
+      </c>
+      <c r="N35">
+        <v>2.9</v>
+      </c>
+      <c r="O35">
+        <v>2.6</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1.85</v>
+      </c>
+      <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
         <v>2.25</v>
       </c>
-      <c r="K35">
-        <v>3.1</v>
-      </c>
-      <c r="L35">
-        <v>2.9</v>
-      </c>
-      <c r="M35">
-        <v>2.7</v>
-      </c>
-      <c r="N35">
-        <v>3.1</v>
-      </c>
-      <c r="O35">
-        <v>2.4</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>2.05</v>
-      </c>
-      <c r="R35">
-        <v>1.75</v>
-      </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
       <c r="T35">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3872,82 +3872,82 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7217268</v>
+        <v>6864630</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="2">
-        <v>45192.65625</v>
+        <v>45192.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="M40">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O40">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="P40">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T40">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB40">
         <v>-1</v>
@@ -4044,82 +4044,82 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6864630</v>
+        <v>7217268</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2">
-        <v>45192.45833333334</v>
+        <v>45192.65625</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J42">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="K42">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="M42">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="N42">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="P42">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q42">
+        <v>1.925</v>
+      </c>
+      <c r="R42">
+        <v>1.875</v>
+      </c>
+      <c r="S42">
+        <v>2.75</v>
+      </c>
+      <c r="T42">
         <v>1.9</v>
       </c>
-      <c r="R42">
+      <c r="U42">
         <v>1.9</v>
       </c>
-      <c r="S42">
-        <v>2.25</v>
-      </c>
-      <c r="T42">
-        <v>1.8</v>
-      </c>
-      <c r="U42">
-        <v>2</v>
-      </c>
       <c r="V42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA42">
-        <v>0.8</v>
       </c>
       <c r="AB42">
         <v>-1</v>
@@ -4130,58 +4130,58 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7217461</v>
+        <v>6865303</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2">
-        <v>45193.61458333334</v>
+        <v>45193.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J43">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N43">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O43">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P43">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T43">
         <v>1.8</v>
@@ -4190,25 +4190,25 @@
         <v>2</v>
       </c>
       <c r="V43">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>0.825</v>
+      </c>
+      <c r="AA43">
         <v>-0.5</v>
       </c>
-      <c r="Z43">
-        <v>0.45</v>
-      </c>
-      <c r="AA43">
-        <v>0.8</v>
-      </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4216,58 +4216,58 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6865303</v>
+        <v>7217461</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2">
-        <v>45193.45833333334</v>
+        <v>45193.61458333334</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="K44">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L44">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M44">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="P44">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T44">
         <v>1.8</v>
@@ -4276,25 +4276,25 @@
         <v>2</v>
       </c>
       <c r="V44">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4302,64 +4302,64 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7174900</v>
+        <v>7117521</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>45196.5625</v>
+        <v>45196.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45" t="s">
         <v>43</v>
       </c>
       <c r="J45">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="K45">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L45">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N45">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
         <v>-1</v>
@@ -4368,19 +4368,19 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>1.5</v>
+        <v>0.444</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4388,65 +4388,65 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7117521</v>
+        <v>7174900</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2">
-        <v>45196.41666666666</v>
+        <v>45196.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46" t="s">
         <v>43</v>
       </c>
       <c r="J46">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="K46">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L46">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="M46">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O46">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
+        <v>1.975</v>
+      </c>
+      <c r="R46">
+        <v>1.825</v>
+      </c>
+      <c r="S46">
+        <v>2.25</v>
+      </c>
+      <c r="T46">
+        <v>1.95</v>
+      </c>
+      <c r="U46">
         <v>1.85</v>
       </c>
-      <c r="R46">
-        <v>1.95</v>
-      </c>
-      <c r="S46">
-        <v>2.75</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
-      <c r="U46">
-        <v>1.8</v>
-      </c>
       <c r="V46">
         <v>-1</v>
       </c>
@@ -4454,19 +4454,19 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>0.444</v>
+        <v>1.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -5162,82 +5162,82 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6865315</v>
+        <v>6864632</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2">
-        <v>45207.64583333334</v>
+        <v>45207.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J55">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="K55">
+        <v>3.4</v>
+      </c>
+      <c r="L55">
+        <v>1.85</v>
+      </c>
+      <c r="M55">
         <v>3.6</v>
       </c>
-      <c r="L55">
-        <v>4.75</v>
-      </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
       <c r="N55">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="P55">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
         <v>2.25</v>
       </c>
       <c r="T55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5334,82 +5334,82 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6864632</v>
+        <v>6865315</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2">
-        <v>45207.41666666666</v>
+        <v>45207.64583333334</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J57">
+        <v>1.6</v>
+      </c>
+      <c r="K57">
         <v>3.6</v>
       </c>
-      <c r="K57">
-        <v>3.4</v>
-      </c>
       <c r="L57">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="N57">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O57">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="P57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
         <v>2.25</v>
       </c>
       <c r="T57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
         <v>-1</v>
@@ -5506,58 +5506,58 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7117579</v>
+        <v>7217267</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>45217.58333333334</v>
+        <v>45217.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J59">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="K59">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L59">
+        <v>5.75</v>
+      </c>
+      <c r="M59">
+        <v>1.4</v>
+      </c>
+      <c r="N59">
         <v>4</v>
       </c>
-      <c r="M59">
-        <v>1.8</v>
-      </c>
-      <c r="N59">
-        <v>3.25</v>
-      </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P59">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q59">
+        <v>1.975</v>
+      </c>
+      <c r="R59">
         <v>1.825</v>
       </c>
-      <c r="R59">
-        <v>1.975</v>
-      </c>
       <c r="S59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T59">
         <v>1.975</v>
@@ -5566,25 +5566,25 @@
         <v>1.825</v>
       </c>
       <c r="V59">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W59">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5592,58 +5592,58 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7217267</v>
+        <v>7117579</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2">
-        <v>45217.47916666666</v>
+        <v>45217.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J60">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="K60">
+        <v>3.25</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>1.8</v>
+      </c>
+      <c r="N60">
+        <v>3.25</v>
+      </c>
+      <c r="O60">
         <v>4.2</v>
       </c>
-      <c r="L60">
-        <v>5.75</v>
-      </c>
-      <c r="M60">
-        <v>1.4</v>
-      </c>
-      <c r="N60">
-        <v>4</v>
-      </c>
-      <c r="O60">
-        <v>6.5</v>
-      </c>
       <c r="P60">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q60">
+        <v>1.825</v>
+      </c>
+      <c r="R60">
         <v>1.975</v>
       </c>
-      <c r="R60">
-        <v>1.825</v>
-      </c>
       <c r="S60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
         <v>1.975</v>
@@ -5652,25 +5652,25 @@
         <v>1.825</v>
       </c>
       <c r="V60">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
+        <v>-1</v>
+      </c>
+      <c r="Z60">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z60">
-        <v>-1</v>
-      </c>
       <c r="AA60">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5678,19 +5678,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6865316</v>
+        <v>6865318</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2">
-        <v>45220.65625</v>
+        <v>45220.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5702,43 +5702,43 @@
         <v>42</v>
       </c>
       <c r="J61">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="K61">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L61">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M61">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P61">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q61">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S61">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V61">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5747,16 +5747,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z61">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5850,19 +5850,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6865318</v>
+        <v>6865316</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2">
-        <v>45220.35416666666</v>
+        <v>45220.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5874,43 +5874,43 @@
         <v>42</v>
       </c>
       <c r="J63">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="K63">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L63">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M63">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P63">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q63">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R63">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T63">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -5919,16 +5919,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6280,22 +6280,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6864634</v>
+        <v>6865324</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45227.45833333334</v>
+        <v>45227.35416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6304,43 +6304,43 @@
         <v>42</v>
       </c>
       <c r="J68">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="K68">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M68">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N68">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O68">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="P68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6349,16 +6349,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6366,22 +6366,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6865324</v>
+        <v>6864634</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45227.35416666666</v>
+        <v>45227.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6390,43 +6390,43 @@
         <v>42</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="K69">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L69">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N69">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O69">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="P69">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6435,16 +6435,16 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6452,85 +6452,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6865323</v>
+        <v>6865321</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45228.61111111111</v>
+        <v>45228.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>44</v>
       </c>
       <c r="J70">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K70">
+        <v>3.25</v>
+      </c>
+      <c r="L70">
+        <v>1.85</v>
+      </c>
+      <c r="M70">
         <v>3.2</v>
       </c>
-      <c r="L70">
-        <v>1.909</v>
-      </c>
-      <c r="M70">
-        <v>4.2</v>
-      </c>
       <c r="N70">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O70">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="P70">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T70">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6538,85 +6538,85 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6865321</v>
+        <v>6865323</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>45228.41666666666</v>
+        <v>45228.61111111111</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
         <v>44</v>
       </c>
       <c r="J71">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K71">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L71">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="M71">
+        <v>4.2</v>
+      </c>
+      <c r="N71">
         <v>3.2</v>
       </c>
-      <c r="N71">
-        <v>3.1</v>
-      </c>
       <c r="O71">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="P71">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V71">
         <v>-1</v>
       </c>
       <c r="W71">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6796,67 +6796,67 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6865327</v>
+        <v>6865326</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45234.5</v>
+        <v>45234.375</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
         <v>1</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
       </c>
       <c r="I74" t="s">
         <v>42</v>
       </c>
       <c r="J74">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="K74">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="N74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q74">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T74">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>0.6659999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -6865,16 +6865,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6882,67 +6882,67 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6865326</v>
+        <v>6865327</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2">
-        <v>45234.375</v>
+        <v>45234.5</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
         <v>42</v>
       </c>
       <c r="J75">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="K75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="N75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T75">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>0.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -6951,16 +6951,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6968,85 +6968,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6864635</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2">
-        <v>45235.65625</v>
+        <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J76">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>1.166</v>
+      </c>
+      <c r="N76">
+        <v>6.5</v>
+      </c>
+      <c r="O76">
+        <v>13</v>
+      </c>
+      <c r="P76">
+        <v>-2</v>
+      </c>
+      <c r="Q76">
+        <v>1.9</v>
+      </c>
+      <c r="R76">
+        <v>1.9</v>
+      </c>
+      <c r="S76">
         <v>3.25</v>
       </c>
-      <c r="L76">
-        <v>2.75</v>
-      </c>
-      <c r="M76">
-        <v>2.1</v>
-      </c>
-      <c r="N76">
-        <v>3.25</v>
-      </c>
-      <c r="O76">
-        <v>3</v>
-      </c>
-      <c r="P76">
-        <v>-0.25</v>
-      </c>
-      <c r="Q76">
-        <v>1.875</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
-      <c r="S76">
-        <v>2.25</v>
-      </c>
       <c r="T76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W76">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7140,85 +7140,85 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6865377</v>
+        <v>6864635</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2">
-        <v>45235.375</v>
+        <v>45235.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J78">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L78">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="M78">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N78">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="O78">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7226,85 +7226,85 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6865333</v>
+        <v>6865334</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45241.69791666666</v>
+        <v>45241.375</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J79">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L79">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M79">
+        <v>1.65</v>
+      </c>
+      <c r="N79">
+        <v>3.6</v>
+      </c>
+      <c r="O79">
+        <v>4.333</v>
+      </c>
+      <c r="P79">
+        <v>-0.75</v>
+      </c>
+      <c r="Q79">
+        <v>1.9</v>
+      </c>
+      <c r="R79">
+        <v>1.9</v>
+      </c>
+      <c r="S79">
         <v>2.5</v>
       </c>
-      <c r="N79">
-        <v>3.1</v>
-      </c>
-      <c r="O79">
-        <v>2.75</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>1.85</v>
-      </c>
-      <c r="R79">
-        <v>1.95</v>
-      </c>
-      <c r="S79">
-        <v>2.25</v>
-      </c>
       <c r="T79">
+        <v>1.925</v>
+      </c>
+      <c r="U79">
         <v>1.875</v>
       </c>
-      <c r="U79">
-        <v>1.925</v>
-      </c>
       <c r="V79">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7312,85 +7312,85 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6865334</v>
+        <v>6865333</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2">
-        <v>45241.375</v>
+        <v>45241.69791666666</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J80">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="K80">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M80">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N80">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O80">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="P80">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T80">
+        <v>1.875</v>
+      </c>
+      <c r="U80">
         <v>1.925</v>
       </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
       <c r="V80">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>0.925</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7914,49 +7914,49 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505499</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45256.65625</v>
+        <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
         <v>44</v>
       </c>
       <c r="J87">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="K87">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L87">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="M87">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O87">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
         <v>1.825</v>
@@ -7968,31 +7968,31 @@
         <v>2</v>
       </c>
       <c r="T87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
         <v>-1</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8172,49 +8172,49 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7505497</v>
+        <v>7505499</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2">
-        <v>45256.375</v>
+        <v>45256.65625</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
         <v>44</v>
       </c>
       <c r="J90">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="K90">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L90">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="M90">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="P90">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q90">
         <v>1.825</v>
@@ -8226,31 +8226,31 @@
         <v>2</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8344,82 +8344,82 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7107310</v>
+        <v>6865341</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2">
-        <v>45262.5</v>
+        <v>45262.39583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J92">
-        <v>9.5</v>
+        <v>2.2</v>
       </c>
       <c r="K92">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q92">
+        <v>1.85</v>
+      </c>
+      <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
+        <v>2.25</v>
+      </c>
+      <c r="T92">
         <v>1.775</v>
       </c>
-      <c r="R92">
+      <c r="U92">
         <v>2.025</v>
       </c>
-      <c r="S92">
-        <v>2.5</v>
-      </c>
-      <c r="T92">
-        <v>1.85</v>
-      </c>
-      <c r="U92">
-        <v>1.95</v>
-      </c>
       <c r="V92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8430,82 +8430,82 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6865341</v>
+        <v>7107310</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2">
-        <v>45262.39583333334</v>
+        <v>45262.5</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J93">
-        <v>2.2</v>
+        <v>9.5</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="M93">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="P93">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q93">
+        <v>1.775</v>
+      </c>
+      <c r="R93">
+        <v>2.025</v>
+      </c>
+      <c r="S93">
+        <v>2.5</v>
+      </c>
+      <c r="T93">
         <v>1.85</v>
       </c>
-      <c r="R93">
+      <c r="U93">
         <v>1.95</v>
       </c>
-      <c r="S93">
-        <v>2.25</v>
-      </c>
-      <c r="T93">
-        <v>1.775</v>
-      </c>
-      <c r="U93">
-        <v>2.025</v>
-      </c>
       <c r="V93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>1.025</v>
+      </c>
+      <c r="AA93">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z93">
-        <v>-1</v>
-      </c>
-      <c r="AA93">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8516,85 +8516,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6865339</v>
+        <v>6865342</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2">
-        <v>45263.65625</v>
+        <v>45263.375</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J94">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L94">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M94">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N94">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O94">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q94">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="R94">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T94">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="U94">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W94">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB94">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8602,85 +8602,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6865342</v>
+        <v>6865339</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2">
-        <v>45263.375</v>
+        <v>45263.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G95">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J95">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="K95">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M95">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N95">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="U95">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="V95">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -9032,22 +9032,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865346</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2">
-        <v>45269.5</v>
+        <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9056,43 +9056,43 @@
         <v>42</v>
       </c>
       <c r="J100">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="K100">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L100">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="N100">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O100">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q100">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="T100">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9101,16 +9101,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9118,22 +9118,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6865343</v>
+        <v>6865346</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2">
-        <v>45269.375</v>
+        <v>45269.5</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9142,43 +9142,43 @@
         <v>42</v>
       </c>
       <c r="J101">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="K101">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M101">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="N101">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P101">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q101">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9187,16 +9187,16 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9462,22 +9462,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6865350</v>
+        <v>6865380</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2">
-        <v>45276.5</v>
+        <v>45276.375</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9486,43 +9486,43 @@
         <v>42</v>
       </c>
       <c r="J105">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K105">
         <v>3.4</v>
       </c>
       <c r="L105">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M105">
+        <v>1.7</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <v>3.6</v>
+      </c>
+      <c r="P105">
+        <v>-0.75</v>
+      </c>
+      <c r="Q105">
+        <v>1.9</v>
+      </c>
+      <c r="R105">
+        <v>1.9</v>
+      </c>
+      <c r="S105">
         <v>3.25</v>
       </c>
-      <c r="N105">
-        <v>3.2</v>
-      </c>
-      <c r="O105">
-        <v>2</v>
-      </c>
-      <c r="P105">
-        <v>0.25</v>
-      </c>
-      <c r="Q105">
-        <v>2.025</v>
-      </c>
-      <c r="R105">
-        <v>1.775</v>
-      </c>
-      <c r="S105">
-        <v>2.5</v>
-      </c>
       <c r="T105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2.25</v>
+        <v>0.7</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9531,16 +9531,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9548,22 +9548,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6865380</v>
+        <v>6865350</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2">
-        <v>45276.375</v>
+        <v>45276.5</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9572,43 +9572,43 @@
         <v>42</v>
       </c>
       <c r="J106">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K106">
         <v>3.4</v>
       </c>
       <c r="L106">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M106">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="N106">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="P106">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q106">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>0.7</v>
+        <v>2.25</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9617,16 +9617,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9634,85 +9634,85 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6865351</v>
+        <v>6865348</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2">
-        <v>45277.45833333334</v>
+        <v>45277.375</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J107">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="K107">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L107">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="M107">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="N107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O107">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="P107">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W107">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9720,85 +9720,85 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6865348</v>
+        <v>6865351</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2">
-        <v>45277.375</v>
+        <v>45277.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>44</v>
+      </c>
+      <c r="J108">
+        <v>1.4</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>6.5</v>
+      </c>
+      <c r="M108">
+        <v>1.2</v>
+      </c>
+      <c r="N108">
+        <v>5</v>
+      </c>
+      <c r="O108">
+        <v>12</v>
+      </c>
+      <c r="P108">
+        <v>-1.75</v>
+      </c>
+      <c r="Q108">
+        <v>1.85</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
         <v>3</v>
       </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>42</v>
-      </c>
-      <c r="J108">
-        <v>2.625</v>
-      </c>
-      <c r="K108">
-        <v>3.5</v>
-      </c>
-      <c r="L108">
-        <v>2.25</v>
-      </c>
-      <c r="M108">
-        <v>2.15</v>
-      </c>
-      <c r="N108">
-        <v>3</v>
-      </c>
-      <c r="O108">
-        <v>3.25</v>
-      </c>
-      <c r="P108">
-        <v>-0.25</v>
-      </c>
-      <c r="Q108">
-        <v>1.9</v>
-      </c>
-      <c r="R108">
-        <v>1.9</v>
-      </c>
-      <c r="S108">
-        <v>2</v>
-      </c>
       <c r="T108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -10236,85 +10236,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6864641</v>
+        <v>6865356</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2">
-        <v>45340.5625</v>
+        <v>45340.375</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J114">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="K114">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L114">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="M114">
         <v>1.333</v>
       </c>
       <c r="N114">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O114">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="P114">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q114">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R114">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T114">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA114">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10322,85 +10322,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6865356</v>
+        <v>6864641</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2">
-        <v>45340.375</v>
+        <v>45340.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
         <v>1</v>
       </c>
-      <c r="H115">
-        <v>3</v>
-      </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J115">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="K115">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="M115">
         <v>1.333</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O115">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="P115">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q115">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T115">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10666,85 +10666,85 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6865360</v>
+        <v>6865357</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2">
-        <v>45347.45833333334</v>
+        <v>45347.375</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G119">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J119">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="K119">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="L119">
-        <v>9.5</v>
+        <v>2.95</v>
       </c>
       <c r="M119">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="N119">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="O119">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="P119">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T119">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10752,85 +10752,85 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6865357</v>
+        <v>6865360</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2">
-        <v>45347.375</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J120">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="K120">
+        <v>6.5</v>
+      </c>
+      <c r="L120">
+        <v>9.5</v>
+      </c>
+      <c r="M120">
+        <v>1.125</v>
+      </c>
+      <c r="N120">
+        <v>7</v>
+      </c>
+      <c r="O120">
+        <v>15</v>
+      </c>
+      <c r="P120">
+        <v>-2.25</v>
+      </c>
+      <c r="Q120">
+        <v>1.975</v>
+      </c>
+      <c r="R120">
+        <v>1.825</v>
+      </c>
+      <c r="S120">
         <v>3.25</v>
       </c>
-      <c r="L120">
-        <v>2.95</v>
-      </c>
-      <c r="M120">
-        <v>2</v>
-      </c>
-      <c r="N120">
-        <v>3.3</v>
-      </c>
-      <c r="O120">
-        <v>3.3</v>
-      </c>
-      <c r="P120">
-        <v>-0.25</v>
-      </c>
-      <c r="Q120">
-        <v>1.775</v>
-      </c>
-      <c r="R120">
-        <v>2.025</v>
-      </c>
-      <c r="S120">
-        <v>2.25</v>
-      </c>
       <c r="T120">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10924,85 +10924,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865382</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2">
-        <v>45353.5</v>
+        <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J122">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="K122">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N122">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O122">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="P122">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
         <v>2</v>
       </c>
       <c r="T122">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U122">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W122">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11096,85 +11096,85 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6865363</v>
+        <v>6865382</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2">
-        <v>45353.375</v>
+        <v>45353.5</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="K124">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="M124">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N124">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O124">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="P124">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q124">
+        <v>1.8</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>1.75</v>
+      </c>
+      <c r="U124">
         <v>2.05</v>
       </c>
-      <c r="R124">
-        <v>1.75</v>
-      </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>1.9</v>
-      </c>
-      <c r="U124">
-        <v>1.9</v>
-      </c>
       <c r="V124">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11182,22 +11182,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6865364</v>
+        <v>6865362</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2">
-        <v>45354.61458333334</v>
+        <v>45354.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11206,43 +11206,43 @@
         <v>42</v>
       </c>
       <c r="J125">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L125">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M125">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N125">
         <v>2.8</v>
       </c>
       <c r="O125">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P125">
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="U125">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.7</v>
+        <v>1.625</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11251,16 +11251,16 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11268,22 +11268,22 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6865362</v>
+        <v>6865364</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45354.41666666666</v>
+        <v>45354.61458333334</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11292,43 +11292,43 @@
         <v>42</v>
       </c>
       <c r="J126">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K126">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L126">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M126">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
         <v>2.8</v>
       </c>
       <c r="O126">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P126">
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>2.05</v>
+      </c>
+      <c r="U126">
         <v>1.75</v>
       </c>
-      <c r="T126">
-        <v>1.8</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
       <c r="V126">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11337,16 +11337,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11440,85 +11440,85 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6865366</v>
+        <v>6865367</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2">
-        <v>45360.60416666666</v>
+        <v>45360.375</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J128">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="K128">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="L128">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="N128">
+        <v>3.5</v>
+      </c>
+      <c r="O128">
         <v>4.5</v>
       </c>
-      <c r="O128">
-        <v>6.5</v>
-      </c>
       <c r="P128">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q128">
+        <v>1.925</v>
+      </c>
+      <c r="R128">
         <v>1.875</v>
       </c>
-      <c r="R128">
-        <v>1.925</v>
-      </c>
       <c r="S128">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V128">
         <v>-1</v>
       </c>
       <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
         <v>3.5</v>
       </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11612,85 +11612,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6865367</v>
+        <v>6865366</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>45360.375</v>
+        <v>45360.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J130">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="K130">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M130">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="N130">
+        <v>4.5</v>
+      </c>
+      <c r="O130">
+        <v>6.5</v>
+      </c>
+      <c r="P130">
+        <v>-1.25</v>
+      </c>
+      <c r="Q130">
+        <v>1.875</v>
+      </c>
+      <c r="R130">
+        <v>1.925</v>
+      </c>
+      <c r="S130">
+        <v>2.75</v>
+      </c>
+      <c r="T130">
+        <v>1.925</v>
+      </c>
+      <c r="U130">
+        <v>1.875</v>
+      </c>
+      <c r="V130">
+        <v>-1</v>
+      </c>
+      <c r="W130">
         <v>3.5</v>
       </c>
-      <c r="O130">
-        <v>4.5</v>
-      </c>
-      <c r="P130">
-        <v>-0.75</v>
-      </c>
-      <c r="Q130">
-        <v>1.925</v>
-      </c>
-      <c r="R130">
-        <v>1.875</v>
-      </c>
-      <c r="S130">
-        <v>2</v>
-      </c>
-      <c r="T130">
-        <v>1.75</v>
-      </c>
-      <c r="U130">
-        <v>2.05</v>
-      </c>
-      <c r="V130">
-        <v>-1</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
       <c r="X130">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -12558,64 +12558,64 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7952735</v>
+        <v>7952738</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2">
-        <v>45380.66666666666</v>
+        <v>45380.5</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I141" t="s">
         <v>43</v>
       </c>
       <c r="J141">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="K141">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L141">
+        <v>1.909</v>
+      </c>
+      <c r="M141">
         <v>2.6</v>
       </c>
-      <c r="M141">
+      <c r="N141">
+        <v>3.5</v>
+      </c>
+      <c r="O141">
+        <v>2.375</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>1.95</v>
+      </c>
+      <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
         <v>2.5</v>
       </c>
-      <c r="N141">
-        <v>3.2</v>
-      </c>
-      <c r="O141">
-        <v>2.625</v>
-      </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-      <c r="Q141">
-        <v>1.775</v>
-      </c>
-      <c r="R141">
-        <v>2.025</v>
-      </c>
-      <c r="S141">
-        <v>1.75</v>
-      </c>
       <c r="T141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
         <v>-1</v>
@@ -12624,19 +12624,19 @@
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12644,64 +12644,64 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7952738</v>
+        <v>7952735</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
       </c>
       <c r="D142" s="2">
-        <v>45380.5</v>
+        <v>45380.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>1</v>
-      </c>
-      <c r="H142">
-        <v>5</v>
       </c>
       <c r="I142" t="s">
         <v>43</v>
       </c>
       <c r="J142">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="K142">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L142">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="M142">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O142">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="P142">
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S142">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
         <v>-1</v>
@@ -12710,19 +12710,19 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12988,71 +12988,71 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7952743</v>
+        <v>7952740</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2">
-        <v>45388.65625</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>44</v>
+      </c>
+      <c r="J146">
+        <v>1.533</v>
+      </c>
+      <c r="K146">
+        <v>3.75</v>
+      </c>
+      <c r="L146">
+        <v>5.2</v>
+      </c>
+      <c r="M146">
+        <v>1.4</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146">
+        <v>7.5</v>
+      </c>
+      <c r="P146">
+        <v>-1.25</v>
+      </c>
+      <c r="Q146">
+        <v>1.925</v>
+      </c>
+      <c r="R146">
+        <v>1.875</v>
+      </c>
+      <c r="S146">
+        <v>2.5</v>
+      </c>
+      <c r="T146">
+        <v>1.975</v>
+      </c>
+      <c r="U146">
+        <v>1.825</v>
+      </c>
+      <c r="V146">
+        <v>-1</v>
+      </c>
+      <c r="W146">
         <v>3</v>
       </c>
-      <c r="H146">
-        <v>2</v>
-      </c>
-      <c r="I146" t="s">
-        <v>42</v>
-      </c>
-      <c r="J146">
-        <v>1.222</v>
-      </c>
-      <c r="K146">
-        <v>5.2</v>
-      </c>
-      <c r="L146">
-        <v>9.5</v>
-      </c>
-      <c r="M146">
-        <v>1.181</v>
-      </c>
-      <c r="N146">
-        <v>5.5</v>
-      </c>
-      <c r="O146">
-        <v>12</v>
-      </c>
-      <c r="P146">
-        <v>-2</v>
-      </c>
-      <c r="Q146">
-        <v>2</v>
-      </c>
-      <c r="R146">
-        <v>1.8</v>
-      </c>
-      <c r="S146">
-        <v>3</v>
-      </c>
-      <c r="T146">
-        <v>1.85</v>
-      </c>
-      <c r="U146">
-        <v>1.95</v>
-      </c>
-      <c r="V146">
-        <v>0.181</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
       <c r="X146">
         <v>-1</v>
       </c>
@@ -13060,13 +13060,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13074,70 +13074,70 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7952740</v>
+        <v>7952743</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2">
-        <v>45388.35416666666</v>
+        <v>45388.65625</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J147">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="K147">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="L147">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="M147">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O147">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="P147">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="Q147">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W147">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13146,13 +13146,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13160,85 +13160,85 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7952741</v>
+        <v>7952742</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>45389.65625</v>
+        <v>45389.375</v>
       </c>
       <c r="E148" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J148">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K148">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L148">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="M148">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O148">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="P148">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q148">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R148">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
         <v>-1</v>
       </c>
       <c r="W148">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13246,85 +13246,85 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7952742</v>
+        <v>7952741</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2">
-        <v>45389.375</v>
+        <v>45389.65625</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J149">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="K149">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L149">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="M149">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N149">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O149">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="P149">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q149">
+        <v>2.025</v>
+      </c>
+      <c r="R149">
+        <v>1.775</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
         <v>1.875</v>
       </c>
-      <c r="R149">
+      <c r="U149">
         <v>1.925</v>
       </c>
-      <c r="S149">
-        <v>2.25</v>
-      </c>
-      <c r="T149">
-        <v>1.9</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
       <c r="V149">
         <v>-1</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AA149">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13332,82 +13332,82 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7952457</v>
+        <v>7952744</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2">
-        <v>45390.54166666666</v>
+        <v>45390.4375</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J150">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="K150">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="L150">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="M150">
-        <v>1.166</v>
+        <v>1.65</v>
       </c>
       <c r="N150">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O150">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P150">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q150">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T150">
+        <v>1.925</v>
+      </c>
+      <c r="U150">
         <v>1.875</v>
       </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
       <c r="V150">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA150">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB150">
         <v>-1</v>
@@ -13418,82 +13418,82 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7952744</v>
+        <v>7952457</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2">
-        <v>45390.4375</v>
+        <v>45390.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J151">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="K151">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="L151">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="M151">
-        <v>1.65</v>
+        <v>1.166</v>
       </c>
       <c r="N151">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="O151">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="P151">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="Q151">
+        <v>1.9</v>
+      </c>
+      <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>3</v>
+      </c>
+      <c r="T151">
         <v>1.875</v>
       </c>
-      <c r="R151">
+      <c r="U151">
         <v>1.925</v>
       </c>
-      <c r="S151">
-        <v>2.5</v>
-      </c>
-      <c r="T151">
-        <v>1.925</v>
-      </c>
-      <c r="U151">
-        <v>1.875</v>
-      </c>
       <c r="V151">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W151">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB151">
         <v>-1</v>
@@ -13504,67 +13504,67 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7952746</v>
+        <v>7952749</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
       </c>
       <c r="D152" s="2">
-        <v>45394.64583333334</v>
+        <v>45394.4375</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
         <v>1</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>42</v>
       </c>
       <c r="J152">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="K152">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L152">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M152">
-        <v>1.09</v>
+        <v>1.7</v>
       </c>
       <c r="N152">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="O152">
-        <v>19</v>
+        <v>4.5</v>
       </c>
       <c r="P152">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T152">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>0.09000000000000008</v>
+        <v>0.7</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -13573,16 +13573,16 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13590,67 +13590,67 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7952749</v>
+        <v>7952746</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153" s="2">
-        <v>45394.4375</v>
+        <v>45394.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>42</v>
       </c>
       <c r="J153">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="K153">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L153">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M153">
-        <v>1.7</v>
+        <v>1.09</v>
       </c>
       <c r="N153">
+        <v>9.5</v>
+      </c>
+      <c r="O153">
+        <v>19</v>
+      </c>
+      <c r="P153">
+        <v>-2.5</v>
+      </c>
+      <c r="Q153">
+        <v>1.95</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
         <v>3.25</v>
       </c>
-      <c r="O153">
-        <v>4.5</v>
-      </c>
-      <c r="P153">
-        <v>-0.75</v>
-      </c>
-      <c r="Q153">
-        <v>1.975</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>2.25</v>
-      </c>
       <c r="T153">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>0.7</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13659,16 +13659,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -14020,58 +14020,58 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7952750</v>
+        <v>7952751</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="2">
-        <v>45401.625</v>
+        <v>45401.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="s">
         <v>42</v>
       </c>
       <c r="J158">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="K158">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L158">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="N158">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O158">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="P158">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q158">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T158">
         <v>1.95</v>
@@ -14080,7 +14080,7 @@
         <v>1.85</v>
       </c>
       <c r="V158">
-        <v>0.1659999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14089,16 +14089,16 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14192,58 +14192,58 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7952751</v>
+        <v>7952750</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="2">
-        <v>45401.45833333334</v>
+        <v>45401.625</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
         <v>1</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
       </c>
       <c r="I160" t="s">
         <v>42</v>
       </c>
       <c r="J160">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M160">
-        <v>2.375</v>
+        <v>1.166</v>
       </c>
       <c r="N160">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O160">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="P160">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q160">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R160">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S160">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T160">
         <v>1.95</v>
@@ -14252,7 +14252,7 @@
         <v>1.85</v>
       </c>
       <c r="V160">
-        <v>1.375</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14261,16 +14261,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14278,85 +14278,85 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7952753</v>
+        <v>7952752</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161" s="2">
-        <v>45402.65625</v>
+        <v>45402.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J161">
+        <v>1.666</v>
+      </c>
+      <c r="K161">
+        <v>3.75</v>
+      </c>
+      <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161">
+        <v>1.75</v>
+      </c>
+      <c r="N161">
+        <v>3.5</v>
+      </c>
+      <c r="O161">
+        <v>3.8</v>
+      </c>
+      <c r="P161">
+        <v>-0.5</v>
+      </c>
+      <c r="Q161">
+        <v>1.775</v>
+      </c>
+      <c r="R161">
+        <v>2.025</v>
+      </c>
+      <c r="S161">
         <v>2.5</v>
       </c>
-      <c r="K161">
-        <v>3</v>
-      </c>
-      <c r="L161">
-        <v>2.625</v>
-      </c>
-      <c r="M161">
-        <v>2.375</v>
-      </c>
-      <c r="N161">
-        <v>2.75</v>
-      </c>
-      <c r="O161">
-        <v>3</v>
-      </c>
-      <c r="P161">
-        <v>-0.25</v>
-      </c>
-      <c r="Q161">
-        <v>2.05</v>
-      </c>
-      <c r="R161">
-        <v>1.75</v>
-      </c>
-      <c r="S161">
-        <v>2.25</v>
-      </c>
       <c r="T161">
+        <v>1.825</v>
+      </c>
+      <c r="U161">
         <v>1.975</v>
       </c>
-      <c r="U161">
-        <v>1.825</v>
-      </c>
       <c r="V161">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W161">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z161">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB161">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14364,85 +14364,85 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7866183</v>
+        <v>7952459</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="2">
-        <v>45402.47916666666</v>
+        <v>45402.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J162">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="K162">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="M162">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N162">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O162">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="P162">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q162">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R162">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T162">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y162">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14450,85 +14450,85 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952459</v>
+        <v>7866183</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
       </c>
       <c r="D163" s="2">
-        <v>45402.45833333334</v>
+        <v>45402.47916666666</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J163">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K163">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L163">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="M163">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N163">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O163">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="P163">
+        <v>-0.25</v>
+      </c>
+      <c r="Q163">
+        <v>2.025</v>
+      </c>
+      <c r="R163">
+        <v>1.775</v>
+      </c>
+      <c r="S163">
+        <v>2.25</v>
+      </c>
+      <c r="T163">
+        <v>1.875</v>
+      </c>
+      <c r="U163">
+        <v>1.925</v>
+      </c>
+      <c r="V163">
         <v>1.25</v>
       </c>
-      <c r="Q163">
-        <v>1.9</v>
-      </c>
-      <c r="R163">
-        <v>1.9</v>
-      </c>
-      <c r="S163">
-        <v>2.5</v>
-      </c>
-      <c r="T163">
-        <v>1.9</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>-1</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14536,85 +14536,85 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7952752</v>
+        <v>7952753</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
       </c>
       <c r="D164" s="2">
-        <v>45402.35416666666</v>
+        <v>45402.65625</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J164">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="K164">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="M164">
+        <v>2.375</v>
+      </c>
+      <c r="N164">
+        <v>2.75</v>
+      </c>
+      <c r="O164">
+        <v>3</v>
+      </c>
+      <c r="P164">
+        <v>-0.25</v>
+      </c>
+      <c r="Q164">
+        <v>2.05</v>
+      </c>
+      <c r="R164">
         <v>1.75</v>
       </c>
-      <c r="N164">
-        <v>3.5</v>
-      </c>
-      <c r="O164">
-        <v>3.8</v>
-      </c>
-      <c r="P164">
+      <c r="S164">
+        <v>2.25</v>
+      </c>
+      <c r="T164">
+        <v>1.975</v>
+      </c>
+      <c r="U164">
+        <v>1.825</v>
+      </c>
+      <c r="V164">
+        <v>-1</v>
+      </c>
+      <c r="W164">
+        <v>1.75</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
         <v>-0.5</v>
       </c>
-      <c r="Q164">
-        <v>1.775</v>
-      </c>
-      <c r="R164">
-        <v>2.025</v>
-      </c>
-      <c r="S164">
-        <v>2.5</v>
-      </c>
-      <c r="T164">
-        <v>1.825</v>
-      </c>
-      <c r="U164">
-        <v>1.975</v>
-      </c>
-      <c r="V164">
-        <v>0.75</v>
-      </c>
-      <c r="W164">
-        <v>-1</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -15138,85 +15138,85 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7952760</v>
+        <v>7952763</v>
       </c>
       <c r="C171" t="s">
         <v>27</v>
       </c>
       <c r="D171" s="2">
-        <v>45409.45833333334</v>
+        <v>45409.35416666666</v>
       </c>
       <c r="E171" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J171">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="K171">
+        <v>3.6</v>
+      </c>
+      <c r="L171">
+        <v>5.75</v>
+      </c>
+      <c r="M171">
+        <v>1.909</v>
+      </c>
+      <c r="N171">
         <v>3.4</v>
       </c>
-      <c r="L171">
-        <v>3.6</v>
-      </c>
-      <c r="M171">
-        <v>2.75</v>
-      </c>
-      <c r="N171">
-        <v>2.875</v>
-      </c>
       <c r="O171">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q171">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R171">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T171">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U171">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z171">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15224,85 +15224,85 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7952763</v>
+        <v>7952760</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
       </c>
       <c r="D172" s="2">
-        <v>45409.35416666666</v>
+        <v>45409.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J172">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="K172">
+        <v>3.4</v>
+      </c>
+      <c r="L172">
         <v>3.6</v>
       </c>
-      <c r="L172">
-        <v>5.75</v>
-      </c>
       <c r="M172">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N172">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O172">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P172">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q172">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S172">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T172">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V172">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y172">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15310,82 +15310,82 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7952764</v>
+        <v>7952761</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
       </c>
       <c r="D173" s="2">
-        <v>45410.65625</v>
+        <v>45410.33333333334</v>
       </c>
       <c r="E173" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J173">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L173">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="M173">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N173">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="P173">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q173">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
         <v>2.25</v>
       </c>
       <c r="T173">
+        <v>1.975</v>
+      </c>
+      <c r="U173">
         <v>1.825</v>
       </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
       <c r="V173">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA173">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15396,55 +15396,55 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7952761</v>
+        <v>7952461</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
       </c>
       <c r="D174" s="2">
-        <v>45410.33333333334</v>
+        <v>45410.5</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
         <v>1</v>
-      </c>
-      <c r="H174">
-        <v>2</v>
       </c>
       <c r="I174" t="s">
         <v>43</v>
       </c>
       <c r="J174">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="K174">
+        <v>3.6</v>
+      </c>
+      <c r="L174">
+        <v>1.8</v>
+      </c>
+      <c r="M174">
+        <v>4.5</v>
+      </c>
+      <c r="N174">
         <v>3.4</v>
       </c>
-      <c r="L174">
-        <v>1.571</v>
-      </c>
-      <c r="M174">
-        <v>6</v>
-      </c>
-      <c r="N174">
-        <v>3.3</v>
-      </c>
       <c r="O174">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="P174">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q174">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
         <v>2.25</v>
@@ -15462,19 +15462,19 @@
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>0.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y174">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15482,85 +15482,85 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7952461</v>
+        <v>7952764</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
       </c>
       <c r="D175" s="2">
-        <v>45410.5</v>
+        <v>45410.65625</v>
       </c>
       <c r="E175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J175">
+        <v>1.533</v>
+      </c>
+      <c r="K175">
         <v>3.5</v>
       </c>
-      <c r="K175">
-        <v>3.6</v>
-      </c>
       <c r="L175">
+        <v>5.5</v>
+      </c>
+      <c r="M175">
+        <v>1.727</v>
+      </c>
+      <c r="N175">
+        <v>3.5</v>
+      </c>
+      <c r="O175">
+        <v>4</v>
+      </c>
+      <c r="P175">
+        <v>-0.75</v>
+      </c>
+      <c r="Q175">
+        <v>2</v>
+      </c>
+      <c r="R175">
         <v>1.8</v>
-      </c>
-      <c r="M175">
-        <v>4.5</v>
-      </c>
-      <c r="N175">
-        <v>3.4</v>
-      </c>
-      <c r="O175">
-        <v>1.666</v>
-      </c>
-      <c r="P175">
-        <v>0.75</v>
-      </c>
-      <c r="Q175">
-        <v>1.85</v>
-      </c>
-      <c r="R175">
-        <v>1.95</v>
       </c>
       <c r="S175">
         <v>2.25</v>
       </c>
       <c r="T175">
+        <v>1.825</v>
+      </c>
+      <c r="U175">
         <v>1.975</v>
       </c>
-      <c r="U175">
-        <v>1.825</v>
-      </c>
       <c r="V175">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z175">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB175">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:28">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7952769</t>
   </si>
   <si>
     <t>Bosnia Herzegovina Premier Liga</t>
@@ -510,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB176"/>
+  <dimension ref="A1:AB177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +610,16 @@
         <v>6865272</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -625,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>1.571</v>
@@ -693,16 +696,16 @@
         <v>6993416</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45137.5</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -711,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -779,16 +782,16 @@
         <v>6865275</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -797,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>1.444</v>
@@ -865,16 +868,16 @@
         <v>6865279</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>2.1</v>
@@ -951,16 +954,16 @@
         <v>6865277</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45143.5</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -969,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1037,16 +1040,16 @@
         <v>6865280</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1055,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>1.333</v>
@@ -1123,16 +1126,16 @@
         <v>7045985</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1141,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.5</v>
@@ -1209,16 +1212,16 @@
         <v>6865281</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>1.75</v>
@@ -1295,16 +1298,16 @@
         <v>6865285</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1313,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1381,16 +1384,16 @@
         <v>7051290</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45150.65625</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1399,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>2.25</v>
@@ -1467,16 +1470,16 @@
         <v>6865283</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>2.2</v>
@@ -1553,16 +1556,16 @@
         <v>6865372</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45157.5</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>2.1</v>
@@ -1639,16 +1642,16 @@
         <v>6865286</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1657,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2.6</v>
@@ -1725,16 +1728,16 @@
         <v>6864626</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45158.60416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1743,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.55</v>
@@ -1811,16 +1814,16 @@
         <v>6865289</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45158.625</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1829,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1897,16 +1900,16 @@
         <v>6865288</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45158.6875</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1983,16 +1986,16 @@
         <v>6865287</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45159.5</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2001,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>1.833</v>
@@ -2069,16 +2072,16 @@
         <v>6864627</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45163.625</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2087,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2155,16 +2158,16 @@
         <v>6865293</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45164.5</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2173,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2241,16 +2244,16 @@
         <v>6865292</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2259,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>1.615</v>
@@ -2327,16 +2330,16 @@
         <v>6865290</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2345,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>1.444</v>
@@ -2413,16 +2416,16 @@
         <v>6865373</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45165.61458333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2431,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>1.285</v>
@@ -2499,16 +2502,16 @@
         <v>6865291</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45166.66666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2517,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2585,16 +2588,16 @@
         <v>7138484</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2603,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>1.65</v>
@@ -2671,16 +2674,16 @@
         <v>7141242</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45170.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2689,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2757,16 +2760,16 @@
         <v>6865294</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2775,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2843,16 +2846,16 @@
         <v>6865297</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2861,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>3.4</v>
@@ -2929,16 +2932,16 @@
         <v>6865295</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2947,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3015,16 +3018,16 @@
         <v>6865296</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3033,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3101,16 +3104,16 @@
         <v>7100644</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45182.5625</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3119,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>1.2</v>
@@ -3187,16 +3190,16 @@
         <v>6865374</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45184.45833333334</v>
       </c>
       <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
         <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3205,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>2.6</v>
@@ -3273,16 +3276,16 @@
         <v>6865301</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45184.5625</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3291,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>1.363</v>
@@ -3359,16 +3362,16 @@
         <v>6865302</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3377,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>2.25</v>
@@ -3445,16 +3448,16 @@
         <v>6865300</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45185.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3463,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>3.6</v>
@@ -3531,16 +3534,16 @@
         <v>6865299</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3549,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>1.25</v>
@@ -3617,16 +3620,16 @@
         <v>6864629</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3635,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>1.363</v>
@@ -3703,16 +3706,16 @@
         <v>7078203</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45189.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3721,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3789,16 +3792,16 @@
         <v>6865307</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45191.625</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3807,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>2.7</v>
@@ -3875,16 +3878,16 @@
         <v>6864630</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3893,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>2.7</v>
@@ -3961,16 +3964,16 @@
         <v>6865305</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3979,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>1.909</v>
@@ -4047,16 +4050,16 @@
         <v>7217268</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45192.65625</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4065,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>1.333</v>
@@ -4133,17 +4136,17 @@
         <v>6865303</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45193.45833333334</v>
       </c>
       <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
         <v>32</v>
       </c>
-      <c r="F43" t="s">
-        <v>31</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4219,16 +4222,16 @@
         <v>7217461</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45193.61458333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4237,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4305,16 +4308,16 @@
         <v>7117521</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s">
         <v>38</v>
-      </c>
-      <c r="F45" t="s">
-        <v>37</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4323,7 +4326,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4391,16 +4394,16 @@
         <v>7174900</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45196.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4409,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4477,16 +4480,16 @@
         <v>6865312</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45199.5625</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4495,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>1.8</v>
@@ -4563,16 +4566,16 @@
         <v>6865308</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45199.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4581,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>1.285</v>
@@ -4649,16 +4652,16 @@
         <v>6865311</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4667,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>1.833</v>
@@ -4735,16 +4738,16 @@
         <v>6865310</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4753,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>3.4</v>
@@ -4821,16 +4824,16 @@
         <v>6864631</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45200.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4839,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>1.8</v>
@@ -4907,16 +4910,16 @@
         <v>6865309</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45201.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4925,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>1.666</v>
@@ -4993,16 +4996,16 @@
         <v>6865313</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5011,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5079,16 +5082,16 @@
         <v>6865375</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5097,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>2.45</v>
@@ -5165,16 +5168,16 @@
         <v>6864632</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5183,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>3.6</v>
@@ -5251,16 +5254,16 @@
         <v>6865314</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5269,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>1.55</v>
@@ -5337,16 +5340,16 @@
         <v>6865315</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5355,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>1.6</v>
@@ -5423,16 +5426,16 @@
         <v>6865376</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45208.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5441,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>1.166</v>
@@ -5509,16 +5512,16 @@
         <v>7217267</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45217.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5527,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>1.444</v>
@@ -5595,16 +5598,16 @@
         <v>7117579</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45217.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5613,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5681,16 +5684,16 @@
         <v>6865318</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5699,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5767,16 +5770,16 @@
         <v>6865319</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45220.5625</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5785,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>1.8</v>
@@ -5853,16 +5856,16 @@
         <v>6865316</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5871,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.444</v>
@@ -5939,16 +5942,16 @@
         <v>6865317</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5957,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6025,16 +6028,16 @@
         <v>6864633</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45221.61458333334</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6043,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -6111,16 +6114,16 @@
         <v>7355528</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45222.39583333334</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6129,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -6197,16 +6200,16 @@
         <v>6865325</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45226.375</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6215,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>2.8</v>
@@ -6283,16 +6286,16 @@
         <v>6865324</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6301,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6369,16 +6372,16 @@
         <v>6864634</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" t="s">
         <v>36</v>
-      </c>
-      <c r="F69" t="s">
-        <v>35</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6387,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.666</v>
@@ -6455,16 +6458,16 @@
         <v>6865321</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6473,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>3.8</v>
@@ -6541,16 +6544,16 @@
         <v>6865323</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45228.61111111111</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6559,7 +6562,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>3.75</v>
@@ -6627,16 +6630,16 @@
         <v>6865322</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45229.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6645,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J72">
         <v>1.7</v>
@@ -6713,16 +6716,16 @@
         <v>7422880</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
         <v>29</v>
-      </c>
-      <c r="F73" t="s">
-        <v>28</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6731,7 +6734,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>2.25</v>
@@ -6799,16 +6802,16 @@
         <v>6865326</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45234.375</v>
       </c>
       <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
         <v>33</v>
-      </c>
-      <c r="F74" t="s">
-        <v>32</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6817,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>1.727</v>
@@ -6885,16 +6888,16 @@
         <v>6865327</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45234.5</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6903,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>1.615</v>
@@ -6971,16 +6974,16 @@
         <v>6865377</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -6989,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7057,16 +7060,16 @@
         <v>6865328</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7075,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7143,16 +7146,16 @@
         <v>6864635</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45235.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7161,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>2.25</v>
@@ -7229,16 +7232,16 @@
         <v>6865334</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45241.375</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7247,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J79">
         <v>1.727</v>
@@ -7315,16 +7318,16 @@
         <v>6865333</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45241.69791666666</v>
       </c>
       <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
         <v>31</v>
-      </c>
-      <c r="F80" t="s">
-        <v>30</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7333,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>2.75</v>
@@ -7401,16 +7404,16 @@
         <v>6865330</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45242.375</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7419,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>2.3</v>
@@ -7487,16 +7490,16 @@
         <v>6864636</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45242.46875</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7505,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7573,16 +7576,16 @@
         <v>6865331</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45243.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7591,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7659,16 +7662,16 @@
         <v>7328799</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45252.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7677,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>1.222</v>
@@ -7745,16 +7748,16 @@
         <v>7505498</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>6</v>
@@ -7763,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7831,16 +7834,16 @@
         <v>7505496</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45255.375</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7849,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>4.5</v>
@@ -7917,16 +7920,16 @@
         <v>7505497</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7935,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>1.65</v>
@@ -8003,16 +8006,16 @@
         <v>7505495</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8021,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>1.444</v>
@@ -8089,16 +8092,16 @@
         <v>7505494</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8107,7 +8110,7 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>5.5</v>
@@ -8175,16 +8178,16 @@
         <v>7505499</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45256.65625</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8193,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8261,16 +8264,16 @@
         <v>6865340</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8279,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>2.3</v>
@@ -8347,16 +8350,16 @@
         <v>6865341</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45262.39583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8365,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>2.2</v>
@@ -8433,16 +8436,16 @@
         <v>7107310</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45262.5</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8451,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>9.5</v>
@@ -8519,16 +8522,16 @@
         <v>6865342</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45263.375</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8537,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>1.571</v>
@@ -8605,16 +8608,16 @@
         <v>6865339</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45263.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8623,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>2.4</v>
@@ -8691,16 +8694,16 @@
         <v>6865379</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45264.375</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8709,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>8.5</v>
@@ -8777,16 +8780,16 @@
         <v>7462473</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45266.375</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8795,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>2.75</v>
@@ -8863,16 +8866,16 @@
         <v>6865345</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8881,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>2.625</v>
@@ -8949,16 +8952,16 @@
         <v>6864639</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45269.375</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8967,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>11</v>
@@ -9035,16 +9038,16 @@
         <v>6865343</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9053,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>1.909</v>
@@ -9121,16 +9124,16 @@
         <v>6865346</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45269.5</v>
       </c>
       <c r="E101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" t="s">
         <v>30</v>
-      </c>
-      <c r="F101" t="s">
-        <v>29</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9139,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>1.3</v>
@@ -9207,16 +9210,16 @@
         <v>6865344</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45270.375</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9225,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9293,16 +9296,16 @@
         <v>6865347</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45270.46875</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9311,7 +9314,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>5.5</v>
@@ -9379,16 +9382,16 @@
         <v>6864640</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9397,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>4</v>
@@ -9465,16 +9468,16 @@
         <v>6865380</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45276.375</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9483,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9551,16 +9554,16 @@
         <v>6865350</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45276.5</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9569,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9637,16 +9640,16 @@
         <v>6865348</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45277.375</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9655,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>2.625</v>
@@ -9723,16 +9726,16 @@
         <v>6865351</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9741,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>1.4</v>
@@ -9809,16 +9812,16 @@
         <v>6865349</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45278.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9827,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.727</v>
@@ -9895,16 +9898,16 @@
         <v>6865353</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9913,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>3.25</v>
@@ -9981,16 +9984,16 @@
         <v>6865354</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -9999,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>1.8</v>
@@ -10067,16 +10070,16 @@
         <v>6865352</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45339.375</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10085,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.615</v>
@@ -10153,16 +10156,16 @@
         <v>6865355</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45339.5</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10171,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10239,16 +10242,16 @@
         <v>6865356</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45340.375</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10257,7 +10260,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>1.444</v>
@@ -10325,16 +10328,16 @@
         <v>6864641</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10343,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>1.25</v>
@@ -10411,16 +10414,16 @@
         <v>6865361</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10429,7 +10432,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>2.25</v>
@@ -10497,16 +10500,16 @@
         <v>6865358</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45346.375</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10515,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>4.333</v>
@@ -10583,16 +10586,16 @@
         <v>6864642</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45346.5</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10601,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>3.2</v>
@@ -10669,16 +10672,16 @@
         <v>6865357</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45347.375</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10687,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10755,16 +10758,16 @@
         <v>6865360</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>5</v>
@@ -10773,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>1.166</v>
@@ -10841,17 +10844,17 @@
         <v>6865359</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45348.375</v>
       </c>
       <c r="E121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" t="s">
         <v>35</v>
       </c>
-      <c r="F121" t="s">
-        <v>34</v>
-      </c>
       <c r="G121">
         <v>2</v>
       </c>
@@ -10859,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J121">
         <v>1.833</v>
@@ -10927,16 +10930,16 @@
         <v>6865363</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10945,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2</v>
@@ -11013,16 +11016,16 @@
         <v>6865381</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11031,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>1.666</v>
@@ -11099,16 +11102,16 @@
         <v>6865382</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45353.5</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11117,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J124">
         <v>5.75</v>
@@ -11185,16 +11188,16 @@
         <v>6865362</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11203,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J125">
         <v>3.4</v>
@@ -11271,16 +11274,16 @@
         <v>6865364</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45354.61458333334</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11289,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>3.25</v>
@@ -11357,16 +11360,16 @@
         <v>6864643</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45355.57291666666</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11375,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>1.181</v>
@@ -11443,16 +11446,16 @@
         <v>6865367</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45360.375</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11461,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11529,16 +11532,16 @@
         <v>6865368</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45360.5</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11547,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J129">
         <v>3.2</v>
@@ -11615,16 +11618,16 @@
         <v>6865366</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45360.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11633,7 +11636,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J130">
         <v>1.166</v>
@@ -11701,16 +11704,16 @@
         <v>6865365</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11719,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>2.5</v>
@@ -11787,16 +11790,16 @@
         <v>6864644</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45361.625</v>
       </c>
       <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
         <v>37</v>
-      </c>
-      <c r="F132" t="s">
-        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11805,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>1.8</v>
@@ -11873,16 +11876,16 @@
         <v>6865369</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45362.58333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11891,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J133">
         <v>1.55</v>
@@ -11959,16 +11962,16 @@
         <v>7952732</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E134" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" t="s">
         <v>39</v>
-      </c>
-      <c r="F134" t="s">
-        <v>38</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11977,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>1.909</v>
@@ -12045,16 +12048,16 @@
         <v>7952455</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45367.5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12063,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>1.363</v>
@@ -12131,16 +12134,16 @@
         <v>7952730</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45367.69791666666</v>
       </c>
       <c r="E136" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136" t="s">
         <v>30</v>
-      </c>
-      <c r="F136" t="s">
-        <v>29</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12149,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12217,16 +12220,16 @@
         <v>7952731</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12235,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J137">
         <v>1.666</v>
@@ -12303,16 +12306,16 @@
         <v>7952734</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45368.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12321,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>1.181</v>
@@ -12389,16 +12392,16 @@
         <v>7952733</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12407,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>1.3</v>
@@ -12475,16 +12478,16 @@
         <v>7952736</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45380.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12493,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>1.727</v>
@@ -12561,16 +12564,16 @@
         <v>7952738</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45380.5</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12579,7 +12582,7 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>2.9</v>
@@ -12647,16 +12650,16 @@
         <v>7952735</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12665,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12733,16 +12736,16 @@
         <v>7952739</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12751,7 +12754,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>2.25</v>
@@ -12819,16 +12822,16 @@
         <v>7952456</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45381.5</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12837,7 +12840,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>2.2</v>
@@ -12905,16 +12908,16 @@
         <v>7952737</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45381.69791666666</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12923,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12991,16 +12994,16 @@
         <v>7952740</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13009,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J146">
         <v>1.533</v>
@@ -13077,16 +13080,16 @@
         <v>7952743</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45388.65625</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13095,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>1.222</v>
@@ -13163,16 +13166,16 @@
         <v>7952742</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45389.375</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13181,7 +13184,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J148">
         <v>1.95</v>
@@ -13249,16 +13252,16 @@
         <v>7952741</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45389.65625</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13267,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>2.4</v>
@@ -13335,16 +13338,16 @@
         <v>7952744</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45390.4375</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13353,7 +13356,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J150">
         <v>1.727</v>
@@ -13421,16 +13424,16 @@
         <v>7952457</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45390.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -13439,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J151">
         <v>1.166</v>
@@ -13507,16 +13510,16 @@
         <v>7952749</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45394.4375</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13525,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13593,16 +13596,16 @@
         <v>7952746</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13611,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>1.3</v>
@@ -13679,16 +13682,16 @@
         <v>7952745</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45395.35416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13700,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J154">
         <v>2.1</v>
@@ -13765,16 +13768,16 @@
         <v>7952458</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13783,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>1.615</v>
@@ -13851,16 +13854,16 @@
         <v>7952748</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45396.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13869,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13937,16 +13940,16 @@
         <v>7952747</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45396.625</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13955,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14023,16 +14026,16 @@
         <v>7952751</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14041,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J158">
         <v>1.666</v>
@@ -14109,16 +14112,16 @@
         <v>7952754</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14127,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14195,16 +14198,16 @@
         <v>7952750</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45401.625</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14213,7 +14216,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J160">
         <v>1.25</v>
@@ -14281,16 +14284,16 @@
         <v>7952752</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>4</v>
@@ -14299,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>1.666</v>
@@ -14367,16 +14370,16 @@
         <v>7952459</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14385,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J162">
         <v>3.5</v>
@@ -14453,16 +14456,16 @@
         <v>7866183</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14471,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14539,16 +14542,16 @@
         <v>7952753</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45402.65625</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14557,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J164">
         <v>2.5</v>
@@ -14625,16 +14628,16 @@
         <v>7952755</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14643,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J165">
         <v>2</v>
@@ -14711,16 +14714,16 @@
         <v>7952758</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14729,7 +14732,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J166">
         <v>1.333</v>
@@ -14797,16 +14800,16 @@
         <v>7952757</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45405.64583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14815,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J167">
         <v>1.8</v>
@@ -14883,16 +14886,16 @@
         <v>7952756</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14901,7 +14904,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J168">
         <v>3.3</v>
@@ -14969,16 +14972,16 @@
         <v>7952759</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -14987,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J169">
         <v>1.363</v>
@@ -15055,16 +15058,16 @@
         <v>7952460</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45406.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>4</v>
@@ -15073,7 +15076,7 @@
         <v>3</v>
       </c>
       <c r="I170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J170">
         <v>1.444</v>
@@ -15141,16 +15144,16 @@
         <v>7952763</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45409.35416666666</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15159,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J171">
         <v>1.5</v>
@@ -15227,16 +15230,16 @@
         <v>7952760</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15245,7 +15248,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15313,16 +15316,16 @@
         <v>7952761</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45410.33333333334</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15331,7 +15334,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J173">
         <v>5.5</v>
@@ -15399,16 +15402,16 @@
         <v>7952461</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45410.5</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15417,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J174">
         <v>3.5</v>
@@ -15485,16 +15488,16 @@
         <v>7952764</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45410.65625</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15503,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J175">
         <v>1.533</v>
@@ -15571,16 +15574,16 @@
         <v>7952762</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45411.47916666666</v>
       </c>
       <c r="E176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15589,7 +15592,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J176">
         <v>1.615</v>
@@ -15646,6 +15649,71 @@
         <v>0</v>
       </c>
       <c r="AB176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45415.54166666666</v>
+      </c>
+      <c r="E177" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" t="s">
+        <v>32</v>
+      </c>
+      <c r="J177">
+        <v>1.666</v>
+      </c>
+      <c r="K177">
+        <v>3.25</v>
+      </c>
+      <c r="L177">
+        <v>4.75</v>
+      </c>
+      <c r="M177">
+        <v>1.571</v>
+      </c>
+      <c r="N177">
+        <v>3.4</v>
+      </c>
+      <c r="O177">
+        <v>5.25</v>
+      </c>
+      <c r="P177">
+        <v>-0.75</v>
+      </c>
+      <c r="Q177">
+        <v>1.8</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>2</v>
+      </c>
+      <c r="T177">
+        <v>1.775</v>
+      </c>
+      <c r="U177">
+        <v>2.025</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
         <v>0</v>
       </c>
     </row>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7952769</t>
+    <t>7952765</t>
+  </si>
+  <si>
+    <t>7952768</t>
   </si>
   <si>
     <t>Bosnia Herzegovina Premier Liga</t>
@@ -513,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB177"/>
+  <dimension ref="A1:AB178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +613,16 @@
         <v>6865272</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -628,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>1.571</v>
@@ -696,16 +699,16 @@
         <v>6993416</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45137.5</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -714,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -782,16 +785,16 @@
         <v>6865275</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -800,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>1.444</v>
@@ -868,16 +871,16 @@
         <v>6865279</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -886,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>2.1</v>
@@ -954,16 +957,16 @@
         <v>6865277</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45143.5</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -972,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1040,16 +1043,16 @@
         <v>6865280</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>1.333</v>
@@ -1126,16 +1129,16 @@
         <v>7045985</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1144,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>1.5</v>
@@ -1212,16 +1215,16 @@
         <v>6865281</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1230,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>1.75</v>
@@ -1298,16 +1301,16 @@
         <v>6865285</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1316,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1384,16 +1387,16 @@
         <v>7051290</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45150.65625</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1402,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>2.25</v>
@@ -1470,16 +1473,16 @@
         <v>6865283</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1488,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2.2</v>
@@ -1556,16 +1559,16 @@
         <v>6865372</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45157.5</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1574,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>2.1</v>
@@ -1642,16 +1645,16 @@
         <v>6865286</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1660,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>2.6</v>
@@ -1728,16 +1731,16 @@
         <v>6864626</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45158.60416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1746,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.55</v>
@@ -1814,16 +1817,16 @@
         <v>6865289</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45158.625</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1832,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1900,16 +1903,16 @@
         <v>6865288</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45158.6875</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1918,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1986,16 +1989,16 @@
         <v>6865287</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45159.5</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2004,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>1.833</v>
@@ -2072,16 +2075,16 @@
         <v>6864627</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45163.625</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2090,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2158,16 +2161,16 @@
         <v>6865293</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45164.5</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2176,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2244,16 +2247,16 @@
         <v>6865292</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2262,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>1.615</v>
@@ -2330,16 +2333,16 @@
         <v>6865290</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2348,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>1.444</v>
@@ -2416,16 +2419,16 @@
         <v>6865373</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45165.61458333334</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2434,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>1.285</v>
@@ -2502,16 +2505,16 @@
         <v>6865291</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45166.66666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2520,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2588,16 +2591,16 @@
         <v>7138484</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
         <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2606,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>1.65</v>
@@ -2674,16 +2677,16 @@
         <v>7141242</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45170.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2692,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2760,16 +2763,16 @@
         <v>6865294</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2778,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2846,16 +2849,16 @@
         <v>6865297</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2864,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28">
         <v>3.4</v>
@@ -2932,16 +2935,16 @@
         <v>6865295</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2950,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3018,16 +3021,16 @@
         <v>6865296</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3036,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3104,16 +3107,16 @@
         <v>7100644</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45182.5625</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3122,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>1.2</v>
@@ -3190,16 +3193,16 @@
         <v>6865374</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45184.45833333334</v>
       </c>
       <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
         <v>40</v>
-      </c>
-      <c r="F32" t="s">
-        <v>39</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3208,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>2.6</v>
@@ -3276,16 +3279,16 @@
         <v>6865301</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45184.5625</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3294,7 +3297,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>1.363</v>
@@ -3362,16 +3365,16 @@
         <v>6865302</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3380,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J34">
         <v>2.25</v>
@@ -3448,16 +3451,16 @@
         <v>6865300</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45185.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3466,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>3.6</v>
@@ -3534,16 +3537,16 @@
         <v>6865299</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3552,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>1.25</v>
@@ -3620,16 +3623,16 @@
         <v>6864629</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3638,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>1.363</v>
@@ -3706,16 +3709,16 @@
         <v>7078203</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45189.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3724,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3792,16 +3795,16 @@
         <v>6865307</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45191.625</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3810,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>2.7</v>
@@ -3878,16 +3881,16 @@
         <v>6864630</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3896,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>2.7</v>
@@ -3964,16 +3967,16 @@
         <v>6865305</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3982,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>1.909</v>
@@ -4050,16 +4053,16 @@
         <v>7217268</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45192.65625</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4068,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>1.333</v>
@@ -4136,17 +4139,17 @@
         <v>6865303</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45193.45833333334</v>
       </c>
       <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
         <v>33</v>
       </c>
-      <c r="F43" t="s">
-        <v>32</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4222,16 +4225,16 @@
         <v>7217461</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45193.61458333334</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4240,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4308,16 +4311,16 @@
         <v>7117521</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
         <v>39</v>
-      </c>
-      <c r="F45" t="s">
-        <v>38</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4326,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4394,16 +4397,16 @@
         <v>7174900</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45196.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4412,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4480,16 +4483,16 @@
         <v>6865312</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45199.5625</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4498,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>1.8</v>
@@ -4566,16 +4569,16 @@
         <v>6865308</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45199.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4584,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>1.285</v>
@@ -4652,16 +4655,16 @@
         <v>6865311</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4670,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>1.833</v>
@@ -4738,16 +4741,16 @@
         <v>6865310</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4756,7 +4759,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>3.4</v>
@@ -4824,16 +4827,16 @@
         <v>6864631</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45200.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4842,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>1.8</v>
@@ -4910,16 +4913,16 @@
         <v>6865309</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45201.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4928,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>1.666</v>
@@ -4996,16 +4999,16 @@
         <v>6865313</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5014,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5082,16 +5085,16 @@
         <v>6865375</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5100,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J54">
         <v>2.45</v>
@@ -5168,16 +5171,16 @@
         <v>6864632</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5186,7 +5189,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>3.6</v>
@@ -5254,16 +5257,16 @@
         <v>6865314</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5272,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>1.55</v>
@@ -5340,16 +5343,16 @@
         <v>6865315</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5358,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>1.6</v>
@@ -5426,16 +5429,16 @@
         <v>6865376</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45208.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5444,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>1.166</v>
@@ -5512,16 +5515,16 @@
         <v>7217267</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45217.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5530,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>1.444</v>
@@ -5598,16 +5601,16 @@
         <v>7117579</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45217.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5616,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5684,16 +5687,16 @@
         <v>6865318</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5702,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5770,16 +5773,16 @@
         <v>6865319</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45220.5625</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5788,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J62">
         <v>1.8</v>
@@ -5856,16 +5859,16 @@
         <v>6865316</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5874,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>1.444</v>
@@ -5942,16 +5945,16 @@
         <v>6865317</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5960,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6028,16 +6031,16 @@
         <v>6864633</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45221.61458333334</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6046,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -6114,16 +6117,16 @@
         <v>7355528</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45222.39583333334</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6132,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -6200,16 +6203,16 @@
         <v>6865325</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45226.375</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6218,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>2.8</v>
@@ -6286,16 +6289,16 @@
         <v>6865324</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6304,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6372,16 +6375,16 @@
         <v>6864634</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
         <v>37</v>
-      </c>
-      <c r="F69" t="s">
-        <v>36</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6390,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>1.666</v>
@@ -6458,16 +6461,16 @@
         <v>6865321</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6476,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>3.8</v>
@@ -6544,16 +6547,16 @@
         <v>6865323</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45228.61111111111</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6562,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J71">
         <v>3.75</v>
@@ -6630,16 +6633,16 @@
         <v>6865322</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45229.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6648,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>1.7</v>
@@ -6716,16 +6719,16 @@
         <v>7422880</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" t="s">
         <v>30</v>
-      </c>
-      <c r="F73" t="s">
-        <v>29</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6734,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>2.25</v>
@@ -6802,16 +6805,16 @@
         <v>6865326</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45234.375</v>
       </c>
       <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s">
         <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>33</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6820,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>1.727</v>
@@ -6888,16 +6891,16 @@
         <v>6865327</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45234.5</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6906,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>1.615</v>
@@ -6974,16 +6977,16 @@
         <v>6865377</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -6992,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7060,16 +7063,16 @@
         <v>6865328</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7078,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7146,16 +7149,16 @@
         <v>6864635</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45235.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7164,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>2.25</v>
@@ -7232,16 +7235,16 @@
         <v>6865334</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45241.375</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7250,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>1.727</v>
@@ -7318,16 +7321,16 @@
         <v>6865333</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45241.69791666666</v>
       </c>
       <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" t="s">
         <v>32</v>
-      </c>
-      <c r="F80" t="s">
-        <v>31</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7336,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>2.75</v>
@@ -7404,16 +7407,16 @@
         <v>6865330</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45242.375</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7422,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <v>2.3</v>
@@ -7490,16 +7493,16 @@
         <v>6864636</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45242.46875</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7508,7 +7511,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7576,16 +7579,16 @@
         <v>6865331</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45243.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7594,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7662,16 +7665,16 @@
         <v>7328799</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45252.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7680,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>1.222</v>
@@ -7748,16 +7751,16 @@
         <v>7505498</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>6</v>
@@ -7766,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7834,16 +7837,16 @@
         <v>7505496</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45255.375</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7852,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>4.5</v>
@@ -7920,16 +7923,16 @@
         <v>7505497</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7938,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J87">
         <v>1.65</v>
@@ -8006,16 +8009,16 @@
         <v>7505495</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8024,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>1.444</v>
@@ -8092,16 +8095,16 @@
         <v>7505494</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8110,7 +8113,7 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>5.5</v>
@@ -8178,16 +8181,16 @@
         <v>7505499</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45256.65625</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8196,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8264,16 +8267,16 @@
         <v>6865340</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8282,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>2.3</v>
@@ -8350,16 +8353,16 @@
         <v>6865341</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45262.39583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8368,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>2.2</v>
@@ -8436,16 +8439,16 @@
         <v>7107310</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45262.5</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8454,7 +8457,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>9.5</v>
@@ -8522,16 +8525,16 @@
         <v>6865342</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45263.375</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8540,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>1.571</v>
@@ -8608,16 +8611,16 @@
         <v>6865339</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45263.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8626,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J95">
         <v>2.4</v>
@@ -8694,16 +8697,16 @@
         <v>6865379</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45264.375</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8712,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>8.5</v>
@@ -8780,16 +8783,16 @@
         <v>7462473</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45266.375</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8798,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>2.75</v>
@@ -8866,16 +8869,16 @@
         <v>6865345</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8884,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J98">
         <v>2.625</v>
@@ -8952,16 +8955,16 @@
         <v>6864639</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45269.375</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8970,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J99">
         <v>11</v>
@@ -9038,16 +9041,16 @@
         <v>6865343</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9056,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>1.909</v>
@@ -9124,16 +9127,16 @@
         <v>6865346</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45269.5</v>
       </c>
       <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
         <v>31</v>
-      </c>
-      <c r="F101" t="s">
-        <v>30</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9142,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>1.3</v>
@@ -9210,16 +9213,16 @@
         <v>6865344</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45270.375</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9228,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9296,16 +9299,16 @@
         <v>6865347</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45270.46875</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9314,7 +9317,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>5.5</v>
@@ -9382,16 +9385,16 @@
         <v>6864640</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9400,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>4</v>
@@ -9468,16 +9471,16 @@
         <v>6865380</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45276.375</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9486,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9554,16 +9557,16 @@
         <v>6865350</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45276.5</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9572,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9640,16 +9643,16 @@
         <v>6865348</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45277.375</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9658,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>2.625</v>
@@ -9726,16 +9729,16 @@
         <v>6865351</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9744,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>1.4</v>
@@ -9812,16 +9815,16 @@
         <v>6865349</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45278.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9830,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J109">
         <v>1.727</v>
@@ -9898,16 +9901,16 @@
         <v>6865353</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9916,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>3.25</v>
@@ -9984,16 +9987,16 @@
         <v>6865354</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10002,7 +10005,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J111">
         <v>1.8</v>
@@ -10070,16 +10073,16 @@
         <v>6865352</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45339.375</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10088,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.615</v>
@@ -10156,16 +10159,16 @@
         <v>6865355</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45339.5</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10174,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10242,16 +10245,16 @@
         <v>6865356</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45340.375</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10260,7 +10263,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>1.444</v>
@@ -10328,16 +10331,16 @@
         <v>6864641</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10346,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J115">
         <v>1.25</v>
@@ -10414,16 +10417,16 @@
         <v>6865361</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10432,7 +10435,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <v>2.25</v>
@@ -10500,16 +10503,16 @@
         <v>6865358</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45346.375</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10518,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>4.333</v>
@@ -10586,16 +10589,16 @@
         <v>6864642</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45346.5</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10604,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J118">
         <v>3.2</v>
@@ -10672,16 +10675,16 @@
         <v>6865357</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45347.375</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10690,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10758,16 +10761,16 @@
         <v>6865360</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>5</v>
@@ -10776,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>1.166</v>
@@ -10844,17 +10847,17 @@
         <v>6865359</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45348.375</v>
       </c>
       <c r="E121" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" t="s">
         <v>36</v>
       </c>
-      <c r="F121" t="s">
-        <v>35</v>
-      </c>
       <c r="G121">
         <v>2</v>
       </c>
@@ -10862,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>1.833</v>
@@ -10930,16 +10933,16 @@
         <v>6865363</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10948,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>2</v>
@@ -11016,16 +11019,16 @@
         <v>6865381</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11034,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>1.666</v>
@@ -11102,16 +11105,16 @@
         <v>6865382</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45353.5</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11120,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>5.75</v>
@@ -11188,16 +11191,16 @@
         <v>6865362</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11206,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>3.4</v>
@@ -11274,16 +11277,16 @@
         <v>6865364</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45354.61458333334</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11292,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>3.25</v>
@@ -11360,16 +11363,16 @@
         <v>6864643</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45355.57291666666</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11378,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>1.181</v>
@@ -11446,16 +11449,16 @@
         <v>6865367</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45360.375</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11464,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11532,16 +11535,16 @@
         <v>6865368</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45360.5</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11550,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J129">
         <v>3.2</v>
@@ -11618,16 +11621,16 @@
         <v>6865366</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45360.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11636,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J130">
         <v>1.166</v>
@@ -11704,16 +11707,16 @@
         <v>6865365</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11722,7 +11725,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J131">
         <v>2.5</v>
@@ -11790,16 +11793,16 @@
         <v>6864644</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45361.625</v>
       </c>
       <c r="E132" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" t="s">
         <v>38</v>
-      </c>
-      <c r="F132" t="s">
-        <v>37</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11808,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J132">
         <v>1.8</v>
@@ -11876,16 +11879,16 @@
         <v>6865369</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45362.58333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11894,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J133">
         <v>1.55</v>
@@ -11962,16 +11965,16 @@
         <v>7952732</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E134" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" t="s">
         <v>40</v>
-      </c>
-      <c r="F134" t="s">
-        <v>39</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11980,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>1.909</v>
@@ -12048,16 +12051,16 @@
         <v>7952455</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45367.5</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12066,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>1.363</v>
@@ -12134,16 +12137,16 @@
         <v>7952730</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45367.69791666666</v>
       </c>
       <c r="E136" t="s">
+        <v>32</v>
+      </c>
+      <c r="F136" t="s">
         <v>31</v>
-      </c>
-      <c r="F136" t="s">
-        <v>30</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12152,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12220,16 +12223,16 @@
         <v>7952731</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12238,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>1.666</v>
@@ -12306,16 +12309,16 @@
         <v>7952734</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45368.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12324,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>1.181</v>
@@ -12392,16 +12395,16 @@
         <v>7952733</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12410,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J139">
         <v>1.3</v>
@@ -12478,16 +12481,16 @@
         <v>7952736</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45380.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12496,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>1.727</v>
@@ -12564,16 +12567,16 @@
         <v>7952738</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45380.5</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12582,7 +12585,7 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>2.9</v>
@@ -12650,16 +12653,16 @@
         <v>7952735</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12668,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12736,16 +12739,16 @@
         <v>7952739</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12754,7 +12757,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>2.25</v>
@@ -12822,16 +12825,16 @@
         <v>7952456</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45381.5</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12840,7 +12843,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J144">
         <v>2.2</v>
@@ -12908,16 +12911,16 @@
         <v>7952737</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45381.69791666666</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12926,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12994,16 +12997,16 @@
         <v>7952740</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13012,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J146">
         <v>1.533</v>
@@ -13080,16 +13083,16 @@
         <v>7952743</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45388.65625</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13098,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>1.222</v>
@@ -13166,16 +13169,16 @@
         <v>7952742</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45389.375</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13184,7 +13187,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J148">
         <v>1.95</v>
@@ -13252,16 +13255,16 @@
         <v>7952741</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45389.65625</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13270,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J149">
         <v>2.4</v>
@@ -13338,16 +13341,16 @@
         <v>7952744</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45390.4375</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13356,7 +13359,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J150">
         <v>1.727</v>
@@ -13424,16 +13427,16 @@
         <v>7952457</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45390.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -13442,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>1.166</v>
@@ -13510,16 +13513,16 @@
         <v>7952749</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45394.4375</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13528,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13596,16 +13599,16 @@
         <v>7952746</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13614,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <v>1.3</v>
@@ -13682,16 +13685,16 @@
         <v>7952745</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45395.35416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13700,7 +13703,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J154">
         <v>2.1</v>
@@ -13768,16 +13771,16 @@
         <v>7952458</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13786,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J155">
         <v>1.615</v>
@@ -13854,16 +13857,16 @@
         <v>7952748</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45396.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13872,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13940,16 +13943,16 @@
         <v>7952747</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45396.625</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13958,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14026,16 +14029,16 @@
         <v>7952751</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14044,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J158">
         <v>1.666</v>
@@ -14112,16 +14115,16 @@
         <v>7952754</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14130,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14198,16 +14201,16 @@
         <v>7952750</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45401.625</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14216,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J160">
         <v>1.25</v>
@@ -14284,16 +14287,16 @@
         <v>7952752</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>4</v>
@@ -14302,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J161">
         <v>1.666</v>
@@ -14370,16 +14373,16 @@
         <v>7952459</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14388,7 +14391,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J162">
         <v>3.5</v>
@@ -14456,16 +14459,16 @@
         <v>7866183</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14474,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14542,16 +14545,16 @@
         <v>7952753</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45402.65625</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14560,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J164">
         <v>2.5</v>
@@ -14628,16 +14631,16 @@
         <v>7952755</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14646,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J165">
         <v>2</v>
@@ -14714,16 +14717,16 @@
         <v>7952758</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14732,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J166">
         <v>1.333</v>
@@ -14800,16 +14803,16 @@
         <v>7952757</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45405.64583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14818,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J167">
         <v>1.8</v>
@@ -14886,16 +14889,16 @@
         <v>7952756</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14904,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J168">
         <v>3.3</v>
@@ -14972,16 +14975,16 @@
         <v>7952759</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -14990,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J169">
         <v>1.363</v>
@@ -15058,16 +15061,16 @@
         <v>7952460</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45406.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170">
         <v>4</v>
@@ -15076,7 +15079,7 @@
         <v>3</v>
       </c>
       <c r="I170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J170">
         <v>1.444</v>
@@ -15144,16 +15147,16 @@
         <v>7952763</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45409.35416666666</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15162,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J171">
         <v>1.5</v>
@@ -15230,16 +15233,16 @@
         <v>7952760</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15248,7 +15251,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15316,16 +15319,16 @@
         <v>7952761</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45410.33333333334</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15334,7 +15337,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J173">
         <v>5.5</v>
@@ -15402,16 +15405,16 @@
         <v>7952461</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45410.5</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15420,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J174">
         <v>3.5</v>
@@ -15488,16 +15491,16 @@
         <v>7952764</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45410.65625</v>
       </c>
       <c r="E175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15506,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J175">
         <v>1.533</v>
@@ -15574,16 +15577,16 @@
         <v>7952762</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D176" s="2">
         <v>45411.47916666666</v>
       </c>
       <c r="E176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15592,7 +15595,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J176">
         <v>1.615</v>
@@ -15660,60 +15663,125 @@
         <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D177" s="2">
-        <v>45415.54166666666</v>
+        <v>45416.45833333334</v>
       </c>
       <c r="E177" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
         <v>32</v>
       </c>
       <c r="J177">
+        <v>3.4</v>
+      </c>
+      <c r="K177">
+        <v>3.1</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>4.333</v>
+      </c>
+      <c r="N177">
+        <v>3.5</v>
+      </c>
+      <c r="O177">
         <v>1.666</v>
       </c>
-      <c r="K177">
-        <v>3.25</v>
-      </c>
-      <c r="L177">
-        <v>4.75</v>
-      </c>
-      <c r="M177">
-        <v>1.571</v>
-      </c>
-      <c r="N177">
-        <v>3.4</v>
-      </c>
-      <c r="O177">
-        <v>5.25</v>
-      </c>
       <c r="P177">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q177">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T177">
+        <v>1.975</v>
+      </c>
+      <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45416.65625</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" t="s">
+        <v>31</v>
+      </c>
+      <c r="J178">
+        <v>1.166</v>
+      </c>
+      <c r="K178">
+        <v>6</v>
+      </c>
+      <c r="L178">
+        <v>11</v>
+      </c>
+      <c r="M178">
+        <v>1.166</v>
+      </c>
+      <c r="N178">
+        <v>6</v>
+      </c>
+      <c r="O178">
+        <v>13</v>
+      </c>
+      <c r="P178">
+        <v>-1.75</v>
+      </c>
+      <c r="Q178">
+        <v>1.75</v>
+      </c>
+      <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>2.75</v>
+      </c>
+      <c r="T178">
         <v>1.775</v>
       </c>
-      <c r="U177">
+      <c r="U178">
         <v>2.025</v>
       </c>
-      <c r="V177">
-        <v>0</v>
-      </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
         <v>0</v>
       </c>
     </row>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7952765</t>
-  </si>
-  <si>
-    <t>7952768</t>
   </si>
   <si>
     <t>Bosnia Herzegovina Premier Liga</t>
@@ -516,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB178"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +607,16 @@
         <v>6865272</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -631,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>1.571</v>
@@ -699,16 +693,16 @@
         <v>6993416</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45137.5</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -717,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -785,16 +779,16 @@
         <v>6865275</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -803,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>1.444</v>
@@ -871,16 +865,16 @@
         <v>6865279</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -889,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>2.1</v>
@@ -957,16 +951,16 @@
         <v>6865277</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45143.5</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -975,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1043,16 +1037,16 @@
         <v>6865280</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1061,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>1.333</v>
@@ -1129,16 +1123,16 @@
         <v>7045985</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1147,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1.5</v>
@@ -1212,43 +1206,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
+        <v>3.2</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
         <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>1.75</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
       </c>
       <c r="O9">
         <v>3.4</v>
@@ -1257,10 +1251,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -1272,7 +1266,7 @@
         <v>1.95</v>
       </c>
       <c r="V9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1281,7 +1275,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1298,43 +1292,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O10">
         <v>3.4</v>
@@ -1343,10 +1337,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>2.5</v>
@@ -1358,7 +1352,7 @@
         <v>1.95</v>
       </c>
       <c r="V10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1367,7 +1361,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -1387,17 +1381,17 @@
         <v>7051290</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45150.65625</v>
       </c>
       <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
       <c r="G11">
         <v>2</v>
       </c>
@@ -1405,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2.25</v>
@@ -1473,16 +1467,16 @@
         <v>6865283</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1491,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2.2</v>
@@ -1559,16 +1553,16 @@
         <v>6865372</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45157.5</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1577,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>2.1</v>
@@ -1645,16 +1639,16 @@
         <v>6865286</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1663,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>2.6</v>
@@ -1731,16 +1725,16 @@
         <v>6864626</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45158.60416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1749,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.55</v>
@@ -1817,16 +1811,16 @@
         <v>6865289</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45158.625</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1835,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1903,16 +1897,16 @@
         <v>6865288</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45158.6875</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1921,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>1.8</v>
@@ -1989,16 +1983,16 @@
         <v>6865287</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45159.5</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2007,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>1.833</v>
@@ -2075,16 +2069,16 @@
         <v>6864627</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45163.625</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2093,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.25</v>
@@ -2161,16 +2155,16 @@
         <v>6865293</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45164.5</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2179,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2247,16 +2241,16 @@
         <v>6865292</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2265,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.615</v>
@@ -2333,16 +2327,16 @@
         <v>6865290</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2351,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1.444</v>
@@ -2419,16 +2413,16 @@
         <v>6865373</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45165.61458333334</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2437,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1.285</v>
@@ -2505,16 +2499,16 @@
         <v>6865291</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45166.66666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2523,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2591,16 +2585,16 @@
         <v>7138484</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2609,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>1.65</v>
@@ -2677,16 +2671,16 @@
         <v>7141242</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45170.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2695,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2763,16 +2757,16 @@
         <v>6865294</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2781,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2849,16 +2843,16 @@
         <v>6865297</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2867,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>3.4</v>
@@ -2932,67 +2926,67 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J29">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K29">
+        <v>3.2</v>
+      </c>
+      <c r="L29">
+        <v>3.6</v>
+      </c>
+      <c r="M29">
+        <v>1.95</v>
+      </c>
+      <c r="N29">
+        <v>3.2</v>
+      </c>
+      <c r="O29">
         <v>3.4</v>
       </c>
-      <c r="L29">
-        <v>3.8</v>
-      </c>
-      <c r="M29">
-        <v>1.615</v>
-      </c>
-      <c r="N29">
-        <v>3.5</v>
-      </c>
-      <c r="O29">
-        <v>4.5</v>
-      </c>
       <c r="P29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3001,16 +2995,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3018,67 +3012,67 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
+        <v>1.615</v>
+      </c>
+      <c r="N30">
+        <v>3.5</v>
+      </c>
+      <c r="O30">
+        <v>4.5</v>
+      </c>
+      <c r="P30">
+        <v>-0.75</v>
+      </c>
+      <c r="Q30">
+        <v>1.85</v>
+      </c>
+      <c r="R30">
         <v>1.95</v>
       </c>
-      <c r="N30">
-        <v>3.2</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>-0.5</v>
-      </c>
-      <c r="Q30">
-        <v>2.025</v>
-      </c>
-      <c r="R30">
-        <v>1.775</v>
-      </c>
       <c r="S30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3087,16 +3081,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3107,16 +3101,16 @@
         <v>7100644</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45182.5625</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3125,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>1.2</v>
@@ -3193,16 +3187,16 @@
         <v>6865374</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45184.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3211,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2.6</v>
@@ -3279,16 +3273,16 @@
         <v>6865301</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45184.5625</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3297,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>1.363</v>
@@ -3365,16 +3359,16 @@
         <v>6865302</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3383,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>2.25</v>
@@ -3451,16 +3445,16 @@
         <v>6865300</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45185.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3469,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>3.6</v>
@@ -3537,16 +3531,16 @@
         <v>6865299</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3555,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>1.25</v>
@@ -3623,16 +3617,16 @@
         <v>6864629</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3641,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>1.363</v>
@@ -3709,16 +3703,16 @@
         <v>7078203</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45189.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3727,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3795,16 +3789,16 @@
         <v>6865307</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45191.625</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3813,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>2.7</v>
@@ -3881,16 +3875,16 @@
         <v>6864630</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3899,7 +3893,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>2.7</v>
@@ -3967,16 +3961,16 @@
         <v>6865305</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3985,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>1.909</v>
@@ -4053,16 +4047,16 @@
         <v>7217268</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45192.65625</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4071,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>1.333</v>
@@ -4139,16 +4133,16 @@
         <v>6865303</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45193.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4157,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4225,16 +4219,16 @@
         <v>7217461</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45193.61458333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4243,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>1.45</v>
@@ -4311,16 +4305,16 @@
         <v>7117521</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4329,7 +4323,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>4.2</v>
@@ -4397,16 +4391,16 @@
         <v>7174900</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45196.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4415,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4483,16 +4477,16 @@
         <v>6865312</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45199.5625</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4501,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>1.8</v>
@@ -4569,17 +4563,17 @@
         <v>6865308</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45199.65625</v>
       </c>
       <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
         <v>32</v>
       </c>
-      <c r="F48" t="s">
-        <v>34</v>
-      </c>
       <c r="G48">
         <v>2</v>
       </c>
@@ -4587,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>1.285</v>
@@ -4655,16 +4649,16 @@
         <v>6865311</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4673,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>1.833</v>
@@ -4741,16 +4735,16 @@
         <v>6865310</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4759,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>3.4</v>
@@ -4827,16 +4821,16 @@
         <v>6864631</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45200.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4845,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>1.8</v>
@@ -4913,16 +4907,16 @@
         <v>6865309</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45201.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4931,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>1.666</v>
@@ -4999,16 +4993,16 @@
         <v>6865313</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5017,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5085,16 +5079,16 @@
         <v>6865375</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5103,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>2.45</v>
@@ -5171,16 +5165,16 @@
         <v>6864632</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5189,7 +5183,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>3.6</v>
@@ -5257,16 +5251,16 @@
         <v>6865314</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45207.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5275,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>1.55</v>
@@ -5343,16 +5337,16 @@
         <v>6865315</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5361,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>1.6</v>
@@ -5429,17 +5423,17 @@
         <v>6865376</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45208.54166666666</v>
       </c>
       <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
         <v>39</v>
       </c>
-      <c r="F58" t="s">
-        <v>41</v>
-      </c>
       <c r="G58">
         <v>2</v>
       </c>
@@ -5447,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>1.166</v>
@@ -5515,16 +5509,16 @@
         <v>7217267</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45217.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5533,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>1.444</v>
@@ -5601,16 +5595,16 @@
         <v>7117579</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45217.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5619,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5687,16 +5681,16 @@
         <v>6865318</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45220.35416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5705,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5773,16 +5767,16 @@
         <v>6865319</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45220.5625</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5791,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>1.8</v>
@@ -5859,16 +5853,16 @@
         <v>6865316</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5877,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.444</v>
@@ -5945,16 +5939,16 @@
         <v>6865317</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5963,7 +5957,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6031,16 +6025,16 @@
         <v>6864633</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45221.61458333334</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6049,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -6117,16 +6111,16 @@
         <v>7355528</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45222.39583333334</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6135,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -6203,16 +6197,16 @@
         <v>6865325</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45226.375</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6221,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>2.8</v>
@@ -6289,16 +6283,16 @@
         <v>6865324</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45227.35416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6307,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6375,16 +6369,16 @@
         <v>6864634</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6393,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>1.666</v>
@@ -6461,16 +6455,16 @@
         <v>6865321</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45228.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6479,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>3.8</v>
@@ -6547,16 +6541,16 @@
         <v>6865323</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45228.61111111111</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6565,7 +6559,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J71">
         <v>3.75</v>
@@ -6633,16 +6627,16 @@
         <v>6865322</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45229.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6651,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>1.7</v>
@@ -6719,16 +6713,16 @@
         <v>7422880</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6737,7 +6731,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J73">
         <v>2.25</v>
@@ -6805,16 +6799,16 @@
         <v>6865326</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45234.375</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6823,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>1.727</v>
@@ -6891,16 +6885,16 @@
         <v>6865327</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45234.5</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6909,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>1.615</v>
@@ -6977,16 +6971,16 @@
         <v>6865377</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -6995,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7063,16 +7057,16 @@
         <v>6865328</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7081,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7149,16 +7143,16 @@
         <v>6864635</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45235.65625</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7167,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>2.25</v>
@@ -7235,16 +7229,16 @@
         <v>6865334</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45241.375</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7253,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>1.727</v>
@@ -7321,16 +7315,16 @@
         <v>6865333</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45241.69791666666</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7339,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>2.75</v>
@@ -7407,16 +7401,16 @@
         <v>6865330</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45242.375</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7425,7 +7419,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.3</v>
@@ -7493,16 +7487,16 @@
         <v>6864636</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45242.46875</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7511,7 +7505,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7579,16 +7573,16 @@
         <v>6865331</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45243.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7597,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7665,16 +7659,16 @@
         <v>7328799</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45252.58333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7683,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>1.222</v>
@@ -7751,16 +7745,16 @@
         <v>7505498</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>6</v>
@@ -7769,7 +7763,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>1.2</v>
@@ -7837,16 +7831,16 @@
         <v>7505496</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45255.375</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7855,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J86">
         <v>4.5</v>
@@ -7920,85 +7914,85 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="K87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M87">
+        <v>1.5</v>
+      </c>
+      <c r="N87">
+        <v>4.2</v>
+      </c>
+      <c r="O87">
+        <v>5.25</v>
+      </c>
+      <c r="P87">
+        <v>-1</v>
+      </c>
+      <c r="Q87">
         <v>1.8</v>
       </c>
-      <c r="N87">
-        <v>3.2</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>-0.5</v>
-      </c>
-      <c r="Q87">
-        <v>1.825</v>
-      </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8006,85 +8000,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
         <v>44</v>
       </c>
       <c r="J88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="K88">
+        <v>3.4</v>
+      </c>
+      <c r="L88">
+        <v>4.75</v>
+      </c>
+      <c r="M88">
+        <v>1.8</v>
+      </c>
+      <c r="N88">
+        <v>3.2</v>
+      </c>
+      <c r="O88">
         <v>4.2</v>
       </c>
-      <c r="L88">
-        <v>5.5</v>
-      </c>
-      <c r="M88">
-        <v>1.5</v>
-      </c>
-      <c r="N88">
-        <v>4.2</v>
-      </c>
-      <c r="O88">
-        <v>5.25</v>
-      </c>
       <c r="P88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8095,16 +8089,16 @@
         <v>7505494</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8113,7 +8107,7 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>5.5</v>
@@ -8181,16 +8175,16 @@
         <v>7505499</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45256.65625</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8199,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8267,16 +8261,16 @@
         <v>6865340</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" t="s">
         <v>30</v>
-      </c>
-      <c r="F91" t="s">
-        <v>32</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8285,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>2.3</v>
@@ -8353,16 +8347,16 @@
         <v>6865341</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45262.39583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8371,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>2.2</v>
@@ -8439,16 +8433,16 @@
         <v>7107310</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45262.5</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8457,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>9.5</v>
@@ -8525,16 +8519,16 @@
         <v>6865342</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45263.375</v>
       </c>
       <c r="E94" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" t="s">
         <v>33</v>
-      </c>
-      <c r="F94" t="s">
-        <v>35</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8543,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>1.571</v>
@@ -8611,16 +8605,16 @@
         <v>6865339</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45263.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8629,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J95">
         <v>2.4</v>
@@ -8697,16 +8691,16 @@
         <v>6865379</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45264.375</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8715,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J96">
         <v>8.5</v>
@@ -8783,16 +8777,16 @@
         <v>7462473</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45266.375</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8801,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>2.75</v>
@@ -8869,16 +8863,16 @@
         <v>6865345</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8887,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>2.625</v>
@@ -8952,85 +8946,85 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45269.375</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="K99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.2</v>
+      </c>
+      <c r="N99">
+        <v>2.8</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
+        <v>-0.25</v>
+      </c>
+      <c r="Q99">
+        <v>1.95</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>1.75</v>
+      </c>
+      <c r="T99">
+        <v>1.875</v>
+      </c>
+      <c r="U99">
+        <v>1.925</v>
+      </c>
+      <c r="V99">
         <v>1.2</v>
       </c>
-      <c r="M99">
-        <v>10</v>
-      </c>
-      <c r="N99">
-        <v>6.5</v>
-      </c>
-      <c r="O99">
-        <v>1.181</v>
-      </c>
-      <c r="P99">
-        <v>2</v>
-      </c>
-      <c r="Q99">
-        <v>1.825</v>
-      </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>3</v>
-      </c>
-      <c r="T99">
-        <v>1.9</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>-1</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9038,85 +9032,85 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="K100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="M100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="N100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="P100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9127,16 +9121,16 @@
         <v>6865346</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45269.5</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9145,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>1.3</v>
@@ -9213,16 +9207,16 @@
         <v>6865344</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45270.375</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9231,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>2.3</v>
@@ -9299,17 +9293,17 @@
         <v>6865347</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45270.46875</v>
       </c>
       <c r="E103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" t="s">
         <v>37</v>
       </c>
-      <c r="F103" t="s">
-        <v>39</v>
-      </c>
       <c r="G103">
         <v>0</v>
       </c>
@@ -9317,7 +9311,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J103">
         <v>5.5</v>
@@ -9385,16 +9379,16 @@
         <v>6864640</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9403,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>4</v>
@@ -9471,16 +9465,16 @@
         <v>6865380</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45276.375</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9489,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9557,16 +9551,16 @@
         <v>6865350</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45276.5</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9575,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9643,16 +9637,16 @@
         <v>6865348</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45277.375</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9661,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>2.625</v>
@@ -9729,16 +9723,16 @@
         <v>6865351</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9747,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>1.4</v>
@@ -9815,16 +9809,16 @@
         <v>6865349</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45278.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9833,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>1.727</v>
@@ -9901,16 +9895,16 @@
         <v>6865353</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9919,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J110">
         <v>3.25</v>
@@ -9987,16 +9981,16 @@
         <v>6865354</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10005,7 +9999,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>1.8</v>
@@ -10073,16 +10067,16 @@
         <v>6865352</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45339.375</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10091,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>1.615</v>
@@ -10159,16 +10153,16 @@
         <v>6865355</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45339.5</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10177,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>4.75</v>
@@ -10245,16 +10239,16 @@
         <v>6865356</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45340.375</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10263,7 +10257,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>1.444</v>
@@ -10331,16 +10325,16 @@
         <v>6864641</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E115" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" t="s">
         <v>38</v>
-      </c>
-      <c r="F115" t="s">
-        <v>40</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10349,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>1.25</v>
@@ -10417,16 +10411,16 @@
         <v>6865361</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10435,7 +10429,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>2.25</v>
@@ -10503,16 +10497,16 @@
         <v>6865358</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45346.375</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10521,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>4.333</v>
@@ -10589,16 +10583,16 @@
         <v>6864642</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45346.5</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10607,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J118">
         <v>3.2</v>
@@ -10675,16 +10669,16 @@
         <v>6865357</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45347.375</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10693,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10761,16 +10755,16 @@
         <v>6865360</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>5</v>
@@ -10779,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>1.166</v>
@@ -10847,16 +10841,16 @@
         <v>6865359</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45348.375</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10865,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J121">
         <v>1.833</v>
@@ -10930,85 +10924,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>42</v>
+      </c>
+      <c r="J122">
+        <v>1.666</v>
+      </c>
+      <c r="K122">
+        <v>3.6</v>
+      </c>
+      <c r="L122">
+        <v>4.333</v>
+      </c>
+      <c r="M122">
+        <v>1.5</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122">
+        <v>5.25</v>
+      </c>
+      <c r="P122">
+        <v>-1</v>
+      </c>
+      <c r="Q122">
+        <v>1.925</v>
+      </c>
+      <c r="R122">
+        <v>1.875</v>
+      </c>
+      <c r="S122">
+        <v>2.5</v>
+      </c>
+      <c r="T122">
+        <v>1.8</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>0.5</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>0.925</v>
+      </c>
+      <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
         <v>1</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122" t="s">
-        <v>44</v>
-      </c>
-      <c r="J122">
-        <v>2</v>
-      </c>
-      <c r="K122">
-        <v>3.3</v>
-      </c>
-      <c r="L122">
-        <v>3.25</v>
-      </c>
-      <c r="M122">
-        <v>2.3</v>
-      </c>
-      <c r="N122">
-        <v>3.2</v>
-      </c>
-      <c r="O122">
-        <v>2.75</v>
-      </c>
-      <c r="P122">
-        <v>-0.25</v>
-      </c>
-      <c r="Q122">
-        <v>2.05</v>
-      </c>
-      <c r="R122">
-        <v>1.75</v>
-      </c>
-      <c r="S122">
-        <v>2</v>
-      </c>
-      <c r="T122">
-        <v>1.9</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
-      <c r="V122">
-        <v>1.3</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>1.05</v>
-      </c>
-      <c r="Z122">
-        <v>-1</v>
-      </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11016,67 +11010,67 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J123">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O123">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11085,7 +11079,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11094,7 +11088,7 @@
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11105,16 +11099,16 @@
         <v>6865382</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45353.5</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11123,7 +11117,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>5.75</v>
@@ -11191,16 +11185,16 @@
         <v>6865362</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11209,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J125">
         <v>3.4</v>
@@ -11277,16 +11271,16 @@
         <v>6865364</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45354.61458333334</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11295,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>3.25</v>
@@ -11363,16 +11357,16 @@
         <v>6864643</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45355.57291666666</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11381,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>1.181</v>
@@ -11449,16 +11443,16 @@
         <v>6865367</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45360.375</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11467,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11535,16 +11529,16 @@
         <v>6865368</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45360.5</v>
       </c>
       <c r="E129" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" t="s">
         <v>31</v>
-      </c>
-      <c r="F129" t="s">
-        <v>33</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11553,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>3.2</v>
@@ -11621,16 +11615,16 @@
         <v>6865366</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45360.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11639,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J130">
         <v>1.166</v>
@@ -11707,16 +11701,16 @@
         <v>6865365</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45361.41666666666</v>
       </c>
       <c r="E131" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131" t="s">
         <v>34</v>
-      </c>
-      <c r="F131" t="s">
-        <v>36</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11725,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J131">
         <v>2.5</v>
@@ -11793,16 +11787,16 @@
         <v>6864644</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45361.625</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11811,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>1.8</v>
@@ -11879,16 +11873,16 @@
         <v>6865369</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45362.58333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11897,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>1.55</v>
@@ -11965,16 +11959,16 @@
         <v>7952732</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45367.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11983,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>1.909</v>
@@ -12051,16 +12045,16 @@
         <v>7952455</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45367.5</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12069,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J135">
         <v>1.363</v>
@@ -12137,16 +12131,16 @@
         <v>7952730</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45367.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12155,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12223,16 +12217,16 @@
         <v>7952731</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45368.41666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12241,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J137">
         <v>1.666</v>
@@ -12309,16 +12303,16 @@
         <v>7952734</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45368.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -12327,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>1.181</v>
@@ -12395,16 +12389,16 @@
         <v>7952733</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12413,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>1.3</v>
@@ -12481,16 +12475,16 @@
         <v>7952736</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45380.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12499,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>1.727</v>
@@ -12567,16 +12561,16 @@
         <v>7952738</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45380.5</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12585,7 +12579,7 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J141">
         <v>2.9</v>
@@ -12653,16 +12647,16 @@
         <v>7952735</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12671,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12739,16 +12733,16 @@
         <v>7952739</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45381.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12757,7 +12751,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>2.25</v>
@@ -12825,16 +12819,16 @@
         <v>7952456</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45381.5</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12843,7 +12837,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>2.2</v>
@@ -12911,16 +12905,16 @@
         <v>7952737</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45381.69791666666</v>
       </c>
       <c r="E145" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" t="s">
         <v>31</v>
-      </c>
-      <c r="F145" t="s">
-        <v>33</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12929,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12997,16 +12991,16 @@
         <v>7952740</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13015,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>1.533</v>
@@ -13083,16 +13077,16 @@
         <v>7952743</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45388.65625</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13101,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J147">
         <v>1.222</v>
@@ -13169,16 +13163,16 @@
         <v>7952742</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45389.375</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13187,7 +13181,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J148">
         <v>1.95</v>
@@ -13255,16 +13249,16 @@
         <v>7952741</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45389.65625</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13273,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>2.4</v>
@@ -13341,16 +13335,16 @@
         <v>7952744</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45390.4375</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13359,7 +13353,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>1.727</v>
@@ -13427,16 +13421,16 @@
         <v>7952457</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45390.54166666666</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -13445,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J151">
         <v>1.166</v>
@@ -13513,16 +13507,16 @@
         <v>7952749</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45394.4375</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13531,7 +13525,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13599,16 +13593,16 @@
         <v>7952746</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13617,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J153">
         <v>1.3</v>
@@ -13685,16 +13679,16 @@
         <v>7952745</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45395.35416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13703,7 +13697,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J154">
         <v>2.1</v>
@@ -13771,16 +13765,16 @@
         <v>7952458</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13789,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J155">
         <v>1.615</v>
@@ -13857,16 +13851,16 @@
         <v>7952748</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45396.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13875,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13943,16 +13937,16 @@
         <v>7952747</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45396.625</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13961,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14029,16 +14023,16 @@
         <v>7952751</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14047,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J158">
         <v>1.666</v>
@@ -14115,16 +14109,16 @@
         <v>7952754</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14133,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14201,16 +14195,16 @@
         <v>7952750</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45401.625</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14219,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J160">
         <v>1.25</v>
@@ -14287,16 +14281,16 @@
         <v>7952752</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G161">
         <v>4</v>
@@ -14305,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J161">
         <v>1.666</v>
@@ -14373,16 +14367,16 @@
         <v>7952459</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14391,7 +14385,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>3.5</v>
@@ -14459,16 +14453,16 @@
         <v>7866183</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14477,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14545,16 +14539,16 @@
         <v>7952753</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45402.65625</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14563,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>2.5</v>
@@ -14631,16 +14625,16 @@
         <v>7952755</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14649,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <v>2</v>
@@ -14717,16 +14711,16 @@
         <v>7952758</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45405.54166666666</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14735,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J166">
         <v>1.333</v>
@@ -14803,16 +14797,16 @@
         <v>7952757</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45405.64583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14821,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J167">
         <v>1.8</v>
@@ -14889,16 +14883,16 @@
         <v>7952756</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14907,7 +14901,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J168">
         <v>3.3</v>
@@ -14975,16 +14969,16 @@
         <v>7952759</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -14993,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J169">
         <v>1.363</v>
@@ -15061,16 +15055,16 @@
         <v>7952460</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45406.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G170">
         <v>4</v>
@@ -15079,7 +15073,7 @@
         <v>3</v>
       </c>
       <c r="I170" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J170">
         <v>1.444</v>
@@ -15147,16 +15141,16 @@
         <v>7952763</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45409.35416666666</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15165,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J171">
         <v>1.5</v>
@@ -15233,16 +15227,16 @@
         <v>7952760</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15251,7 +15245,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15319,16 +15313,16 @@
         <v>7952761</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45410.33333333334</v>
       </c>
       <c r="E173" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15337,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J173">
         <v>5.5</v>
@@ -15405,16 +15399,16 @@
         <v>7952461</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45410.5</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15423,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J174">
         <v>3.5</v>
@@ -15491,16 +15485,16 @@
         <v>7952764</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45410.65625</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15509,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J175">
         <v>1.533</v>
@@ -15577,16 +15571,16 @@
         <v>7952762</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45411.47916666666</v>
       </c>
       <c r="E176" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15595,7 +15589,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J176">
         <v>1.615</v>
@@ -15655,134 +15649,520 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:28">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
-        <v>27</v>
+      <c r="B177">
+        <v>7952767</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
-        <v>45416.45833333334</v>
+        <v>45415.54166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>42</v>
       </c>
       <c r="J177">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="K177">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L177">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
+        <v>1.3</v>
+      </c>
+      <c r="N177">
         <v>4.333</v>
       </c>
-      <c r="N177">
-        <v>3.5</v>
-      </c>
       <c r="O177">
-        <v>1.666</v>
+        <v>8</v>
       </c>
       <c r="P177">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q177">
+        <v>1.95</v>
+      </c>
+      <c r="R177">
         <v>1.85</v>
       </c>
-      <c r="R177">
+      <c r="S177">
+        <v>2.75</v>
+      </c>
+      <c r="T177">
+        <v>1.85</v>
+      </c>
+      <c r="U177">
         <v>1.95</v>
       </c>
-      <c r="S177">
-        <v>2.5</v>
-      </c>
-      <c r="T177">
-        <v>1.975</v>
-      </c>
-      <c r="U177">
-        <v>1.825</v>
-      </c>
       <c r="V177">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>0.95</v>
+      </c>
+      <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178">
+        <v>7952769</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45415.54166666666</v>
+      </c>
+      <c r="E178" t="s">
         <v>28</v>
-      </c>
-      <c r="C178" t="s">
-        <v>29</v>
-      </c>
-      <c r="D178" s="2">
-        <v>45416.65625</v>
-      </c>
-      <c r="E178" t="s">
-        <v>38</v>
       </c>
       <c r="F178" t="s">
         <v>31</v>
       </c>
+      <c r="G178">
+        <v>2</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>42</v>
+      </c>
       <c r="J178">
+        <v>1.666</v>
+      </c>
+      <c r="K178">
+        <v>3.25</v>
+      </c>
+      <c r="L178">
+        <v>4.75</v>
+      </c>
+      <c r="M178">
+        <v>1.333</v>
+      </c>
+      <c r="N178">
+        <v>4.2</v>
+      </c>
+      <c r="O178">
+        <v>8</v>
+      </c>
+      <c r="P178">
+        <v>-1.25</v>
+      </c>
+      <c r="Q178">
+        <v>1.85</v>
+      </c>
+      <c r="R178">
+        <v>1.95</v>
+      </c>
+      <c r="S178">
+        <v>2.25</v>
+      </c>
+      <c r="T178">
+        <v>1.9</v>
+      </c>
+      <c r="U178">
+        <v>1.9</v>
+      </c>
+      <c r="V178">
+        <v>0.333</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
+        <v>-0.5</v>
+      </c>
+      <c r="AB178">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>7952462</v>
+      </c>
+      <c r="C179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45415.64583333334</v>
+      </c>
+      <c r="E179" t="s">
+        <v>37</v>
+      </c>
+      <c r="F179" t="s">
+        <v>35</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>42</v>
+      </c>
+      <c r="J179">
+        <v>1.25</v>
+      </c>
+      <c r="K179">
+        <v>5.75</v>
+      </c>
+      <c r="L179">
+        <v>7</v>
+      </c>
+      <c r="M179">
+        <v>1.181</v>
+      </c>
+      <c r="N179">
+        <v>5.75</v>
+      </c>
+      <c r="O179">
+        <v>13</v>
+      </c>
+      <c r="P179">
+        <v>-1.75</v>
+      </c>
+      <c r="Q179">
+        <v>1.775</v>
+      </c>
+      <c r="R179">
+        <v>2.025</v>
+      </c>
+      <c r="S179">
+        <v>2.75</v>
+      </c>
+      <c r="T179">
+        <v>1.775</v>
+      </c>
+      <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
+        <v>0.181</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.3875</v>
+      </c>
+      <c r="AB179">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>7952766</v>
+      </c>
+      <c r="C180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45416.35416666666</v>
+      </c>
+      <c r="E180" t="s">
+        <v>32</v>
+      </c>
+      <c r="F180" t="s">
+        <v>33</v>
+      </c>
+      <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180" t="s">
+        <v>44</v>
+      </c>
+      <c r="J180">
+        <v>2.625</v>
+      </c>
+      <c r="K180">
+        <v>3.5</v>
+      </c>
+      <c r="L180">
+        <v>2.25</v>
+      </c>
+      <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180">
+        <v>3.5</v>
+      </c>
+      <c r="O180">
+        <v>2.05</v>
+      </c>
+      <c r="P180">
+        <v>0.25</v>
+      </c>
+      <c r="Q180">
+        <v>1.975</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>2.75</v>
+      </c>
+      <c r="T180">
+        <v>1.95</v>
+      </c>
+      <c r="U180">
+        <v>1.85</v>
+      </c>
+      <c r="V180">
+        <v>-1</v>
+      </c>
+      <c r="W180">
+        <v>2.5</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>0.4875</v>
+      </c>
+      <c r="Z180">
+        <v>-0.5</v>
+      </c>
+      <c r="AA180">
+        <v>0.95</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>7952765</v>
+      </c>
+      <c r="C181" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E181" t="s">
+        <v>39</v>
+      </c>
+      <c r="F181" t="s">
+        <v>30</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181" t="s">
+        <v>43</v>
+      </c>
+      <c r="J181">
+        <v>3.4</v>
+      </c>
+      <c r="K181">
+        <v>3.1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>4.5</v>
+      </c>
+      <c r="N181">
+        <v>3.4</v>
+      </c>
+      <c r="O181">
+        <v>1.666</v>
+      </c>
+      <c r="P181">
+        <v>0.75</v>
+      </c>
+      <c r="Q181">
+        <v>1.875</v>
+      </c>
+      <c r="R181">
+        <v>1.925</v>
+      </c>
+      <c r="S181">
+        <v>2.5</v>
+      </c>
+      <c r="T181">
+        <v>1.975</v>
+      </c>
+      <c r="U181">
+        <v>1.825</v>
+      </c>
+      <c r="V181">
+        <v>-1</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Y181">
+        <v>-0.5</v>
+      </c>
+      <c r="Z181">
+        <v>0.4625</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>7952768</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45416.65625</v>
+      </c>
+      <c r="E182" t="s">
+        <v>36</v>
+      </c>
+      <c r="F182" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182" t="s">
+        <v>42</v>
+      </c>
+      <c r="J182">
         <v>1.166</v>
       </c>
-      <c r="K178">
+      <c r="K182">
         <v>6</v>
       </c>
-      <c r="L178">
+      <c r="L182">
         <v>11</v>
       </c>
-      <c r="M178">
-        <v>1.166</v>
-      </c>
-      <c r="N178">
-        <v>6</v>
-      </c>
-      <c r="O178">
-        <v>13</v>
-      </c>
-      <c r="P178">
-        <v>-1.75</v>
-      </c>
-      <c r="Q178">
-        <v>1.75</v>
-      </c>
-      <c r="R178">
-        <v>2.05</v>
-      </c>
-      <c r="S178">
-        <v>2.75</v>
-      </c>
-      <c r="T178">
-        <v>1.775</v>
-      </c>
-      <c r="U178">
-        <v>2.025</v>
-      </c>
-      <c r="V178">
-        <v>0</v>
-      </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-      <c r="X178">
-        <v>0</v>
+      <c r="M182">
+        <v>1.071</v>
+      </c>
+      <c r="N182">
+        <v>11</v>
+      </c>
+      <c r="O182">
+        <v>21</v>
+      </c>
+      <c r="P182">
+        <v>-2.5</v>
+      </c>
+      <c r="Q182">
+        <v>1.8</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
+        <v>3.5</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
+        <v>1.8</v>
+      </c>
+      <c r="V182">
+        <v>0.07099999999999995</v>
+      </c>
+      <c r="W182">
+        <v>-1</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
+        <v>1</v>
+      </c>
+      <c r="AA182">
+        <v>1</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1215,13 +1215,13 @@
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1230,19 +1230,19 @@
         <v>42</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>3.4</v>
@@ -1251,10 +1251,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -1266,7 +1266,7 @@
         <v>1.95</v>
       </c>
       <c r="V9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1275,7 +1275,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1301,13 +1301,13 @@
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L10">
+        <v>3.2</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
         <v>3.5</v>
-      </c>
-      <c r="M10">
-        <v>1.75</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
       </c>
       <c r="O10">
         <v>3.4</v>
@@ -1337,10 +1337,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
         <v>2.5</v>
@@ -1352,7 +1352,7 @@
         <v>1.95</v>
       </c>
       <c r="V10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1361,7 +1361,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -3528,7 +3528,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3537,58 +3537,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>42</v>
       </c>
       <c r="J36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="K36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="N36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P36">
         <v>-1.25</v>
       </c>
       <c r="Q36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3600,13 +3600,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AA36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3614,7 +3614,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3623,58 +3623,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
         <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>42</v>
       </c>
       <c r="J37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="K37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="N37">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O37">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="P37">
         <v>-1.25</v>
       </c>
       <c r="Q37">
+        <v>1.9</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>2.75</v>
+      </c>
+      <c r="T37">
+        <v>1.85</v>
+      </c>
+      <c r="U37">
         <v>1.95</v>
       </c>
-      <c r="R37">
-        <v>1.85</v>
-      </c>
-      <c r="S37">
-        <v>2.5</v>
-      </c>
-      <c r="T37">
-        <v>1.925</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
       <c r="V37">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3686,13 +3686,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z37">
+        <v>0.45</v>
+      </c>
+      <c r="AA37">
         <v>0.425</v>
       </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4646,7 +4646,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4655,76 +4655,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="K49">
         <v>3.6</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4732,7 +4732,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4741,76 +4741,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K50">
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6977,76 +6977,76 @@
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7054,7 +7054,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7063,76 +7063,76 @@
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -10924,7 +10924,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10933,13 +10933,13 @@
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -10948,43 +10948,43 @@
         <v>42</v>
       </c>
       <c r="J122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -10993,7 +10993,7 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11002,7 +11002,7 @@
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11010,7 +11010,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11019,13 +11019,13 @@
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11034,43 +11034,43 @@
         <v>42</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O123">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="P123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R123">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11079,7 +11079,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11088,7 +11088,7 @@
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -15654,7 +15654,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7952767</v>
+        <v>7952769</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15663,10 +15663,10 @@
         <v>45415.54166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15678,43 +15678,43 @@
         <v>42</v>
       </c>
       <c r="J177">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K177">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M177">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="N177">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O177">
         <v>8</v>
       </c>
       <c r="P177">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q177">
+        <v>1.85</v>
+      </c>
+      <c r="R177">
         <v>1.95</v>
       </c>
-      <c r="R177">
-        <v>1.85</v>
-      </c>
       <c r="S177">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -15723,16 +15723,16 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15740,7 +15740,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7952769</v>
+        <v>7952767</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15749,10 +15749,10 @@
         <v>45415.54166666666</v>
       </c>
       <c r="E178" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15764,43 +15764,43 @@
         <v>42</v>
       </c>
       <c r="J178">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K178">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L178">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N178">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O178">
         <v>8</v>
       </c>
       <c r="P178">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q178">
+        <v>1.95</v>
+      </c>
+      <c r="R178">
         <v>1.85</v>
       </c>
-      <c r="R178">
+      <c r="S178">
+        <v>2.75</v>
+      </c>
+      <c r="T178">
+        <v>1.85</v>
+      </c>
+      <c r="U178">
         <v>1.95</v>
       </c>
-      <c r="S178">
-        <v>2.25</v>
-      </c>
-      <c r="T178">
-        <v>1.9</v>
-      </c>
-      <c r="U178">
-        <v>1.9</v>
-      </c>
       <c r="V178">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -15809,16 +15809,16 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:28">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1215,13 +1215,13 @@
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1230,19 +1230,19 @@
         <v>42</v>
       </c>
       <c r="J9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
+        <v>3.2</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
         <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>1.75</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
       </c>
       <c r="O9">
         <v>3.4</v>
@@ -1251,10 +1251,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -1266,7 +1266,7 @@
         <v>1.95</v>
       </c>
       <c r="V9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1275,7 +1275,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1301,13 +1301,13 @@
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O10">
         <v>3.4</v>
@@ -1337,10 +1337,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>2.5</v>
@@ -1352,7 +1352,7 @@
         <v>1.95</v>
       </c>
       <c r="V10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1361,7 +1361,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -2926,7 +2926,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2935,58 +2935,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
         <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>
       </c>
       <c r="J29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
+        <v>1.615</v>
+      </c>
+      <c r="N29">
+        <v>3.5</v>
+      </c>
+      <c r="O29">
+        <v>4.5</v>
+      </c>
+      <c r="P29">
+        <v>-0.75</v>
+      </c>
+      <c r="Q29">
+        <v>1.85</v>
+      </c>
+      <c r="R29">
         <v>1.95</v>
       </c>
-      <c r="N29">
-        <v>3.2</v>
-      </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>-0.5</v>
-      </c>
-      <c r="Q29">
-        <v>2.025</v>
-      </c>
-      <c r="R29">
-        <v>1.775</v>
-      </c>
       <c r="S29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2995,16 +2995,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3012,7 +3012,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3021,58 +3021,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>42</v>
       </c>
       <c r="J30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K30">
+        <v>3.2</v>
+      </c>
+      <c r="L30">
+        <v>3.6</v>
+      </c>
+      <c r="M30">
+        <v>1.95</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="L30">
-        <v>3.8</v>
-      </c>
-      <c r="M30">
-        <v>1.615</v>
-      </c>
-      <c r="N30">
-        <v>3.5</v>
-      </c>
-      <c r="O30">
-        <v>4.5</v>
-      </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3081,16 +3081,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -4646,7 +4646,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4655,76 +4655,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K49">
         <v>3.6</v>
       </c>
       <c r="L49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N49">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O49">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4732,7 +4732,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4741,76 +4741,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="K50">
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6977,76 +6977,76 @@
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7054,7 +7054,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7063,76 +7063,76 @@
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -9978,7 +9978,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6865354</v>
+        <v>6865352</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -9987,76 +9987,76 @@
         <v>45339.375</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J111">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="K111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M111">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O111">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="P111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
         <v>2.25</v>
       </c>
       <c r="T111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10064,7 +10064,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6865352</v>
+        <v>6865354</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10073,76 +10073,76 @@
         <v>45339.375</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J112">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="K112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N112">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O112">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
         <v>2.25</v>
       </c>
       <c r="T112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB112">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10924,7 +10924,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10933,13 +10933,13 @@
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -10948,43 +10948,43 @@
         <v>42</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M122">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N122">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q122">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -10993,7 +10993,7 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11002,7 +11002,7 @@
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11010,7 +11010,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11019,13 +11019,13 @@
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11034,43 +11034,43 @@
         <v>42</v>
       </c>
       <c r="J123">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O123">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P123">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11079,7 +11079,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11088,7 +11088,7 @@
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -15654,7 +15654,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7952769</v>
+        <v>7952767</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15663,10 +15663,10 @@
         <v>45415.54166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15678,43 +15678,43 @@
         <v>42</v>
       </c>
       <c r="J177">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K177">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L177">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N177">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O177">
         <v>8</v>
       </c>
       <c r="P177">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q177">
+        <v>1.95</v>
+      </c>
+      <c r="R177">
         <v>1.85</v>
       </c>
-      <c r="R177">
+      <c r="S177">
+        <v>2.75</v>
+      </c>
+      <c r="T177">
+        <v>1.85</v>
+      </c>
+      <c r="U177">
         <v>1.95</v>
       </c>
-      <c r="S177">
-        <v>2.25</v>
-      </c>
-      <c r="T177">
-        <v>1.9</v>
-      </c>
-      <c r="U177">
-        <v>1.9</v>
-      </c>
       <c r="V177">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -15723,16 +15723,16 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15740,7 +15740,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7952767</v>
+        <v>7952769</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15749,10 +15749,10 @@
         <v>45415.54166666666</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15764,43 +15764,43 @@
         <v>42</v>
       </c>
       <c r="J178">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K178">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M178">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="N178">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O178">
         <v>8</v>
       </c>
       <c r="P178">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q178">
+        <v>1.85</v>
+      </c>
+      <c r="R178">
         <v>1.95</v>
       </c>
-      <c r="R178">
-        <v>1.85</v>
-      </c>
       <c r="S178">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -15809,16 +15809,16 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="179" spans="1:28">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4646,7 +4646,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4655,76 +4655,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="K49">
         <v>3.6</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4732,7 +4732,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4741,76 +4741,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K50">
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -8946,7 +8946,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8955,76 +8955,76 @@
         <v>45269.375</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J99">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="K99">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="M99">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="N99">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="P99">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="T99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y99">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9032,7 +9032,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9041,76 +9041,76 @@
         <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J100">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="K100">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.2</v>
+      </c>
+      <c r="N100">
+        <v>2.8</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
+        <v>-0.25</v>
+      </c>
+      <c r="Q100">
+        <v>1.95</v>
+      </c>
+      <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>1.75</v>
+      </c>
+      <c r="T100">
+        <v>1.875</v>
+      </c>
+      <c r="U100">
+        <v>1.925</v>
+      </c>
+      <c r="V100">
         <v>1.2</v>
       </c>
-      <c r="M100">
-        <v>10</v>
-      </c>
-      <c r="N100">
-        <v>6.5</v>
-      </c>
-      <c r="O100">
-        <v>1.181</v>
-      </c>
-      <c r="P100">
-        <v>2</v>
-      </c>
-      <c r="Q100">
-        <v>1.825</v>
-      </c>
-      <c r="R100">
-        <v>1.975</v>
-      </c>
-      <c r="S100">
-        <v>3</v>
-      </c>
-      <c r="T100">
-        <v>1.9</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>-1</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -16162,6 +16162,522 @@
         <v>1</v>
       </c>
       <c r="AB182">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>7952770</v>
+      </c>
+      <c r="C183" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45422.625</v>
+      </c>
+      <c r="E183" t="s">
+        <v>30</v>
+      </c>
+      <c r="F183" t="s">
+        <v>32</v>
+      </c>
+      <c r="G183">
+        <v>2</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183" t="s">
+        <v>42</v>
+      </c>
+      <c r="J183">
+        <v>1.125</v>
+      </c>
+      <c r="K183">
+        <v>8</v>
+      </c>
+      <c r="L183">
+        <v>16</v>
+      </c>
+      <c r="M183">
+        <v>1.142</v>
+      </c>
+      <c r="N183">
+        <v>9.5</v>
+      </c>
+      <c r="O183">
+        <v>11</v>
+      </c>
+      <c r="P183">
+        <v>-2.5</v>
+      </c>
+      <c r="Q183">
+        <v>1.925</v>
+      </c>
+      <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.825</v>
+      </c>
+      <c r="U183">
+        <v>1.975</v>
+      </c>
+      <c r="V183">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.875</v>
+      </c>
+      <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>7952772</v>
+      </c>
+      <c r="C184" t="s">
+        <v>27</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="E184" t="s">
+        <v>35</v>
+      </c>
+      <c r="F184" t="s">
+        <v>28</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184" t="s">
+        <v>43</v>
+      </c>
+      <c r="J184">
+        <v>3</v>
+      </c>
+      <c r="K184">
+        <v>3.25</v>
+      </c>
+      <c r="L184">
+        <v>2.1</v>
+      </c>
+      <c r="M184">
+        <v>2.9</v>
+      </c>
+      <c r="N184">
+        <v>3.25</v>
+      </c>
+      <c r="O184">
+        <v>2.15</v>
+      </c>
+      <c r="P184">
+        <v>0.25</v>
+      </c>
+      <c r="Q184">
+        <v>1.825</v>
+      </c>
+      <c r="R184">
+        <v>1.975</v>
+      </c>
+      <c r="S184">
+        <v>2.25</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
+        <v>1.8</v>
+      </c>
+      <c r="V184">
+        <v>-1</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>1.15</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA184">
+        <v>-1</v>
+      </c>
+      <c r="AB184">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>7952771</v>
+      </c>
+      <c r="C185" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45424.4375</v>
+      </c>
+      <c r="E185" t="s">
+        <v>33</v>
+      </c>
+      <c r="F185" t="s">
+        <v>34</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>44</v>
+      </c>
+      <c r="J185">
+        <v>2.6</v>
+      </c>
+      <c r="K185">
+        <v>3.1</v>
+      </c>
+      <c r="L185">
+        <v>2.45</v>
+      </c>
+      <c r="M185">
+        <v>1.727</v>
+      </c>
+      <c r="N185">
+        <v>3.6</v>
+      </c>
+      <c r="O185">
+        <v>4</v>
+      </c>
+      <c r="P185">
+        <v>-0.75</v>
+      </c>
+      <c r="Q185">
+        <v>1.975</v>
+      </c>
+      <c r="R185">
+        <v>1.825</v>
+      </c>
+      <c r="S185">
+        <v>2.5</v>
+      </c>
+      <c r="T185">
+        <v>1.975</v>
+      </c>
+      <c r="U185">
+        <v>1.825</v>
+      </c>
+      <c r="V185">
+        <v>-1</v>
+      </c>
+      <c r="W185">
+        <v>2.6</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
+        <v>0.825</v>
+      </c>
+      <c r="AA185">
+        <v>-1</v>
+      </c>
+      <c r="AB185">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>7952773</v>
+      </c>
+      <c r="C186" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45424.60416666666</v>
+      </c>
+      <c r="E186" t="s">
+        <v>31</v>
+      </c>
+      <c r="F186" t="s">
+        <v>39</v>
+      </c>
+      <c r="G186">
+        <v>2</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186" t="s">
+        <v>42</v>
+      </c>
+      <c r="J186">
+        <v>1.666</v>
+      </c>
+      <c r="K186">
+        <v>3.25</v>
+      </c>
+      <c r="L186">
+        <v>4.75</v>
+      </c>
+      <c r="M186">
+        <v>1.363</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186">
+        <v>7</v>
+      </c>
+      <c r="P186">
+        <v>-1.25</v>
+      </c>
+      <c r="Q186">
+        <v>1.95</v>
+      </c>
+      <c r="R186">
+        <v>1.85</v>
+      </c>
+      <c r="S186">
+        <v>2.25</v>
+      </c>
+      <c r="T186">
+        <v>1.825</v>
+      </c>
+      <c r="U186">
+        <v>1.975</v>
+      </c>
+      <c r="V186">
+        <v>0.363</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
+        <v>-0.5</v>
+      </c>
+      <c r="Z186">
+        <v>0.425</v>
+      </c>
+      <c r="AA186">
+        <v>0.825</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7952774</v>
+      </c>
+      <c r="C187" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45425.5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>38</v>
+      </c>
+      <c r="F187" t="s">
+        <v>36</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>6</v>
+      </c>
+      <c r="I187" t="s">
+        <v>43</v>
+      </c>
+      <c r="J187">
+        <v>5</v>
+      </c>
+      <c r="K187">
+        <v>4</v>
+      </c>
+      <c r="L187">
+        <v>1.5</v>
+      </c>
+      <c r="M187">
+        <v>13</v>
+      </c>
+      <c r="N187">
+        <v>5.75</v>
+      </c>
+      <c r="O187">
+        <v>1.166</v>
+      </c>
+      <c r="P187">
+        <v>2</v>
+      </c>
+      <c r="Q187">
+        <v>1.8</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>3.25</v>
+      </c>
+      <c r="T187">
+        <v>2.025</v>
+      </c>
+      <c r="U187">
+        <v>1.775</v>
+      </c>
+      <c r="V187">
+        <v>-1</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>1</v>
+      </c>
+      <c r="AA187">
+        <v>1.025</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7952775</v>
+      </c>
+      <c r="C188" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45425.66666666666</v>
+      </c>
+      <c r="E188" t="s">
+        <v>29</v>
+      </c>
+      <c r="F188" t="s">
+        <v>37</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>4</v>
+      </c>
+      <c r="I188" t="s">
+        <v>43</v>
+      </c>
+      <c r="J188">
+        <v>6.5</v>
+      </c>
+      <c r="K188">
+        <v>4.333</v>
+      </c>
+      <c r="L188">
+        <v>1.363</v>
+      </c>
+      <c r="M188">
+        <v>5.75</v>
+      </c>
+      <c r="N188">
+        <v>4.75</v>
+      </c>
+      <c r="O188">
+        <v>1.38</v>
+      </c>
+      <c r="P188">
+        <v>1.25</v>
+      </c>
+      <c r="Q188">
+        <v>1.925</v>
+      </c>
+      <c r="R188">
+        <v>1.875</v>
+      </c>
+      <c r="S188">
+        <v>2.75</v>
+      </c>
+      <c r="T188">
+        <v>1.975</v>
+      </c>
+      <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
+        <v>-1</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.875</v>
+      </c>
+      <c r="AA188">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB188">
         <v>-1</v>
       </c>
     </row>

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -2926,7 +2926,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2935,58 +2935,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>
       </c>
       <c r="J29">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K29">
+        <v>3.2</v>
+      </c>
+      <c r="L29">
+        <v>3.6</v>
+      </c>
+      <c r="M29">
+        <v>1.95</v>
+      </c>
+      <c r="N29">
+        <v>3.2</v>
+      </c>
+      <c r="O29">
         <v>3.4</v>
       </c>
-      <c r="L29">
-        <v>3.8</v>
-      </c>
-      <c r="M29">
-        <v>1.615</v>
-      </c>
-      <c r="N29">
-        <v>3.5</v>
-      </c>
-      <c r="O29">
-        <v>4.5</v>
-      </c>
       <c r="P29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q29">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2995,16 +2995,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3012,7 +3012,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3021,58 +3021,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
         <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>42</v>
       </c>
       <c r="J30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
+        <v>1.615</v>
+      </c>
+      <c r="N30">
+        <v>3.5</v>
+      </c>
+      <c r="O30">
+        <v>4.5</v>
+      </c>
+      <c r="P30">
+        <v>-0.75</v>
+      </c>
+      <c r="Q30">
+        <v>1.85</v>
+      </c>
+      <c r="R30">
         <v>1.95</v>
       </c>
-      <c r="N30">
-        <v>3.2</v>
-      </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>-0.5</v>
-      </c>
-      <c r="Q30">
-        <v>2.025</v>
-      </c>
-      <c r="R30">
-        <v>1.775</v>
-      </c>
       <c r="S30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3081,16 +3081,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3528,7 +3528,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3537,58 +3537,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
         <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>42</v>
       </c>
       <c r="J36">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="K36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="N36">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O36">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="P36">
         <v>-1.25</v>
       </c>
       <c r="Q36">
+        <v>1.9</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>2.75</v>
+      </c>
+      <c r="T36">
+        <v>1.85</v>
+      </c>
+      <c r="U36">
         <v>1.95</v>
       </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
-      <c r="S36">
-        <v>2.5</v>
-      </c>
-      <c r="T36">
-        <v>1.925</v>
-      </c>
-      <c r="U36">
-        <v>1.875</v>
-      </c>
       <c r="V36">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3600,13 +3600,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z36">
+        <v>0.45</v>
+      </c>
+      <c r="AA36">
         <v>0.425</v>
       </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3614,7 +3614,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3623,58 +3623,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>42</v>
       </c>
       <c r="J37">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="K37">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M37">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="N37">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O37">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P37">
         <v>-1.25</v>
       </c>
       <c r="Q37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3686,13 +3686,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z37">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AA37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4646,7 +4646,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4655,76 +4655,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K49">
         <v>3.6</v>
       </c>
       <c r="L49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N49">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O49">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4732,7 +4732,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4741,76 +4741,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="K50">
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q50">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6977,76 +6977,76 @@
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J76">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7054,7 +7054,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7063,76 +7063,76 @@
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O77">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P77">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7914,7 +7914,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7923,76 +7923,76 @@
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J87">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="K87">
+        <v>3.4</v>
+      </c>
+      <c r="L87">
+        <v>4.75</v>
+      </c>
+      <c r="M87">
+        <v>1.8</v>
+      </c>
+      <c r="N87">
+        <v>3.2</v>
+      </c>
+      <c r="O87">
         <v>4.2</v>
       </c>
-      <c r="L87">
-        <v>5.5</v>
-      </c>
-      <c r="M87">
-        <v>1.5</v>
-      </c>
-      <c r="N87">
-        <v>4.2</v>
-      </c>
-      <c r="O87">
-        <v>5.25</v>
-      </c>
       <c r="P87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB87">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8000,7 +8000,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8009,76 +8009,76 @@
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J88">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="K88">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M88">
+        <v>1.5</v>
+      </c>
+      <c r="N88">
+        <v>4.2</v>
+      </c>
+      <c r="O88">
+        <v>5.25</v>
+      </c>
+      <c r="P88">
+        <v>-1</v>
+      </c>
+      <c r="Q88">
         <v>1.8</v>
       </c>
-      <c r="N88">
-        <v>3.2</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
-      <c r="P88">
-        <v>-0.5</v>
-      </c>
-      <c r="Q88">
-        <v>1.825</v>
-      </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -15654,7 +15654,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7952767</v>
+        <v>7952769</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15663,10 +15663,10 @@
         <v>45415.54166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15678,43 +15678,43 @@
         <v>42</v>
       </c>
       <c r="J177">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K177">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M177">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="N177">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O177">
         <v>8</v>
       </c>
       <c r="P177">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q177">
+        <v>1.85</v>
+      </c>
+      <c r="R177">
         <v>1.95</v>
       </c>
-      <c r="R177">
-        <v>1.85</v>
-      </c>
       <c r="S177">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -15723,16 +15723,16 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15740,7 +15740,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7952769</v>
+        <v>7952767</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15749,10 +15749,10 @@
         <v>45415.54166666666</v>
       </c>
       <c r="E178" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15764,43 +15764,43 @@
         <v>42</v>
       </c>
       <c r="J178">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K178">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L178">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N178">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O178">
         <v>8</v>
       </c>
       <c r="P178">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q178">
+        <v>1.95</v>
+      </c>
+      <c r="R178">
         <v>1.85</v>
       </c>
-      <c r="R178">
+      <c r="S178">
+        <v>2.75</v>
+      </c>
+      <c r="T178">
+        <v>1.85</v>
+      </c>
+      <c r="U178">
         <v>1.95</v>
       </c>
-      <c r="S178">
-        <v>2.25</v>
-      </c>
-      <c r="T178">
-        <v>1.9</v>
-      </c>
-      <c r="U178">
-        <v>1.9</v>
-      </c>
       <c r="V178">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -15809,16 +15809,16 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:28">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -3528,7 +3528,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3537,58 +3537,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>42</v>
       </c>
       <c r="J36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="K36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="N36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P36">
         <v>-1.25</v>
       </c>
       <c r="Q36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3600,13 +3600,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AA36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3614,7 +3614,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3623,58 +3623,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
         <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>42</v>
       </c>
       <c r="J37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="K37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="N37">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O37">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="P37">
         <v>-1.25</v>
       </c>
       <c r="Q37">
+        <v>1.9</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>2.75</v>
+      </c>
+      <c r="T37">
+        <v>1.85</v>
+      </c>
+      <c r="U37">
         <v>1.95</v>
       </c>
-      <c r="R37">
-        <v>1.85</v>
-      </c>
-      <c r="S37">
-        <v>2.5</v>
-      </c>
-      <c r="T37">
-        <v>1.925</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
       <c r="V37">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3686,13 +3686,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z37">
+        <v>0.45</v>
+      </c>
+      <c r="AA37">
         <v>0.425</v>
       </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -10924,7 +10924,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6865381</v>
+        <v>6865363</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10933,13 +10933,13 @@
         <v>45353.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -10948,43 +10948,43 @@
         <v>42</v>
       </c>
       <c r="J122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O122">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P122">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -10993,7 +10993,7 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
@@ -11002,7 +11002,7 @@
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11010,7 +11010,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6865363</v>
+        <v>6865381</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11019,13 +11019,13 @@
         <v>45353.375</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11034,43 +11034,43 @@
         <v>42</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N123">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O123">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="P123">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q123">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R123">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11079,7 +11079,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11088,7 +11088,7 @@
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:28">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1215,13 +1215,13 @@
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1230,19 +1230,19 @@
         <v>42</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>3.4</v>
@@ -1251,10 +1251,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -1266,7 +1266,7 @@
         <v>1.95</v>
       </c>
       <c r="V9">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1275,7 +1275,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1301,13 +1301,13 @@
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L10">
+        <v>3.2</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
         <v>3.5</v>
-      </c>
-      <c r="M10">
-        <v>1.75</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
       </c>
       <c r="O10">
         <v>3.4</v>
@@ -1337,10 +1337,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
         <v>2.5</v>
@@ -1352,7 +1352,7 @@
         <v>1.95</v>
       </c>
       <c r="V10">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1361,7 +1361,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -3528,7 +3528,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3537,58 +3537,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
         <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>42</v>
       </c>
       <c r="J36">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="K36">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="N36">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O36">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="P36">
         <v>-1.25</v>
       </c>
       <c r="Q36">
+        <v>1.9</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>2.75</v>
+      </c>
+      <c r="T36">
+        <v>1.85</v>
+      </c>
+      <c r="U36">
         <v>1.95</v>
       </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
-      <c r="S36">
-        <v>2.5</v>
-      </c>
-      <c r="T36">
-        <v>1.925</v>
-      </c>
-      <c r="U36">
-        <v>1.875</v>
-      </c>
       <c r="V36">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3600,13 +3600,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z36">
+        <v>0.45</v>
+      </c>
+      <c r="AA36">
         <v>0.425</v>
       </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3614,7 +3614,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3623,58 +3623,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>42</v>
       </c>
       <c r="J37">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="K37">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M37">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="N37">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O37">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P37">
         <v>-1.25</v>
       </c>
       <c r="Q37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3686,13 +3686,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z37">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AA37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4646,7 +4646,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6865311</v>
+        <v>6865310</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4655,76 +4655,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="K49">
         <v>3.6</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="P49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q49">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T49">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4732,7 +4732,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6865310</v>
+        <v>6865311</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4741,76 +4741,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K50">
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O50">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q50">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6865328</v>
+        <v>6865377</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6977,76 +6977,76 @@
         <v>45235.375</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7054,7 +7054,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6865377</v>
+        <v>6865328</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7063,76 +7063,76 @@
         <v>45235.375</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J77">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7914,7 +7914,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7505497</v>
+        <v>7505495</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7923,76 +7923,76 @@
         <v>45256.375</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J87">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="K87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M87">
+        <v>1.5</v>
+      </c>
+      <c r="N87">
+        <v>4.2</v>
+      </c>
+      <c r="O87">
+        <v>5.25</v>
+      </c>
+      <c r="P87">
+        <v>-1</v>
+      </c>
+      <c r="Q87">
         <v>1.8</v>
       </c>
-      <c r="N87">
-        <v>3.2</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>-0.5</v>
-      </c>
-      <c r="Q87">
-        <v>1.825</v>
-      </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8000,7 +8000,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7505495</v>
+        <v>7505497</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8009,76 +8009,76 @@
         <v>45256.375</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J88">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="K88">
+        <v>3.4</v>
+      </c>
+      <c r="L88">
+        <v>4.75</v>
+      </c>
+      <c r="M88">
+        <v>1.8</v>
+      </c>
+      <c r="N88">
+        <v>3.2</v>
+      </c>
+      <c r="O88">
         <v>4.2</v>
       </c>
-      <c r="L88">
-        <v>5.5</v>
-      </c>
-      <c r="M88">
-        <v>1.5</v>
-      </c>
-      <c r="N88">
-        <v>4.2</v>
-      </c>
-      <c r="O88">
-        <v>5.25</v>
-      </c>
       <c r="P88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8946,7 +8946,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6864639</v>
+        <v>6865343</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8955,76 +8955,76 @@
         <v>45269.375</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J99">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="K99">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.2</v>
+      </c>
+      <c r="N99">
+        <v>2.8</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
+        <v>-0.25</v>
+      </c>
+      <c r="Q99">
+        <v>1.95</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>1.75</v>
+      </c>
+      <c r="T99">
+        <v>1.875</v>
+      </c>
+      <c r="U99">
+        <v>1.925</v>
+      </c>
+      <c r="V99">
         <v>1.2</v>
       </c>
-      <c r="M99">
-        <v>10</v>
-      </c>
-      <c r="N99">
-        <v>6.5</v>
-      </c>
-      <c r="O99">
-        <v>1.181</v>
-      </c>
-      <c r="P99">
-        <v>2</v>
-      </c>
-      <c r="Q99">
-        <v>1.825</v>
-      </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>3</v>
-      </c>
-      <c r="T99">
-        <v>1.9</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>-1</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9032,7 +9032,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6865343</v>
+        <v>6864639</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9041,76 +9041,76 @@
         <v>45269.375</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J100">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="K100">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="M100">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="N100">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>1.181</v>
       </c>
       <c r="P100">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="T100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y100">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -15654,7 +15654,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7952769</v>
+        <v>7952767</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15663,10 +15663,10 @@
         <v>45415.54166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15678,43 +15678,43 @@
         <v>42</v>
       </c>
       <c r="J177">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K177">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L177">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N177">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O177">
         <v>8</v>
       </c>
       <c r="P177">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q177">
+        <v>1.95</v>
+      </c>
+      <c r="R177">
         <v>1.85</v>
       </c>
-      <c r="R177">
+      <c r="S177">
+        <v>2.75</v>
+      </c>
+      <c r="T177">
+        <v>1.85</v>
+      </c>
+      <c r="U177">
         <v>1.95</v>
       </c>
-      <c r="S177">
-        <v>2.25</v>
-      </c>
-      <c r="T177">
-        <v>1.9</v>
-      </c>
-      <c r="U177">
-        <v>1.9</v>
-      </c>
       <c r="V177">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -15723,16 +15723,16 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15740,7 +15740,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7952767</v>
+        <v>7952769</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15749,10 +15749,10 @@
         <v>45415.54166666666</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15764,43 +15764,43 @@
         <v>42</v>
       </c>
       <c r="J178">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K178">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M178">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="N178">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O178">
         <v>8</v>
       </c>
       <c r="P178">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q178">
+        <v>1.85</v>
+      </c>
+      <c r="R178">
         <v>1.95</v>
       </c>
-      <c r="R178">
-        <v>1.85</v>
-      </c>
       <c r="S178">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -15809,16 +15809,16 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="179" spans="1:28">

--- a/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
+++ b/Bosnia Herzegovina Premier Liga/Bosnia Herzegovina Premier Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6865281</v>
+        <v>6865285</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1215,13 +1215,13 @@
         <v>45150.5</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1230,19 +1230,19 @@
         <v>42</v>
       </c>
       <c r="J9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
+        <v>3.2</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
         <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>1.75</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
       </c>
       <c r="O9">
         <v>3.4</v>
@@ -1251,10 +1251,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -1266,7 +1266,7 @@
         <v>1.95</v>
       </c>
       <c r="V9">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1275,7 +1275,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6865285</v>
+        <v>6865281</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1301,13 +1301,13 @@
         <v>45150.5</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O10">
         <v>3.4</v>
@@ -1337,10 +1337,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>2.5</v>
@@ -1352,7 +1352,7 @@
         <v>1.95</v>
       </c>
       <c r="V10">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1361,7 +1361,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -2926,7 +2926,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6865296</v>
+        <v>6865295</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2935,58 +2935,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
         <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>
       </c>
       <c r="J29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
+        <v>1.615</v>
+      </c>
+      <c r="N29">
+        <v>3.5</v>
+      </c>
+      <c r="O29">
+        <v>4.5</v>
+      </c>
+      <c r="P29">
+        <v>-0.75</v>
+      </c>
+      <c r="Q29">
+        <v>1.85</v>
+      </c>
+      <c r="R29">
         <v>1.95</v>
       </c>
-      <c r="N29">
-        <v>3.2</v>
-      </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>-0.5</v>
-      </c>
-      <c r="Q29">
-        <v>2.025</v>
-      </c>
-      <c r="R29">
-        <v>1.775</v>
-      </c>
       <c r="S29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2995,16 +2995,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3012,7 +3012,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6865295</v>
+        <v>6865296</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3021,58 +3021,58 @@
         <v>45172.61458333334</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>42</v>
       </c>
       <c r="J30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K30">
+        <v>3.2</v>
+      </c>
+      <c r="L30">
+        <v>3.6</v>
+      </c>
+      <c r="M30">
+        <v>1.95</v>
+      </c>
+      <c r="N30">
+        <v>3.2</v>
+      </c>
+      <c r="O30">
         <v>3.4</v>
       </c>
-      <c r="L30">
-        <v>3.8</v>
-      </c>
-      <c r="M30">
-        <v>1.615</v>
-      </c>
-      <c r="N30">
-        <v>3.5</v>
-      </c>
-      <c r="O30">
-        <v>4.5</v>
-      </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3081,16 +3081,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3528,7 +3528,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6865299</v>
+        <v>6864629</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3537,58 +3537,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>42</v>
       </c>
       <c r="J36">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="K36">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M36">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="N36">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O36">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P36">
         <v>-1.25</v>
       </c>
       <c r="Q36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3600,13 +3600,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AA36">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3614,7 +3614,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6864629</v>
+        <v>6865299</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3623,58 +3623,58 @@
         <v>45186.61458333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
         <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>42</v>
       </c>
       <c r="J37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="K37">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="N37">
-        <v>4.2</v>
+      